--- a/on_trucks/Processed_Stand_Alone/21_11R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/21_11R22.xlsx
@@ -10567,19 +10567,19 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D2">
         <v>102</v>
       </c>
       <c r="E2">
-        <v>0.04610681667311491</v>
+        <v>0.04550896254114215</v>
       </c>
       <c r="F2">
         <v>0.53364245925506</v>
       </c>
       <c r="G2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H2">
         <v>21</v>
@@ -10608,19 +10608,19 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D3">
         <v>102</v>
       </c>
       <c r="E3">
-        <v>0.03086781761088148</v>
+        <v>0.03016927218527709</v>
       </c>
       <c r="F3">
         <v>0.5020351832360952</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H3">
         <v>21</v>
@@ -10649,19 +10649,19 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D4">
         <v>96</v>
       </c>
       <c r="E4">
-        <v>0.03025230814743487</v>
+        <v>0.02970608908351221</v>
       </c>
       <c r="F4">
         <v>0.5295882529467613</v>
       </c>
       <c r="G4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H4">
         <v>21</v>
@@ -10690,19 +10690,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D5">
         <v>96</v>
       </c>
       <c r="E5">
-        <v>0.01055880511951707</v>
+        <v>0.01040862661396182</v>
       </c>
       <c r="F5">
         <v>0.5157961694450591</v>
       </c>
       <c r="G5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H5">
         <v>21</v>
@@ -10731,19 +10731,19 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D6">
         <v>96</v>
       </c>
       <c r="E6">
-        <v>0.0393404803112495</v>
+        <v>0.03924871506819344</v>
       </c>
       <c r="F6">
         <v>0.5189701847073483</v>
       </c>
       <c r="G6">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H6">
         <v>21</v>
@@ -10826,19 +10826,19 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D2">
         <v>122</v>
       </c>
       <c r="E2">
-        <v>0.04610681667311491</v>
+        <v>0.04550896254114215</v>
       </c>
       <c r="F2">
         <v>0.7145646848910894</v>
       </c>
       <c r="G2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H2">
         <v>21</v>
@@ -10867,19 +10867,19 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D3">
         <v>123</v>
       </c>
       <c r="E3">
-        <v>0.03086781761088148</v>
+        <v>0.03016927218527709</v>
       </c>
       <c r="F3">
         <v>0.7095607852425869</v>
       </c>
       <c r="G3">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H3">
         <v>21</v>
@@ -10908,19 +10908,19 @@
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D4">
         <v>122</v>
       </c>
       <c r="E4">
-        <v>0.03025230814743487</v>
+        <v>0.02970608908351221</v>
       </c>
       <c r="F4">
         <v>0.7200354094764411</v>
       </c>
       <c r="G4">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H4">
         <v>21</v>
@@ -10949,19 +10949,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D5">
         <v>125</v>
       </c>
       <c r="E5">
-        <v>0.01055880511951707</v>
+        <v>0.01040862661396182</v>
       </c>
       <c r="F5">
         <v>0.7082598699809862</v>
       </c>
       <c r="G5">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H5">
         <v>21</v>
@@ -10990,19 +10990,19 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D6">
         <v>122</v>
       </c>
       <c r="E6">
-        <v>0.0393404803112495</v>
+        <v>0.03924871506819344</v>
       </c>
       <c r="F6">
         <v>0.7063560974317307</v>
       </c>
       <c r="G6">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H6">
         <v>21</v>
@@ -11085,19 +11085,19 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D2">
         <v>157</v>
       </c>
       <c r="E2">
-        <v>0.04610681667311491</v>
+        <v>0.04550896254114215</v>
       </c>
       <c r="F2">
         <v>0.8009435404757429</v>
       </c>
       <c r="G2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H2">
         <v>21</v>
@@ -11126,19 +11126,19 @@
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D3">
         <v>135</v>
       </c>
       <c r="E3">
-        <v>0.03086781761088148</v>
+        <v>0.03016927218527709</v>
       </c>
       <c r="F3">
         <v>0.8012945586156277</v>
       </c>
       <c r="G3">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H3">
         <v>21</v>
@@ -11167,19 +11167,19 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D4">
         <v>135</v>
       </c>
       <c r="E4">
-        <v>0.03025230814743487</v>
+        <v>0.02970608908351221</v>
       </c>
       <c r="F4">
         <v>0.8114304841582547</v>
       </c>
       <c r="G4">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H4">
         <v>21</v>
@@ -11208,19 +11208,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D5">
         <v>138</v>
       </c>
       <c r="E5">
-        <v>0.01055880511951707</v>
+        <v>0.01040862661396182</v>
       </c>
       <c r="F5">
         <v>0.8000920794210439</v>
       </c>
       <c r="G5">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H5">
         <v>21</v>
@@ -11249,19 +11249,19 @@
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D6">
         <v>135</v>
       </c>
       <c r="E6">
-        <v>0.0393404803112495</v>
+        <v>0.03924871506819344</v>
       </c>
       <c r="F6">
         <v>0.8015661541151219</v>
       </c>
       <c r="G6">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H6">
         <v>21</v>
@@ -11344,19 +11344,19 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D2">
         <v>179</v>
       </c>
       <c r="E2">
-        <v>0.04610681667311491</v>
+        <v>0.04550896254114215</v>
       </c>
       <c r="F2">
         <v>0.9162211073591846</v>
       </c>
       <c r="G2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H2">
         <v>21</v>
@@ -11385,19 +11385,19 @@
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D3">
         <v>163</v>
       </c>
       <c r="E3">
-        <v>0.03086781761088148</v>
+        <v>0.03016927218527709</v>
       </c>
       <c r="F3">
         <v>0.9042122809387365</v>
       </c>
       <c r="G3">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H3">
         <v>21</v>
@@ -11426,19 +11426,19 @@
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D4">
         <v>167</v>
       </c>
       <c r="E4">
-        <v>0.03025230814743487</v>
+        <v>0.02970608908351221</v>
       </c>
       <c r="F4">
         <v>0.9104858287045636</v>
       </c>
       <c r="G4">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H4">
         <v>21</v>
@@ -11467,19 +11467,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D5">
         <v>166</v>
       </c>
       <c r="E5">
-        <v>0.01055880511951707</v>
+        <v>0.01040862661396182</v>
       </c>
       <c r="F5">
         <v>0.9057680811013594</v>
       </c>
       <c r="G5">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H5">
         <v>21</v>
@@ -11508,19 +11508,19 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D6">
         <v>166</v>
       </c>
       <c r="E6">
-        <v>0.0393404803112495</v>
+        <v>0.03924871506819344</v>
       </c>
       <c r="F6">
         <v>0.9016166263797354</v>
       </c>
       <c r="G6">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H6">
         <v>21</v>

--- a/on_trucks/Processed_Stand_Alone/21_11R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/21_11R22.xlsx
@@ -1994,604 +1994,604 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>0.000132655629343415</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.0004165327665387979</v>
+        <v>0.0002886849511417277</v>
       </c>
       <c r="D2">
-        <v>0.0007918400763893481</v>
+        <v>0.0006730075980761366</v>
       </c>
       <c r="E2">
-        <v>0.0009874939206719463</v>
+        <v>0.0008733612851586599</v>
       </c>
       <c r="F2">
-        <v>0.001350415291517492</v>
+        <v>0.001245000467800655</v>
       </c>
       <c r="G2">
-        <v>0.001350415291517492</v>
+        <v>0.001245000467800655</v>
       </c>
       <c r="H2">
-        <v>0.001671359665735164</v>
+        <v>0.001573654315409326</v>
       </c>
       <c r="I2">
-        <v>0.00155313127523277</v>
+        <v>0.001452585935476176</v>
       </c>
       <c r="J2">
-        <v>0.001613977870344799</v>
+        <v>0.001514894139650811</v>
       </c>
       <c r="K2">
-        <v>0.001671359665735164</v>
+        <v>0.001573654315409326</v>
       </c>
       <c r="L2">
-        <v>0.001076623713511909</v>
+        <v>0.0009646320837972756</v>
       </c>
       <c r="M2">
-        <v>0.0005762584137076052</v>
+        <v>0.000452247402210618</v>
       </c>
       <c r="N2">
-        <v>0.0004050545074608775</v>
+        <v>0.0002769309703498749</v>
       </c>
       <c r="O2">
-        <v>0.0001814810354211383</v>
+        <v>4.798699216611867E-05</v>
       </c>
       <c r="P2">
-        <v>0.0001346197091856352</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>8.463909820071267E-06</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>3.646789707043534E-05</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>0.000238396130848995</v>
+        <v>0.0001062692572626035</v>
       </c>
       <c r="T2">
-        <v>0.0006731771859218586</v>
+        <v>0.0005514942809613872</v>
       </c>
       <c r="U2">
-        <v>0.001155161307202772</v>
+        <v>0.001045056245807738</v>
       </c>
       <c r="V2">
-        <v>0.00116480560642802</v>
+        <v>0.001054932212805425</v>
       </c>
       <c r="W2">
-        <v>0.001017113118292556</v>
+        <v>0.0009036919718542082</v>
       </c>
       <c r="X2">
-        <v>0.001529828777104723</v>
+        <v>0.001428723683061424</v>
       </c>
       <c r="Y2">
-        <v>0.001631132868966692</v>
+        <v>0.001532461222160201</v>
       </c>
       <c r="Z2">
-        <v>0.001100014911632831</v>
+        <v>0.0009885851668863838</v>
       </c>
       <c r="AA2">
-        <v>0.00123343830091457</v>
+        <v>0.001125213547911355</v>
       </c>
       <c r="AB2">
-        <v>0.000690925444496093</v>
+        <v>0.0005696688742471995</v>
       </c>
       <c r="AC2">
-        <v>0.0008511099316280405</v>
+        <v>0.0007337011871720275</v>
       </c>
       <c r="AD2">
-        <v>0.0006298167894051163</v>
+        <v>0.0005070923150948663</v>
       </c>
       <c r="AE2">
-        <v>0.0003721497501042055</v>
+        <v>0.0002432358007858012</v>
       </c>
       <c r="AF2">
-        <v>7.718688779936884E-05</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>5.312623573222601E-07</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>2.648457587242249E-05</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>9.529613234460433E-05</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>0.000203472083654538</v>
+        <v>7.050629206807882E-05</v>
       </c>
       <c r="AK2">
-        <v>0.0005493888558661095</v>
+        <v>0.0004247324049788482</v>
       </c>
       <c r="AL2">
-        <v>0.0005427716063976909</v>
+        <v>0.0004179562011470054</v>
       </c>
       <c r="AM2">
-        <v>0.0004555489834045199</v>
+        <v>0.0003286383848895867</v>
       </c>
       <c r="AN2">
-        <v>0.0005296575974511748</v>
+        <v>0.0004045271777894439</v>
       </c>
       <c r="AO2">
-        <v>0.001085935112763899</v>
+        <v>0.0009741671541603147</v>
       </c>
       <c r="AP2">
-        <v>0.001014369618512949</v>
+        <v>0.0009008825698801767</v>
       </c>
       <c r="AQ2">
-        <v>0.000934825024902981</v>
+        <v>0.000819427218590381</v>
       </c>
       <c r="AR2">
-        <v>0.0008552122612984894</v>
+        <v>0.0007379020597800571</v>
       </c>
       <c r="AS2">
-        <v>0.0005694808942520618</v>
+        <v>0.0004453070785120438</v>
       </c>
       <c r="AT2">
-        <v>0.0001776863857259728</v>
+        <v>4.410119037980226E-05</v>
       </c>
       <c r="AU2">
-        <v>0.0001853158051130809</v>
+        <v>5.191387768022733E-05</v>
       </c>
       <c r="AV2">
-        <v>4.96115960145665E-05</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>5.116331588991266E-07</v>
+        <v>0</v>
       </c>
       <c r="AX2">
-        <v>1.207992302958716E-05</v>
+        <v>0</v>
       </c>
       <c r="AY2">
-        <v>3.088556051887951E-05</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
-        <v>5.856734529512698E-05</v>
+        <v>0</v>
       </c>
       <c r="BA2">
-        <v>0.0001669232265906064</v>
+        <v>3.307948709902294E-05</v>
       </c>
       <c r="BB2">
-        <v>6.524897475837364E-05</v>
+        <v>0</v>
       </c>
       <c r="BC2">
-        <v>0.000231452021406834</v>
+        <v>9.915834188374708E-05</v>
       </c>
       <c r="BD2">
-        <v>0.0003175062044938691</v>
+        <v>0.0001872796508903776</v>
       </c>
       <c r="BE2">
-        <v>0.0005007626597723831</v>
+        <v>0.0003749381486385327</v>
       </c>
       <c r="BF2">
-        <v>0.0005554052953827926</v>
+        <v>0.0004308933666747267</v>
       </c>
       <c r="BG2">
-        <v>0.0006953986441367488</v>
+        <v>0.0005742495255722361</v>
       </c>
       <c r="BH2">
-        <v>0.0008827916290829643</v>
+        <v>0.0007661439174511151</v>
       </c>
       <c r="BI2">
-        <v>0.0008461603920256504</v>
+        <v>0.0007286327536212535</v>
       </c>
       <c r="BJ2">
-        <v>0.001113202610573428</v>
+        <v>0.001002089650361119</v>
       </c>
       <c r="BK2">
-        <v>0.0003909545485935653</v>
+        <v>0.0002624923133577967</v>
       </c>
       <c r="BL2">
-        <v>0.0001052283415467231</v>
+        <v>0</v>
       </c>
       <c r="BM2">
-        <v>5.224652980289516E-05</v>
+        <v>0</v>
       </c>
       <c r="BN2">
-        <v>1.786400456493627E-05</v>
+        <v>0</v>
       </c>
       <c r="BO2">
-        <v>3.465383721616366E-06</v>
+        <v>0</v>
       </c>
       <c r="BP2">
-        <v>7.99376075783961E-05</v>
+        <v>0</v>
       </c>
       <c r="BQ2">
-        <v>0.0001009049018940367</v>
+        <v>0</v>
       </c>
       <c r="BR2">
-        <v>0.0002769889277487313</v>
+        <v>0.0001457890999829997</v>
       </c>
       <c r="BS2">
-        <v>0.0005762584137076052</v>
+        <v>0.000452247402210618</v>
       </c>
       <c r="BT2">
-        <v>0.0006093487110493724</v>
+        <v>0.0004861325686554142</v>
       </c>
       <c r="BU2">
-        <v>0.0007066145432357454</v>
+        <v>0.0005857348441800514</v>
       </c>
       <c r="BV2">
-        <v>0.0006738826458651871</v>
+        <v>0.0005522166869087537</v>
       </c>
       <c r="BW2">
-        <v>0.0007870663367728355</v>
+        <v>0.000668119187440265</v>
       </c>
       <c r="BX2">
-        <v>0.0006419269484322746</v>
+        <v>0.000519493374839659</v>
       </c>
       <c r="BY2">
-        <v>0.0004281714456038314</v>
+        <v>0.0003006032054034817</v>
       </c>
       <c r="BZ2">
-        <v>0.0001009049018940367</v>
+        <v>0</v>
       </c>
       <c r="CA2">
-        <v>2.796189975374508E-05</v>
+        <v>0</v>
       </c>
       <c r="CB2">
-        <v>9.656546224263563E-06</v>
+        <v>0</v>
       </c>
       <c r="CC2">
-        <v>2.673286385247685E-06</v>
+        <v>0</v>
       </c>
       <c r="CD2">
-        <v>2.911724066093342E-06</v>
+        <v>0</v>
       </c>
       <c r="CE2">
-        <v>1.179036105284845E-05</v>
+        <v>0</v>
       </c>
       <c r="CF2">
-        <v>5.642031746760352E-05</v>
+        <v>0</v>
       </c>
       <c r="CG2">
-        <v>0.0001165559406367465</v>
+        <v>0</v>
       </c>
       <c r="CH2">
-        <v>0.0001436502484601876</v>
+        <v>9.247463788070501E-06</v>
       </c>
       <c r="CI2">
-        <v>0.0001911587846436986</v>
+        <v>5.789721267065095E-05</v>
       </c>
       <c r="CJ2">
-        <v>0.000319527674331479</v>
+        <v>0.000189349678886895</v>
       </c>
       <c r="CK2">
-        <v>0.0003380097728467621</v>
+        <v>0.0002082757398397835</v>
       </c>
       <c r="CL2">
-        <v>0.0002598443591260009</v>
+        <v>0.0001282326980140101</v>
       </c>
       <c r="CM2">
-        <v>0.0008216296339962725</v>
+        <v>0.0007035127370116324</v>
       </c>
       <c r="CN2">
-        <v>0.07952445861158547</v>
+        <v>0.08129687918632977</v>
       </c>
       <c r="CO2">
-        <v>0.006285319095083342</v>
+        <v>0.006298446650099492</v>
       </c>
       <c r="CP2">
-        <v>0.1902467447169652</v>
+        <v>0.1946788489848753</v>
       </c>
       <c r="CQ2">
-        <v>0.07223366419727467</v>
+        <v>0.07383095104152942</v>
       </c>
       <c r="CR2">
-        <v>0.005103133190051529</v>
+        <v>0.005087863204838866</v>
       </c>
       <c r="CS2">
-        <v>0.001602621771257065</v>
+        <v>0.001503265253280371</v>
       </c>
       <c r="CT2">
-        <v>0.02239031820132527</v>
+        <v>0.02279030738111454</v>
       </c>
       <c r="CU2">
-        <v>0.005519929556569151</v>
+        <v>0.005514671525935737</v>
       </c>
       <c r="CV2">
-        <v>0.01632949068820791</v>
+        <v>0.01658389143525486</v>
       </c>
       <c r="CW2">
-        <v>0.01048603315762864</v>
+        <v>0.01060006696273043</v>
       </c>
       <c r="CX2">
-        <v>1.834594552622065E-05</v>
+        <v>0</v>
       </c>
       <c r="CY2">
-        <v>0.0769739538164744</v>
+        <v>0.07868510817055521</v>
       </c>
       <c r="CZ2">
-        <v>0.03361527329959431</v>
+        <v>0.03428489952429584</v>
       </c>
       <c r="DA2">
-        <v>0.0001135188708807225</v>
+        <v>0</v>
       </c>
       <c r="DB2">
-        <v>0.01198897003689366</v>
+        <v>0.01213910620991292</v>
       </c>
       <c r="DC2">
-        <v>0.01024662517686093</v>
+        <v>0.01035490811170111</v>
       </c>
       <c r="DD2">
-        <v>0.02261970918289767</v>
+        <v>0.0230252086124705</v>
       </c>
       <c r="DE2">
-        <v>0.04208041061956697</v>
+        <v>0.04295337971662314</v>
       </c>
       <c r="DF2">
-        <v>0.0002149390627333646</v>
+        <v>8.224872190156923E-05</v>
       </c>
       <c r="DG2">
-        <v>0.00506275659329509</v>
+        <v>0.005046516713224256</v>
       </c>
       <c r="DH2">
-        <v>0.0009133398266289451</v>
+        <v>0.0007974259197777463</v>
       </c>
       <c r="DI2">
-        <v>0.003240383439691247</v>
+        <v>0.003180367944701387</v>
       </c>
       <c r="DJ2">
-        <v>0.001023408417786838</v>
+        <v>0.0009101384920827927</v>
       </c>
       <c r="DK2">
-        <v>0.004691052623155073</v>
+        <v>0.004665883962593511</v>
       </c>
       <c r="DL2">
-        <v>0.0007990598058093678</v>
+        <v>0.000680400754159233</v>
       </c>
       <c r="DM2">
-        <v>0.006619753468217326</v>
+        <v>0.006640914542770924</v>
       </c>
       <c r="DN2">
-        <v>0.0006156840905404342</v>
+        <v>0.0004926201316509456</v>
       </c>
       <c r="DO2">
-        <v>0.003735076299951233</v>
+        <v>0.003686943927861372</v>
       </c>
       <c r="DP2">
-        <v>0.009407604244261743</v>
+        <v>0.009495732878001827</v>
       </c>
       <c r="DQ2">
-        <v>0.003717790301339864</v>
+        <v>0.003669242698583767</v>
       </c>
       <c r="DR2">
-        <v>0.00235495071082045</v>
+        <v>0.002273666047055194</v>
       </c>
       <c r="DS2">
-        <v>0.01786191956510376</v>
+        <v>0.01815313111364497</v>
       </c>
       <c r="DT2">
-        <v>0.002449320203239493</v>
+        <v>0.002370302409216074</v>
       </c>
       <c r="DU2">
-        <v>0.001681841264893149</v>
+        <v>0.001584387695300345</v>
       </c>
       <c r="DV2">
-        <v>0.004546797034743514</v>
+        <v>0.004518163179868849</v>
       </c>
       <c r="DW2">
-        <v>0.00164828666758868</v>
+        <v>0.001550027075844234</v>
       </c>
       <c r="DX2">
-        <v>0.0103155351713252</v>
+        <v>0.01042547340786678</v>
       </c>
       <c r="DY2">
-        <v>4.628655328167617E-05</v>
+        <v>0</v>
       </c>
       <c r="DZ2">
-        <v>0.002552749594930731</v>
+        <v>0.002476216300425443</v>
       </c>
       <c r="EA2">
-        <v>3.890121687496019E-05</v>
+        <v>0</v>
       </c>
       <c r="EB2">
-        <v>0.001353580491263224</v>
+        <v>0.001248241699485804</v>
       </c>
       <c r="EC2">
-        <v>0.001138819708515537</v>
+        <v>0.00102832210208664</v>
       </c>
       <c r="ED2">
-        <v>0.007605364389040539</v>
+        <v>0.007650201034124037</v>
       </c>
       <c r="EE2">
-        <v>0.0007286428014661559</v>
+        <v>0.0006082922479083114</v>
       </c>
       <c r="EF2">
-        <v>0.0123987080039783</v>
+        <v>0.01255868658025582</v>
       </c>
       <c r="EG2">
-        <v>0.000736306590850503</v>
+        <v>0.0006161401308150231</v>
       </c>
       <c r="EH2">
-        <v>0.01016081418375436</v>
+        <v>0.01026703583439343</v>
       </c>
       <c r="EI2">
-        <v>0.002611687690196074</v>
+        <v>0.002536570160270777</v>
       </c>
       <c r="EJ2">
-        <v>0.001223513301711872</v>
+        <v>0.001115050138182081</v>
       </c>
       <c r="EK2">
-        <v>0.002786794476129273</v>
+        <v>0.002715883223724889</v>
       </c>
       <c r="EL2">
-        <v>0.0003025495156953803</v>
+        <v>0.0001719636842743839</v>
       </c>
       <c r="EM2">
-        <v>6.896458145988892E-06</v>
+        <v>0</v>
       </c>
       <c r="EN2">
-        <v>0.0001834087552662793</v>
+        <v>4.996101818156613E-05</v>
       </c>
       <c r="EO2">
-        <v>0.0005926881123877632</v>
+        <v>0.0004690717621933945</v>
       </c>
       <c r="EP2">
-        <v>0.0008305496832797009</v>
+        <v>0.0007126470567048931</v>
       </c>
       <c r="EQ2">
-        <v>0.0009141615265629358</v>
+        <v>0.0007982673579414283</v>
       </c>
       <c r="ER2">
-        <v>0.001913386746292475</v>
+        <v>0.001821495180183937</v>
       </c>
       <c r="ES2">
-        <v>0.006321289992193703</v>
+        <v>0.006335281611815436</v>
       </c>
       <c r="ET2">
-        <v>0.002267825717819436</v>
+        <v>0.002184448205980835</v>
       </c>
       <c r="EU2">
-        <v>0.0003094843751382843</v>
+        <v>0.0001790651274577747</v>
       </c>
       <c r="EV2">
-        <v>0.001853223051125587</v>
+        <v>0.001759886280039944</v>
       </c>
       <c r="EW2">
-        <v>0.0005580778551680987</v>
+        <v>0.0004336301245896959</v>
       </c>
       <c r="EX2">
-        <v>2.856405570537226E-05</v>
+        <v>0</v>
       </c>
       <c r="EY2">
-        <v>0.001224464401635468</v>
+        <v>0.001116024084680168</v>
       </c>
       <c r="EZ2">
-        <v>0.0002996014759322043</v>
+        <v>0.000168944829018133</v>
       </c>
       <c r="FA2">
-        <v>0.003043587355500408</v>
+        <v>0.002978844579721719</v>
       </c>
       <c r="FB2">
-        <v>0.001705147163020923</v>
+        <v>0.001608253429386944</v>
       </c>
       <c r="FC2">
-        <v>0.0003437396923864622</v>
+        <v>0.0002141432990010896</v>
       </c>
       <c r="FD2">
-        <v>0.0008685132302299866</v>
+        <v>0.0007515225341283475</v>
       </c>
       <c r="FE2">
-        <v>0.0001876358849267026</v>
+        <v>5.428968862679605E-05</v>
       </c>
       <c r="FF2">
-        <v>0.001308128894914473</v>
+        <v>0.001201698300629272</v>
       </c>
       <c r="FG2">
-        <v>0.010312774171547</v>
+        <v>0.01042264608552295</v>
       </c>
       <c r="FH2">
-        <v>0.009479149238514341</v>
+        <v>0.009568996469848772</v>
       </c>
       <c r="FI2">
-        <v>0.0004252701158369031</v>
+        <v>0.0002976321821742792</v>
       </c>
       <c r="FJ2">
-        <v>0.001658695866752481</v>
+        <v>0.001560686316605338</v>
       </c>
       <c r="FK2">
-        <v>0.01972085241577066</v>
+        <v>0.02005671778752597</v>
       </c>
       <c r="FL2">
-        <v>0.002883285968377851</v>
+        <v>0.002814692558726628</v>
       </c>
       <c r="FM2">
-        <v>0.0008802357292882866</v>
+        <v>0.0007635266218413367</v>
       </c>
       <c r="FN2">
-        <v>7.660138384640396E-06</v>
+        <v>0</v>
       </c>
       <c r="FO2">
-        <v>5.34818307036601E-05</v>
+        <v>0</v>
       </c>
       <c r="FP2">
-        <v>0.005184368283525694</v>
+        <v>0.005171049663851316</v>
       </c>
       <c r="FQ2">
-        <v>0.007302231413392029</v>
+        <v>0.007339786436495415</v>
       </c>
       <c r="FR2">
-        <v>0.003434974424059228</v>
+        <v>0.003379633240684177</v>
       </c>
       <c r="FS2">
-        <v>0.005469553160616022</v>
+        <v>0.005463085027811222</v>
       </c>
       <c r="FT2">
-        <v>0.007639976986260015</v>
+        <v>0.007685645067937183</v>
       </c>
       <c r="FU2">
-        <v>0.003729817200373711</v>
+        <v>0.003681558498329158</v>
       </c>
       <c r="FV2">
-        <v>0.002998389759131253</v>
+        <v>0.002932561282232565</v>
       </c>
       <c r="FW2">
-        <v>0.01466620382182424</v>
+        <v>0.01488065039965031</v>
       </c>
       <c r="FX2">
-        <v>0.01672262865662608</v>
+        <v>0.01698647305481631</v>
       </c>
       <c r="FY2">
-        <v>0.001058121214998265</v>
+        <v>0.0009456851328133065</v>
       </c>
       <c r="FZ2">
-        <v>1.677583865235157E-06</v>
+        <v>0</v>
       </c>
       <c r="GA2">
-        <v>0.0003743380399284142</v>
+        <v>0.000245476655987461</v>
       </c>
       <c r="GB2">
-        <v>0.001987214940361657</v>
+        <v>0.001897096817078124</v>
       </c>
       <c r="GC2">
-        <v>0.004096460170920291</v>
+        <v>0.00405700867801382</v>
       </c>
       <c r="GD2">
-        <v>0.007937453362362935</v>
+        <v>0.007990267187633853</v>
       </c>
       <c r="GE2">
-        <v>0.008517849315738161</v>
+        <v>0.008584604956221443</v>
       </c>
       <c r="GF2">
-        <v>0.008712341300114093</v>
+        <v>0.008783768874112223</v>
       </c>
       <c r="GG2">
-        <v>0.01131968759065892</v>
+        <v>0.01145374678702799</v>
       </c>
       <c r="GH2">
-        <v>0.004716377321120672</v>
+        <v>0.004691816990540207</v>
       </c>
       <c r="GI2">
-        <v>0.001776026857326966</v>
+        <v>0.001680835739975159</v>
       </c>
       <c r="GJ2">
-        <v>1.786400456493627E-05</v>
+        <v>0</v>
       </c>
       <c r="GK2">
-        <v>0.0001063934674531254</v>
+        <v>0</v>
       </c>
       <c r="GL2">
-        <v>0.005459170861450062</v>
+        <v>0.005452453333218554</v>
       </c>
       <c r="GM2">
-        <v>0.0008593909909628008</v>
+        <v>0.0007421811676025265</v>
       </c>
       <c r="GN2">
-        <v>0.002749488779126141</v>
+        <v>0.002677681398602734</v>
       </c>
       <c r="GO2">
-        <v>6.185414003108988E-05</v>
+        <v>0</v>
       </c>
       <c r="GP2">
-        <v>0.003350921130811456</v>
+        <v>0.003293560885319179</v>
       </c>
       <c r="GQ2">
-        <v>0.0002170365125648708</v>
+        <v>8.439655502365147E-05</v>
       </c>
       <c r="GR2">
-        <v>0.005225226280243462</v>
+        <v>0.005212889119238589</v>
       </c>
       <c r="GS2">
-        <v>0.01523399877621173</v>
+        <v>0.01546208447796096</v>
       </c>
       <c r="GT2">
         <v>0</v>
@@ -2767,604 +2767,604 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>6.43216237536675E-05</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0.0001249779556353396</v>
+        <v>5.27788263726803E-05</v>
       </c>
       <c r="D3">
-        <v>0.0001230554157024813</v>
+        <v>5.083051417058051E-05</v>
       </c>
       <c r="E3">
-        <v>0.0001564667545356423</v>
+        <v>8.468974280067661E-05</v>
       </c>
       <c r="F3">
-        <v>0.0003122482290952171</v>
+        <v>0.0002425595183815048</v>
       </c>
       <c r="G3">
-        <v>0.0004076791057624424</v>
+        <v>0.0003392696767975176</v>
       </c>
       <c r="H3">
-        <v>0.000283067860114296</v>
+        <v>0.000212987977122136</v>
       </c>
       <c r="I3">
-        <v>0.0006133534785795853</v>
+        <v>0.0005477011810644302</v>
       </c>
       <c r="J3">
-        <v>0.000687285775997615</v>
+        <v>0.0006226245648272143</v>
       </c>
       <c r="K3">
-        <v>0.0004705869535654838</v>
+        <v>0.0004030208246346829</v>
       </c>
       <c r="L3">
-        <v>0.000420324345320827</v>
+        <v>0.0003520844298796279</v>
       </c>
       <c r="M3">
-        <v>0.0005103412821771257</v>
+        <v>0.0004433080728715476</v>
       </c>
       <c r="N3">
-        <v>0.000537205981238918</v>
+        <v>0.0004705329019080048</v>
       </c>
       <c r="O3">
-        <v>0.0001348141352918264</v>
+        <v>6.274686319690761E-05</v>
       </c>
       <c r="P3">
-        <v>7.28972874541758E-05</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>4.476832843653587E-06</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>5.781584498087168E-05</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>7.674371331984538E-05</v>
+        <v>3.897988447717049E-06</v>
       </c>
       <c r="T3">
-        <v>0.0001339655653214613</v>
+        <v>6.18869178717982E-05</v>
       </c>
       <c r="U3">
-        <v>0.0005988012790877982</v>
+        <v>0.0005329539046346047</v>
       </c>
       <c r="V3">
-        <v>0.0008536894701862252</v>
+        <v>0.0007912589543247298</v>
       </c>
       <c r="W3">
-        <v>0.0005556720805940183</v>
+        <v>0.0004892465452939396</v>
       </c>
       <c r="X3">
-        <v>0.0008557082701157218</v>
+        <v>0.000793304816919838</v>
       </c>
       <c r="Y3">
-        <v>0.00091738236796185</v>
+        <v>0.0008558056759831205</v>
       </c>
       <c r="Z3">
-        <v>0.0006567478770641036</v>
+        <v>0.0005916772954874329</v>
       </c>
       <c r="AA3">
-        <v>0.0005988012790877982</v>
+        <v>0.0005329539046346047</v>
       </c>
       <c r="AB3">
-        <v>0.0007681774131726005</v>
+        <v>0.0007046005805459322</v>
       </c>
       <c r="AC3">
-        <v>0.0003170744589266685</v>
+        <v>0.0002474504453838766</v>
       </c>
       <c r="AD3">
-        <v>6.994446755729843E-05</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.0001327693553632371</v>
+        <v>6.067467233242125E-05</v>
       </c>
       <c r="AF3">
-        <v>0.0001512759847169219</v>
+        <v>7.942938903467252E-05</v>
       </c>
       <c r="AG3">
-        <v>2.798751402257967E-05</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>3.316051884192054E-05</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>5.476921408727051E-06</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>3.024515794373498E-05</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.0002258763621116199</v>
+        <v>0.0001550298086021622</v>
       </c>
       <c r="AL3">
-        <v>0.00027843962027593</v>
+        <v>0.0002082976942327051</v>
       </c>
       <c r="AM3">
-        <v>0.0002801707202154741</v>
+        <v>0.0002100520001264993</v>
       </c>
       <c r="AN3">
-        <v>0.0003775815268135534</v>
+        <v>0.0003087686300740815</v>
       </c>
       <c r="AO3">
-        <v>0.0005779646298154857</v>
+        <v>0.0005118379333435614</v>
       </c>
       <c r="AP3">
-        <v>0.0006323101779175521</v>
+        <v>0.0005669120010845833</v>
       </c>
       <c r="AQ3">
-        <v>0.0004447367844682606</v>
+        <v>0.0003768241256649063</v>
       </c>
       <c r="AR3">
-        <v>0.0006005938790251945</v>
+        <v>0.0005347705349536017</v>
       </c>
       <c r="AS3">
-        <v>0.0004432816845190777</v>
+        <v>0.0003753495196305583</v>
       </c>
       <c r="AT3">
-        <v>0.0003722332370003341</v>
+        <v>0.0003033486447071355</v>
       </c>
       <c r="AU3">
-        <v>0.0003183793088810986</v>
+        <v>0.0002487727872737255</v>
       </c>
       <c r="AV3">
-        <v>0.0004758446133818681</v>
+        <v>0.0004083489650803911</v>
       </c>
       <c r="AW3">
-        <v>0.0002207169522918043</v>
+        <v>0.000149801235225985</v>
       </c>
       <c r="AX3">
-        <v>3.024515794373498E-05</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>3.535083876542703E-07</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
-        <v>2.181799923804037E-06</v>
+        <v>0</v>
       </c>
       <c r="BA3">
-        <v>1.638086442792383E-05</v>
+        <v>0</v>
       </c>
       <c r="BB3">
-        <v>7.583896735144221E-05</v>
+        <v>2.981114067157474E-06</v>
       </c>
       <c r="BC3">
-        <v>0.0001367776252232545</v>
+        <v>6.473667434554479E-05</v>
       </c>
       <c r="BD3">
-        <v>0.0002829981601167301</v>
+        <v>0.0002129173427735729</v>
       </c>
       <c r="BE3">
-        <v>0.0006330743778908636</v>
+        <v>0.0005676864454055571</v>
       </c>
       <c r="BF3">
-        <v>0.0007173702249469625</v>
+        <v>0.0006531123055392208</v>
       </c>
       <c r="BG3">
-        <v>0.0009586212365216467</v>
+        <v>0.0008975973649060073</v>
       </c>
       <c r="BH3">
-        <v>0.0007971546721606149</v>
+        <v>0.000733966289057286</v>
       </c>
       <c r="BI3">
-        <v>0.0007173702249469625</v>
+        <v>0.0006531123055392208</v>
       </c>
       <c r="BJ3">
-        <v>0.0005887053394403832</v>
+        <v>0.000522722625652806</v>
       </c>
       <c r="BK3">
-        <v>0.000489406682908234</v>
+        <v>0.0004220928385325594</v>
       </c>
       <c r="BL3">
-        <v>0.000402730405935268</v>
+        <v>0.0003342546380495429</v>
       </c>
       <c r="BM3">
-        <v>0.0001607629743856036</v>
+        <v>8.904355486643608E-05</v>
       </c>
       <c r="BN3">
-        <v>9.972178651737196E-05</v>
+        <v>2.718409014388568E-05</v>
       </c>
       <c r="BO3">
-        <v>7.583896735144221E-05</v>
+        <v>2.981114067157474E-06</v>
       </c>
       <c r="BP3">
-        <v>5.875426794809873E-09</v>
+        <v>0</v>
       </c>
       <c r="BQ3">
-        <v>4.026520259380053E-05</v>
+        <v>0</v>
       </c>
       <c r="BR3">
-        <v>0.0001004540864917975</v>
+        <v>2.792620683617697E-05</v>
       </c>
       <c r="BS3">
-        <v>0.0003415823880707672</v>
+        <v>0.0002722869112400917</v>
       </c>
       <c r="BT3">
-        <v>0.0006048322288771767</v>
+        <v>0.0005390657012553533</v>
       </c>
       <c r="BU3">
-        <v>0.0006648425267814105</v>
+        <v>0.0005998804566007137</v>
       </c>
       <c r="BV3">
-        <v>0.0006524370172146536</v>
+        <v>0.0005873086471682592</v>
       </c>
       <c r="BW3">
-        <v>0.001020656864355149</v>
+        <v>0.0009604646003830056</v>
       </c>
       <c r="BX3">
-        <v>0.0009374868672597317</v>
+        <v>0.0008761796825926657</v>
       </c>
       <c r="BY3">
-        <v>0.000494860382717772</v>
+        <v>0.0004276196469508974</v>
       </c>
       <c r="BZ3">
-        <v>0.0006630631768435516</v>
+        <v>0.0005980772539017811</v>
       </c>
       <c r="CA3">
-        <v>0.0005080039822587523</v>
+        <v>0.0004409394406922599</v>
       </c>
       <c r="CB3">
-        <v>0.0003755714468837523</v>
+        <v>0.0003067316043730835</v>
       </c>
       <c r="CC3">
-        <v>0.0002070842627679047</v>
+        <v>0.0001359857950923889</v>
       </c>
       <c r="CD3">
-        <v>6.023496989638751E-05</v>
+        <v>0</v>
       </c>
       <c r="CE3">
-        <v>8.874698690064975E-06</v>
+        <v>0</v>
       </c>
       <c r="CF3">
-        <v>1.856193935175319E-05</v>
+        <v>0</v>
       </c>
       <c r="CG3">
-        <v>9.346491273588352E-11</v>
+        <v>0</v>
       </c>
       <c r="CH3">
-        <v>1.638086442792383E-05</v>
+        <v>0</v>
       </c>
       <c r="CI3">
-        <v>0.0001158411159544295</v>
+        <v>4.35195044024568E-05</v>
       </c>
       <c r="CJ3">
-        <v>0.0001400271651097694</v>
+        <v>6.802977536461923E-05</v>
       </c>
       <c r="CK3">
-        <v>0.0002818376701572584</v>
+        <v>0.0002117412960710779</v>
       </c>
       <c r="CL3">
-        <v>0.0004167077554471308</v>
+        <v>0.0003484193584496489</v>
       </c>
       <c r="CM3">
-        <v>0.0001833972735951359</v>
+        <v>0.00011198127417318</v>
       </c>
       <c r="CN3">
-        <v>0.1257578556081028</v>
+        <v>0.1273698058133255</v>
       </c>
       <c r="CO3">
-        <v>0.01451409949311769</v>
+        <v>0.01463479118920264</v>
       </c>
       <c r="CP3">
-        <v>0.1764611138373705</v>
+        <v>0.1787527576084707</v>
       </c>
       <c r="CQ3">
-        <v>0.07259183146484337</v>
+        <v>0.07349107393104737</v>
       </c>
       <c r="CR3">
-        <v>0.01088173261997244</v>
+        <v>0.01095373126399711</v>
       </c>
       <c r="CS3">
-        <v>0.0084366197053642</v>
+        <v>0.008475840820410589</v>
       </c>
       <c r="CT3">
-        <v>0.002374432217076654</v>
+        <v>0.002332387749301901</v>
       </c>
       <c r="CU3">
-        <v>0.004216786852735288</v>
+        <v>0.004199439744373997</v>
       </c>
       <c r="CV3">
-        <v>0.004585492839858807</v>
+        <v>0.004573088354435379</v>
       </c>
       <c r="CW3">
-        <v>0.001184491758633471</v>
+        <v>0.001126495754377097</v>
       </c>
       <c r="CX3">
-        <v>0.003064217592986974</v>
+        <v>0.003031419921142428</v>
       </c>
       <c r="CY3">
-        <v>0.04691529436155643</v>
+        <v>0.04747033454821056</v>
       </c>
       <c r="CZ3">
-        <v>0.01660165942021291</v>
+        <v>0.01675033553190315</v>
       </c>
       <c r="DA3">
-        <v>0.0009587496965171604</v>
+        <v>0.0008977275469492843</v>
       </c>
       <c r="DB3">
-        <v>0.001296190154732578</v>
+        <v>0.001239691503581287</v>
       </c>
       <c r="DC3">
-        <v>0.003256356186276833</v>
+        <v>0.00322613419438219</v>
       </c>
       <c r="DD3">
-        <v>0.03623710073447571</v>
+        <v>0.03664899628394099</v>
       </c>
       <c r="DE3">
-        <v>0.05022583324594102</v>
+        <v>0.05082525227643846</v>
       </c>
       <c r="DF3">
-        <v>0.001146770759950818</v>
+        <v>0.001088269093514172</v>
       </c>
       <c r="DG3">
-        <v>0.0007854993725676581</v>
+        <v>0.0007221547464058282</v>
       </c>
       <c r="DH3">
-        <v>0.002194584223357565</v>
+        <v>0.002150128835092966</v>
       </c>
       <c r="DI3">
-        <v>0.005440636809994235</v>
+        <v>0.005439695805907092</v>
       </c>
       <c r="DJ3">
-        <v>0.004525182841965039</v>
+        <v>0.00451196988152525</v>
       </c>
       <c r="DK3">
-        <v>0.001717335240024742</v>
+        <v>0.001666482174872672</v>
       </c>
       <c r="DL3">
-        <v>7.437872140243903E-05</v>
+        <v>1.50129304919821E-06</v>
       </c>
       <c r="DM3">
-        <v>0.009368420672822503</v>
+        <v>0.009420132881032887</v>
       </c>
       <c r="DN3">
-        <v>0.002068662227755194</v>
+        <v>0.002022518814436538</v>
       </c>
       <c r="DO3">
-        <v>0.001935811932394784</v>
+        <v>0.00188788761792431</v>
       </c>
       <c r="DP3">
-        <v>0.004889940229226455</v>
+        <v>0.004881616959467033</v>
       </c>
       <c r="DQ3">
-        <v>0.001595272744287585</v>
+        <v>0.001542783391924693</v>
       </c>
       <c r="DR3">
-        <v>0.009331293674119105</v>
+        <v>0.009382508182910943</v>
       </c>
       <c r="DS3">
-        <v>0.04337262848527852</v>
+        <v>0.04388017809073032</v>
       </c>
       <c r="DT3">
-        <v>0.0105032946331888</v>
+        <v>0.01057022019367439</v>
       </c>
       <c r="DU3">
-        <v>0.001916113333082727</v>
+        <v>0.001867924952521102</v>
       </c>
       <c r="DV3">
-        <v>0.0005332120813783987</v>
+        <v>0.0004664854625288676</v>
       </c>
       <c r="DW3">
-        <v>0.01709011940315421</v>
+        <v>0.01724534347880552</v>
       </c>
       <c r="DX3">
-        <v>0.04009337259980143</v>
+        <v>0.04055696272012219</v>
       </c>
       <c r="DY3">
-        <v>0.0003201560088190502</v>
+        <v>0.0002505733044486455</v>
       </c>
       <c r="DZ3">
-        <v>0.005291414215205601</v>
+        <v>0.005288472834000624</v>
       </c>
       <c r="EA3">
-        <v>0.0002607985908920155</v>
+        <v>0.0001904201811476153</v>
       </c>
       <c r="EB3">
-        <v>1.315626654053789E-06</v>
+        <v>0</v>
       </c>
       <c r="EC3">
-        <v>0.0002085177227178434</v>
+        <v>0.0001374384710363078</v>
       </c>
       <c r="ED3">
-        <v>0.005281070815566829</v>
+        <v>0.005277990777746296</v>
       </c>
       <c r="EE3">
-        <v>0.001296339654727357</v>
+        <v>0.00123984300767182</v>
       </c>
       <c r="EF3">
-        <v>0.01944134332104137</v>
+        <v>0.01962808631332125</v>
       </c>
       <c r="EG3">
-        <v>0.006319019279318096</v>
+        <v>0.006329853276160467</v>
       </c>
       <c r="EH3">
-        <v>0.006700294366002658</v>
+        <v>0.006716239478625341</v>
       </c>
       <c r="EI3">
-        <v>0.002199244923194797</v>
+        <v>0.002154852013118041</v>
       </c>
       <c r="EJ3">
-        <v>0.006264244481231021</v>
+        <v>0.006274344204199636</v>
       </c>
       <c r="EK3">
-        <v>0.01943171532137762</v>
+        <v>0.01961832924720985</v>
       </c>
       <c r="EL3">
-        <v>0.007009355155209191</v>
+        <v>0.007029443327611956</v>
       </c>
       <c r="EM3">
-        <v>0.0001249779556353396</v>
+        <v>5.27788263726803E-05</v>
       </c>
       <c r="EN3">
-        <v>0.0001797311837231684</v>
+        <v>0.0001082660391814523</v>
       </c>
       <c r="EO3">
-        <v>3.373561682183614E-05</v>
+        <v>0</v>
       </c>
       <c r="EP3">
-        <v>0.0007119429351365021</v>
+        <v>0.0006476122611545349</v>
       </c>
       <c r="EQ3">
-        <v>0.0008357470708128355</v>
+        <v>0.0007730760312880413</v>
       </c>
       <c r="ER3">
-        <v>0.000860765839939094</v>
+        <v>0.0007984301851015007</v>
       </c>
       <c r="ES3">
-        <v>0.005653761102551201</v>
+        <v>0.00565567709849605</v>
       </c>
       <c r="ET3">
-        <v>0.0005887053394403832</v>
+        <v>0.000522722625652806</v>
       </c>
       <c r="EU3">
-        <v>0.00134527605301833</v>
+        <v>0.001289435414200078</v>
       </c>
       <c r="EV3">
-        <v>0.001795645937289863</v>
+        <v>0.00174584265234777</v>
       </c>
       <c r="EW3">
-        <v>2.655934907245611E-08</v>
+        <v>0</v>
       </c>
       <c r="EX3">
-        <v>0.002070044327706927</v>
+        <v>0.002023919441884873</v>
       </c>
       <c r="EY3">
-        <v>0.005181181819055297</v>
+        <v>0.005176762736948421</v>
       </c>
       <c r="EZ3">
-        <v>0.0003930881362720092</v>
+        <v>0.0003244831106446822</v>
       </c>
       <c r="FA3">
-        <v>0.0004231606252217744</v>
+        <v>0.0003549587310294462</v>
       </c>
       <c r="FB3">
-        <v>0.0001007588464811543</v>
+        <v>2.82350522317016E-05</v>
       </c>
       <c r="FC3">
-        <v>0.006983015756129053</v>
+        <v>0.007002750840373204</v>
       </c>
       <c r="FD3">
-        <v>0.01049621863343591</v>
+        <v>0.01056304933785758</v>
       </c>
       <c r="FE3">
-        <v>0.00580271179734933</v>
+        <v>0.005806624525504751</v>
       </c>
       <c r="FF3">
-        <v>7.22736574759551E-05</v>
+        <v>0</v>
       </c>
       <c r="FG3">
-        <v>0.005448279809727315</v>
+        <v>0.005447441262522115</v>
       </c>
       <c r="FH3">
-        <v>0.005892799794203147</v>
+        <v>0.005897920181076425</v>
       </c>
       <c r="FI3">
-        <v>9.383750672287128E-06</v>
+        <v>0</v>
       </c>
       <c r="FJ3">
-        <v>0.0002575302410061575</v>
+        <v>0.0001871080179750765</v>
       </c>
       <c r="FK3">
-        <v>0.0150943224728543</v>
+        <v>0.01522279224553382</v>
       </c>
       <c r="FL3">
-        <v>0.004354938247910566</v>
+        <v>0.004339443103657637</v>
       </c>
       <c r="FM3">
-        <v>0.001057248163077255</v>
+        <v>0.0009975464172922478</v>
       </c>
       <c r="FN3">
-        <v>2.771965403193427E-06</v>
+        <v>0</v>
       </c>
       <c r="FO3">
-        <v>0.001106212361367257</v>
+        <v>0.001047166996487507</v>
       </c>
       <c r="FP3">
-        <v>0.0002432607315044979</v>
+        <v>0.0001726472210860728</v>
       </c>
       <c r="FQ3">
-        <v>0.0007633999733394452</v>
+        <v>0.0006997590975875542</v>
       </c>
       <c r="FR3">
-        <v>0.0002045481128564758</v>
+        <v>0.0001334156472716125</v>
       </c>
       <c r="FS3">
-        <v>0.0007266478246229568</v>
+        <v>0.000662514274437762</v>
       </c>
       <c r="FT3">
-        <v>0.000540315381130327</v>
+        <v>0.0004736839843100401</v>
       </c>
       <c r="FU3">
-        <v>6.76875176361189E-05</v>
+        <v>0</v>
       </c>
       <c r="FV3">
-        <v>8.512778702704465E-05</v>
+        <v>1.239445337302816E-05</v>
       </c>
       <c r="FW3">
-        <v>0.004819883831673066</v>
+        <v>0.00481062143325942</v>
       </c>
       <c r="FX3">
-        <v>0.007233354747386354</v>
+        <v>0.007256445706727851</v>
       </c>
       <c r="FY3">
-        <v>0.0001007588464811543</v>
+        <v>2.82350522317016E-05</v>
       </c>
       <c r="FZ3">
-        <v>0.0007398493741619133</v>
+        <v>0.0006758927950155552</v>
       </c>
       <c r="GA3">
-        <v>0.002081244627315774</v>
+        <v>0.00203526988513036</v>
       </c>
       <c r="GB3">
-        <v>0.0007258290746515503</v>
+        <v>0.0006616845488583362</v>
       </c>
       <c r="GC3">
-        <v>0.0005573990405337068</v>
+        <v>0.0004909966556898419</v>
       </c>
       <c r="GD3">
-        <v>0.004635005838129641</v>
+        <v>0.004623265090452609</v>
       </c>
       <c r="GE3">
-        <v>0.004805799432164941</v>
+        <v>0.00479634822782325</v>
       </c>
       <c r="GF3">
-        <v>0.001938851232288641</v>
+        <v>0.001890967660615667</v>
       </c>
       <c r="GG3">
-        <v>0.001056260463111749</v>
+        <v>0.00099654547688944</v>
       </c>
       <c r="GH3">
-        <v>0.0001129312620560516</v>
+        <v>4.057064297199038E-05</v>
       </c>
       <c r="GI3">
-        <v>5.071015822902672E-06</v>
+        <v>0</v>
       </c>
       <c r="GJ3">
-        <v>0.001053882763194786</v>
+        <v>0.0009941359031365232</v>
       </c>
       <c r="GK3">
-        <v>0.0008366255707821553</v>
+        <v>0.000773966307833416</v>
       </c>
       <c r="GL3">
-        <v>0.00123250135695681</v>
+        <v>0.001175148936884576</v>
       </c>
       <c r="GM3">
-        <v>1.048464763384001E-05</v>
+        <v>0</v>
       </c>
       <c r="GN3">
-        <v>0.007183519449126774</v>
+        <v>0.007205942350186346</v>
       </c>
       <c r="GO3">
-        <v>0.001441775349648242</v>
+        <v>0.001387228315093734</v>
       </c>
       <c r="GP3">
-        <v>0.00225976092108137</v>
+        <v>0.002216179247517466</v>
       </c>
       <c r="GQ3">
-        <v>0.0002217440722559337</v>
+        <v>0.0001508421240652397</v>
       </c>
       <c r="GR3">
-        <v>0.006848066360841951</v>
+        <v>0.006865992404821254</v>
       </c>
       <c r="GS3">
-        <v>0.02137372525355594</v>
+        <v>0.02158637245026405</v>
       </c>
       <c r="GT3">
         <v>0</v>
@@ -3540,604 +3540,604 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>0.0001370572460026715</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0.0002694522418011513</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0.0004429416893994373</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.0004056765377673422</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.0004494200896831707</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0004691374705467292</v>
+        <v>2.106102001632918E-05</v>
       </c>
       <c r="H4">
-        <v>0.0005372080735280051</v>
+        <v>9.377028814036682E-05</v>
       </c>
       <c r="I4">
-        <v>0.0006593267588764152</v>
+        <v>0.0002242107403631114</v>
       </c>
       <c r="J4">
-        <v>0.0002187289095796306</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>5.337751533776542E-05</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>8.906755390087561E-05</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>1.631861271470334E-05</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>5.822190654993435E-05</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.0001579598569181394</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.0001454955063722405</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.0006697233293317519</v>
+        <v>0.0002353157841808583</v>
       </c>
       <c r="R4">
-        <v>0.0007157288813466488</v>
+        <v>0.0002844563804168813</v>
       </c>
       <c r="S4">
-        <v>0.0005786019253409242</v>
+        <v>0.0001379849202772394</v>
       </c>
       <c r="T4">
-        <v>0.0007573428331692075</v>
+        <v>0.000328906111258835</v>
       </c>
       <c r="U4">
-        <v>0.001575762569013389</v>
+        <v>0.001203096986692495</v>
       </c>
       <c r="V4">
-        <v>0.001186891751982084</v>
+        <v>0.0007877266026675407</v>
       </c>
       <c r="W4">
-        <v>0.0005252966930063246</v>
+        <v>8.104720765999356E-05</v>
       </c>
       <c r="X4">
-        <v>0.0001856767381320506</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.0004327697189539374</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.0006100018767161422</v>
+        <v>0.0001715246185262834</v>
       </c>
       <c r="AA4">
-        <v>0.000138551406068111</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>9.110523799011969E-05</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>7.073001309774963E-05</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>3.808370166794502E-05</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.0001150407150384175</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.0002684462917570938</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.0006984802305912127</v>
+        <v>0.0002660323219007571</v>
       </c>
       <c r="AH4">
-        <v>0.000668811029291796</v>
+        <v>0.0002343413155363986</v>
       </c>
       <c r="AI4">
-        <v>0.0005056954221478513</v>
+        <v>6.011020995464567E-05</v>
       </c>
       <c r="AJ4">
-        <v>0.0003439752750650231</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>0.0005315362632795979</v>
+        <v>8.771197289063199E-05</v>
       </c>
       <c r="AL4">
-        <v>0.001049377845959412</v>
+        <v>0.0006408418238367078</v>
       </c>
       <c r="AM4">
-        <v>0.0008528979373542172</v>
+        <v>0.0004309728094592216</v>
       </c>
       <c r="AN4">
-        <v>0.0004069129178214917</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>0.0001881295982394781</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.0001602228770172525</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>3.65845856022885E-05</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>7.202558815449169E-05</v>
+        <v>0</v>
       </c>
       <c r="AS4">
-        <v>8.260842361798625E-06</v>
+        <v>0</v>
       </c>
       <c r="AT4">
-        <v>0.0002156328394440326</v>
+        <v>0</v>
       </c>
       <c r="AU4">
-        <v>0.000408864047906945</v>
+        <v>0</v>
       </c>
       <c r="AV4">
-        <v>0.0003086145135163342</v>
+        <v>0</v>
       </c>
       <c r="AW4">
-        <v>0.0001082841897425031</v>
+        <v>0</v>
       </c>
       <c r="AX4">
-        <v>0.0001962717085960766</v>
+        <v>0</v>
       </c>
       <c r="AY4">
-        <v>0.0008360974966184113</v>
+        <v>0.000413027504194367</v>
       </c>
       <c r="AZ4">
-        <v>0.0009336812408922689</v>
+        <v>0.0005172610839807414</v>
       </c>
       <c r="BA4">
-        <v>0.0004276805187310466</v>
+        <v>0</v>
       </c>
       <c r="BB4">
-        <v>0.0002256548598829652</v>
+        <v>0</v>
       </c>
       <c r="BC4">
-        <v>0.0002812330623171137</v>
+        <v>0</v>
       </c>
       <c r="BD4">
-        <v>0.0003820322667317983</v>
+        <v>0</v>
       </c>
       <c r="BE4">
-        <v>0.0003892597370483385</v>
+        <v>0</v>
       </c>
       <c r="BF4">
-        <v>0.0002942384828867098</v>
+        <v>0</v>
       </c>
       <c r="BG4">
-        <v>0.000206719439053654</v>
+        <v>0</v>
       </c>
       <c r="BH4">
-        <v>6.178515770599341E-05</v>
+        <v>0</v>
       </c>
       <c r="BI4">
-        <v>9.740194426589539E-05</v>
+        <v>0</v>
       </c>
       <c r="BJ4">
-        <v>2.401678705185889E-05</v>
+        <v>0</v>
       </c>
       <c r="BK4">
-        <v>1.18443645187455E-05</v>
+        <v>0</v>
       </c>
       <c r="BL4">
-        <v>7.92248574697968E-05</v>
+        <v>0</v>
       </c>
       <c r="BM4">
-        <v>1.570501368782965E-05</v>
+        <v>0</v>
       </c>
       <c r="BN4">
-        <v>0.0001275340955855878</v>
+        <v>0</v>
       </c>
       <c r="BO4">
-        <v>0.0001095163947964698</v>
+        <v>0</v>
       </c>
       <c r="BP4">
-        <v>0.0002684462917570938</v>
+        <v>0</v>
       </c>
       <c r="BQ4">
-        <v>0.0007370965622824852</v>
+        <v>0.0003072801600560888</v>
       </c>
       <c r="BR4">
-        <v>0.0006871782300962211</v>
+        <v>0.0002539601475944065</v>
       </c>
       <c r="BS4">
-        <v>0.0005008791219369126</v>
+        <v>5.496570339725071E-05</v>
       </c>
       <c r="BT4">
-        <v>0.0004818440611032375</v>
+        <v>3.463350004812285E-05</v>
       </c>
       <c r="BU4">
-        <v>0.0006061070865455629</v>
+        <v>0.0001673644182284042</v>
       </c>
       <c r="BV4">
-        <v>0.0002151152094213621</v>
+        <v>0</v>
       </c>
       <c r="BW4">
-        <v>5.842099255865368E-05</v>
+        <v>0</v>
       </c>
       <c r="BX4">
-        <v>0.0001016393144514787</v>
+        <v>0</v>
       </c>
       <c r="BY4">
-        <v>0.0001022586544786039</v>
+        <v>0</v>
       </c>
       <c r="BZ4">
-        <v>1.889059282734789E-05</v>
+        <v>0</v>
       </c>
       <c r="CA4">
-        <v>2.627314915068038E-07</v>
+        <v>0</v>
       </c>
       <c r="CB4">
-        <v>1.383761860604369E-05</v>
+        <v>0</v>
       </c>
       <c r="CC4">
-        <v>0.0002293556600450485</v>
+        <v>0</v>
       </c>
       <c r="CD4">
-        <v>0.0001073288447006621</v>
+        <v>0</v>
       </c>
       <c r="CE4">
-        <v>0.0001733507775922127</v>
+        <v>0</v>
       </c>
       <c r="CF4">
-        <v>0.0003429236950189673</v>
+        <v>0</v>
       </c>
       <c r="CG4">
-        <v>0.0002812330623171137</v>
+        <v>0</v>
       </c>
       <c r="CH4">
-        <v>0.0003361420947219547</v>
+        <v>0</v>
       </c>
       <c r="CI4">
-        <v>0.0006069756565836034</v>
+        <v>0.0001682921768938852</v>
       </c>
       <c r="CJ4">
-        <v>0.0004045344677173232</v>
+        <v>0</v>
       </c>
       <c r="CK4">
-        <v>9.892127433243722E-05</v>
+        <v>0</v>
       </c>
       <c r="CL4">
-        <v>0.0001429174062593279</v>
+        <v>0</v>
       </c>
       <c r="CM4">
-        <v>0.00040330165766333</v>
+        <v>0</v>
       </c>
       <c r="CN4">
-        <v>0.01700823274490651</v>
+        <v>0.01768721146036445</v>
       </c>
       <c r="CO4">
-        <v>0.1147773250268818</v>
+        <v>0.1221187697782672</v>
       </c>
       <c r="CP4">
-        <v>0.1174858411455062</v>
+        <v>0.125011857485181</v>
       </c>
       <c r="CQ4">
-        <v>0.2131249393341945</v>
+        <v>0.2271682734531032</v>
       </c>
       <c r="CR4">
-        <v>7.518293329277337E-05</v>
+        <v>0</v>
       </c>
       <c r="CS4">
-        <v>0.03686442361454451</v>
+        <v>0.0388965006782035</v>
       </c>
       <c r="CT4">
-        <v>0.0005134147624859338</v>
+        <v>6.835558404860992E-05</v>
       </c>
       <c r="CU4">
-        <v>0.003244797142111795</v>
+        <v>0.002985867771271581</v>
       </c>
       <c r="CV4">
-        <v>0.00294268512888025</v>
+        <v>0.002663168361959936</v>
       </c>
       <c r="CW4">
-        <v>0.0020346271891102</v>
+        <v>0.001693230895223186</v>
       </c>
       <c r="CX4">
-        <v>0.001824535179908838</v>
+        <v>0.001468822184873706</v>
       </c>
       <c r="CY4">
-        <v>0.01750782976678726</v>
+        <v>0.01822085347655006</v>
       </c>
       <c r="CZ4">
-        <v>0.02635031915406018</v>
+        <v>0.0276659135110562</v>
       </c>
       <c r="DA4">
-        <v>0.002303023700865114</v>
+        <v>0.001979917263230128</v>
       </c>
       <c r="DB4">
-        <v>0.00336086114719503</v>
+        <v>0.003109840947584825</v>
       </c>
       <c r="DC4">
-        <v>0.0107859314723895</v>
+        <v>0.01104089202499193</v>
       </c>
       <c r="DD4">
-        <v>0.01374282460189201</v>
+        <v>0.01419928237194187</v>
       </c>
       <c r="DE4">
-        <v>0.03705989362310548</v>
+        <v>0.03910529097298871</v>
       </c>
       <c r="DF4">
-        <v>0.0007845927343626666</v>
+        <v>0.0003580129545282232</v>
       </c>
       <c r="DG4">
-        <v>0.005374057235366616</v>
+        <v>0.005260226102853622</v>
       </c>
       <c r="DH4">
-        <v>1.762601977196361E-06</v>
+        <v>0</v>
       </c>
       <c r="DI4">
-        <v>0.003743023263932515</v>
+        <v>0.003518045467535366</v>
       </c>
       <c r="DJ4">
-        <v>0.0008079595053860568</v>
+        <v>0.0003829720520699331</v>
       </c>
       <c r="DK4">
-        <v>0.002095953691796106</v>
+        <v>0.001758736486941326</v>
       </c>
       <c r="DL4">
-        <v>8.438084869561282E-06</v>
+        <v>0</v>
       </c>
       <c r="DM4">
-        <v>0.01302264057035024</v>
+        <v>0.01343002146408088</v>
       </c>
       <c r="DN4">
-        <v>0.003031777132782197</v>
+        <v>0.002758331532487399</v>
       </c>
       <c r="DO4">
-        <v>1.636672371681045E-06</v>
+        <v>0</v>
       </c>
       <c r="DP4">
-        <v>0.003934939172337822</v>
+        <v>0.003723039468328161</v>
       </c>
       <c r="DQ4">
-        <v>0.01046709295842538</v>
+        <v>0.01070032628905357</v>
       </c>
       <c r="DR4">
-        <v>0.0001629519271367762</v>
+        <v>0</v>
       </c>
       <c r="DS4">
-        <v>0.02533958810979337</v>
+        <v>0.02658630629031367</v>
       </c>
       <c r="DT4">
-        <v>0.01521806016650264</v>
+        <v>0.01577504773195924</v>
       </c>
       <c r="DU4">
-        <v>0.003040226733152262</v>
+        <v>0.002767356930117814</v>
       </c>
       <c r="DV4">
-        <v>0.01309975357372755</v>
+        <v>0.01351238932616597</v>
       </c>
       <c r="DW4">
-        <v>0.0001156995690672732</v>
+        <v>0</v>
       </c>
       <c r="DX4">
-        <v>0.02600791613906401</v>
+        <v>0.02730017747327374</v>
       </c>
       <c r="DY4">
-        <v>0.002496805809352154</v>
+        <v>0.002186904636142062</v>
       </c>
       <c r="DZ4">
-        <v>0.008212621359686697</v>
+        <v>0.008292223925162238</v>
       </c>
       <c r="EA4">
-        <v>0.002468001108090599</v>
+        <v>0.002156137041093208</v>
       </c>
       <c r="EB4">
-        <v>3.054914633795545E-05</v>
+        <v>0</v>
       </c>
       <c r="EC4">
-        <v>0.0002496905309356511</v>
+        <v>0</v>
       </c>
       <c r="ED4">
-        <v>0.008586017376040254</v>
+        <v>0.008691064979603407</v>
       </c>
       <c r="EE4">
-        <v>0.000400749667551561</v>
+        <v>0</v>
       </c>
       <c r="EF4">
-        <v>0.011468983502305</v>
+        <v>0.01177049057430192</v>
       </c>
       <c r="EG4">
-        <v>0.005503319941027911</v>
+        <v>0.005398297404013551</v>
       </c>
       <c r="EH4">
-        <v>0.003782248765650467</v>
+        <v>0.003559943987554279</v>
       </c>
       <c r="EI4">
-        <v>0.009346741409357548</v>
+        <v>0.009503628484029554</v>
       </c>
       <c r="EJ4">
-        <v>0.00012689414555756</v>
+        <v>0</v>
       </c>
       <c r="EK4">
-        <v>0.006522676685672495</v>
+        <v>0.006487118122713464</v>
       </c>
       <c r="EL4">
-        <v>0.004966484217516214</v>
+        <v>0.004824879058209997</v>
       </c>
       <c r="EM4">
-        <v>2.75740272076547E-05</v>
+        <v>0</v>
       </c>
       <c r="EN4">
-        <v>0.0002619534314727272</v>
+        <v>0</v>
       </c>
       <c r="EO4">
-        <v>2.414471305746164E-05</v>
+        <v>0</v>
       </c>
       <c r="EP4">
-        <v>8.369498366557411E-05</v>
+        <v>0</v>
       </c>
       <c r="EQ4">
-        <v>0.000269024441782415</v>
+        <v>0</v>
       </c>
       <c r="ER4">
-        <v>0.0001258081855099984</v>
+        <v>0</v>
       </c>
       <c r="ES4">
-        <v>0.004657707203992762</v>
+        <v>0.004495060462758568</v>
       </c>
       <c r="ET4">
-        <v>0.004039222576905103</v>
+        <v>0.003834429256158535</v>
       </c>
       <c r="EU4">
-        <v>0.0001665539572945336</v>
+        <v>0</v>
       </c>
       <c r="EV4">
-        <v>0.002440651506892774</v>
+        <v>0.002126923703771586</v>
       </c>
       <c r="EW4">
-        <v>0.0009103992398725913</v>
+        <v>0.0004923925330870539</v>
       </c>
       <c r="EX4">
-        <v>0.000543624883809041</v>
+        <v>0.0001006243713832206</v>
       </c>
       <c r="EY4">
-        <v>0.002476922808481342</v>
+        <v>0.002165666709957919</v>
       </c>
       <c r="EZ4">
-        <v>0.0005400552236527013</v>
+        <v>9.681145705527804E-05</v>
       </c>
       <c r="FA4">
-        <v>0.001313735757537448</v>
+        <v>0.0009232143816194735</v>
       </c>
       <c r="FB4">
-        <v>0.00161866227089226</v>
+        <v>0.001248920084913177</v>
       </c>
       <c r="FC4">
-        <v>0.0008421833968849544</v>
+        <v>0.0004195281275894316</v>
       </c>
       <c r="FD4">
-        <v>0.005781715953220771</v>
+        <v>0.00569566468752008</v>
       </c>
       <c r="FE4">
-        <v>0.003221864041107399</v>
+        <v>0.002961371896153463</v>
       </c>
       <c r="FF4">
-        <v>0.0001641285871883101</v>
+        <v>0</v>
       </c>
       <c r="FG4">
-        <v>0.004865416513089769</v>
+        <v>0.004716924104118511</v>
       </c>
       <c r="FH4">
-        <v>0.009766925427760271</v>
+        <v>0.009952445904728513</v>
       </c>
       <c r="FI4">
-        <v>0.0002776442421599349</v>
+        <v>0</v>
       </c>
       <c r="FJ4">
-        <v>0.0004256849586436474</v>
+        <v>0</v>
       </c>
       <c r="FK4">
-        <v>0.01047650845883775</v>
+        <v>0.01071038340789815</v>
       </c>
       <c r="FL4">
-        <v>0.01348517259060767</v>
+        <v>0.01392407268742763</v>
       </c>
       <c r="FM4">
-        <v>5.959897961024577E-05</v>
+        <v>0</v>
       </c>
       <c r="FN4">
-        <v>0.001568284068685855</v>
+        <v>0.001195108864630024</v>
       </c>
       <c r="FO4">
-        <v>3.023634732425585E-05</v>
+        <v>0</v>
       </c>
       <c r="FP4">
-        <v>1.205641152803248E-05</v>
+        <v>0</v>
       </c>
       <c r="FQ4">
-        <v>0.001877313782220373</v>
+        <v>0.001525197380312138</v>
       </c>
       <c r="FR4">
-        <v>0.001571929968845533</v>
+        <v>0.001199003214329504</v>
       </c>
       <c r="FS4">
-        <v>0.002380195604244998</v>
+        <v>0.002062348039053191</v>
       </c>
       <c r="FT4">
-        <v>0.002709578418670918</v>
+        <v>0.00241417661586383</v>
       </c>
       <c r="FU4">
-        <v>0.0001022586544786039</v>
+        <v>0</v>
       </c>
       <c r="FV4">
-        <v>0.0001544525067645286</v>
+        <v>0</v>
       </c>
       <c r="FW4">
-        <v>0.003951983673084317</v>
+        <v>0.003741245465051272</v>
       </c>
       <c r="FX4">
-        <v>0.008625850377784813</v>
+        <v>0.008733612397683823</v>
       </c>
       <c r="FY4">
-        <v>0.0009158209801100463</v>
+        <v>0.00049818373732734</v>
       </c>
       <c r="FZ4">
-        <v>0.0004961881217314617</v>
+        <v>4.995503540299382E-05</v>
       </c>
       <c r="GA4">
-        <v>0.001935092484750897</v>
+        <v>0.0015869134073511</v>
       </c>
       <c r="GB4">
-        <v>0.001349549559105979</v>
+        <v>0.0009614687114878846</v>
       </c>
       <c r="GC4">
-        <v>0.001341674158761061</v>
+        <v>0.0009530566426918987</v>
       </c>
       <c r="GD4">
-        <v>0.00518718622718226</v>
+        <v>0.00506062078655544</v>
       </c>
       <c r="GE4">
-        <v>0.007676887636223264</v>
+        <v>0.007719982675101525</v>
       </c>
       <c r="GF4">
-        <v>0.005645288847245698</v>
+        <v>0.00554994076862874</v>
       </c>
       <c r="GG4">
-        <v>0.004264792586784352</v>
+        <v>0.004075370714155661</v>
       </c>
       <c r="GH4">
-        <v>0.001539450067423017</v>
+        <v>0.001164309972933925</v>
       </c>
       <c r="GI4">
-        <v>4.159644782179213E-05</v>
+        <v>0</v>
       </c>
       <c r="GJ4">
-        <v>1.031398145171959E-05</v>
+        <v>0</v>
       </c>
       <c r="GK4">
-        <v>0.0008709060381429147</v>
+        <v>0.0004502080706630964</v>
       </c>
       <c r="GL4">
-        <v>0.0004276805187310466</v>
+        <v>0</v>
       </c>
       <c r="GM4">
-        <v>0.0007888940345510499</v>
+        <v>0.0003626073664326567</v>
       </c>
       <c r="GN4">
-        <v>0.003913516771399589</v>
+        <v>0.003700157239796896</v>
       </c>
       <c r="GO4">
-        <v>0.00513177992475564</v>
+        <v>0.005001438826612956</v>
       </c>
       <c r="GP4">
-        <v>0.0004449772694885893</v>
+        <v>0</v>
       </c>
       <c r="GQ4">
-        <v>5.47644763985099E-05</v>
+        <v>0</v>
       </c>
       <c r="GR4">
-        <v>0.003213165440726428</v>
+        <v>0.002952080530428704</v>
       </c>
       <c r="GS4">
-        <v>0.02122090692940824</v>
+        <v>0.02218695794982042</v>
       </c>
       <c r="GT4">
         <v>0</v>
@@ -4313,604 +4313,604 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>0.0002009002873653491</v>
+        <v>3.361653693854786E-05</v>
       </c>
       <c r="C5">
-        <v>0.000187049488236428</v>
+        <v>1.941527046350923E-05</v>
       </c>
       <c r="D5">
-        <v>0.0001290606418833558</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>4.857823694490697E-05</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>4.189304036534004E-05</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0001033659334993</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0001740680890528303</v>
+        <v>6.10540239675014E-06</v>
       </c>
       <c r="I5">
-        <v>3.648617070537893E-07</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>8.659562855398718E-07</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>6.129841614493289E-09</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>2.984805712285095E-05</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.000115545328733336</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>7.773481511124514E-05</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.0002335386553127169</v>
+        <v>6.708075486681966E-05</v>
       </c>
       <c r="P5">
-        <v>0.0001399278211999171</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.0001207967924030706</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.000184717008383118</v>
+        <v>1.702377177551299E-05</v>
       </c>
       <c r="S5">
-        <v>0.0001681133594273241</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>2.048036071198687E-05</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>7.648706518971634E-05</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>3.110306504392331E-05</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>1.61766709826466E-06</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>2.740769127632595E-06</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>8.86144784270214E-05</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>1.09044183142194E-06</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.0001083360931867259</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.0001048156334081282</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>9.118107426560777E-06</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>4.043153445725438E-06</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.0001710814992406574</v>
+        <v>3.043242778411448E-06</v>
       </c>
       <c r="AF5">
-        <v>0.0001189362125200827</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>4.319050728374214E-05</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>8.180060485554698E-05</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.0001929249678669182</v>
+        <v>2.543941759932522E-05</v>
       </c>
       <c r="AJ5">
-        <v>0.0001488115906412155</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>1.577396000797315E-05</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>3.655658070095084E-05</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>3.536370177597118E-05</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>1.003231136906635E-06</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>3.17953960003825E-06</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>2.139051765474695E-05</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>5.01717068446934E-05</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>0.0001326298616588869</v>
+        <v>0</v>
       </c>
       <c r="AS5">
-        <v>2.771398425706313E-05</v>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <v>3.55295097655435E-05</v>
+        <v>0</v>
       </c>
       <c r="AU5">
-        <v>0.0002431908047056917</v>
+        <v>7.697713299711135E-05</v>
       </c>
       <c r="AV5">
-        <v>0.000330020299244971</v>
+        <v>0.0001660036778460997</v>
       </c>
       <c r="AW5">
-        <v>9.738184387564039E-05</v>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <v>6.850510569170304E-05</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>5.533027052027051E-05</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
-        <v>2.801400823819458E-05</v>
+        <v>0</v>
       </c>
       <c r="BA5">
-        <v>1.565904201520036E-05</v>
+        <v>0</v>
       </c>
       <c r="BB5">
-        <v>6.68684957946297E-05</v>
+        <v>0</v>
       </c>
       <c r="BC5">
-        <v>4.818887696939388E-06</v>
+        <v>0</v>
       </c>
       <c r="BD5">
-        <v>2.692990030637429E-06</v>
+        <v>0</v>
       </c>
       <c r="BE5">
-        <v>4.170563037712629E-05</v>
+        <v>0</v>
       </c>
       <c r="BF5">
-        <v>3.029334809484653E-06</v>
+        <v>0</v>
       </c>
       <c r="BG5">
-        <v>8.117420489494138E-06</v>
+        <v>0</v>
       </c>
       <c r="BH5">
-        <v>9.817537382573517E-06</v>
+        <v>0</v>
       </c>
       <c r="BI5">
-        <v>1.959250876782401E-05</v>
+        <v>0</v>
       </c>
       <c r="BJ5">
-        <v>0.0001619149298171444</v>
+        <v>0</v>
       </c>
       <c r="BK5">
-        <v>0.0002405478448719079</v>
+        <v>7.426729824078913E-05</v>
       </c>
       <c r="BL5">
-        <v>6.253051606744592E-05</v>
+        <v>0</v>
       </c>
       <c r="BM5">
-        <v>0.0001189362125200827</v>
+        <v>0</v>
       </c>
       <c r="BN5">
-        <v>0.000243643064677249</v>
+        <v>7.744083652152878E-05</v>
       </c>
       <c r="BO5">
-        <v>0.0001774589188395804</v>
+        <v>9.582030490546539E-06</v>
       </c>
       <c r="BP5">
-        <v>0.0002245160758801484</v>
+        <v>5.782987673181272E-05</v>
       </c>
       <c r="BQ5">
-        <v>0.0003563491075891481</v>
+        <v>0.0001929986851222615</v>
       </c>
       <c r="BR5">
-        <v>0.0001481190506847694</v>
+        <v>0</v>
       </c>
       <c r="BS5">
-        <v>5.833364433138785E-05</v>
+        <v>0</v>
       </c>
       <c r="BT5">
-        <v>0.0002352877852027138</v>
+        <v>6.887414306313208E-05</v>
       </c>
       <c r="BU5">
-        <v>0.0002780479125135227</v>
+        <v>0.0001127162316527655</v>
       </c>
       <c r="BV5">
-        <v>6.219417608859841E-06</v>
+        <v>0</v>
       </c>
       <c r="BW5">
-        <v>1.61766709826466E-06</v>
+        <v>0</v>
       </c>
       <c r="BX5">
-        <v>3.402463786018513E-05</v>
+        <v>0</v>
       </c>
       <c r="BY5">
-        <v>1.212921423719179E-07</v>
+        <v>0</v>
       </c>
       <c r="BZ5">
-        <v>2.801400823819458E-05</v>
+        <v>0</v>
       </c>
       <c r="CA5">
-        <v>0.0001146307187908559</v>
+        <v>0</v>
       </c>
       <c r="CB5">
-        <v>0.0004125800740527737</v>
+        <v>0.0002506524660677596</v>
       </c>
       <c r="CC5">
-        <v>0.0004637161008368209</v>
+        <v>0.0003030823898631771</v>
       </c>
       <c r="CD5">
-        <v>0.0001512412004884169</v>
+        <v>0</v>
       </c>
       <c r="CE5">
-        <v>0.0002842327821245552</v>
+        <v>0.0001190575972766624</v>
       </c>
       <c r="CF5">
-        <v>0.0003693295967728031</v>
+        <v>0.0002063076201633115</v>
       </c>
       <c r="CG5">
-        <v>0.0005315083165733577</v>
+        <v>0.0003725899548525239</v>
       </c>
       <c r="CH5">
-        <v>0.0003898134754845687</v>
+        <v>0.0002273098033096073</v>
       </c>
       <c r="CI5">
-        <v>0.0003601034473530371</v>
+        <v>0.0001968480211012589</v>
       </c>
       <c r="CJ5">
-        <v>0.0002476427644257073</v>
+        <v>8.154174083898425E-05</v>
       </c>
       <c r="CK5">
-        <v>0.0001925225578922258</v>
+        <v>2.502682542831559E-05</v>
       </c>
       <c r="CL5">
-        <v>0.0001239404022053684</v>
+        <v>0</v>
       </c>
       <c r="CM5">
-        <v>2.623810334988152E-05</v>
+        <v>0</v>
       </c>
       <c r="CN5">
-        <v>0.01583329100424181</v>
+        <v>0.01606155428594093</v>
       </c>
       <c r="CO5">
-        <v>0.1350684415055243</v>
+        <v>0.1383137167567972</v>
       </c>
       <c r="CP5">
-        <v>0.1088090631569807</v>
+        <v>0.1113898962663345</v>
       </c>
       <c r="CQ5">
-        <v>0.21685300636208</v>
+        <v>0.2221676798575893</v>
       </c>
       <c r="CR5">
-        <v>0.0001083360931867259</v>
+        <v>0</v>
       </c>
       <c r="CS5">
-        <v>0.02856522620352839</v>
+        <v>0.02911564617082395</v>
       </c>
       <c r="CT5">
-        <v>0.000312710740333572</v>
+        <v>0.0001482561344460311</v>
       </c>
       <c r="CU5">
-        <v>0.007010462259110916</v>
+        <v>0.007015481138319239</v>
       </c>
       <c r="CV5">
-        <v>0.0001065627132982541</v>
+        <v>0</v>
       </c>
       <c r="CW5">
-        <v>0.0002963368813633265</v>
+        <v>0.000131467967041623</v>
       </c>
       <c r="CX5">
-        <v>0.0007555774524816141</v>
+        <v>0.0006023287214209101</v>
       </c>
       <c r="CY5">
-        <v>0.007190009147819184</v>
+        <v>0.007199571109416007</v>
       </c>
       <c r="CZ5">
-        <v>0.01313757617377575</v>
+        <v>0.01329762967106246</v>
       </c>
       <c r="DA5">
-        <v>0.0005262798669021757</v>
+        <v>0.0003672292095019726</v>
       </c>
       <c r="DB5">
-        <v>0.0001644488396577864</v>
+        <v>0</v>
       </c>
       <c r="DC5">
-        <v>0.00617998361133985</v>
+        <v>0.006163988854801776</v>
       </c>
       <c r="DD5">
-        <v>0.0172848299129543</v>
+        <v>0.01754982154399903</v>
       </c>
       <c r="DE5">
-        <v>0.04022899046999241</v>
+        <v>0.0410745391493688</v>
       </c>
       <c r="DF5">
-        <v>0.002675903531712002</v>
+        <v>0.002571244891259357</v>
       </c>
       <c r="DG5">
-        <v>0.003365086788369158</v>
+        <v>0.0032778665805081</v>
       </c>
       <c r="DH5">
-        <v>0.0001536975503339367</v>
+        <v>0</v>
       </c>
       <c r="DI5">
-        <v>0.0007895568503446445</v>
+        <v>0.0006371679014005451</v>
       </c>
       <c r="DJ5">
-        <v>0.0005062763681601989</v>
+        <v>0.0003467195613998098</v>
       </c>
       <c r="DK5">
-        <v>0.002481095543963507</v>
+        <v>0.002371507668898964</v>
       </c>
       <c r="DL5">
-        <v>0.002431798547063804</v>
+        <v>0.002320963308037499</v>
       </c>
       <c r="DM5">
-        <v>0.004478137218369239</v>
+        <v>0.004419080571806436</v>
       </c>
       <c r="DN5">
-        <v>0.001304156317981402</v>
+        <v>0.001164788300758102</v>
       </c>
       <c r="DO5">
-        <v>0.0005393994660770821</v>
+        <v>0.0003806807744401651</v>
       </c>
       <c r="DP5">
-        <v>0.000839842197182191</v>
+        <v>0.0006887256204594142</v>
       </c>
       <c r="DQ5">
-        <v>0.004286260030436427</v>
+        <v>0.004222348307411291</v>
       </c>
       <c r="DR5">
-        <v>0.002692069230695339</v>
+        <v>0.002587819631596054</v>
       </c>
       <c r="DS5">
-        <v>0.03708379766779408</v>
+        <v>0.03784976340295514</v>
       </c>
       <c r="DT5">
-        <v>0.0260671213606346</v>
+        <v>0.02655433167724766</v>
       </c>
       <c r="DU5">
-        <v>0.001030800335172803</v>
+        <v>0.000884515580153468</v>
       </c>
       <c r="DV5">
-        <v>0.00854493346260778</v>
+        <v>0.008588779130464023</v>
       </c>
       <c r="DW5">
-        <v>0.001000892637053703</v>
+        <v>0.0008538511263056387</v>
       </c>
       <c r="DX5">
-        <v>0.03024138709811437</v>
+        <v>0.03083421903420131</v>
       </c>
       <c r="DY5">
-        <v>0.002652404833189839</v>
+        <v>0.002547151604191679</v>
       </c>
       <c r="DZ5">
-        <v>0.01174350426144915</v>
+        <v>0.01186828349918863</v>
       </c>
       <c r="EA5">
-        <v>0.004926218690189325</v>
+        <v>0.004878499867734111</v>
       </c>
       <c r="EB5">
-        <v>3.794410161368943E-05</v>
+        <v>0</v>
       </c>
       <c r="EC5">
-        <v>0.0009901506377292693</v>
+        <v>0.0008428373217257687</v>
       </c>
       <c r="ED5">
-        <v>0.001101290830739645</v>
+        <v>0.0009567896996598295</v>
       </c>
       <c r="EE5">
-        <v>0.0002245160758801484</v>
+        <v>5.782987673181272E-05</v>
       </c>
       <c r="EF5">
-        <v>0.01763782189075458</v>
+        <v>0.01791174529248698</v>
       </c>
       <c r="EG5">
-        <v>0.01566218301500283</v>
+        <v>0.01588611674413751</v>
       </c>
       <c r="EH5">
-        <v>1.12092132950508E-06</v>
+        <v>0</v>
       </c>
       <c r="EI5">
-        <v>0.005612774447011725</v>
+        <v>0.005582427573410558</v>
       </c>
       <c r="EJ5">
-        <v>0.0001551171302446591</v>
+        <v>0</v>
       </c>
       <c r="EK5">
-        <v>0.01095049431132167</v>
+        <v>0.01105520798532875</v>
       </c>
       <c r="EL5">
-        <v>0.009176146422910697</v>
+        <v>0.009235963698540132</v>
       </c>
       <c r="EM5">
-        <v>2.510577642109374E-06</v>
+        <v>0</v>
       </c>
       <c r="EN5">
-        <v>0.0006906372565657134</v>
+        <v>0.0005357453410282754</v>
       </c>
       <c r="EO5">
-        <v>0.000814489248776642</v>
+        <v>0.0006627311653464727</v>
       </c>
       <c r="EP5">
-        <v>0.0003233429796649087</v>
+        <v>0.0001591574017711362</v>
       </c>
       <c r="EQ5">
-        <v>2.120845066619718E-06</v>
+        <v>0</v>
       </c>
       <c r="ER5">
-        <v>0.0008489093466119566</v>
+        <v>0.0006980221963481099</v>
       </c>
       <c r="ES5">
-        <v>0.009703413889750762</v>
+        <v>0.009776572636011428</v>
       </c>
       <c r="ET5">
-        <v>0.00782515850787454</v>
+        <v>0.007850791680131121</v>
       </c>
       <c r="EU5">
-        <v>0.000205347407085669</v>
+        <v>3.817618231401167E-05</v>
       </c>
       <c r="EV5">
-        <v>0.0003192779299205603</v>
+        <v>0.0001549894939041281</v>
       </c>
       <c r="EW5">
-        <v>1.455329508474096E-08</v>
+        <v>0</v>
       </c>
       <c r="EX5">
-        <v>0.003310904591776685</v>
+        <v>0.003222313409542969</v>
       </c>
       <c r="EY5">
-        <v>0.00660019658491259</v>
+        <v>0.006594834494712497</v>
       </c>
       <c r="EZ5">
-        <v>0.001616450298341184</v>
+        <v>0.001484984268684555</v>
       </c>
       <c r="FA5">
-        <v>0.0008874418041886442</v>
+        <v>0.0007375296423006013</v>
       </c>
       <c r="FB5">
-        <v>0.0005567099649884219</v>
+        <v>0.0003984292816250321</v>
       </c>
       <c r="FC5">
-        <v>0.001767202188860374</v>
+        <v>0.001639550640556099</v>
       </c>
       <c r="FD5">
-        <v>0.006086509317218464</v>
+        <v>0.006068149376730639</v>
       </c>
       <c r="FE5">
-        <v>0.002562437838847878</v>
+        <v>0.00245490817125208</v>
       </c>
       <c r="FF5">
-        <v>0.0002379017650383203</v>
+        <v>7.155426453917836E-05</v>
       </c>
       <c r="FG5">
-        <v>0.005610687347142983</v>
+        <v>0.00558028766356708</v>
       </c>
       <c r="FH5">
-        <v>0.01643617396632641</v>
+        <v>0.01667969202067617</v>
       </c>
       <c r="FI5">
-        <v>0.003428055884409022</v>
+        <v>0.003342428986202598</v>
       </c>
       <c r="FJ5">
-        <v>0.00014060769115716</v>
+        <v>0</v>
       </c>
       <c r="FK5">
-        <v>0.01541774203037576</v>
+        <v>0.01563549065911535</v>
       </c>
       <c r="FL5">
-        <v>0.02312689154554612</v>
+        <v>0.02353970510492672</v>
       </c>
       <c r="FM5">
-        <v>0.0008622258457744797</v>
+        <v>0.0007116756434424908</v>
       </c>
       <c r="FN5">
-        <v>0.0002890441218219693</v>
+        <v>0.0001239906785024409</v>
       </c>
       <c r="FO5">
-        <v>0.001132651828767347</v>
+        <v>0.0009889442263242593</v>
       </c>
       <c r="FP5">
-        <v>0.000695890056235364</v>
+        <v>0.0005411310525063189</v>
       </c>
       <c r="FQ5">
-        <v>0.0006854192068938774</v>
+        <v>0.0005303952588286859</v>
       </c>
       <c r="FR5">
-        <v>0.0006314678102868893</v>
+        <v>0.0004750787277906664</v>
       </c>
       <c r="FS5">
-        <v>0.001674083694716611</v>
+        <v>0.001544075965284209</v>
       </c>
       <c r="FT5">
-        <v>0.001555340002184421</v>
+        <v>0.001422327696163866</v>
       </c>
       <c r="FU5">
-        <v>3.435364783949364E-05</v>
+        <v>0</v>
       </c>
       <c r="FV5">
-        <v>0.000327444029406993</v>
+        <v>0.0001633622205453194</v>
       </c>
       <c r="FW5">
-        <v>0.006476111592716315</v>
+        <v>0.006467609774800639</v>
       </c>
       <c r="FX5">
-        <v>0.01438405509538449</v>
+        <v>0.01457564830063907</v>
       </c>
       <c r="FY5">
-        <v>0.004864540994068245</v>
+        <v>0.004815261538304222</v>
       </c>
       <c r="FZ5">
-        <v>0.0003162283501123489</v>
+        <v>0.0001518627504512626</v>
       </c>
       <c r="GA5">
-        <v>1.045073834275141E-05</v>
+        <v>0</v>
       </c>
       <c r="GB5">
-        <v>0.0001801111986727782</v>
+        <v>1.230142107061526E-05</v>
       </c>
       <c r="GC5">
-        <v>0.0002714438429288536</v>
+        <v>0.0001059450590208735</v>
       </c>
       <c r="GD5">
-        <v>0.000573599363926245</v>
+        <v>0.0004157460337262477</v>
       </c>
       <c r="GE5">
-        <v>0.002678844631527036</v>
+        <v>0.002574260409845267</v>
       </c>
       <c r="GF5">
-        <v>0.002183455562682133</v>
+        <v>0.002066336490798746</v>
       </c>
       <c r="GG5">
-        <v>0.0009035998931724594</v>
+        <v>0.0007540965800816434</v>
       </c>
       <c r="GH5">
-        <v>0.0001481190506847694</v>
+        <v>0</v>
       </c>
       <c r="GI5">
-        <v>5.963883124930444E-05</v>
+        <v>0</v>
       </c>
       <c r="GJ5">
-        <v>1.114068929936028E-07</v>
+        <v>0</v>
       </c>
       <c r="GK5">
-        <v>0.0003430531484253331</v>
+        <v>0.0001793662977510299</v>
       </c>
       <c r="GL5">
-        <v>0.001266460320352109</v>
+        <v>0.001126138479733825</v>
       </c>
       <c r="GM5">
-        <v>0.003165402200927354</v>
+        <v>0.003073129365649644</v>
       </c>
       <c r="GN5">
-        <v>0.0009590820396831784</v>
+        <v>0.000810982593651839</v>
       </c>
       <c r="GO5">
-        <v>0.001918445079348685</v>
+        <v>0.001794620436189392</v>
       </c>
       <c r="GP5">
-        <v>0.004392968223725532</v>
+        <v>0.004331756542550902</v>
       </c>
       <c r="GQ5">
-        <v>0.004587192711510722</v>
+        <v>0.004530895500624163</v>
       </c>
       <c r="GR5">
-        <v>8.2052678839694E-05</v>
+        <v>0</v>
       </c>
       <c r="GS5">
-        <v>0.01345214015399277</v>
+        <v>0.01362015307674691</v>
       </c>
       <c r="GT5">
         <v>0</v>
@@ -5086,604 +5086,604 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>0.0008785339835207448</v>
+        <v>0.0007898612425459823</v>
       </c>
       <c r="C6">
-        <v>0.001470014888762989</v>
+        <v>0.001392750519985571</v>
       </c>
       <c r="D6">
-        <v>0.001080405318245006</v>
+        <v>0.000995626233518649</v>
       </c>
       <c r="E6">
-        <v>0.0004371452969209225</v>
+        <v>0.0003399591341673697</v>
       </c>
       <c r="F6">
-        <v>0.0002105931440642757</v>
+        <v>0.0001090372860948819</v>
       </c>
       <c r="G6">
-        <v>0.0006094065538857978</v>
+        <v>0.0005155429337827688</v>
       </c>
       <c r="H6">
-        <v>0.0007310373446819143</v>
+        <v>0.0006395197163425436</v>
       </c>
       <c r="I6">
-        <v>0.000113201601433959</v>
+        <v>9.767273750069188E-06</v>
       </c>
       <c r="J6">
-        <v>3.879746706416968E-05</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.0001036191521590693</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>8.477582858495625E-05</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.0001084618817926167</v>
+        <v>4.936135289792544E-06</v>
       </c>
       <c r="N6">
-        <v>0.0003458805438269875</v>
+        <v>0.0002469340837205253</v>
       </c>
       <c r="O6">
-        <v>0.000603723054315872</v>
+        <v>0.0005097498119445627</v>
       </c>
       <c r="P6">
-        <v>0.0008707818841073515</v>
+        <v>0.0007819596221004898</v>
       </c>
       <c r="Q6">
-        <v>0.0007728526415177228</v>
+        <v>0.0006821415387409143</v>
       </c>
       <c r="R6">
-        <v>0.0008615542348056139</v>
+        <v>0.0007725539916385697</v>
       </c>
       <c r="S6">
-        <v>0.001119545015283279</v>
+        <v>0.00103552084965498</v>
       </c>
       <c r="T6">
-        <v>0.001440876990967873</v>
+        <v>0.001363050615910711</v>
       </c>
       <c r="U6">
-        <v>0.001058504419902261</v>
+        <v>0.0009733029147773156</v>
       </c>
       <c r="V6">
-        <v>0.0006766790787952409</v>
+        <v>0.0005841129984707914</v>
       </c>
       <c r="W6">
-        <v>0.0004826108634805126</v>
+        <v>0.0003863016320038242</v>
       </c>
       <c r="X6">
-        <v>0.0002841828784956912</v>
+        <v>0.0001840464054512486</v>
       </c>
       <c r="Y6">
-        <v>0.0003476321036944458</v>
+        <v>0.000248719427344512</v>
       </c>
       <c r="Z6">
-        <v>0.0001261062604574548</v>
+        <v>2.292083540408957E-05</v>
       </c>
       <c r="AA6">
-        <v>1.092732117312229E-06</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.0002096841341330611</v>
+        <v>0.0001081107433514759</v>
       </c>
       <c r="AC6">
-        <v>7.371845442167518E-05</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.0002096841341330611</v>
+        <v>0.0001081107433514759</v>
       </c>
       <c r="AE6">
-        <v>0.0007352821443607076</v>
+        <v>0.0006438463889173335</v>
       </c>
       <c r="AF6">
-        <v>0.0008155802382844969</v>
+        <v>0.0007256932573393371</v>
       </c>
       <c r="AG6">
-        <v>0.0007125060460841902</v>
+        <v>0.0006206309895508926</v>
       </c>
       <c r="AH6">
-        <v>0.001187001710178785</v>
+        <v>0.001104278636565039</v>
       </c>
       <c r="AI6">
-        <v>0.0009066350613943174</v>
+        <v>0.0008185043287121083</v>
       </c>
       <c r="AJ6">
-        <v>0.0009955703246645265</v>
+        <v>0.0009091549585746503</v>
       </c>
       <c r="AK6">
-        <v>0.001294096602074843</v>
+        <v>0.001213439154547004</v>
       </c>
       <c r="AL6">
-        <v>0.0009661126268936102</v>
+        <v>0.0008791290862823438</v>
       </c>
       <c r="AM6">
-        <v>0.000321463455674645</v>
+        <v>0.0002220460433748855</v>
       </c>
       <c r="AN6">
-        <v>0.0006070867540613386</v>
+        <v>0.0005131783900966122</v>
       </c>
       <c r="AO6">
-        <v>0.0002580471404734</v>
+        <v>0.0001574065662409596</v>
       </c>
       <c r="AP6">
-        <v>0.0001199717709216557</v>
+        <v>1.666802499056675E-05</v>
       </c>
       <c r="AQ6">
-        <v>4.349368670880359E-05</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>1.496968886723361E-07</v>
+        <v>0</v>
       </c>
       <c r="AS6">
-        <v>0.0003190170458597664</v>
+        <v>0.0002195524476686823</v>
       </c>
       <c r="AT6">
-        <v>0.0003123322763656074</v>
+        <v>0.0002127387436006986</v>
       </c>
       <c r="AU6">
-        <v>6.3503389194656E-05</v>
+        <v>0</v>
       </c>
       <c r="AV6">
-        <v>0.0001554555882365715</v>
+        <v>5.283624748462411E-05</v>
       </c>
       <c r="AW6">
-        <v>0.0007409381839327113</v>
+        <v>0.0006496115211143542</v>
       </c>
       <c r="AX6">
-        <v>0.001336899598835912</v>
+        <v>0.001257067727440597</v>
       </c>
       <c r="AY6">
-        <v>0.000498583162271878</v>
+        <v>0.0004025820014832611</v>
       </c>
       <c r="AZ6">
-        <v>0.0005517363582497401</v>
+        <v>0.0004567604062849744</v>
       </c>
       <c r="BA6">
-        <v>0.0009357922691879721</v>
+        <v>0.0008482239152331187</v>
       </c>
       <c r="BB6">
-        <v>0.0006783112786717311</v>
+        <v>0.0005857766799108054</v>
       </c>
       <c r="BC6">
-        <v>0.0002799701588144705</v>
+        <v>0.000179752431626977</v>
       </c>
       <c r="BD6">
-        <v>0.0002200891033457101</v>
+        <v>0.0001187164016488067</v>
       </c>
       <c r="BE6">
-        <v>0.0006137797135548778</v>
+        <v>0.0005200004421311401</v>
       </c>
       <c r="BF6">
-        <v>0.0002608955602578581</v>
+        <v>0.0001603099258092508</v>
       </c>
       <c r="BG6">
-        <v>2.633101400751453E-05</v>
+        <v>0</v>
       </c>
       <c r="BH6">
-        <v>1.809197963096778E-05</v>
+        <v>0</v>
       </c>
       <c r="BI6">
-        <v>2.728553493528529E-07</v>
+        <v>0</v>
       </c>
       <c r="BJ6">
-        <v>5.215803305316669E-05</v>
+        <v>0</v>
       </c>
       <c r="BK6">
-        <v>0.0001803680963514253</v>
+        <v>7.822926335961808E-05</v>
       </c>
       <c r="BL6">
-        <v>0.0002822622286410281</v>
+        <v>0.0001820887104642599</v>
       </c>
       <c r="BM6">
-        <v>0.0004624109650090524</v>
+        <v>0.0003657121216986284</v>
       </c>
       <c r="BN6">
-        <v>0.0008173720381489103</v>
+        <v>0.0007275196171017543</v>
       </c>
       <c r="BO6">
-        <v>0.0005279597600489313</v>
+        <v>0.0004325252095403115</v>
       </c>
       <c r="BP6">
-        <v>0.0003425996440752554</v>
+        <v>0.0002435899025928803</v>
       </c>
       <c r="BQ6">
-        <v>0.0006818763884019569</v>
+        <v>0.0005894105528054314</v>
       </c>
       <c r="BR6">
-        <v>0.00063048391229086</v>
+        <v>0.0005370268283033515</v>
       </c>
       <c r="BS6">
-        <v>0.0004876937830958847</v>
+        <v>0.0003914825900145314</v>
       </c>
       <c r="BT6">
-        <v>0.0004691777844970027</v>
+        <v>0.000372609458325216</v>
       </c>
       <c r="BU6">
-        <v>0.0003242803554614882</v>
+        <v>0.0002249172749937898</v>
       </c>
       <c r="BV6">
-        <v>7.237858452306403E-05</v>
+        <v>0</v>
       </c>
       <c r="BW6">
-        <v>7.507061831935601E-05</v>
+        <v>0</v>
       </c>
       <c r="BX6">
-        <v>1.445062590651146E-06</v>
+        <v>0</v>
       </c>
       <c r="BY6">
-        <v>8.276706773696053E-05</v>
+        <v>0</v>
       </c>
       <c r="BZ6">
-        <v>0.0001702562871165927</v>
+        <v>6.792241945449079E-05</v>
       </c>
       <c r="CA6">
-        <v>0.000196565975125721</v>
+        <v>9.473956376617075E-05</v>
       </c>
       <c r="CB6">
-        <v>0.0002841828784956912</v>
+        <v>0.0001840464054512486</v>
       </c>
       <c r="CC6">
-        <v>0.0001987700849589345</v>
+        <v>9.698618605433974E-05</v>
       </c>
       <c r="CD6">
-        <v>0.0001150908912909952</v>
+        <v>1.169300387370858E-05</v>
       </c>
       <c r="CE6">
-        <v>0.0001593893979388975</v>
+        <v>5.684593176690679E-05</v>
       </c>
       <c r="CF6">
-        <v>0.000356456233026718</v>
+        <v>0.0002577137548198652</v>
       </c>
       <c r="CG6">
-        <v>0.0003535025732502234</v>
+        <v>0.0002547031254104105</v>
       </c>
       <c r="CH6">
-        <v>0.0002789218788937946</v>
+        <v>0.0001786839326808074</v>
       </c>
       <c r="CI6">
-        <v>0.000196565975125721</v>
+        <v>9.473956376617075E-05</v>
       </c>
       <c r="CJ6">
-        <v>0.0001226098907220274</v>
+        <v>1.935702834832314E-05</v>
       </c>
       <c r="CK6">
-        <v>1.515464885323757E-05</v>
+        <v>0</v>
       </c>
       <c r="CL6">
-        <v>7.661059420282502E-05</v>
+        <v>0</v>
       </c>
       <c r="CM6">
-        <v>4.280168676116769E-05</v>
+        <v>0</v>
       </c>
       <c r="CN6">
-        <v>0.07814289808687455</v>
+        <v>0.07954448583524087</v>
       </c>
       <c r="CO6">
-        <v>0.03146705761886667</v>
+        <v>0.03196837055537777</v>
       </c>
       <c r="CP6">
-        <v>0.1879575457771266</v>
+        <v>0.1914772177484445</v>
       </c>
       <c r="CQ6">
-        <v>0.1524471384642229</v>
+        <v>0.1552818923935306</v>
       </c>
       <c r="CR6">
-        <v>0.008222938377764744</v>
+        <v>0.008275923124216451</v>
       </c>
       <c r="CS6">
-        <v>0.02134932438448232</v>
+        <v>0.02165548838971216</v>
       </c>
       <c r="CT6">
-        <v>0.009750381262182117</v>
+        <v>0.009832827039042712</v>
       </c>
       <c r="CU6">
-        <v>0.001666086973926082</v>
+        <v>0.00159260440656478</v>
       </c>
       <c r="CV6">
-        <v>0.002765231290753096</v>
+        <v>0.002712948811769664</v>
       </c>
       <c r="CW6">
-        <v>0.000105221112037848</v>
+        <v>1.632858178927186E-06</v>
       </c>
       <c r="CX6">
-        <v>0.0001068353519156974</v>
+        <v>3.278233211232262E-06</v>
       </c>
       <c r="CY6">
-        <v>0.01807692163210723</v>
+        <v>0.01831996814994596</v>
       </c>
       <c r="CZ6">
-        <v>0.01036548921563649</v>
+        <v>0.01045979907874629</v>
       </c>
       <c r="DA6">
-        <v>0.0002685473996788384</v>
+        <v>0.0001681093524664972</v>
       </c>
       <c r="DB6">
-        <v>0.002432922415899131</v>
+        <v>0.002374230425982692</v>
       </c>
       <c r="DC6">
-        <v>0.001934137253642538</v>
+        <v>0.001865824789544933</v>
       </c>
       <c r="DD6">
-        <v>0.02832575785657093</v>
+        <v>0.02876648199544871</v>
       </c>
       <c r="DE6">
-        <v>0.03083267566687077</v>
+        <v>0.03132175276388224</v>
       </c>
       <c r="DF6">
-        <v>0.0001376249495858279</v>
+        <v>3.466169483692612E-05</v>
       </c>
       <c r="DG6">
-        <v>0.00461704805062488</v>
+        <v>0.004600483064210792</v>
       </c>
       <c r="DH6">
-        <v>0.0002495558411159423</v>
+        <v>0.0001487514883022319</v>
       </c>
       <c r="DI6">
-        <v>0.001653313674892647</v>
+        <v>0.001579584738547544</v>
       </c>
       <c r="DJ6">
-        <v>0.0004123600387964396</v>
+        <v>0.0003146958226565724</v>
       </c>
       <c r="DK6">
-        <v>0.01100717416707976</v>
+        <v>0.01111386072856582</v>
       </c>
       <c r="DL6">
-        <v>0.0001223877807388346</v>
+        <v>1.913063434964553E-05</v>
       </c>
       <c r="DM6">
-        <v>0.01136651213988841</v>
+        <v>0.01148012954445344</v>
       </c>
       <c r="DN6">
-        <v>5.072782016139186E-05</v>
+        <v>0</v>
       </c>
       <c r="DO6">
-        <v>0.001055446220133677</v>
+        <v>0.0009701857290281114</v>
       </c>
       <c r="DP6">
-        <v>0.003758608115583606</v>
+        <v>0.003725485701531165</v>
       </c>
       <c r="DQ6">
-        <v>0.004877031630951749</v>
+        <v>0.004865481158824224</v>
       </c>
       <c r="DR6">
-        <v>0.005860744556513533</v>
+        <v>0.005868167753849693</v>
       </c>
       <c r="DS6">
-        <v>0.03558717030709498</v>
+        <v>0.03616795120043398</v>
       </c>
       <c r="DT6">
-        <v>0.007367861842468958</v>
+        <v>0.007404354033902553</v>
       </c>
       <c r="DU6">
-        <v>0.00532021099741607</v>
+        <v>0.005317208485362992</v>
       </c>
       <c r="DV6">
-        <v>0.009710174265224608</v>
+        <v>0.009791844537107505</v>
       </c>
       <c r="DW6">
-        <v>0.002136346838341203</v>
+        <v>0.002071934554593745</v>
       </c>
       <c r="DX6">
-        <v>0.02593845703721958</v>
+        <v>0.0263331353679355</v>
       </c>
       <c r="DY6">
-        <v>9.410557287896824E-06</v>
+        <v>0</v>
       </c>
       <c r="DZ6">
-        <v>0.01496270386776217</v>
+        <v>0.01514568394043869</v>
       </c>
       <c r="EA6">
-        <v>0.002427296316324861</v>
+        <v>0.002368495811260438</v>
       </c>
       <c r="EB6">
-        <v>0.0001248278905541899</v>
+        <v>2.161780854312231E-05</v>
       </c>
       <c r="EC6">
-        <v>0.0006783112786717311</v>
+        <v>0.0005857766799108054</v>
       </c>
       <c r="ED6">
-        <v>0.004819482635306521</v>
+        <v>0.004806822168999835</v>
       </c>
       <c r="EE6">
-        <v>0.002723118593939792</v>
+        <v>0.002670023853199096</v>
       </c>
       <c r="EF6">
-        <v>0.01899185456287364</v>
+        <v>0.0192525481346025</v>
       </c>
       <c r="EG6">
-        <v>0.004098508689863102</v>
+        <v>0.00407194221401104</v>
       </c>
       <c r="EH6">
-        <v>0.00461065865110837</v>
+        <v>0.004593970427160904</v>
       </c>
       <c r="EI6">
-        <v>0.002471739012961853</v>
+        <v>0.002413795710252053</v>
       </c>
       <c r="EJ6">
-        <v>0.002132522238630614</v>
+        <v>0.002068036186724931</v>
       </c>
       <c r="EK6">
-        <v>0.009880846252309745</v>
+        <v>0.009965808413305327</v>
       </c>
       <c r="EL6">
-        <v>0.001685339172469256</v>
+        <v>0.001612227937884127</v>
       </c>
       <c r="EM6">
-        <v>0.0005718002967314885</v>
+        <v>0.0004772113342298072</v>
       </c>
       <c r="EN6">
-        <v>2.261125028899154E-05</v>
+        <v>0</v>
       </c>
       <c r="EO6">
-        <v>0.0001797958863947248</v>
+        <v>7.764601672514284E-05</v>
       </c>
       <c r="EP6">
-        <v>5.344296595593496E-05</v>
+        <v>0</v>
       </c>
       <c r="EQ6">
-        <v>1.743131068096104E-05</v>
+        <v>0</v>
       </c>
       <c r="ER6">
-        <v>0.001604770978565905</v>
+        <v>0.001530105759845074</v>
       </c>
       <c r="ES6">
-        <v>0.009169930306105229</v>
+        <v>0.009241180454348671</v>
       </c>
       <c r="ET6">
-        <v>0.005609073275557667</v>
+        <v>0.005611642284670539</v>
       </c>
       <c r="EU6">
-        <v>2.633101400751453E-05</v>
+        <v>0</v>
       </c>
       <c r="EV6">
-        <v>0.0004637603949069402</v>
+        <v>0.000367087579145999</v>
       </c>
       <c r="EW6">
-        <v>3.461605238058013E-06</v>
+        <v>0</v>
       </c>
       <c r="EX6">
-        <v>0.001196353409471136</v>
+        <v>0.001113810709670405</v>
       </c>
       <c r="EY6">
-        <v>0.006628459498420029</v>
+        <v>0.006650690236829971</v>
       </c>
       <c r="EZ6">
-        <v>0.0002799701588144705</v>
+        <v>0.000179752431626977</v>
       </c>
       <c r="FA6">
-        <v>0.002820507186570332</v>
+        <v>0.002769290858645092</v>
       </c>
       <c r="FB6">
-        <v>0.00192912115402211</v>
+        <v>0.001860711940340635</v>
       </c>
       <c r="FC6">
-        <v>0.002002293848485083</v>
+        <v>0.001935295975940267</v>
       </c>
       <c r="FD6">
-        <v>0.003469595737453366</v>
+        <v>0.003430898907134692</v>
       </c>
       <c r="FE6">
-        <v>0.001033155721820414</v>
+        <v>0.0009474652957854734</v>
       </c>
       <c r="FF6">
-        <v>0.0005549520880064036</v>
+        <v>0.0004600381604309714</v>
       </c>
       <c r="FG6">
-        <v>0.008670589343890697</v>
+        <v>0.00873220829778816</v>
       </c>
       <c r="FH6">
-        <v>0.009871500253016962</v>
+        <v>0.009956282150140045</v>
       </c>
       <c r="FI6">
-        <v>0.0002363617021143517</v>
+        <v>0.0001353028632348704</v>
       </c>
       <c r="FJ6">
-        <v>9.498527281240078E-05</v>
+        <v>0</v>
       </c>
       <c r="FK6">
-        <v>0.01866060358793963</v>
+        <v>0.0189149080533097</v>
       </c>
       <c r="FL6">
-        <v>0.009818612257019034</v>
+        <v>0.009902374060445484</v>
       </c>
       <c r="FM6">
-        <v>0.0002558558006392202</v>
+        <v>0.0001551729602571584</v>
       </c>
       <c r="FN6">
-        <v>0.0001797958863947248</v>
+        <v>7.764601672514284E-05</v>
       </c>
       <c r="FO6">
-        <v>0.0007871785804336694</v>
+        <v>0.0006967437936660186</v>
       </c>
       <c r="FP6">
-        <v>0.000166189727424312</v>
+        <v>6.377742472547247E-05</v>
       </c>
       <c r="FQ6">
-        <v>0.002140696438012066</v>
+        <v>0.002076368048523095</v>
       </c>
       <c r="FR6">
-        <v>0.001852287759836144</v>
+        <v>0.001782396598131851</v>
       </c>
       <c r="FS6">
-        <v>0.001756403867091743</v>
+        <v>0.001684663314939738</v>
       </c>
       <c r="FT6">
-        <v>0.001377325095776887</v>
+        <v>0.001298272943745761</v>
       </c>
       <c r="FU6">
-        <v>0.0003606120327122459</v>
+        <v>0.0002619497107862973</v>
       </c>
       <c r="FV6">
-        <v>0.001585985979987378</v>
+        <v>0.001510958439755217</v>
       </c>
       <c r="FW6">
-        <v>0.009789552759217984</v>
+        <v>0.009872754068528996</v>
       </c>
       <c r="FX6">
-        <v>0.01108296316134475</v>
+        <v>0.01119111152666485</v>
       </c>
       <c r="FY6">
-        <v>0.00106054551974781</v>
+        <v>0.0009753833829719072</v>
       </c>
       <c r="FZ6">
-        <v>3.821378710833713E-05</v>
+        <v>0</v>
       </c>
       <c r="GA6">
-        <v>0.0003282446751615055</v>
+        <v>0.0002289580577448477</v>
       </c>
       <c r="GB6">
-        <v>0.0007977702396321915</v>
+        <v>0.0007075397427904762</v>
       </c>
       <c r="GC6">
-        <v>0.0006503194507898914</v>
+        <v>0.0005572449509296576</v>
       </c>
       <c r="GD6">
-        <v>0.003431581140329956</v>
+        <v>0.003392151091628283</v>
       </c>
       <c r="GE6">
-        <v>0.004421791665400062</v>
+        <v>0.004401460610636496</v>
       </c>
       <c r="GF6">
-        <v>0.003752843416019825</v>
+        <v>0.00371960981352893</v>
       </c>
       <c r="GG6">
-        <v>0.002895937080862501</v>
+        <v>0.00284617563051871</v>
       </c>
       <c r="GH6">
-        <v>0.0003554861531001247</v>
+        <v>0.0002567249641745222</v>
       </c>
       <c r="GI6">
-        <v>3.395164743085609E-05</v>
+        <v>0</v>
       </c>
       <c r="GJ6">
-        <v>8.477582858495625E-05</v>
+        <v>0</v>
       </c>
       <c r="GK6">
-        <v>0.0005298633599048846</v>
+        <v>0.0004344655256714295</v>
       </c>
       <c r="GL6">
-        <v>0.002349154422237911</v>
+        <v>0.002288846731051251</v>
       </c>
       <c r="GM6">
-        <v>0.0007480903933914987</v>
+        <v>0.0006569016810408846</v>
       </c>
       <c r="GN6">
-        <v>0.004992973122178379</v>
+        <v>0.004983658907676935</v>
       </c>
       <c r="GO6">
-        <v>0.0009883023252145011</v>
+        <v>0.0009017467753213591</v>
       </c>
       <c r="GP6">
-        <v>0.005029284919430641</v>
+        <v>0.005020671080029284</v>
       </c>
       <c r="GQ6">
-        <v>0.001273873903605108</v>
+        <v>0.001192826404481465</v>
       </c>
       <c r="GR6">
-        <v>0.004085752690828357</v>
+        <v>0.004058940179671608</v>
       </c>
       <c r="GS6">
-        <v>0.01938115853341475</v>
+        <v>0.0196493609267378</v>
       </c>
       <c r="GT6">
         <v>0</v>
@@ -6645,772 +6645,772 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>0.000132655629343415</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.000549188395882213</v>
+        <v>0.0002886849511417277</v>
       </c>
       <c r="D2">
-        <v>0.001341028472271561</v>
+        <v>0.0009616925492178642</v>
       </c>
       <c r="E2">
-        <v>0.002328522392943507</v>
+        <v>0.001835053834376524</v>
       </c>
       <c r="F2">
-        <v>0.003678937684460999</v>
+        <v>0.003080054302177179</v>
       </c>
       <c r="G2">
-        <v>0.005029352975978492</v>
+        <v>0.004325054769977834</v>
       </c>
       <c r="H2">
-        <v>0.006700712641713655</v>
+        <v>0.00589870908538716</v>
       </c>
       <c r="I2">
-        <v>0.008253843916946425</v>
+        <v>0.007351295020863336</v>
       </c>
       <c r="J2">
-        <v>0.009867821787291224</v>
+        <v>0.008866189160514147</v>
       </c>
       <c r="K2">
-        <v>0.01153918145302639</v>
+        <v>0.01043984347592347</v>
       </c>
       <c r="L2">
-        <v>0.0126158051665383</v>
+        <v>0.01140447555972075</v>
       </c>
       <c r="M2">
-        <v>0.0131920635802459</v>
+        <v>0.01185672296193137</v>
       </c>
       <c r="N2">
-        <v>0.01359711808770678</v>
+        <v>0.01213365393228124</v>
       </c>
       <c r="O2">
-        <v>0.01377859912312792</v>
+        <v>0.01218164092444736</v>
       </c>
       <c r="P2">
-        <v>0.01391321883231355</v>
+        <v>0.01218164092444736</v>
       </c>
       <c r="Q2">
-        <v>0.01392168274213363</v>
+        <v>0.01218164092444736</v>
       </c>
       <c r="R2">
-        <v>0.01395815063920406</v>
+        <v>0.01218164092444736</v>
       </c>
       <c r="S2">
-        <v>0.01419654677005306</v>
+        <v>0.01228791018170996</v>
       </c>
       <c r="T2">
-        <v>0.01486972395597492</v>
+        <v>0.01283940446267135</v>
       </c>
       <c r="U2">
-        <v>0.01602488526317769</v>
+        <v>0.01388446070847909</v>
       </c>
       <c r="V2">
-        <v>0.01718969086960571</v>
+        <v>0.01493939292128451</v>
       </c>
       <c r="W2">
-        <v>0.01820680398789826</v>
+        <v>0.01584308489313872</v>
       </c>
       <c r="X2">
-        <v>0.01973663276500299</v>
+        <v>0.01727180857620015</v>
       </c>
       <c r="Y2">
-        <v>0.02136776563396968</v>
+        <v>0.01880426979836035</v>
       </c>
       <c r="Z2">
-        <v>0.02246778054560251</v>
+        <v>0.01979285496524673</v>
       </c>
       <c r="AA2">
-        <v>0.02370121884651708</v>
+        <v>0.02091806851315809</v>
       </c>
       <c r="AB2">
-        <v>0.02439214429101317</v>
+        <v>0.02148773738740529</v>
       </c>
       <c r="AC2">
-        <v>0.02524325422264121</v>
+        <v>0.02222143857457732</v>
       </c>
       <c r="AD2">
-        <v>0.02587307101204633</v>
+        <v>0.02272853088967218</v>
       </c>
       <c r="AE2">
-        <v>0.02624522076215054</v>
+        <v>0.02297176669045798</v>
       </c>
       <c r="AF2">
-        <v>0.02632240764994991</v>
+        <v>0.02297176669045798</v>
       </c>
       <c r="AG2">
-        <v>0.02632293891230723</v>
+        <v>0.02297176669045798</v>
       </c>
       <c r="AH2">
-        <v>0.02634942348817965</v>
+        <v>0.02297176669045798</v>
       </c>
       <c r="AI2">
-        <v>0.02644471962052426</v>
+        <v>0.02297176669045798</v>
       </c>
       <c r="AJ2">
-        <v>0.02664819170417879</v>
+        <v>0.02304227298252606</v>
       </c>
       <c r="AK2">
-        <v>0.0271975805600449</v>
+        <v>0.02346700538750491</v>
       </c>
       <c r="AL2">
-        <v>0.02774035216644259</v>
+        <v>0.02388496158865192</v>
       </c>
       <c r="AM2">
-        <v>0.02819590114984711</v>
+        <v>0.02421359997354151</v>
       </c>
       <c r="AN2">
-        <v>0.02872555874729829</v>
+        <v>0.02461812715133095</v>
       </c>
       <c r="AO2">
-        <v>0.02981149386006219</v>
+        <v>0.02559229430549127</v>
       </c>
       <c r="AP2">
-        <v>0.03082586347857514</v>
+        <v>0.02649317687537144</v>
       </c>
       <c r="AQ2">
-        <v>0.03176068850347812</v>
+        <v>0.02731260409396182</v>
       </c>
       <c r="AR2">
-        <v>0.03261590076477661</v>
+        <v>0.02805050615374188</v>
       </c>
       <c r="AS2">
-        <v>0.03318538165902866</v>
+        <v>0.02849581323225392</v>
       </c>
       <c r="AT2">
-        <v>0.03336306804475464</v>
+        <v>0.02853991442263373</v>
       </c>
       <c r="AU2">
-        <v>0.03354838384986772</v>
+        <v>0.02859182830031395</v>
       </c>
       <c r="AV2">
-        <v>0.03359799544588229</v>
+        <v>0.02859182830031395</v>
       </c>
       <c r="AW2">
-        <v>0.03359850707904119</v>
+        <v>0.02859182830031395</v>
       </c>
       <c r="AX2">
-        <v>0.03361058700207078</v>
+        <v>0.02859182830031395</v>
       </c>
       <c r="AY2">
-        <v>0.03364147256258966</v>
+        <v>0.02859182830031395</v>
       </c>
       <c r="AZ2">
-        <v>0.03370003990788479</v>
+        <v>0.02859182830031395</v>
       </c>
       <c r="BA2">
-        <v>0.0338669631344754</v>
+        <v>0.02862490778741298</v>
       </c>
       <c r="BB2">
-        <v>0.03393221210923377</v>
+        <v>0.02862490778741298</v>
       </c>
       <c r="BC2">
-        <v>0.03416366413064061</v>
+        <v>0.02872406612929672</v>
       </c>
       <c r="BD2">
-        <v>0.03448117033513447</v>
+        <v>0.0289113457801871</v>
       </c>
       <c r="BE2">
-        <v>0.03498193299490686</v>
+        <v>0.02928628392882563</v>
       </c>
       <c r="BF2">
-        <v>0.03553733829028965</v>
+        <v>0.02971717729550036</v>
       </c>
       <c r="BG2">
-        <v>0.0362327369344264</v>
+        <v>0.0302914268210726</v>
       </c>
       <c r="BH2">
-        <v>0.03711552856350937</v>
+        <v>0.03105757073852371</v>
       </c>
       <c r="BI2">
-        <v>0.03796168895553502</v>
+        <v>0.03178620349214497</v>
       </c>
       <c r="BJ2">
-        <v>0.03907489156610845</v>
+        <v>0.03278829314250609</v>
       </c>
       <c r="BK2">
-        <v>0.03946584611470201</v>
+        <v>0.03305078545586388</v>
       </c>
       <c r="BL2">
-        <v>0.03957107445624873</v>
+        <v>0.03305078545586388</v>
       </c>
       <c r="BM2">
-        <v>0.03962332098605163</v>
+        <v>0.03305078545586388</v>
       </c>
       <c r="BN2">
-        <v>0.03964118499061656</v>
+        <v>0.03305078545586388</v>
       </c>
       <c r="BO2">
-        <v>0.03964465037433818</v>
+        <v>0.03305078545586388</v>
       </c>
       <c r="BP2">
-        <v>0.03972458798191658</v>
+        <v>0.03305078545586388</v>
       </c>
       <c r="BQ2">
-        <v>0.03982549288381062</v>
+        <v>0.03305078545586388</v>
       </c>
       <c r="BR2">
-        <v>0.04010248181155935</v>
+        <v>0.03319657455584688</v>
       </c>
       <c r="BS2">
-        <v>0.04067874022526696</v>
+        <v>0.0336488219580575</v>
       </c>
       <c r="BT2">
-        <v>0.04128808893631633</v>
+        <v>0.03413495452671291</v>
       </c>
       <c r="BU2">
-        <v>0.04199470347955207</v>
+        <v>0.03472068937089296</v>
       </c>
       <c r="BV2">
-        <v>0.04266858612541726</v>
+        <v>0.03527290605780171</v>
       </c>
       <c r="BW2">
-        <v>0.0434556524621901</v>
+        <v>0.03594102524524198</v>
       </c>
       <c r="BX2">
-        <v>0.04409757941062237</v>
+        <v>0.03646051862008164</v>
       </c>
       <c r="BY2">
-        <v>0.0445257508562262</v>
+        <v>0.03676112182548513</v>
       </c>
       <c r="BZ2">
-        <v>0.04462665575812023</v>
+        <v>0.03676112182548513</v>
       </c>
       <c r="CA2">
-        <v>0.04465461765787398</v>
+        <v>0.03676112182548513</v>
       </c>
       <c r="CB2">
-        <v>0.04466427420409824</v>
+        <v>0.03676112182548513</v>
       </c>
       <c r="CC2">
-        <v>0.04466694749048349</v>
+        <v>0.03676112182548513</v>
       </c>
       <c r="CD2">
-        <v>0.04466985921454959</v>
+        <v>0.03676112182548513</v>
       </c>
       <c r="CE2">
-        <v>0.04468164957560244</v>
+        <v>0.03676112182548513</v>
       </c>
       <c r="CF2">
-        <v>0.04473806989307004</v>
+        <v>0.03676112182548513</v>
       </c>
       <c r="CG2">
-        <v>0.04485462583370679</v>
+        <v>0.03676112182548513</v>
       </c>
       <c r="CH2">
-        <v>0.04499827608216697</v>
+        <v>0.03677036928927319</v>
       </c>
       <c r="CI2">
-        <v>0.04518943486681067</v>
+        <v>0.03682826650194385</v>
       </c>
       <c r="CJ2">
-        <v>0.04550896254114215</v>
+        <v>0.03701761618083074</v>
       </c>
       <c r="CK2">
-        <v>0.04584697231398891</v>
+        <v>0.03722589192067052</v>
       </c>
       <c r="CL2">
-        <v>0.04610681667311491</v>
+        <v>0.03735412461868453</v>
       </c>
       <c r="CM2">
-        <v>0.04692844630711118</v>
+        <v>0.03805763735569617</v>
       </c>
       <c r="CN2">
-        <v>0.1264529049186967</v>
+        <v>0.1193545165420259</v>
       </c>
       <c r="CO2">
-        <v>0.13273822401378</v>
+        <v>0.1256529631921254</v>
       </c>
       <c r="CP2">
-        <v>0.3229849687307452</v>
+        <v>0.3203318121770007</v>
       </c>
       <c r="CQ2">
-        <v>0.3952186329280198</v>
+        <v>0.3941627632185302</v>
       </c>
       <c r="CR2">
-        <v>0.4003217661180714</v>
+        <v>0.3992506264233691</v>
       </c>
       <c r="CS2">
-        <v>0.4019243878893284</v>
+        <v>0.4007538916766494</v>
       </c>
       <c r="CT2">
-        <v>0.4243147060906537</v>
+        <v>0.423544199057764</v>
       </c>
       <c r="CU2">
-        <v>0.4298346356472229</v>
+        <v>0.4290588705836997</v>
       </c>
       <c r="CV2">
-        <v>0.4461641263354308</v>
+        <v>0.4456427620189545</v>
       </c>
       <c r="CW2">
-        <v>0.4566501594930594</v>
+        <v>0.4562428289816849</v>
       </c>
       <c r="CX2">
-        <v>0.4566685054385857</v>
+        <v>0.4562428289816849</v>
       </c>
       <c r="CY2">
-        <v>0.53364245925506</v>
+        <v>0.5349279371522402</v>
       </c>
       <c r="CZ2">
-        <v>0.5672577325546544</v>
+        <v>0.569212836676536</v>
       </c>
       <c r="DA2">
-        <v>0.5673712514255351</v>
+        <v>0.569212836676536</v>
       </c>
       <c r="DB2">
-        <v>0.5793602214624288</v>
+        <v>0.5813519428864489</v>
       </c>
       <c r="DC2">
-        <v>0.5896068466392898</v>
+        <v>0.59170685099815</v>
       </c>
       <c r="DD2">
-        <v>0.6122265558221874</v>
+        <v>0.6147320596106205</v>
       </c>
       <c r="DE2">
-        <v>0.6543069664417545</v>
+        <v>0.6576854393272437</v>
       </c>
       <c r="DF2">
-        <v>0.6545219055044879</v>
+        <v>0.6577676880491452</v>
       </c>
       <c r="DG2">
-        <v>0.659584662097783</v>
+        <v>0.6628142047623694</v>
       </c>
       <c r="DH2">
-        <v>0.660498001924412</v>
+        <v>0.6636116306821471</v>
       </c>
       <c r="DI2">
-        <v>0.6637383853641032</v>
+        <v>0.6667919986268485</v>
       </c>
       <c r="DJ2">
-        <v>0.66476179378189</v>
+        <v>0.6677021371189312</v>
       </c>
       <c r="DK2">
-        <v>0.6694528464050451</v>
+        <v>0.6723680210815247</v>
       </c>
       <c r="DL2">
-        <v>0.6702519062108545</v>
+        <v>0.6730484218356839</v>
       </c>
       <c r="DM2">
-        <v>0.6768716596790718</v>
+        <v>0.6796893363784549</v>
       </c>
       <c r="DN2">
-        <v>0.6774873437696123</v>
+        <v>0.6801819565101058</v>
       </c>
       <c r="DO2">
-        <v>0.6812224200695635</v>
+        <v>0.6838689004379672</v>
       </c>
       <c r="DP2">
-        <v>0.6906300243138253</v>
+        <v>0.6933646333159691</v>
       </c>
       <c r="DQ2">
-        <v>0.6943478146151651</v>
+        <v>0.6970338760145529</v>
       </c>
       <c r="DR2">
-        <v>0.6967027653259856</v>
+        <v>0.6993075420616081</v>
       </c>
       <c r="DS2">
-        <v>0.7145646848910894</v>
+        <v>0.7174606731752531</v>
       </c>
       <c r="DT2">
-        <v>0.7170140050943289</v>
+        <v>0.7198309755844692</v>
       </c>
       <c r="DU2">
-        <v>0.718695846359222</v>
+        <v>0.7214153632797695</v>
       </c>
       <c r="DV2">
-        <v>0.7232426433939655</v>
+        <v>0.7259335264596384</v>
       </c>
       <c r="DW2">
-        <v>0.7248909300615541</v>
+        <v>0.7274835535354827</v>
       </c>
       <c r="DX2">
-        <v>0.7352064652328794</v>
+        <v>0.7379090269433495</v>
       </c>
       <c r="DY2">
-        <v>0.735252751786161</v>
+        <v>0.7379090269433495</v>
       </c>
       <c r="DZ2">
-        <v>0.7378055013810917</v>
+        <v>0.740385243243775</v>
       </c>
       <c r="EA2">
-        <v>0.7378444025979667</v>
+        <v>0.740385243243775</v>
       </c>
       <c r="EB2">
-        <v>0.7391979830892299</v>
+        <v>0.7416334849432608</v>
       </c>
       <c r="EC2">
-        <v>0.7403368027977455</v>
+        <v>0.7426618070453473</v>
       </c>
       <c r="ED2">
-        <v>0.7479421671867861</v>
+        <v>0.7503120080794714</v>
       </c>
       <c r="EE2">
-        <v>0.7486708099882522</v>
+        <v>0.7509203003273797</v>
       </c>
       <c r="EF2">
-        <v>0.7610695179922305</v>
+        <v>0.7634789869076355</v>
       </c>
       <c r="EG2">
-        <v>0.7618058245830811</v>
+        <v>0.7640951270384505</v>
       </c>
       <c r="EH2">
-        <v>0.7719666387668355</v>
+        <v>0.774362162872844</v>
       </c>
       <c r="EI2">
-        <v>0.7745783264570315</v>
+        <v>0.7768987330331147</v>
       </c>
       <c r="EJ2">
-        <v>0.7758018397587434</v>
+        <v>0.7780137831712968</v>
       </c>
       <c r="EK2">
-        <v>0.7785886342348727</v>
+        <v>0.7807296663950216</v>
       </c>
       <c r="EL2">
-        <v>0.7788911837505681</v>
+        <v>0.780901630079296</v>
       </c>
       <c r="EM2">
-        <v>0.7788980802087141</v>
+        <v>0.780901630079296</v>
       </c>
       <c r="EN2">
-        <v>0.7790814889639803</v>
+        <v>0.7809515910974776</v>
       </c>
       <c r="EO2">
-        <v>0.7796741770763681</v>
+        <v>0.7814206628596709</v>
       </c>
       <c r="EP2">
-        <v>0.7805047267596478</v>
+        <v>0.7821333099163759</v>
       </c>
       <c r="EQ2">
-        <v>0.7814188882862108</v>
+        <v>0.7829315772743173</v>
       </c>
       <c r="ER2">
-        <v>0.7833322750325032</v>
+        <v>0.7847530724545012</v>
       </c>
       <c r="ES2">
-        <v>0.789653565024697</v>
+        <v>0.7910883540663166</v>
       </c>
       <c r="ET2">
-        <v>0.7919213907425164</v>
+        <v>0.7932728022722975</v>
       </c>
       <c r="EU2">
-        <v>0.7922308751176548</v>
+        <v>0.7934518673997553</v>
       </c>
       <c r="EV2">
-        <v>0.7940840981687803</v>
+        <v>0.7952117536797952</v>
       </c>
       <c r="EW2">
-        <v>0.7946421760239485</v>
+        <v>0.795645383804385</v>
       </c>
       <c r="EX2">
-        <v>0.7946707400796539</v>
+        <v>0.795645383804385</v>
       </c>
       <c r="EY2">
-        <v>0.7958952044812894</v>
+        <v>0.7967614078890651</v>
       </c>
       <c r="EZ2">
-        <v>0.7961948059572216</v>
+        <v>0.7969303527180832</v>
       </c>
       <c r="FA2">
-        <v>0.799238393312722</v>
+        <v>0.799909197297805</v>
       </c>
       <c r="FB2">
-        <v>0.8009435404757429</v>
+        <v>0.8015174507271919</v>
       </c>
       <c r="FC2">
-        <v>0.8012872801681293</v>
+        <v>0.801731594026193</v>
       </c>
       <c r="FD2">
-        <v>0.8021557933983593</v>
+        <v>0.8024831165603213</v>
       </c>
       <c r="FE2">
-        <v>0.8023434292832859</v>
+        <v>0.8025374062489481</v>
       </c>
       <c r="FF2">
-        <v>0.8036515581782004</v>
+        <v>0.8037391045495773</v>
       </c>
       <c r="FG2">
-        <v>0.8139643323497474</v>
+        <v>0.8141617506351002</v>
       </c>
       <c r="FH2">
-        <v>0.8234434815882617</v>
+        <v>0.823730747104949</v>
       </c>
       <c r="FI2">
-        <v>0.8238687517040987</v>
+        <v>0.8240283792871232</v>
       </c>
       <c r="FJ2">
-        <v>0.8255274475708512</v>
+        <v>0.8255890656037286</v>
       </c>
       <c r="FK2">
-        <v>0.8452482999866219</v>
+        <v>0.8456457833912545</v>
       </c>
       <c r="FL2">
-        <v>0.8481315859549997</v>
+        <v>0.8484604759499812</v>
       </c>
       <c r="FM2">
-        <v>0.849011821684288</v>
+        <v>0.8492240025718225</v>
       </c>
       <c r="FN2">
-        <v>0.8490194818226726</v>
+        <v>0.8492240025718225</v>
       </c>
       <c r="FO2">
-        <v>0.8490729636533763</v>
+        <v>0.8492240025718225</v>
       </c>
       <c r="FP2">
-        <v>0.8542573319369019</v>
+        <v>0.8543950522356738</v>
       </c>
       <c r="FQ2">
-        <v>0.8615595633502939</v>
+        <v>0.8617348386721693</v>
       </c>
       <c r="FR2">
-        <v>0.8649945377743532</v>
+        <v>0.8651144719128534</v>
       </c>
       <c r="FS2">
-        <v>0.8704640909349692</v>
+        <v>0.8705775569406646</v>
       </c>
       <c r="FT2">
-        <v>0.8781040679212293</v>
+        <v>0.8782632020086019</v>
       </c>
       <c r="FU2">
-        <v>0.881833885121603</v>
+        <v>0.881944760506931</v>
       </c>
       <c r="FV2">
-        <v>0.8848322748807342</v>
+        <v>0.8848773217891636</v>
       </c>
       <c r="FW2">
-        <v>0.8994984787025585</v>
+        <v>0.8997579721888138</v>
       </c>
       <c r="FX2">
-        <v>0.9162211073591846</v>
+        <v>0.9167444452436301</v>
       </c>
       <c r="FY2">
-        <v>0.9172792285741829</v>
+        <v>0.9176901303764434</v>
       </c>
       <c r="FZ2">
-        <v>0.9172809061580481</v>
+        <v>0.9176901303764434</v>
       </c>
       <c r="GA2">
-        <v>0.9176552441979765</v>
+        <v>0.9179356070324309</v>
       </c>
       <c r="GB2">
-        <v>0.9196424591383382</v>
+        <v>0.9198327038495091</v>
       </c>
       <c r="GC2">
-        <v>0.9237389193092584</v>
+        <v>0.9238897125275229</v>
       </c>
       <c r="GD2">
-        <v>0.9316763726716214</v>
+        <v>0.9318799797151568</v>
       </c>
       <c r="GE2">
-        <v>0.9401942219873596</v>
+        <v>0.9404645846713783</v>
       </c>
       <c r="GF2">
-        <v>0.9489065632874737</v>
+        <v>0.9492483535454905</v>
       </c>
       <c r="GG2">
-        <v>0.9602262508781326</v>
+        <v>0.9607021003325185</v>
       </c>
       <c r="GH2">
-        <v>0.9649426281992532</v>
+        <v>0.9653939173230587</v>
       </c>
       <c r="GI2">
-        <v>0.9667186550565802</v>
+        <v>0.9670747530630338</v>
       </c>
       <c r="GJ2">
-        <v>0.9667365190611451</v>
+        <v>0.9670747530630338</v>
       </c>
       <c r="GK2">
-        <v>0.9668429125285982</v>
+        <v>0.9670747530630338</v>
       </c>
       <c r="GL2">
-        <v>0.9723020833900483</v>
+        <v>0.9725272063962523</v>
       </c>
       <c r="GM2">
-        <v>0.9731614743810111</v>
+        <v>0.9732693875638548</v>
       </c>
       <c r="GN2">
-        <v>0.9759109631601373</v>
+        <v>0.9759470689624575</v>
       </c>
       <c r="GO2">
-        <v>0.9759728173001684</v>
+        <v>0.9759470689624575</v>
       </c>
       <c r="GP2">
-        <v>0.9793237384309799</v>
+        <v>0.9792406298477767</v>
       </c>
       <c r="GQ2">
-        <v>0.9795407749435447</v>
+        <v>0.9793250264028004</v>
       </c>
       <c r="GR2">
-        <v>0.9847660012237882</v>
+        <v>0.984537915522039</v>
       </c>
       <c r="GS2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GT2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GU2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GV2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GW2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GX2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GY2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GZ2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HA2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HB2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HC2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HD2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HE2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HF2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HG2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HH2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HI2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HJ2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HK2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HL2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HM2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HN2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HO2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HP2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HQ2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HR2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HS2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HT2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HU2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HV2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HW2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HX2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HY2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HZ2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IA2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IB2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IC2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ID2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IE2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IF2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IG2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IH2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="II2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IJ2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IK2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IL2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IM2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IN2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IO2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IP2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IQ2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IR2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IS2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IT2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IU2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IV2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IW2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:257">
@@ -7418,772 +7418,772 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>6.43216237536675E-05</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0.0001892995793890071</v>
+        <v>5.27788263726803E-05</v>
       </c>
       <c r="D3">
-        <v>0.0003123549950914884</v>
+        <v>0.0001036093405432608</v>
       </c>
       <c r="E3">
-        <v>0.0004688217496271308</v>
+        <v>0.0001882990833439374</v>
       </c>
       <c r="F3">
-        <v>0.0007810699787223479</v>
+        <v>0.0004308586017254422</v>
       </c>
       <c r="G3">
-        <v>0.00118874908448479</v>
+        <v>0.0007701282785229598</v>
       </c>
       <c r="H3">
-        <v>0.001471816944599086</v>
+        <v>0.0009831162556450958</v>
       </c>
       <c r="I3">
-        <v>0.002085170423178672</v>
+        <v>0.001530817436709526</v>
       </c>
       <c r="J3">
-        <v>0.002772456199176287</v>
+        <v>0.002153442001536741</v>
       </c>
       <c r="K3">
-        <v>0.00324304315274177</v>
+        <v>0.002556462826171424</v>
       </c>
       <c r="L3">
-        <v>0.003663367498062598</v>
+        <v>0.002908547256051051</v>
       </c>
       <c r="M3">
-        <v>0.004173708780239723</v>
+        <v>0.003351855328922599</v>
       </c>
       <c r="N3">
-        <v>0.004710914761478642</v>
+        <v>0.003822388230830604</v>
       </c>
       <c r="O3">
-        <v>0.004845728896770467</v>
+        <v>0.003885135094027512</v>
       </c>
       <c r="P3">
-        <v>0.004918626184224643</v>
+        <v>0.003885135094027512</v>
       </c>
       <c r="Q3">
-        <v>0.004923103017068296</v>
+        <v>0.003885135094027512</v>
       </c>
       <c r="R3">
-        <v>0.004980918862049168</v>
+        <v>0.003885135094027512</v>
       </c>
       <c r="S3">
-        <v>0.005057662575369014</v>
+        <v>0.003889033082475229</v>
       </c>
       <c r="T3">
-        <v>0.005191628140690475</v>
+        <v>0.003950920000347026</v>
       </c>
       <c r="U3">
-        <v>0.005790429419778273</v>
+        <v>0.004483873904981631</v>
       </c>
       <c r="V3">
-        <v>0.006644118889964499</v>
+        <v>0.005275132859306361</v>
       </c>
       <c r="W3">
-        <v>0.007199790970558517</v>
+        <v>0.0057643794046003</v>
       </c>
       <c r="X3">
-        <v>0.00805549924067424</v>
+        <v>0.006557684221520138</v>
       </c>
       <c r="Y3">
-        <v>0.00897288160863609</v>
+        <v>0.007413489897503259</v>
       </c>
       <c r="Z3">
-        <v>0.009629629485700193</v>
+        <v>0.008005167192990692</v>
       </c>
       <c r="AA3">
-        <v>0.01022843076478799</v>
+        <v>0.008538121097625296</v>
       </c>
       <c r="AB3">
-        <v>0.01099660817796059</v>
+        <v>0.009242721678171228</v>
       </c>
       <c r="AC3">
-        <v>0.01131368263688726</v>
+        <v>0.009490172123555105</v>
       </c>
       <c r="AD3">
-        <v>0.01138362710444456</v>
+        <v>0.009490172123555105</v>
       </c>
       <c r="AE3">
-        <v>0.01151639645980779</v>
+        <v>0.009550846795887526</v>
       </c>
       <c r="AF3">
-        <v>0.01166767244452472</v>
+        <v>0.009630276184922199</v>
       </c>
       <c r="AG3">
-        <v>0.0116956599585473</v>
+        <v>0.009630276184922199</v>
       </c>
       <c r="AH3">
-        <v>0.01172882047738922</v>
+        <v>0.009630276184922199</v>
       </c>
       <c r="AI3">
-        <v>0.01173429739879794</v>
+        <v>0.009630276184922199</v>
       </c>
       <c r="AJ3">
-        <v>0.01176454255674168</v>
+        <v>0.009630276184922199</v>
       </c>
       <c r="AK3">
-        <v>0.0119904189188533</v>
+        <v>0.009785305993524361</v>
       </c>
       <c r="AL3">
-        <v>0.01226885853912923</v>
+        <v>0.009993603687757067</v>
       </c>
       <c r="AM3">
-        <v>0.0125490292593447</v>
+        <v>0.01020365568788357</v>
       </c>
       <c r="AN3">
-        <v>0.01292661078615825</v>
+        <v>0.01051242431795765</v>
       </c>
       <c r="AO3">
-        <v>0.01350457541597374</v>
+        <v>0.01102426225130121</v>
       </c>
       <c r="AP3">
-        <v>0.01413688559389129</v>
+        <v>0.01159117425238579</v>
       </c>
       <c r="AQ3">
-        <v>0.01458162237835955</v>
+        <v>0.0119679983780507</v>
       </c>
       <c r="AR3">
-        <v>0.01518221625738475</v>
+        <v>0.0125027689130043</v>
       </c>
       <c r="AS3">
-        <v>0.01562549794190383</v>
+        <v>0.01287811843263486</v>
       </c>
       <c r="AT3">
-        <v>0.01599773117890416</v>
+        <v>0.01318146707734199</v>
       </c>
       <c r="AU3">
-        <v>0.01631611048778526</v>
+        <v>0.01343023986461572</v>
       </c>
       <c r="AV3">
-        <v>0.01679195510116713</v>
+        <v>0.01383858882969611</v>
       </c>
       <c r="AW3">
-        <v>0.01701267205345893</v>
+        <v>0.0139883900649221</v>
       </c>
       <c r="AX3">
-        <v>0.01704291721140267</v>
+        <v>0.0139883900649221</v>
       </c>
       <c r="AY3">
-        <v>0.01704327071979032</v>
+        <v>0.0139883900649221</v>
       </c>
       <c r="AZ3">
-        <v>0.01704545251971413</v>
+        <v>0.0139883900649221</v>
       </c>
       <c r="BA3">
-        <v>0.01706183338414205</v>
+        <v>0.0139883900649221</v>
       </c>
       <c r="BB3">
-        <v>0.0171376723514935</v>
+        <v>0.01399137117898925</v>
       </c>
       <c r="BC3">
-        <v>0.01727444997671675</v>
+        <v>0.0140561078533348</v>
       </c>
       <c r="BD3">
-        <v>0.01755744813683348</v>
+        <v>0.01426902519610837</v>
       </c>
       <c r="BE3">
-        <v>0.01819052251472435</v>
+        <v>0.01483671164151393</v>
       </c>
       <c r="BF3">
-        <v>0.01890789273967131</v>
+        <v>0.01548982394705315</v>
       </c>
       <c r="BG3">
-        <v>0.01986651397619296</v>
+        <v>0.01638742131195916</v>
       </c>
       <c r="BH3">
-        <v>0.02066366864835357</v>
+        <v>0.01712138760101644</v>
       </c>
       <c r="BI3">
-        <v>0.02138103887330053</v>
+        <v>0.01777449990655566</v>
       </c>
       <c r="BJ3">
-        <v>0.02196974421274091</v>
+        <v>0.01829722253220847</v>
       </c>
       <c r="BK3">
-        <v>0.02245915089564915</v>
+        <v>0.01871931537074103</v>
       </c>
       <c r="BL3">
-        <v>0.02286188130158442</v>
+        <v>0.01905357000879057</v>
       </c>
       <c r="BM3">
-        <v>0.02302264427597002</v>
+        <v>0.01914261356365701</v>
       </c>
       <c r="BN3">
-        <v>0.0231223660624874</v>
+        <v>0.01916979765380089</v>
       </c>
       <c r="BO3">
-        <v>0.02319820502983884</v>
+        <v>0.01917277876786805</v>
       </c>
       <c r="BP3">
-        <v>0.02319821090526563</v>
+        <v>0.01917277876786805</v>
       </c>
       <c r="BQ3">
-        <v>0.02323847610785943</v>
+        <v>0.01917277876786805</v>
       </c>
       <c r="BR3">
-        <v>0.02333893019435123</v>
+        <v>0.01920070497470423</v>
       </c>
       <c r="BS3">
-        <v>0.023680512582422</v>
+        <v>0.01947299188594432</v>
       </c>
       <c r="BT3">
-        <v>0.02428534481129917</v>
+        <v>0.02001205758719967</v>
       </c>
       <c r="BU3">
-        <v>0.02495018733808058</v>
+        <v>0.02061193804380038</v>
       </c>
       <c r="BV3">
-        <v>0.02560262435529524</v>
+        <v>0.02119924669096864</v>
       </c>
       <c r="BW3">
-        <v>0.02662328121965038</v>
+        <v>0.02215971129135165</v>
       </c>
       <c r="BX3">
-        <v>0.02756076808691011</v>
+        <v>0.02303589097394431</v>
       </c>
       <c r="BY3">
-        <v>0.02805562846962788</v>
+        <v>0.02346351062089521</v>
       </c>
       <c r="BZ3">
-        <v>0.02871869164647144</v>
+        <v>0.02406158787479699</v>
       </c>
       <c r="CA3">
-        <v>0.02922669562873019</v>
+        <v>0.02450252731548925</v>
       </c>
       <c r="CB3">
-        <v>0.02960226707561394</v>
+        <v>0.02480925891986233</v>
       </c>
       <c r="CC3">
-        <v>0.02980935133838185</v>
+        <v>0.02494524471495472</v>
       </c>
       <c r="CD3">
-        <v>0.02986958630827824</v>
+        <v>0.02494524471495472</v>
       </c>
       <c r="CE3">
-        <v>0.0298784610069683</v>
+        <v>0.02494524471495472</v>
       </c>
       <c r="CF3">
-        <v>0.02989702294632006</v>
+        <v>0.02494524471495472</v>
       </c>
       <c r="CG3">
-        <v>0.02989702303978497</v>
+        <v>0.02494524471495472</v>
       </c>
       <c r="CH3">
-        <v>0.02991340390421289</v>
+        <v>0.02494524471495472</v>
       </c>
       <c r="CI3">
-        <v>0.03002924502016732</v>
+        <v>0.02498876421935717</v>
       </c>
       <c r="CJ3">
-        <v>0.03016927218527709</v>
+        <v>0.0250567939947218</v>
       </c>
       <c r="CK3">
-        <v>0.03045110985543435</v>
+        <v>0.02526853529079287</v>
       </c>
       <c r="CL3">
-        <v>0.03086781761088148</v>
+        <v>0.02561695464924252</v>
       </c>
       <c r="CM3">
-        <v>0.03105121488447662</v>
+        <v>0.0257289359234157</v>
       </c>
       <c r="CN3">
-        <v>0.1568090704925794</v>
+        <v>0.1530987417367412</v>
       </c>
       <c r="CO3">
-        <v>0.1713231699856971</v>
+        <v>0.1677335329259438</v>
       </c>
       <c r="CP3">
-        <v>0.3477842838230676</v>
+        <v>0.3464862905344146</v>
       </c>
       <c r="CQ3">
-        <v>0.420376115287911</v>
+        <v>0.419977364465462</v>
       </c>
       <c r="CR3">
-        <v>0.4312578479078834</v>
+        <v>0.4309310957294591</v>
       </c>
       <c r="CS3">
-        <v>0.4396944676132476</v>
+        <v>0.4394069365498697</v>
       </c>
       <c r="CT3">
-        <v>0.4420688998303243</v>
+        <v>0.4417393242991716</v>
       </c>
       <c r="CU3">
-        <v>0.4462856866830596</v>
+        <v>0.4459387640435455</v>
       </c>
       <c r="CV3">
-        <v>0.4508711795229184</v>
+        <v>0.4505118523979809</v>
       </c>
       <c r="CW3">
-        <v>0.4520556712815518</v>
+        <v>0.451638348152358</v>
       </c>
       <c r="CX3">
-        <v>0.4551198888745388</v>
+        <v>0.4546697680735005</v>
       </c>
       <c r="CY3">
-        <v>0.5020351832360952</v>
+        <v>0.502140102621711</v>
       </c>
       <c r="CZ3">
-        <v>0.5186368426563081</v>
+        <v>0.5188904381536142</v>
       </c>
       <c r="DA3">
-        <v>0.5195955923528253</v>
+        <v>0.5197881657005635</v>
       </c>
       <c r="DB3">
-        <v>0.5208917825075579</v>
+        <v>0.5210278572041448</v>
       </c>
       <c r="DC3">
-        <v>0.5241481386938347</v>
+        <v>0.524253991398527</v>
       </c>
       <c r="DD3">
-        <v>0.5603852394283104</v>
+        <v>0.560902987682468</v>
       </c>
       <c r="DE3">
-        <v>0.6106110726742514</v>
+        <v>0.6117282399589065</v>
       </c>
       <c r="DF3">
-        <v>0.6117578434342023</v>
+        <v>0.6128165090524207</v>
       </c>
       <c r="DG3">
-        <v>0.6125433428067699</v>
+        <v>0.6135386637988265</v>
       </c>
       <c r="DH3">
-        <v>0.6147379270301275</v>
+        <v>0.6156887926339194</v>
       </c>
       <c r="DI3">
-        <v>0.6201785638401217</v>
+        <v>0.6211284884398265</v>
       </c>
       <c r="DJ3">
-        <v>0.6247037466820867</v>
+        <v>0.6256404583213517</v>
       </c>
       <c r="DK3">
-        <v>0.6264210819221114</v>
+        <v>0.6273069404962244</v>
       </c>
       <c r="DL3">
-        <v>0.6264954606435139</v>
+        <v>0.6273084417892736</v>
       </c>
       <c r="DM3">
-        <v>0.6358638813163364</v>
+        <v>0.6367285746703065</v>
       </c>
       <c r="DN3">
-        <v>0.6379325435440916</v>
+        <v>0.638751093484743</v>
       </c>
       <c r="DO3">
-        <v>0.6398683554764864</v>
+        <v>0.6406389811026674</v>
       </c>
       <c r="DP3">
-        <v>0.6447582957057129</v>
+        <v>0.6455205980621344</v>
       </c>
       <c r="DQ3">
-        <v>0.6463535684500005</v>
+        <v>0.6470633814540591</v>
       </c>
       <c r="DR3">
-        <v>0.6556848621241196</v>
+        <v>0.65644588963697</v>
       </c>
       <c r="DS3">
-        <v>0.6990574906093981</v>
+        <v>0.7003260677277003</v>
       </c>
       <c r="DT3">
-        <v>0.7095607852425869</v>
+        <v>0.7108962879213747</v>
       </c>
       <c r="DU3">
-        <v>0.7114768985756696</v>
+        <v>0.7127642128738958</v>
       </c>
       <c r="DV3">
-        <v>0.712010110657048</v>
+        <v>0.7132306983364247</v>
       </c>
       <c r="DW3">
-        <v>0.7291002300602022</v>
+        <v>0.7304760418152302</v>
       </c>
       <c r="DX3">
-        <v>0.7691936026600036</v>
+        <v>0.7710330045353524</v>
       </c>
       <c r="DY3">
-        <v>0.7695137586688227</v>
+        <v>0.7712835778398011</v>
       </c>
       <c r="DZ3">
-        <v>0.7748051728840283</v>
+        <v>0.7765720506738016</v>
       </c>
       <c r="EA3">
-        <v>0.7750659714749203</v>
+        <v>0.7767624708549492</v>
       </c>
       <c r="EB3">
-        <v>0.7750672871015744</v>
+        <v>0.7767624708549492</v>
       </c>
       <c r="EC3">
-        <v>0.7752758048242921</v>
+        <v>0.7768999093259855</v>
       </c>
       <c r="ED3">
-        <v>0.780556875639859</v>
+        <v>0.7821779001037318</v>
       </c>
       <c r="EE3">
-        <v>0.7818532152945863</v>
+        <v>0.7834177431114036</v>
       </c>
       <c r="EF3">
-        <v>0.8012945586156277</v>
+        <v>0.8030458294247248</v>
       </c>
       <c r="EG3">
-        <v>0.8076135778949458</v>
+        <v>0.8093756827008852</v>
       </c>
       <c r="EH3">
-        <v>0.8143138722609484</v>
+        <v>0.8160919221795105</v>
       </c>
       <c r="EI3">
-        <v>0.8165131171841432</v>
+        <v>0.8182467741926286</v>
       </c>
       <c r="EJ3">
-        <v>0.8227773616653742</v>
+        <v>0.8245211183968282</v>
       </c>
       <c r="EK3">
-        <v>0.8422090769867518</v>
+        <v>0.844139447644038</v>
       </c>
       <c r="EL3">
-        <v>0.849218432141961</v>
+        <v>0.8511688909716499</v>
       </c>
       <c r="EM3">
-        <v>0.8493434100975964</v>
+        <v>0.8512216697980226</v>
       </c>
       <c r="EN3">
-        <v>0.8495231412813196</v>
+        <v>0.8513299358372041</v>
       </c>
       <c r="EO3">
-        <v>0.8495568768981414</v>
+        <v>0.8513299358372041</v>
       </c>
       <c r="EP3">
-        <v>0.850268819833278</v>
+        <v>0.8519775480983586</v>
       </c>
       <c r="EQ3">
-        <v>0.8511045669040908</v>
+        <v>0.8527506241296466</v>
       </c>
       <c r="ER3">
-        <v>0.8519653327440299</v>
+        <v>0.8535490543147481</v>
       </c>
       <c r="ES3">
-        <v>0.8576190938465811</v>
+        <v>0.8592047314132442</v>
       </c>
       <c r="ET3">
-        <v>0.8582077991860214</v>
+        <v>0.8597274540388969</v>
       </c>
       <c r="EU3">
-        <v>0.8595530752390398</v>
+        <v>0.8610168894530971</v>
       </c>
       <c r="EV3">
-        <v>0.8613487211763297</v>
+        <v>0.8627627321054449</v>
       </c>
       <c r="EW3">
-        <v>0.8613487477356787</v>
+        <v>0.8627627321054449</v>
       </c>
       <c r="EX3">
-        <v>0.8634187920633857</v>
+        <v>0.8647866515473297</v>
       </c>
       <c r="EY3">
-        <v>0.8685999738824409</v>
+        <v>0.8699634142842781</v>
       </c>
       <c r="EZ3">
-        <v>0.868993062018713</v>
+        <v>0.8702878973949228</v>
       </c>
       <c r="FA3">
-        <v>0.8694162226439347</v>
+        <v>0.8706428561259523</v>
       </c>
       <c r="FB3">
-        <v>0.8695169814904159</v>
+        <v>0.870671091178184</v>
       </c>
       <c r="FC3">
-        <v>0.8764999972465449</v>
+        <v>0.8776738420185571</v>
       </c>
       <c r="FD3">
-        <v>0.8869962158799808</v>
+        <v>0.8882368913564147</v>
       </c>
       <c r="FE3">
-        <v>0.8927989276773302</v>
+        <v>0.8940435158819194</v>
       </c>
       <c r="FF3">
-        <v>0.8928712013348061</v>
+        <v>0.8940435158819194</v>
       </c>
       <c r="FG3">
-        <v>0.8983194811445334</v>
+        <v>0.8994909571444416</v>
       </c>
       <c r="FH3">
-        <v>0.9042122809387365</v>
+        <v>0.905388877325518</v>
       </c>
       <c r="FI3">
-        <v>0.9042216646894088</v>
+        <v>0.905388877325518</v>
       </c>
       <c r="FJ3">
-        <v>0.904479194930415</v>
+        <v>0.905575985343493</v>
       </c>
       <c r="FK3">
-        <v>0.9195735174032692</v>
+        <v>0.9207987775890268</v>
       </c>
       <c r="FL3">
-        <v>0.9239284556511798</v>
+        <v>0.9251382206926845</v>
       </c>
       <c r="FM3">
-        <v>0.924985703814257</v>
+        <v>0.9261357671099767</v>
       </c>
       <c r="FN3">
-        <v>0.9249884757796603</v>
+        <v>0.9261357671099767</v>
       </c>
       <c r="FO3">
-        <v>0.9260946881410275</v>
+        <v>0.9271829341064642</v>
       </c>
       <c r="FP3">
-        <v>0.926337948872532</v>
+        <v>0.9273555813275504</v>
       </c>
       <c r="FQ3">
-        <v>0.9271013488458714</v>
+        <v>0.9280553404251379</v>
       </c>
       <c r="FR3">
-        <v>0.9273058969587279</v>
+        <v>0.9281887560724096</v>
       </c>
       <c r="FS3">
-        <v>0.9280325447833508</v>
+        <v>0.9288512703468473</v>
       </c>
       <c r="FT3">
-        <v>0.9285728601644812</v>
+        <v>0.9293249543311574</v>
       </c>
       <c r="FU3">
-        <v>0.9286405476821172</v>
+        <v>0.9293249543311574</v>
       </c>
       <c r="FV3">
-        <v>0.9287256754691443</v>
+        <v>0.9293373487845303</v>
       </c>
       <c r="FW3">
-        <v>0.9335455593008174</v>
+        <v>0.9341479702177897</v>
       </c>
       <c r="FX3">
-        <v>0.9407789140482038</v>
+        <v>0.9414044159245176</v>
       </c>
       <c r="FY3">
-        <v>0.940879672894685</v>
+        <v>0.9414326509767493</v>
       </c>
       <c r="FZ3">
-        <v>0.9416195222688469</v>
+        <v>0.9421085437717649</v>
       </c>
       <c r="GA3">
-        <v>0.9437007668961627</v>
+        <v>0.9441438136568953</v>
       </c>
       <c r="GB3">
-        <v>0.9444265959708142</v>
+        <v>0.9448054982057535</v>
       </c>
       <c r="GC3">
-        <v>0.944983995011348</v>
+        <v>0.9452964948614434</v>
       </c>
       <c r="GD3">
-        <v>0.9496190008494776</v>
+        <v>0.949919759951896</v>
       </c>
       <c r="GE3">
-        <v>0.9544248002816426</v>
+        <v>0.9547161081797193</v>
       </c>
       <c r="GF3">
-        <v>0.9563636515139312</v>
+        <v>0.956607075840335</v>
       </c>
       <c r="GG3">
-        <v>0.957419911977043</v>
+        <v>0.9576036213172244</v>
       </c>
       <c r="GH3">
-        <v>0.957532843239099</v>
+        <v>0.9576441919601965</v>
       </c>
       <c r="GI3">
-        <v>0.957537914254922</v>
+        <v>0.9576441919601965</v>
       </c>
       <c r="GJ3">
-        <v>0.9585917970181167</v>
+        <v>0.958638327863333</v>
       </c>
       <c r="GK3">
-        <v>0.9594284225888988</v>
+        <v>0.9594122941711665</v>
       </c>
       <c r="GL3">
-        <v>0.9606609239458557</v>
+        <v>0.960587443108051</v>
       </c>
       <c r="GM3">
-        <v>0.9606714085934895</v>
+        <v>0.960587443108051</v>
       </c>
       <c r="GN3">
-        <v>0.9678549280426163</v>
+        <v>0.9677933854582373</v>
       </c>
       <c r="GO3">
-        <v>0.9692967033922646</v>
+        <v>0.9691806137733311</v>
       </c>
       <c r="GP3">
-        <v>0.971556464313346</v>
+        <v>0.9713967930208486</v>
       </c>
       <c r="GQ3">
-        <v>0.9717782083856019</v>
+        <v>0.9715476351449138</v>
       </c>
       <c r="GR3">
-        <v>0.9786262747464438</v>
+        <v>0.978413627549735</v>
       </c>
       <c r="GS3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="GT3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="GU3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="GV3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="GW3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="GX3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="GY3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="GZ3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="HA3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="HB3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="HC3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="HD3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="HE3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="HF3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="HG3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="HH3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="HI3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="HJ3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="HK3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="HL3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="HM3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="HN3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="HO3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="HP3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="HQ3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="HR3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="HS3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="HT3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="HU3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="HV3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="HW3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="HX3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="HY3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="HZ3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="IA3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="IB3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="IC3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="ID3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="IE3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="IF3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="IG3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="IH3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="II3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="IJ3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="IK3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="IL3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="IM3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="IN3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="IO3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="IP3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="IQ3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="IR3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="IS3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="IT3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="IU3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="IV3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="IW3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999991</v>
       </c>
     </row>
     <row r="4" spans="1:257">
@@ -8191,772 +8191,772 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>0.0001370572460026715</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0.0004065094878038227</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0.0008494511772032601</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.001255127714970602</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.001704547804653773</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.002173685275200502</v>
+        <v>2.106102001632918E-05</v>
       </c>
       <c r="H4">
-        <v>0.002710893348728507</v>
+        <v>0.000114831308156696</v>
       </c>
       <c r="I4">
-        <v>0.003370220107604923</v>
+        <v>0.0003390420485198074</v>
       </c>
       <c r="J4">
-        <v>0.003588949017184553</v>
+        <v>0.0003390420485198074</v>
       </c>
       <c r="K4">
-        <v>0.003642326532522318</v>
+        <v>0.0003390420485198074</v>
       </c>
       <c r="L4">
-        <v>0.003731394086423194</v>
+        <v>0.0003390420485198074</v>
       </c>
       <c r="M4">
-        <v>0.003747712699137897</v>
+        <v>0.0003390420485198074</v>
       </c>
       <c r="N4">
-        <v>0.003805934605687831</v>
+        <v>0.0003390420485198074</v>
       </c>
       <c r="O4">
-        <v>0.003963894462605971</v>
+        <v>0.0003390420485198074</v>
       </c>
       <c r="P4">
-        <v>0.004109389968978212</v>
+        <v>0.0003390420485198074</v>
       </c>
       <c r="Q4">
-        <v>0.004779113298309963</v>
+        <v>0.0005743578327006657</v>
       </c>
       <c r="R4">
-        <v>0.005494842179656612</v>
+        <v>0.000858814213117547</v>
       </c>
       <c r="S4">
-        <v>0.006073444104997537</v>
+        <v>0.0009967991333947864</v>
       </c>
       <c r="T4">
-        <v>0.006830786938166744</v>
+        <v>0.001325705244653621</v>
       </c>
       <c r="U4">
-        <v>0.008406549507180134</v>
+        <v>0.002528802231346116</v>
       </c>
       <c r="V4">
-        <v>0.009593441259162217</v>
+        <v>0.003316528834013657</v>
       </c>
       <c r="W4">
-        <v>0.01011873795216854</v>
+        <v>0.00339757604167365</v>
       </c>
       <c r="X4">
-        <v>0.01030441469030059</v>
+        <v>0.00339757604167365</v>
       </c>
       <c r="Y4">
-        <v>0.01073718440925453</v>
+        <v>0.00339757604167365</v>
       </c>
       <c r="Z4">
-        <v>0.01134718628597067</v>
+        <v>0.003569100660199934</v>
       </c>
       <c r="AA4">
-        <v>0.01148573769203878</v>
+        <v>0.003569100660199934</v>
       </c>
       <c r="AB4">
-        <v>0.0115768429300289</v>
+        <v>0.003569100660199934</v>
       </c>
       <c r="AC4">
-        <v>0.01164757294312665</v>
+        <v>0.003569100660199934</v>
       </c>
       <c r="AD4">
-        <v>0.0116856566447946</v>
+        <v>0.003569100660199934</v>
       </c>
       <c r="AE4">
-        <v>0.01180069735983302</v>
+        <v>0.003569100660199934</v>
       </c>
       <c r="AF4">
-        <v>0.01206914365159011</v>
+        <v>0.003569100660199934</v>
       </c>
       <c r="AG4">
-        <v>0.01276762388218132</v>
+        <v>0.003835132982100691</v>
       </c>
       <c r="AH4">
-        <v>0.01343643491147312</v>
+        <v>0.004069474297637089</v>
       </c>
       <c r="AI4">
-        <v>0.01394213033362097</v>
+        <v>0.004129584507591736</v>
       </c>
       <c r="AJ4">
-        <v>0.01428610560868599</v>
+        <v>0.004129584507591736</v>
       </c>
       <c r="AK4">
-        <v>0.01481764187196559</v>
+        <v>0.004217296480482367</v>
       </c>
       <c r="AL4">
-        <v>0.015867019717925</v>
+        <v>0.004858138304319075</v>
       </c>
       <c r="AM4">
-        <v>0.01671991765527922</v>
+        <v>0.005289111113778297</v>
       </c>
       <c r="AN4">
-        <v>0.01712683057310071</v>
+        <v>0.005289111113778297</v>
       </c>
       <c r="AO4">
-        <v>0.01731496017134019</v>
+        <v>0.005289111113778297</v>
       </c>
       <c r="AP4">
-        <v>0.01747518304835744</v>
+        <v>0.005289111113778297</v>
       </c>
       <c r="AQ4">
-        <v>0.01751176763395973</v>
+        <v>0.005289111113778297</v>
       </c>
       <c r="AR4">
-        <v>0.01758379322211422</v>
+        <v>0.005289111113778297</v>
       </c>
       <c r="AS4">
-        <v>0.01759205406447602</v>
+        <v>0.005289111113778297</v>
       </c>
       <c r="AT4">
-        <v>0.01780768690392005</v>
+        <v>0.005289111113778297</v>
       </c>
       <c r="AU4">
-        <v>0.01821655095182699</v>
+        <v>0.005289111113778297</v>
       </c>
       <c r="AV4">
-        <v>0.01852516546534333</v>
+        <v>0.005289111113778297</v>
       </c>
       <c r="AW4">
-        <v>0.01863344965508583</v>
+        <v>0.005289111113778297</v>
       </c>
       <c r="AX4">
-        <v>0.01882972136368191</v>
+        <v>0.005289111113778297</v>
       </c>
       <c r="AY4">
-        <v>0.01966581886030032</v>
+        <v>0.005702138617972663</v>
       </c>
       <c r="AZ4">
-        <v>0.02059950010119259</v>
+        <v>0.006219399701953405</v>
       </c>
       <c r="BA4">
-        <v>0.02102718061992364</v>
+        <v>0.006219399701953405</v>
       </c>
       <c r="BB4">
-        <v>0.0212528354798066</v>
+        <v>0.006219399701953405</v>
       </c>
       <c r="BC4">
-        <v>0.02153406854212371</v>
+        <v>0.006219399701953405</v>
       </c>
       <c r="BD4">
-        <v>0.02191610080885551</v>
+        <v>0.006219399701953405</v>
       </c>
       <c r="BE4">
-        <v>0.02230536054590385</v>
+        <v>0.006219399701953405</v>
       </c>
       <c r="BF4">
-        <v>0.02259959902879056</v>
+        <v>0.006219399701953405</v>
       </c>
       <c r="BG4">
-        <v>0.02280631846784421</v>
+        <v>0.006219399701953405</v>
       </c>
       <c r="BH4">
-        <v>0.02286810362555021</v>
+        <v>0.006219399701953405</v>
       </c>
       <c r="BI4">
-        <v>0.0229655055698161</v>
+        <v>0.006219399701953405</v>
       </c>
       <c r="BJ4">
-        <v>0.02298952235686796</v>
+        <v>0.006219399701953405</v>
       </c>
       <c r="BK4">
-        <v>0.02300136672138671</v>
+        <v>0.006219399701953405</v>
       </c>
       <c r="BL4">
-        <v>0.0230805915788565</v>
+        <v>0.006219399701953405</v>
       </c>
       <c r="BM4">
-        <v>0.02309629659254433</v>
+        <v>0.006219399701953405</v>
       </c>
       <c r="BN4">
-        <v>0.02322383068812992</v>
+        <v>0.006219399701953405</v>
       </c>
       <c r="BO4">
-        <v>0.02333334708292639</v>
+        <v>0.006219399701953405</v>
       </c>
       <c r="BP4">
-        <v>0.02360179337468348</v>
+        <v>0.006219399701953405</v>
       </c>
       <c r="BQ4">
-        <v>0.02433888993696597</v>
+        <v>0.006526679862009494</v>
       </c>
       <c r="BR4">
-        <v>0.02502606816706219</v>
+        <v>0.0067806400096039</v>
       </c>
       <c r="BS4">
-        <v>0.0255269472889991</v>
+        <v>0.006835605713001151</v>
       </c>
       <c r="BT4">
-        <v>0.02600879135010234</v>
+        <v>0.006870239213049274</v>
       </c>
       <c r="BU4">
-        <v>0.0266148984366479</v>
+        <v>0.007037603631277678</v>
       </c>
       <c r="BV4">
-        <v>0.02683001364606926</v>
+        <v>0.007037603631277678</v>
       </c>
       <c r="BW4">
-        <v>0.02688843463862791</v>
+        <v>0.007037603631277678</v>
       </c>
       <c r="BX4">
-        <v>0.02699007395307939</v>
+        <v>0.007037603631277678</v>
       </c>
       <c r="BY4">
-        <v>0.027092332607558</v>
+        <v>0.007037603631277678</v>
       </c>
       <c r="BZ4">
-        <v>0.02711122320038534</v>
+        <v>0.007037603631277678</v>
       </c>
       <c r="CA4">
-        <v>0.02711148593187685</v>
+        <v>0.007037603631277678</v>
       </c>
       <c r="CB4">
-        <v>0.0271253235504829</v>
+        <v>0.007037603631277678</v>
       </c>
       <c r="CC4">
-        <v>0.02735467921052794</v>
+        <v>0.007037603631277678</v>
       </c>
       <c r="CD4">
-        <v>0.0274620080552286</v>
+        <v>0.007037603631277678</v>
       </c>
       <c r="CE4">
-        <v>0.02763535883282081</v>
+        <v>0.007037603631277678</v>
       </c>
       <c r="CF4">
-        <v>0.02797828252783978</v>
+        <v>0.007037603631277678</v>
       </c>
       <c r="CG4">
-        <v>0.02825951559015689</v>
+        <v>0.007037603631277678</v>
       </c>
       <c r="CH4">
-        <v>0.02859565768487885</v>
+        <v>0.007037603631277678</v>
       </c>
       <c r="CI4">
-        <v>0.02920263334146245</v>
+        <v>0.007205895808171563</v>
       </c>
       <c r="CJ4">
-        <v>0.02960716780917978</v>
+        <v>0.007205895808171563</v>
       </c>
       <c r="CK4">
-        <v>0.02970608908351221</v>
+        <v>0.007205895808171563</v>
       </c>
       <c r="CL4">
-        <v>0.02984900648977154</v>
+        <v>0.007205895808171563</v>
       </c>
       <c r="CM4">
-        <v>0.03025230814743487</v>
+        <v>0.007205895808171563</v>
       </c>
       <c r="CN4">
-        <v>0.04726054089234137</v>
+        <v>0.02489310726853601</v>
       </c>
       <c r="CO4">
-        <v>0.1620378659192232</v>
+        <v>0.1470118770468032</v>
       </c>
       <c r="CP4">
-        <v>0.2795237070647294</v>
+        <v>0.2720237345319843</v>
       </c>
       <c r="CQ4">
-        <v>0.4926486463989239</v>
+        <v>0.4991920079850874</v>
       </c>
       <c r="CR4">
-        <v>0.4927238293322167</v>
+        <v>0.4991920079850874</v>
       </c>
       <c r="CS4">
-        <v>0.5295882529467613</v>
+        <v>0.5380885086632909</v>
       </c>
       <c r="CT4">
-        <v>0.5301016677092472</v>
+        <v>0.5381568642473396</v>
       </c>
       <c r="CU4">
-        <v>0.5333464648513589</v>
+        <v>0.5411427320186112</v>
       </c>
       <c r="CV4">
-        <v>0.5362891499802392</v>
+        <v>0.5438059003805711</v>
       </c>
       <c r="CW4">
-        <v>0.5383237771693494</v>
+        <v>0.5454991312757943</v>
       </c>
       <c r="CX4">
-        <v>0.5401483123492583</v>
+        <v>0.546967953460668</v>
       </c>
       <c r="CY4">
-        <v>0.5576561421160455</v>
+        <v>0.5651888069372181</v>
       </c>
       <c r="CZ4">
-        <v>0.5840064612701057</v>
+        <v>0.5928547204482743</v>
       </c>
       <c r="DA4">
-        <v>0.5863094849709708</v>
+        <v>0.5948346377115044</v>
       </c>
       <c r="DB4">
-        <v>0.5896703461181658</v>
+        <v>0.5979444786590892</v>
       </c>
       <c r="DC4">
-        <v>0.6004562775905553</v>
+        <v>0.6089853706840811</v>
       </c>
       <c r="DD4">
-        <v>0.6141991021924473</v>
+        <v>0.623184653056023</v>
       </c>
       <c r="DE4">
-        <v>0.6512589958155528</v>
+        <v>0.6622899440290118</v>
       </c>
       <c r="DF4">
-        <v>0.6520435885499155</v>
+        <v>0.66264795698354</v>
       </c>
       <c r="DG4">
-        <v>0.6574176457852822</v>
+        <v>0.6679081830863935</v>
       </c>
       <c r="DH4">
-        <v>0.6574194083872593</v>
+        <v>0.6679081830863935</v>
       </c>
       <c r="DI4">
-        <v>0.6611624316511918</v>
+        <v>0.6714262285539289</v>
       </c>
       <c r="DJ4">
-        <v>0.6619703911565779</v>
+        <v>0.6718092006059988</v>
       </c>
       <c r="DK4">
-        <v>0.664066344848374</v>
+        <v>0.6735679370929402</v>
       </c>
       <c r="DL4">
-        <v>0.6640747829332436</v>
+        <v>0.6735679370929402</v>
       </c>
       <c r="DM4">
-        <v>0.6770974235035938</v>
+        <v>0.6869979585570211</v>
       </c>
       <c r="DN4">
-        <v>0.6801292006363761</v>
+        <v>0.6897562900895085</v>
       </c>
       <c r="DO4">
-        <v>0.6801308373087477</v>
+        <v>0.6897562900895085</v>
       </c>
       <c r="DP4">
-        <v>0.6840657764810855</v>
+        <v>0.6934793295578366</v>
       </c>
       <c r="DQ4">
-        <v>0.6945328694395109</v>
+        <v>0.7041796558468902</v>
       </c>
       <c r="DR4">
-        <v>0.6946958213666476</v>
+        <v>0.7041796558468902</v>
       </c>
       <c r="DS4">
-        <v>0.7200354094764411</v>
+        <v>0.7307659621372039</v>
       </c>
       <c r="DT4">
-        <v>0.7352534696429437</v>
+        <v>0.7465410098691632</v>
       </c>
       <c r="DU4">
-        <v>0.738293696376096</v>
+        <v>0.7493083667992809</v>
       </c>
       <c r="DV4">
-        <v>0.7513934499498235</v>
+        <v>0.7628207561254469</v>
       </c>
       <c r="DW4">
-        <v>0.7515091495188908</v>
+        <v>0.7628207561254469</v>
       </c>
       <c r="DX4">
-        <v>0.7775170656579549</v>
+        <v>0.7901209335987206</v>
       </c>
       <c r="DY4">
-        <v>0.7800138714673071</v>
+        <v>0.7923078382348626</v>
       </c>
       <c r="DZ4">
-        <v>0.7882264928269938</v>
+        <v>0.8006000621600249</v>
       </c>
       <c r="EA4">
-        <v>0.7906944939350844</v>
+        <v>0.8027561992011181</v>
       </c>
       <c r="EB4">
-        <v>0.7907250430814223</v>
+        <v>0.8027561992011181</v>
       </c>
       <c r="EC4">
-        <v>0.7909747336123579</v>
+        <v>0.8027561992011181</v>
       </c>
       <c r="ED4">
-        <v>0.7995607509883982</v>
+        <v>0.8114472641807214</v>
       </c>
       <c r="EE4">
-        <v>0.7999615006559497</v>
+        <v>0.8114472641807214</v>
       </c>
       <c r="EF4">
-        <v>0.8114304841582547</v>
+        <v>0.8232177547550233</v>
       </c>
       <c r="EG4">
-        <v>0.8169338040992826</v>
+        <v>0.8286160521590369</v>
       </c>
       <c r="EH4">
-        <v>0.8207160528649331</v>
+        <v>0.8321759961465912</v>
       </c>
       <c r="EI4">
-        <v>0.8300627942742906</v>
+        <v>0.8416796246306207</v>
       </c>
       <c r="EJ4">
-        <v>0.8301896884198482</v>
+        <v>0.8416796246306207</v>
       </c>
       <c r="EK4">
-        <v>0.8367123651055207</v>
+        <v>0.8481667427533341</v>
       </c>
       <c r="EL4">
-        <v>0.8416788493230369</v>
+        <v>0.8529916218115441</v>
       </c>
       <c r="EM4">
-        <v>0.8417064233502446</v>
+        <v>0.8529916218115441</v>
       </c>
       <c r="EN4">
-        <v>0.8419683767817173</v>
+        <v>0.8529916218115441</v>
       </c>
       <c r="EO4">
-        <v>0.8419925214947748</v>
+        <v>0.8529916218115441</v>
       </c>
       <c r="EP4">
-        <v>0.8420762164784403</v>
+        <v>0.8529916218115441</v>
       </c>
       <c r="EQ4">
-        <v>0.8423452409202228</v>
+        <v>0.8529916218115441</v>
       </c>
       <c r="ER4">
-        <v>0.8424710491057328</v>
+        <v>0.8529916218115441</v>
       </c>
       <c r="ES4">
-        <v>0.8471287563097255</v>
+        <v>0.8574866822743027</v>
       </c>
       <c r="ET4">
-        <v>0.8511679788866306</v>
+        <v>0.8613211115304612</v>
       </c>
       <c r="EU4">
-        <v>0.8513345328439251</v>
+        <v>0.8613211115304612</v>
       </c>
       <c r="EV4">
-        <v>0.8537751843508179</v>
+        <v>0.8634480352342327</v>
       </c>
       <c r="EW4">
-        <v>0.8546855835906905</v>
+        <v>0.8639404277673198</v>
       </c>
       <c r="EX4">
-        <v>0.8552292084744995</v>
+        <v>0.8640410521387031</v>
       </c>
       <c r="EY4">
-        <v>0.8577061312829808</v>
+        <v>0.866206718848661</v>
       </c>
       <c r="EZ4">
-        <v>0.8582461865066335</v>
+        <v>0.8663035303057163</v>
       </c>
       <c r="FA4">
-        <v>0.859559922264171</v>
+        <v>0.8672267446873357</v>
       </c>
       <c r="FB4">
-        <v>0.8611785845350632</v>
+        <v>0.8684756647722489</v>
       </c>
       <c r="FC4">
-        <v>0.8620207679319482</v>
+        <v>0.8688951928998383</v>
       </c>
       <c r="FD4">
-        <v>0.8678024838851689</v>
+        <v>0.8745908575873583</v>
       </c>
       <c r="FE4">
-        <v>0.8710243479262763</v>
+        <v>0.8775522294835117</v>
       </c>
       <c r="FF4">
-        <v>0.8711884765134645</v>
+        <v>0.8775522294835117</v>
       </c>
       <c r="FG4">
-        <v>0.8760538930265543</v>
+        <v>0.8822691535876303</v>
       </c>
       <c r="FH4">
-        <v>0.8858208184543146</v>
+        <v>0.8922215994923588</v>
       </c>
       <c r="FI4">
-        <v>0.8860984626964745</v>
+        <v>0.8922215994923588</v>
       </c>
       <c r="FJ4">
-        <v>0.8865241476551182</v>
+        <v>0.8922215994923588</v>
       </c>
       <c r="FK4">
-        <v>0.897000656113956</v>
+        <v>0.902931982900257</v>
       </c>
       <c r="FL4">
-        <v>0.9104858287045636</v>
+        <v>0.9168560555876847</v>
       </c>
       <c r="FM4">
-        <v>0.9105454276841739</v>
+        <v>0.9168560555876847</v>
       </c>
       <c r="FN4">
-        <v>0.9121137117528597</v>
+        <v>0.9180511644523147</v>
       </c>
       <c r="FO4">
-        <v>0.912143948100184</v>
+        <v>0.9180511644523147</v>
       </c>
       <c r="FP4">
-        <v>0.912156004511712</v>
+        <v>0.9180511644523147</v>
       </c>
       <c r="FQ4">
-        <v>0.9140333182939323</v>
+        <v>0.9195763618326268</v>
       </c>
       <c r="FR4">
-        <v>0.9156052482627779</v>
+        <v>0.9207753650469563</v>
       </c>
       <c r="FS4">
-        <v>0.9179854438670229</v>
+        <v>0.9228377130860095</v>
       </c>
       <c r="FT4">
-        <v>0.9206950222856938</v>
+        <v>0.9252518897018733</v>
       </c>
       <c r="FU4">
-        <v>0.9207972809401723</v>
+        <v>0.9252518897018733</v>
       </c>
       <c r="FV4">
-        <v>0.9209517334469368</v>
+        <v>0.9252518897018733</v>
       </c>
       <c r="FW4">
-        <v>0.9249037171200212</v>
+        <v>0.9289931351669246</v>
       </c>
       <c r="FX4">
-        <v>0.933529567497806</v>
+        <v>0.9377267475646084</v>
       </c>
       <c r="FY4">
-        <v>0.934445388477916</v>
+        <v>0.9382249313019357</v>
       </c>
       <c r="FZ4">
-        <v>0.9349415765996475</v>
+        <v>0.9382748863373387</v>
       </c>
       <c r="GA4">
-        <v>0.9368766690843984</v>
+        <v>0.9398617997446898</v>
       </c>
       <c r="GB4">
-        <v>0.9382262186435043</v>
+        <v>0.9408232684561776</v>
       </c>
       <c r="GC4">
-        <v>0.9395678928022654</v>
+        <v>0.9417763250988694</v>
       </c>
       <c r="GD4">
-        <v>0.9447550790294477</v>
+        <v>0.9468369458854249</v>
       </c>
       <c r="GE4">
-        <v>0.952431966665671</v>
+        <v>0.9545569285605264</v>
       </c>
       <c r="GF4">
-        <v>0.9580772555129167</v>
+        <v>0.9601068693291551</v>
       </c>
       <c r="GG4">
-        <v>0.962342048099701</v>
+        <v>0.9641822400433108</v>
       </c>
       <c r="GH4">
-        <v>0.9638814981671241</v>
+        <v>0.9653465500162447</v>
       </c>
       <c r="GI4">
-        <v>0.9639230946149459</v>
+        <v>0.9653465500162447</v>
       </c>
       <c r="GJ4">
-        <v>0.9639334085963975</v>
+        <v>0.9653465500162447</v>
       </c>
       <c r="GK4">
-        <v>0.9648043146345404</v>
+        <v>0.9657967580869078</v>
       </c>
       <c r="GL4">
-        <v>0.9652319951532715</v>
+        <v>0.9657967580869078</v>
       </c>
       <c r="GM4">
-        <v>0.9660208891878226</v>
+        <v>0.9661593654533405</v>
       </c>
       <c r="GN4">
-        <v>0.9699344059592222</v>
+        <v>0.9698595226931374</v>
       </c>
       <c r="GO4">
-        <v>0.9750661858839779</v>
+        <v>0.9748609615197503</v>
       </c>
       <c r="GP4">
-        <v>0.9755111631534664</v>
+        <v>0.9748609615197503</v>
       </c>
       <c r="GQ4">
-        <v>0.9755659276298649</v>
+        <v>0.9748609615197503</v>
       </c>
       <c r="GR4">
-        <v>0.9787790930705914</v>
+        <v>0.977813042050179</v>
       </c>
       <c r="GS4">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="GT4">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="GU4">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="GV4">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="GW4">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="GX4">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="GY4">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="GZ4">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HA4">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HB4">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HC4">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HD4">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HE4">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HF4">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HG4">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HH4">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HI4">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HJ4">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HK4">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HL4">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HM4">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HN4">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HO4">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HP4">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HQ4">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HR4">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HS4">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HT4">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HU4">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HV4">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HW4">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HX4">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HY4">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HZ4">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IA4">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IB4">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IC4">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="ID4">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IE4">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IF4">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IG4">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IH4">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="II4">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IJ4">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IK4">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IL4">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IM4">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IN4">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IO4">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IP4">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IQ4">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IR4">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IS4">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IT4">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IU4">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IV4">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IW4">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
     </row>
     <row r="5" spans="1:257">
@@ -8964,772 +8964,772 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>0.0002009002873653491</v>
+        <v>3.361653693854786E-05</v>
       </c>
       <c r="C5">
-        <v>0.0003879497756017771</v>
+        <v>5.303180740205709E-05</v>
       </c>
       <c r="D5">
-        <v>0.0005170104174851329</v>
+        <v>5.303180740205709E-05</v>
       </c>
       <c r="E5">
-        <v>0.0005655886544300398</v>
+        <v>5.303180740205709E-05</v>
       </c>
       <c r="F5">
-        <v>0.0006074816947953799</v>
+        <v>5.303180740205709E-05</v>
       </c>
       <c r="G5">
-        <v>0.0007108476282946799</v>
+        <v>5.303180740205709E-05</v>
       </c>
       <c r="H5">
-        <v>0.0008849157173475102</v>
+        <v>5.913720979880723E-05</v>
       </c>
       <c r="I5">
-        <v>0.000885280579054564</v>
+        <v>5.913720979880723E-05</v>
       </c>
       <c r="J5">
-        <v>0.0008861465353401038</v>
+        <v>5.913720979880723E-05</v>
       </c>
       <c r="K5">
-        <v>0.0008861526651817183</v>
+        <v>5.913720979880723E-05</v>
       </c>
       <c r="L5">
-        <v>0.0009160007223045692</v>
+        <v>5.913720979880723E-05</v>
       </c>
       <c r="M5">
-        <v>0.001031546051037905</v>
+        <v>5.913720979880723E-05</v>
       </c>
       <c r="N5">
-        <v>0.00110928086614915</v>
+        <v>5.913720979880723E-05</v>
       </c>
       <c r="O5">
-        <v>0.001342819521461867</v>
+        <v>0.0001262179646656269</v>
       </c>
       <c r="P5">
-        <v>0.001482747342661784</v>
+        <v>0.0001262179646656269</v>
       </c>
       <c r="Q5">
-        <v>0.001603544135064855</v>
+        <v>0.0001262179646656269</v>
       </c>
       <c r="R5">
-        <v>0.001788261143447973</v>
+        <v>0.0001432417364411399</v>
       </c>
       <c r="S5">
-        <v>0.001956374502875297</v>
+        <v>0.0001432417364411399</v>
       </c>
       <c r="T5">
-        <v>0.001976854863587284</v>
+        <v>0.0001432417364411399</v>
       </c>
       <c r="U5">
-        <v>0.002053341928777</v>
+        <v>0.0001432417364411399</v>
       </c>
       <c r="V5">
-        <v>0.002084444993820923</v>
+        <v>0.0001432417364411399</v>
       </c>
       <c r="W5">
-        <v>0.002086062660919188</v>
+        <v>0.0001432417364411399</v>
       </c>
       <c r="X5">
-        <v>0.00208880343004682</v>
+        <v>0.0001432417364411399</v>
       </c>
       <c r="Y5">
-        <v>0.002177417908473842</v>
+        <v>0.0001432417364411399</v>
       </c>
       <c r="Z5">
-        <v>0.002178508350305264</v>
+        <v>0.0001432417364411399</v>
       </c>
       <c r="AA5">
-        <v>0.002286844443491989</v>
+        <v>0.0001432417364411399</v>
       </c>
       <c r="AB5">
-        <v>0.002391660076900118</v>
+        <v>0.0001432417364411399</v>
       </c>
       <c r="AC5">
-        <v>0.002400778184326679</v>
+        <v>0.0001432417364411399</v>
       </c>
       <c r="AD5">
-        <v>0.002404821337772404</v>
+        <v>0.0001432417364411399</v>
       </c>
       <c r="AE5">
-        <v>0.002575902837013061</v>
+        <v>0.0001462849792195513</v>
       </c>
       <c r="AF5">
-        <v>0.002694839049533144</v>
+        <v>0.0001462849792195513</v>
       </c>
       <c r="AG5">
-        <v>0.002738029556816886</v>
+        <v>0.0001462849792195513</v>
       </c>
       <c r="AH5">
-        <v>0.002819830161672433</v>
+        <v>0.0001462849792195513</v>
       </c>
       <c r="AI5">
-        <v>0.003012755129539352</v>
+        <v>0.0001717243968188766</v>
       </c>
       <c r="AJ5">
-        <v>0.003161566720180567</v>
+        <v>0.0001717243968188766</v>
       </c>
       <c r="AK5">
-        <v>0.00317734068018854</v>
+        <v>0.0001717243968188766</v>
       </c>
       <c r="AL5">
-        <v>0.003213897260889491</v>
+        <v>0.0001717243968188766</v>
       </c>
       <c r="AM5">
-        <v>0.003249260962665462</v>
+        <v>0.0001717243968188766</v>
       </c>
       <c r="AN5">
-        <v>0.003250264193802369</v>
+        <v>0.0001717243968188766</v>
       </c>
       <c r="AO5">
-        <v>0.003253443733402407</v>
+        <v>0.0001717243968188766</v>
       </c>
       <c r="AP5">
-        <v>0.003274834251057154</v>
+        <v>0.0001717243968188766</v>
       </c>
       <c r="AQ5">
-        <v>0.003325005957901847</v>
+        <v>0.0001717243968188766</v>
       </c>
       <c r="AR5">
-        <v>0.003457635819560735</v>
+        <v>0.0001717243968188766</v>
       </c>
       <c r="AS5">
-        <v>0.003485349803817797</v>
+        <v>0.0001717243968188766</v>
       </c>
       <c r="AT5">
-        <v>0.003520879313583341</v>
+        <v>0.0001717243968188766</v>
       </c>
       <c r="AU5">
-        <v>0.003764070118289033</v>
+        <v>0.0002487015298159879</v>
       </c>
       <c r="AV5">
-        <v>0.004094090417534004</v>
+        <v>0.0004147052076620876</v>
       </c>
       <c r="AW5">
-        <v>0.004191472261409644</v>
+        <v>0.0004147052076620876</v>
       </c>
       <c r="AX5">
-        <v>0.004259977367101347</v>
+        <v>0.0004147052076620876</v>
       </c>
       <c r="AY5">
-        <v>0.004315307637621617</v>
+        <v>0.0004147052076620876</v>
       </c>
       <c r="AZ5">
-        <v>0.004343321645859812</v>
+        <v>0.0004147052076620876</v>
       </c>
       <c r="BA5">
-        <v>0.004358980687875012</v>
+        <v>0.0004147052076620876</v>
       </c>
       <c r="BB5">
-        <v>0.004425849183669642</v>
+        <v>0.0004147052076620876</v>
       </c>
       <c r="BC5">
-        <v>0.004430668071366582</v>
+        <v>0.0004147052076620876</v>
       </c>
       <c r="BD5">
-        <v>0.004433361061397219</v>
+        <v>0.0004147052076620876</v>
       </c>
       <c r="BE5">
-        <v>0.004475066691774345</v>
+        <v>0.0004147052076620876</v>
       </c>
       <c r="BF5">
-        <v>0.00447809602658383</v>
+        <v>0.0004147052076620876</v>
       </c>
       <c r="BG5">
-        <v>0.004486213447073324</v>
+        <v>0.0004147052076620876</v>
       </c>
       <c r="BH5">
-        <v>0.004496030984455898</v>
+        <v>0.0004147052076620876</v>
       </c>
       <c r="BI5">
-        <v>0.004515623493223722</v>
+        <v>0.0004147052076620876</v>
       </c>
       <c r="BJ5">
-        <v>0.004677538423040866</v>
+        <v>0.0004147052076620876</v>
       </c>
       <c r="BK5">
-        <v>0.004918086267912774</v>
+        <v>0.0004889725059028767</v>
       </c>
       <c r="BL5">
-        <v>0.004980616783980219</v>
+        <v>0.0004889725059028767</v>
       </c>
       <c r="BM5">
-        <v>0.005099552996500302</v>
+        <v>0.0004889725059028767</v>
       </c>
       <c r="BN5">
-        <v>0.005343196061177551</v>
+        <v>0.0005664133424244055</v>
       </c>
       <c r="BO5">
-        <v>0.005520654980017131</v>
+        <v>0.0005759953729149521</v>
       </c>
       <c r="BP5">
-        <v>0.005745171055897279</v>
+        <v>0.0006338252496467648</v>
       </c>
       <c r="BQ5">
-        <v>0.006101520163486428</v>
+        <v>0.0008268239347690264</v>
       </c>
       <c r="BR5">
-        <v>0.006249639214171197</v>
+        <v>0.0008268239347690264</v>
       </c>
       <c r="BS5">
-        <v>0.006307972858502584</v>
+        <v>0.0008268239347690264</v>
       </c>
       <c r="BT5">
-        <v>0.006543260643705298</v>
+        <v>0.0008956980778321585</v>
       </c>
       <c r="BU5">
-        <v>0.006821308556218821</v>
+        <v>0.001008414309484924</v>
       </c>
       <c r="BV5">
-        <v>0.006827527973827681</v>
+        <v>0.001008414309484924</v>
       </c>
       <c r="BW5">
-        <v>0.006829145640925945</v>
+        <v>0.001008414309484924</v>
       </c>
       <c r="BX5">
-        <v>0.006863170278786131</v>
+        <v>0.001008414309484924</v>
       </c>
       <c r="BY5">
-        <v>0.006863291570928502</v>
+        <v>0.001008414309484924</v>
       </c>
       <c r="BZ5">
-        <v>0.006891305579166697</v>
+        <v>0.001008414309484924</v>
       </c>
       <c r="CA5">
-        <v>0.007005936297957553</v>
+        <v>0.001008414309484924</v>
       </c>
       <c r="CB5">
-        <v>0.007418516372010326</v>
+        <v>0.001259066775552684</v>
       </c>
       <c r="CC5">
-        <v>0.007882232472847146</v>
+        <v>0.001562149165415861</v>
       </c>
       <c r="CD5">
-        <v>0.008033473673335564</v>
+        <v>0.001562149165415861</v>
       </c>
       <c r="CE5">
-        <v>0.008317706455460119</v>
+        <v>0.001681206762692523</v>
       </c>
       <c r="CF5">
-        <v>0.008687036052232922</v>
+        <v>0.001887514382855835</v>
       </c>
       <c r="CG5">
-        <v>0.009218544368806279</v>
+        <v>0.002260104337708358</v>
       </c>
       <c r="CH5">
-        <v>0.009608357844290849</v>
+        <v>0.002487414141017966</v>
       </c>
       <c r="CI5">
-        <v>0.009968461291643886</v>
+        <v>0.002684262162119224</v>
       </c>
       <c r="CJ5">
-        <v>0.01021610405606959</v>
+        <v>0.002765803902958209</v>
       </c>
       <c r="CK5">
-        <v>0.01040862661396182</v>
+        <v>0.002790830728386524</v>
       </c>
       <c r="CL5">
-        <v>0.01053256701616719</v>
+        <v>0.002790830728386524</v>
       </c>
       <c r="CM5">
-        <v>0.01055880511951707</v>
+        <v>0.002790830728386524</v>
       </c>
       <c r="CN5">
-        <v>0.02639209612375889</v>
+        <v>0.01885238501432746</v>
       </c>
       <c r="CO5">
-        <v>0.1614605376292832</v>
+        <v>0.1571661017711246</v>
       </c>
       <c r="CP5">
-        <v>0.2702696007862639</v>
+        <v>0.2685559980374591</v>
       </c>
       <c r="CQ5">
-        <v>0.487122607148344</v>
+        <v>0.4907236778950484</v>
       </c>
       <c r="CR5">
-        <v>0.4872309432415307</v>
+        <v>0.4907236778950484</v>
       </c>
       <c r="CS5">
-        <v>0.5157961694450591</v>
+        <v>0.5198393240658723</v>
       </c>
       <c r="CT5">
-        <v>0.5161088801853927</v>
+        <v>0.5199875802003183</v>
       </c>
       <c r="CU5">
-        <v>0.5231193424445036</v>
+        <v>0.5270030613386376</v>
       </c>
       <c r="CV5">
-        <v>0.5232259051578019</v>
+        <v>0.5270030613386376</v>
       </c>
       <c r="CW5">
-        <v>0.5235222420391652</v>
+        <v>0.5271345293056793</v>
       </c>
       <c r="CX5">
-        <v>0.5242778194916468</v>
+        <v>0.5277368580271002</v>
       </c>
       <c r="CY5">
-        <v>0.531467828639466</v>
+        <v>0.5349364291365163</v>
       </c>
       <c r="CZ5">
-        <v>0.5446054048132417</v>
+        <v>0.5482340588075787</v>
       </c>
       <c r="DA5">
-        <v>0.5451316846801438</v>
+        <v>0.5486012880170806</v>
       </c>
       <c r="DB5">
-        <v>0.5452961335198017</v>
+        <v>0.5486012880170806</v>
       </c>
       <c r="DC5">
-        <v>0.5514761171311415</v>
+        <v>0.5547652768718824</v>
       </c>
       <c r="DD5">
-        <v>0.5687609470440959</v>
+        <v>0.5723150984158814</v>
       </c>
       <c r="DE5">
-        <v>0.6089899375140883</v>
+        <v>0.6133896375652501</v>
       </c>
       <c r="DF5">
-        <v>0.6116658410458002</v>
+        <v>0.6159608824565095</v>
       </c>
       <c r="DG5">
-        <v>0.6150309278341693</v>
+        <v>0.6192387490370176</v>
       </c>
       <c r="DH5">
-        <v>0.6151846253845032</v>
+        <v>0.6192387490370176</v>
       </c>
       <c r="DI5">
-        <v>0.6159741822348479</v>
+        <v>0.6198759169384181</v>
       </c>
       <c r="DJ5">
-        <v>0.6164804586030082</v>
+        <v>0.6202226364998179</v>
       </c>
       <c r="DK5">
-        <v>0.6189615541469716</v>
+        <v>0.6225941441687168</v>
       </c>
       <c r="DL5">
-        <v>0.6213933526940354</v>
+        <v>0.6249151074767544</v>
       </c>
       <c r="DM5">
-        <v>0.6258714899124046</v>
+        <v>0.6293341880485608</v>
       </c>
       <c r="DN5">
-        <v>0.627175646230386</v>
+        <v>0.6304989763493188</v>
       </c>
       <c r="DO5">
-        <v>0.6277150456964631</v>
+        <v>0.630879657123759</v>
       </c>
       <c r="DP5">
-        <v>0.6285548878936452</v>
+        <v>0.6315683827442184</v>
       </c>
       <c r="DQ5">
-        <v>0.6328411479240816</v>
+        <v>0.6357907310516298</v>
       </c>
       <c r="DR5">
-        <v>0.635533217154777</v>
+        <v>0.6383785506832258</v>
       </c>
       <c r="DS5">
-        <v>0.6726170148225711</v>
+        <v>0.6762283140861809</v>
       </c>
       <c r="DT5">
-        <v>0.6986841361832057</v>
+        <v>0.7027826457634285</v>
       </c>
       <c r="DU5">
-        <v>0.6997149365183785</v>
+        <v>0.703667161343582</v>
       </c>
       <c r="DV5">
-        <v>0.7082598699809862</v>
+        <v>0.7122559404740461</v>
       </c>
       <c r="DW5">
-        <v>0.7092607626180399</v>
+        <v>0.7131097916003517</v>
       </c>
       <c r="DX5">
-        <v>0.7395021497161544</v>
+        <v>0.7439440106345531</v>
       </c>
       <c r="DY5">
-        <v>0.7421545545493442</v>
+        <v>0.7464911622387448</v>
       </c>
       <c r="DZ5">
-        <v>0.7538980588107933</v>
+        <v>0.7583594457379335</v>
       </c>
       <c r="EA5">
-        <v>0.7588242775009826</v>
+        <v>0.7632379456056676</v>
       </c>
       <c r="EB5">
-        <v>0.7588622216025963</v>
+        <v>0.7632379456056676</v>
       </c>
       <c r="EC5">
-        <v>0.7598523722403255</v>
+        <v>0.7640807829273933</v>
       </c>
       <c r="ED5">
-        <v>0.7609536630710652</v>
+        <v>0.7650375726270532</v>
       </c>
       <c r="EE5">
-        <v>0.7611781791469453</v>
+        <v>0.765095402503785</v>
       </c>
       <c r="EF5">
-        <v>0.7788160010376999</v>
+        <v>0.783007147796272</v>
       </c>
       <c r="EG5">
-        <v>0.7944781840527027</v>
+        <v>0.7988932645404095</v>
       </c>
       <c r="EH5">
-        <v>0.7944793049740322</v>
+        <v>0.7988932645404095</v>
       </c>
       <c r="EI5">
-        <v>0.8000920794210439</v>
+        <v>0.8044756921138201</v>
       </c>
       <c r="EJ5">
-        <v>0.8002471965512885</v>
+        <v>0.8044756921138201</v>
       </c>
       <c r="EK5">
-        <v>0.8111976908626102</v>
+        <v>0.8155309000991489</v>
       </c>
       <c r="EL5">
-        <v>0.8203738372855208</v>
+        <v>0.824766863797689</v>
       </c>
       <c r="EM5">
-        <v>0.8203763478631629</v>
+        <v>0.824766863797689</v>
       </c>
       <c r="EN5">
-        <v>0.8210669851197286</v>
+        <v>0.8253026091387173</v>
       </c>
       <c r="EO5">
-        <v>0.8218814743685053</v>
+        <v>0.8259653403040638</v>
       </c>
       <c r="EP5">
-        <v>0.8222048173481702</v>
+        <v>0.8261244977058348</v>
       </c>
       <c r="EQ5">
-        <v>0.8222069381932368</v>
+        <v>0.8261244977058348</v>
       </c>
       <c r="ER5">
-        <v>0.8230558475398487</v>
+        <v>0.8268225199021829</v>
       </c>
       <c r="ES5">
-        <v>0.8327592614295994</v>
+        <v>0.8365990925381943</v>
       </c>
       <c r="ET5">
-        <v>0.840584419937474</v>
+        <v>0.8444498842183255</v>
       </c>
       <c r="EU5">
-        <v>0.8407897673445597</v>
+        <v>0.8444880604006395</v>
       </c>
       <c r="EV5">
-        <v>0.8411090452744803</v>
+        <v>0.8446430498945436</v>
       </c>
       <c r="EW5">
-        <v>0.8411090598277754</v>
+        <v>0.8446430498945436</v>
       </c>
       <c r="EX5">
-        <v>0.844419964419552</v>
+        <v>0.8478653633040866</v>
       </c>
       <c r="EY5">
-        <v>0.8510201610044646</v>
+        <v>0.8544601977987991</v>
       </c>
       <c r="EZ5">
-        <v>0.8526366113028059</v>
+        <v>0.8559451820674837</v>
       </c>
       <c r="FA5">
-        <v>0.8535240531069945</v>
+        <v>0.8566827117097843</v>
       </c>
       <c r="FB5">
-        <v>0.854080763071983</v>
+        <v>0.8570811409914093</v>
       </c>
       <c r="FC5">
-        <v>0.8558479652608434</v>
+        <v>0.8587206916319654</v>
       </c>
       <c r="FD5">
-        <v>0.8619344745780618</v>
+        <v>0.864788841008696</v>
       </c>
       <c r="FE5">
-        <v>0.8644969124169097</v>
+        <v>0.8672437491799481</v>
       </c>
       <c r="FF5">
-        <v>0.8647348141819481</v>
+        <v>0.8673153034444873</v>
       </c>
       <c r="FG5">
-        <v>0.8703455015290911</v>
+        <v>0.8728955911080544</v>
       </c>
       <c r="FH5">
-        <v>0.8867816754954175</v>
+        <v>0.8895752831287306</v>
       </c>
       <c r="FI5">
-        <v>0.8902097313798265</v>
+        <v>0.8929177121149332</v>
       </c>
       <c r="FJ5">
-        <v>0.8903503390709837</v>
+        <v>0.8929177121149332</v>
       </c>
       <c r="FK5">
-        <v>0.9057680811013594</v>
+        <v>0.9085532027740486</v>
       </c>
       <c r="FL5">
-        <v>0.9288949726469056</v>
+        <v>0.9320929078789754</v>
       </c>
       <c r="FM5">
-        <v>0.92975719849268</v>
+        <v>0.9328045835224179</v>
       </c>
       <c r="FN5">
-        <v>0.930046242614502</v>
+        <v>0.9329285742009203</v>
       </c>
       <c r="FO5">
-        <v>0.9311788944432693</v>
+        <v>0.9339175184272446</v>
       </c>
       <c r="FP5">
-        <v>0.9318747844995047</v>
+        <v>0.9344586494797509</v>
       </c>
       <c r="FQ5">
-        <v>0.9325602037063986</v>
+        <v>0.9349890447385796</v>
       </c>
       <c r="FR5">
-        <v>0.9331916715166855</v>
+        <v>0.9354641234663702</v>
       </c>
       <c r="FS5">
-        <v>0.9348657552114021</v>
+        <v>0.9370081994316544</v>
       </c>
       <c r="FT5">
-        <v>0.9364210952135865</v>
+        <v>0.9384305271278183</v>
       </c>
       <c r="FU5">
-        <v>0.9364554488614261</v>
+        <v>0.9384305271278183</v>
       </c>
       <c r="FV5">
-        <v>0.9367828928908331</v>
+        <v>0.9385938893483636</v>
       </c>
       <c r="FW5">
-        <v>0.9432590044835494</v>
+        <v>0.9450614991231643</v>
       </c>
       <c r="FX5">
-        <v>0.9576430595789339</v>
+        <v>0.9596371474238033</v>
       </c>
       <c r="FY5">
-        <v>0.9625076005730022</v>
+        <v>0.9644524089621076</v>
       </c>
       <c r="FZ5">
-        <v>0.9628238289231146</v>
+        <v>0.9646042717125589</v>
       </c>
       <c r="GA5">
-        <v>0.9628342796614573</v>
+        <v>0.9646042717125589</v>
       </c>
       <c r="GB5">
-        <v>0.9630143908601301</v>
+        <v>0.9646165731336296</v>
       </c>
       <c r="GC5">
-        <v>0.963285834703059</v>
+        <v>0.9647225181926504</v>
       </c>
       <c r="GD5">
-        <v>0.9638594340669852</v>
+        <v>0.9651382642263767</v>
       </c>
       <c r="GE5">
-        <v>0.9665382786985122</v>
+        <v>0.967712524636222</v>
       </c>
       <c r="GF5">
-        <v>0.9687217342611943</v>
+        <v>0.9697788611270208</v>
       </c>
       <c r="GG5">
-        <v>0.9696253341543668</v>
+        <v>0.9705329577071025</v>
       </c>
       <c r="GH5">
-        <v>0.9697734532050516</v>
+        <v>0.9705329577071025</v>
       </c>
       <c r="GI5">
-        <v>0.9698330920363009</v>
+        <v>0.9705329577071025</v>
       </c>
       <c r="GJ5">
-        <v>0.9698332034431939</v>
+        <v>0.9705329577071025</v>
       </c>
       <c r="GK5">
-        <v>0.9701762565916192</v>
+        <v>0.9707123240048535</v>
       </c>
       <c r="GL5">
-        <v>0.9714427169119714</v>
+        <v>0.9718384624845874</v>
       </c>
       <c r="GM5">
-        <v>0.9746081191128987</v>
+        <v>0.974911591850237</v>
       </c>
       <c r="GN5">
-        <v>0.9755672011525819</v>
+        <v>0.9757225744438889</v>
       </c>
       <c r="GO5">
-        <v>0.9774856462319306</v>
+        <v>0.9775171948800783</v>
       </c>
       <c r="GP5">
-        <v>0.9818786144556561</v>
+        <v>0.9818489514226292</v>
       </c>
       <c r="GQ5">
-        <v>0.9864658071671668</v>
+        <v>0.9863798469232533</v>
       </c>
       <c r="GR5">
-        <v>0.9865478598460065</v>
+        <v>0.9863798469232533</v>
       </c>
       <c r="GS5">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="GT5">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="GU5">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="GV5">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="GW5">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="GX5">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="GY5">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="GZ5">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="HA5">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="HB5">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="HC5">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="HD5">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="HE5">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="HF5">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="HG5">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="HH5">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="HI5">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="HJ5">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="HK5">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="HL5">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="HM5">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="HN5">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="HO5">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="HP5">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="HQ5">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="HR5">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="HS5">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="HT5">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="HU5">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="HV5">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="HW5">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="HX5">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="HY5">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="HZ5">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="IA5">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="IB5">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="IC5">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="ID5">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="IE5">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="IF5">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="IG5">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="IH5">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="II5">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="IJ5">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="IK5">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="IL5">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="IM5">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="IN5">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="IO5">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="IP5">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="IQ5">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="IR5">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="IS5">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="IT5">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="IU5">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="IV5">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="IW5">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:257">
@@ -9737,772 +9737,772 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>0.0008785339835207448</v>
+        <v>0.0007898612425459823</v>
       </c>
       <c r="C6">
-        <v>0.002348548872283733</v>
+        <v>0.002182611762531553</v>
       </c>
       <c r="D6">
-        <v>0.003428954190528739</v>
+        <v>0.003178237996050202</v>
       </c>
       <c r="E6">
-        <v>0.003866099487449662</v>
+        <v>0.003518197130217572</v>
       </c>
       <c r="F6">
-        <v>0.004076692631513937</v>
+        <v>0.003627234416312454</v>
       </c>
       <c r="G6">
-        <v>0.004686099185399735</v>
+        <v>0.004142777350095222</v>
       </c>
       <c r="H6">
-        <v>0.00541713653008165</v>
+        <v>0.004782297066437765</v>
       </c>
       <c r="I6">
-        <v>0.005530338131515609</v>
+        <v>0.004792064340187835</v>
       </c>
       <c r="J6">
-        <v>0.005569135598579779</v>
+        <v>0.004792064340187835</v>
       </c>
       <c r="K6">
-        <v>0.005672754750738848</v>
+        <v>0.004792064340187835</v>
       </c>
       <c r="L6">
-        <v>0.005757530579323804</v>
+        <v>0.004792064340187835</v>
       </c>
       <c r="M6">
-        <v>0.005865992461116422</v>
+        <v>0.004797000475477628</v>
       </c>
       <c r="N6">
-        <v>0.006211873004943409</v>
+        <v>0.005043934559198153</v>
       </c>
       <c r="O6">
-        <v>0.006815596059259281</v>
+        <v>0.005553684371142715</v>
       </c>
       <c r="P6">
-        <v>0.007686377943366633</v>
+        <v>0.006335643993243205</v>
       </c>
       <c r="Q6">
-        <v>0.008459230584884356</v>
+        <v>0.007017785531984119</v>
       </c>
       <c r="R6">
-        <v>0.009320784819689971</v>
+        <v>0.007790339523622689</v>
       </c>
       <c r="S6">
-        <v>0.01044032983497325</v>
+        <v>0.008825860373277669</v>
       </c>
       <c r="T6">
-        <v>0.01188120682594112</v>
+        <v>0.01018891098918838</v>
       </c>
       <c r="U6">
-        <v>0.01293971124584338</v>
+        <v>0.01116221390396569</v>
       </c>
       <c r="V6">
-        <v>0.01361639032463862</v>
+        <v>0.01174632690243649</v>
       </c>
       <c r="W6">
-        <v>0.01409900118811914</v>
+        <v>0.01213262853444031</v>
       </c>
       <c r="X6">
-        <v>0.01438318406661483</v>
+        <v>0.01231667493989156</v>
       </c>
       <c r="Y6">
-        <v>0.01473081617030927</v>
+        <v>0.01256539436723607</v>
       </c>
       <c r="Z6">
-        <v>0.01485692243076673</v>
+        <v>0.01258831520264016</v>
       </c>
       <c r="AA6">
-        <v>0.01485801516288404</v>
+        <v>0.01258831520264016</v>
       </c>
       <c r="AB6">
-        <v>0.0150676992970171</v>
+        <v>0.01269642594599164</v>
       </c>
       <c r="AC6">
-        <v>0.01514141775143878</v>
+        <v>0.01269642594599164</v>
       </c>
       <c r="AD6">
-        <v>0.01535110188557184</v>
+        <v>0.01280453668934311</v>
       </c>
       <c r="AE6">
-        <v>0.01608638402993254</v>
+        <v>0.01344838307826045</v>
       </c>
       <c r="AF6">
-        <v>0.01690196426821704</v>
+        <v>0.01417407633559978</v>
       </c>
       <c r="AG6">
-        <v>0.01761447031430123</v>
+        <v>0.01479470732515068</v>
       </c>
       <c r="AH6">
-        <v>0.01880147202448001</v>
+        <v>0.01589898596171571</v>
       </c>
       <c r="AI6">
-        <v>0.01970810708587433</v>
+        <v>0.01671749029042782</v>
       </c>
       <c r="AJ6">
-        <v>0.02070367741053886</v>
+        <v>0.01762664524900247</v>
       </c>
       <c r="AK6">
-        <v>0.0219977740126137</v>
+        <v>0.01884008440354948</v>
       </c>
       <c r="AL6">
-        <v>0.02296388663950731</v>
+        <v>0.01971921348983182</v>
       </c>
       <c r="AM6">
-        <v>0.02328535009518196</v>
+        <v>0.01994125953320671</v>
       </c>
       <c r="AN6">
-        <v>0.02389243684924329</v>
+        <v>0.02045443792330332</v>
       </c>
       <c r="AO6">
-        <v>0.02415048398971669</v>
+        <v>0.02061184448954428</v>
       </c>
       <c r="AP6">
-        <v>0.02427045576063835</v>
+        <v>0.02062851251453484</v>
       </c>
       <c r="AQ6">
-        <v>0.02431394944734715</v>
+        <v>0.02062851251453484</v>
       </c>
       <c r="AR6">
-        <v>0.02431409914423583</v>
+        <v>0.02062851251453484</v>
       </c>
       <c r="AS6">
-        <v>0.02463311619009559</v>
+        <v>0.02084806496220352</v>
       </c>
       <c r="AT6">
-        <v>0.0249454484664612</v>
+        <v>0.02106080370580422</v>
       </c>
       <c r="AU6">
-        <v>0.02500895185565585</v>
+        <v>0.02106080370580422</v>
       </c>
       <c r="AV6">
-        <v>0.02516440744389243</v>
+        <v>0.02111363995328885</v>
       </c>
       <c r="AW6">
-        <v>0.02590534562782514</v>
+        <v>0.0217632514744032</v>
       </c>
       <c r="AX6">
-        <v>0.02724224522666105</v>
+        <v>0.0230203192018438</v>
       </c>
       <c r="AY6">
-        <v>0.02774082838893293</v>
+        <v>0.02342290120332706</v>
       </c>
       <c r="AZ6">
-        <v>0.02829256474718267</v>
+        <v>0.02387966160961203</v>
       </c>
       <c r="BA6">
-        <v>0.02922835701637064</v>
+        <v>0.02472788552484515</v>
       </c>
       <c r="BB6">
-        <v>0.02990666829504237</v>
+        <v>0.02531366220475596</v>
       </c>
       <c r="BC6">
-        <v>0.03018663845385684</v>
+        <v>0.02549341463638293</v>
       </c>
       <c r="BD6">
-        <v>0.03040672755720255</v>
+        <v>0.02561213103803174</v>
       </c>
       <c r="BE6">
-        <v>0.03102050727075743</v>
+        <v>0.02613213148016288</v>
       </c>
       <c r="BF6">
-        <v>0.03128140283101528</v>
+        <v>0.02629244140597213</v>
       </c>
       <c r="BG6">
-        <v>0.0313077338450228</v>
+        <v>0.02629244140597213</v>
       </c>
       <c r="BH6">
-        <v>0.03132582582465376</v>
+        <v>0.02629244140597213</v>
       </c>
       <c r="BI6">
-        <v>0.03132609868000311</v>
+        <v>0.02629244140597213</v>
       </c>
       <c r="BJ6">
-        <v>0.03137825671305628</v>
+        <v>0.02629244140597213</v>
       </c>
       <c r="BK6">
-        <v>0.03155862480940771</v>
+        <v>0.02637067066933175</v>
       </c>
       <c r="BL6">
-        <v>0.03184088703804874</v>
+        <v>0.02655275937979601</v>
       </c>
       <c r="BM6">
-        <v>0.03230329800305779</v>
+        <v>0.02691847150149463</v>
       </c>
       <c r="BN6">
-        <v>0.0331206700412067</v>
+        <v>0.02764599111859639</v>
       </c>
       <c r="BO6">
-        <v>0.03364862980125563</v>
+        <v>0.0280785163281367</v>
       </c>
       <c r="BP6">
-        <v>0.03399122944533089</v>
+        <v>0.02832210623072958</v>
       </c>
       <c r="BQ6">
-        <v>0.03467310583373284</v>
+        <v>0.02891151678353501</v>
       </c>
       <c r="BR6">
-        <v>0.0353035897460237</v>
+        <v>0.02944854361183837</v>
       </c>
       <c r="BS6">
-        <v>0.03579128352911959</v>
+        <v>0.0298400262018529</v>
       </c>
       <c r="BT6">
-        <v>0.03626046131361659</v>
+        <v>0.03021263566017812</v>
       </c>
       <c r="BU6">
-        <v>0.03658474166907808</v>
+        <v>0.0304375529351719</v>
       </c>
       <c r="BV6">
-        <v>0.03665712025360115</v>
+        <v>0.0304375529351719</v>
       </c>
       <c r="BW6">
-        <v>0.03673219087192051</v>
+        <v>0.0304375529351719</v>
       </c>
       <c r="BX6">
-        <v>0.03673363593451116</v>
+        <v>0.0304375529351719</v>
       </c>
       <c r="BY6">
-        <v>0.03681640300224812</v>
+        <v>0.0304375529351719</v>
       </c>
       <c r="BZ6">
-        <v>0.03698665928936471</v>
+        <v>0.03050547535462639</v>
       </c>
       <c r="CA6">
-        <v>0.03718322526449043</v>
+        <v>0.03060021491839256</v>
       </c>
       <c r="CB6">
-        <v>0.03746740814298612</v>
+        <v>0.03078426132384381</v>
       </c>
       <c r="CC6">
-        <v>0.03766617822794506</v>
+        <v>0.03088124750989815</v>
       </c>
       <c r="CD6">
-        <v>0.03778126911923606</v>
+        <v>0.03089294051377186</v>
       </c>
       <c r="CE6">
-        <v>0.03794065851717496</v>
+        <v>0.03094978644553877</v>
       </c>
       <c r="CF6">
-        <v>0.03829711475020168</v>
+        <v>0.03120750020035863</v>
       </c>
       <c r="CG6">
-        <v>0.0386506173234519</v>
+        <v>0.03146220332576904</v>
       </c>
       <c r="CH6">
-        <v>0.03892953920234569</v>
+        <v>0.03164088725844985</v>
       </c>
       <c r="CI6">
-        <v>0.03912610517747141</v>
+        <v>0.03173562682221602</v>
       </c>
       <c r="CJ6">
-        <v>0.03924871506819344</v>
+        <v>0.03175498385056434</v>
       </c>
       <c r="CK6">
-        <v>0.03926386971704668</v>
+        <v>0.03175498385056434</v>
       </c>
       <c r="CL6">
-        <v>0.0393404803112495</v>
+        <v>0.03175498385056434</v>
       </c>
       <c r="CM6">
-        <v>0.03938328199801067</v>
+        <v>0.03175498385056434</v>
       </c>
       <c r="CN6">
-        <v>0.1175261800848852</v>
+        <v>0.1112994696858052</v>
       </c>
       <c r="CO6">
-        <v>0.1489932377037519</v>
+        <v>0.143267840241183</v>
       </c>
       <c r="CP6">
-        <v>0.3369507834808785</v>
+        <v>0.3347450579896274</v>
       </c>
       <c r="CQ6">
-        <v>0.4893979219451013</v>
+        <v>0.490026950383158</v>
       </c>
       <c r="CR6">
-        <v>0.4976208603228661</v>
+        <v>0.4983028735073745</v>
       </c>
       <c r="CS6">
-        <v>0.5189701847073483</v>
+        <v>0.5199583618970867</v>
       </c>
       <c r="CT6">
-        <v>0.5287205659695304</v>
+        <v>0.5297911889361294</v>
       </c>
       <c r="CU6">
-        <v>0.5303866529434565</v>
+        <v>0.5313837933426943</v>
       </c>
       <c r="CV6">
-        <v>0.5331518842342097</v>
+        <v>0.5340967421544639</v>
       </c>
       <c r="CW6">
-        <v>0.5332571053462475</v>
+        <v>0.5340983750126428</v>
       </c>
       <c r="CX6">
-        <v>0.5333639406981632</v>
+        <v>0.534101653245854</v>
       </c>
       <c r="CY6">
-        <v>0.5514408623302705</v>
+        <v>0.5524216213958</v>
       </c>
       <c r="CZ6">
-        <v>0.561806351545907</v>
+        <v>0.5628814204745463</v>
       </c>
       <c r="DA6">
-        <v>0.5620748989455858</v>
+        <v>0.5630495298270127</v>
       </c>
       <c r="DB6">
-        <v>0.5645078213614849</v>
+        <v>0.5654237602529955</v>
       </c>
       <c r="DC6">
-        <v>0.5664419586151275</v>
+        <v>0.5672895850425403</v>
       </c>
       <c r="DD6">
-        <v>0.5947677164716983</v>
+        <v>0.5960560670379891</v>
       </c>
       <c r="DE6">
-        <v>0.6256003921385691</v>
+        <v>0.6273778198018714</v>
       </c>
       <c r="DF6">
-        <v>0.6257380170881549</v>
+        <v>0.6274124814967083</v>
       </c>
       <c r="DG6">
-        <v>0.6303550651387798</v>
+        <v>0.632012964560919</v>
       </c>
       <c r="DH6">
-        <v>0.6306046209798958</v>
+        <v>0.6321617160492212</v>
       </c>
       <c r="DI6">
-        <v>0.6322579346547884</v>
+        <v>0.6337413007877688</v>
       </c>
       <c r="DJ6">
-        <v>0.6326702946935848</v>
+        <v>0.6340559966104253</v>
       </c>
       <c r="DK6">
-        <v>0.6436774688606646</v>
+        <v>0.6451698573389911</v>
       </c>
       <c r="DL6">
-        <v>0.6437998566414034</v>
+        <v>0.6451889879733408</v>
       </c>
       <c r="DM6">
-        <v>0.6551663687812918</v>
+        <v>0.6566691175177942</v>
       </c>
       <c r="DN6">
-        <v>0.6552170966014531</v>
+        <v>0.6566691175177942</v>
       </c>
       <c r="DO6">
-        <v>0.6562725428215868</v>
+        <v>0.6576393032468223</v>
       </c>
       <c r="DP6">
-        <v>0.6600311509371704</v>
+        <v>0.6613647889483535</v>
       </c>
       <c r="DQ6">
-        <v>0.6649081825681221</v>
+        <v>0.6662302701071777</v>
       </c>
       <c r="DR6">
-        <v>0.6707689271246356</v>
+        <v>0.6720984378610274</v>
       </c>
       <c r="DS6">
-        <v>0.7063560974317307</v>
+        <v>0.7082663890614613</v>
       </c>
       <c r="DT6">
-        <v>0.7137239592741996</v>
+        <v>0.7156707430953639</v>
       </c>
       <c r="DU6">
-        <v>0.7190441702716157</v>
+        <v>0.7209879515807269</v>
       </c>
       <c r="DV6">
-        <v>0.7287543445368403</v>
+        <v>0.7307797961178344</v>
       </c>
       <c r="DW6">
-        <v>0.7308906913751815</v>
+        <v>0.7328517306724281</v>
       </c>
       <c r="DX6">
-        <v>0.756829148412401</v>
+        <v>0.7591848660403636</v>
       </c>
       <c r="DY6">
-        <v>0.7568385589696889</v>
+        <v>0.7591848660403636</v>
       </c>
       <c r="DZ6">
-        <v>0.7718012628374511</v>
+        <v>0.7743305499808023</v>
       </c>
       <c r="EA6">
-        <v>0.774228559153776</v>
+        <v>0.7766990457920627</v>
       </c>
       <c r="EB6">
-        <v>0.7743533870443302</v>
+        <v>0.7767206636006059</v>
       </c>
       <c r="EC6">
-        <v>0.7750316983230019</v>
+        <v>0.7773064402805167</v>
       </c>
       <c r="ED6">
-        <v>0.7798511809583084</v>
+        <v>0.7821132624495165</v>
       </c>
       <c r="EE6">
-        <v>0.7825742995522482</v>
+        <v>0.7847832863027157</v>
       </c>
       <c r="EF6">
-        <v>0.8015661541151219</v>
+        <v>0.8040358344373182</v>
       </c>
       <c r="EG6">
-        <v>0.8056646628049849</v>
+        <v>0.8081077766513293</v>
       </c>
       <c r="EH6">
-        <v>0.8102753214560933</v>
+        <v>0.8127017470784902</v>
       </c>
       <c r="EI6">
-        <v>0.8127470604690551</v>
+        <v>0.8151155427887422</v>
       </c>
       <c r="EJ6">
-        <v>0.8148795827076857</v>
+        <v>0.8171835789754671</v>
       </c>
       <c r="EK6">
-        <v>0.8247604289599955</v>
+        <v>0.8271493873887724</v>
       </c>
       <c r="EL6">
-        <v>0.8264457681324647</v>
+        <v>0.8287616153266566</v>
       </c>
       <c r="EM6">
-        <v>0.8270175684291963</v>
+        <v>0.8292388266608864</v>
       </c>
       <c r="EN6">
-        <v>0.8270401796794853</v>
+        <v>0.8292388266608864</v>
       </c>
       <c r="EO6">
-        <v>0.82721997556588</v>
+        <v>0.8293164726776115</v>
       </c>
       <c r="EP6">
-        <v>0.8272734185318359</v>
+        <v>0.8293164726776115</v>
       </c>
       <c r="EQ6">
-        <v>0.8272908498425169</v>
+        <v>0.8293164726776115</v>
       </c>
       <c r="ER6">
-        <v>0.8288956208210828</v>
+        <v>0.8308465784374566</v>
       </c>
       <c r="ES6">
-        <v>0.8380655511271881</v>
+        <v>0.8400877588918052</v>
       </c>
       <c r="ET6">
-        <v>0.8436746244027458</v>
+        <v>0.8456994011764758</v>
       </c>
       <c r="EU6">
-        <v>0.8437009554167533</v>
+        <v>0.8456994011764758</v>
       </c>
       <c r="EV6">
-        <v>0.8441647158116602</v>
+        <v>0.8460664887556218</v>
       </c>
       <c r="EW6">
-        <v>0.8441681774168982</v>
+        <v>0.8460664887556218</v>
       </c>
       <c r="EX6">
-        <v>0.8453645308263693</v>
+        <v>0.8471802994652923</v>
       </c>
       <c r="EY6">
-        <v>0.8519929903247894</v>
+        <v>0.8538309897021222</v>
       </c>
       <c r="EZ6">
-        <v>0.8522729604836038</v>
+        <v>0.8540107421337492</v>
       </c>
       <c r="FA6">
-        <v>0.8550934676701741</v>
+        <v>0.8567800329923942</v>
       </c>
       <c r="FB6">
-        <v>0.8570225888241962</v>
+        <v>0.8586407449327349</v>
       </c>
       <c r="FC6">
-        <v>0.8590248826726813</v>
+        <v>0.8605760409086751</v>
       </c>
       <c r="FD6">
-        <v>0.8624944784101346</v>
+        <v>0.8640069398158098</v>
       </c>
       <c r="FE6">
-        <v>0.863527634131955</v>
+        <v>0.8649544051115953</v>
       </c>
       <c r="FF6">
-        <v>0.8640825862199614</v>
+        <v>0.8654144432720262</v>
       </c>
       <c r="FG6">
-        <v>0.872753175563852</v>
+        <v>0.8741466515698144</v>
       </c>
       <c r="FH6">
-        <v>0.882624675816869</v>
+        <v>0.8841029337199544</v>
       </c>
       <c r="FI6">
-        <v>0.8828610375189834</v>
+        <v>0.8842382365831892</v>
       </c>
       <c r="FJ6">
-        <v>0.8829560227917957</v>
+        <v>0.8842382365831892</v>
       </c>
       <c r="FK6">
-        <v>0.9016166263797354</v>
+        <v>0.903153144636499</v>
       </c>
       <c r="FL6">
-        <v>0.9114352386367545</v>
+        <v>0.9130555186969445</v>
       </c>
       <c r="FM6">
-        <v>0.9116910944373937</v>
+        <v>0.9132106916572016</v>
       </c>
       <c r="FN6">
-        <v>0.9118708903237884</v>
+        <v>0.9132883376739267</v>
       </c>
       <c r="FO6">
-        <v>0.9126580689042221</v>
+        <v>0.9139850814675927</v>
       </c>
       <c r="FP6">
-        <v>0.9128242586316464</v>
+        <v>0.9140488588923182</v>
       </c>
       <c r="FQ6">
-        <v>0.9149649550696585</v>
+        <v>0.9161252269408413</v>
       </c>
       <c r="FR6">
-        <v>0.9168172428294946</v>
+        <v>0.9179076235389731</v>
       </c>
       <c r="FS6">
-        <v>0.9185736466965864</v>
+        <v>0.9195922868539129</v>
       </c>
       <c r="FT6">
-        <v>0.9199509717923633</v>
+        <v>0.9208905597976587</v>
       </c>
       <c r="FU6">
-        <v>0.9203115838250755</v>
+        <v>0.921152509508445</v>
       </c>
       <c r="FV6">
-        <v>0.9218975698050629</v>
+        <v>0.9226634679482002</v>
       </c>
       <c r="FW6">
-        <v>0.9316871225642809</v>
+        <v>0.9325362220167291</v>
       </c>
       <c r="FX6">
-        <v>0.9427700857256256</v>
+        <v>0.943727333543394</v>
       </c>
       <c r="FY6">
-        <v>0.9438306312453734</v>
+        <v>0.9447027169263659</v>
       </c>
       <c r="FZ6">
-        <v>0.9438688450324817</v>
+        <v>0.9447027169263659</v>
       </c>
       <c r="GA6">
-        <v>0.9441970897076432</v>
+        <v>0.9449316749841107</v>
       </c>
       <c r="GB6">
-        <v>0.9449948599472754</v>
+        <v>0.9456392147269012</v>
       </c>
       <c r="GC6">
-        <v>0.9456451793980652</v>
+        <v>0.9461964596778308</v>
       </c>
       <c r="GD6">
-        <v>0.9490767605383952</v>
+        <v>0.9495886107694591</v>
       </c>
       <c r="GE6">
-        <v>0.9534985522037952</v>
+        <v>0.9539900713800956</v>
       </c>
       <c r="GF6">
-        <v>0.957251395619815</v>
+        <v>0.9577096811936245</v>
       </c>
       <c r="GG6">
-        <v>0.9601473327006775</v>
+        <v>0.9605558568241432</v>
       </c>
       <c r="GH6">
-        <v>0.9605028188537776</v>
+        <v>0.9608125817883177</v>
       </c>
       <c r="GI6">
-        <v>0.9605367705012084</v>
+        <v>0.9608125817883177</v>
       </c>
       <c r="GJ6">
-        <v>0.9606215463297934</v>
+        <v>0.9608125817883177</v>
       </c>
       <c r="GK6">
-        <v>0.9611514096896983</v>
+        <v>0.9612470473139891</v>
       </c>
       <c r="GL6">
-        <v>0.9635005641119362</v>
+        <v>0.9635358940450404</v>
       </c>
       <c r="GM6">
-        <v>0.9642486545053277</v>
+        <v>0.9641927957260813</v>
       </c>
       <c r="GN6">
-        <v>0.9692416276275061</v>
+        <v>0.9691764546337582</v>
       </c>
       <c r="GO6">
-        <v>0.9702299299527206</v>
+        <v>0.9700782014090796</v>
       </c>
       <c r="GP6">
-        <v>0.9752592148721513</v>
+        <v>0.9750988724891089</v>
       </c>
       <c r="GQ6">
-        <v>0.9765330887757564</v>
+        <v>0.9762916988935904</v>
       </c>
       <c r="GR6">
-        <v>0.9806188414665847</v>
+        <v>0.9803506390732619</v>
       </c>
       <c r="GS6">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GT6">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GU6">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GV6">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GW6">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GX6">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GY6">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GZ6">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HA6">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HB6">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HC6">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HD6">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HE6">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HF6">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HG6">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HH6">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HI6">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HJ6">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HK6">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HL6">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HM6">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HN6">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HO6">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HP6">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HQ6">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HR6">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HS6">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HT6">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HU6">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HV6">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HW6">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HX6">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HY6">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HZ6">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IA6">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IB6">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IC6">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="ID6">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IE6">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IF6">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IG6">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IH6">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="II6">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IJ6">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IK6">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IL6">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IM6">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IN6">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IO6">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IP6">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IQ6">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IR6">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IS6">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IT6">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IU6">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IV6">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IW6">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -10567,19 +10567,19 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <v>102</v>
       </c>
       <c r="E2">
-        <v>0.04550896254114215</v>
+        <v>0.03735412461868453</v>
       </c>
       <c r="F2">
-        <v>0.53364245925506</v>
+        <v>0.5349279371522402</v>
       </c>
       <c r="G2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H2">
         <v>21</v>
@@ -10608,19 +10608,19 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D3">
         <v>102</v>
       </c>
       <c r="E3">
-        <v>0.03016927218527709</v>
+        <v>0.02561695464924252</v>
       </c>
       <c r="F3">
-        <v>0.5020351832360952</v>
+        <v>0.502140102621711</v>
       </c>
       <c r="G3">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H3">
         <v>21</v>
@@ -10649,19 +10649,19 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D4">
         <v>96</v>
       </c>
       <c r="E4">
-        <v>0.02970608908351221</v>
+        <v>0.007205895808171563</v>
       </c>
       <c r="F4">
-        <v>0.5295882529467613</v>
+        <v>0.5380885086632909</v>
       </c>
       <c r="G4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H4">
         <v>21</v>
@@ -10690,19 +10690,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D5">
         <v>96</v>
       </c>
       <c r="E5">
-        <v>0.01040862661396182</v>
+        <v>0.002790830728386524</v>
       </c>
       <c r="F5">
-        <v>0.5157961694450591</v>
+        <v>0.5198393240658723</v>
       </c>
       <c r="G5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H5">
         <v>21</v>
@@ -10731,19 +10731,19 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D6">
         <v>96</v>
       </c>
       <c r="E6">
-        <v>0.03924871506819344</v>
+        <v>0.03175498385056434</v>
       </c>
       <c r="F6">
-        <v>0.5189701847073483</v>
+        <v>0.5199583618970867</v>
       </c>
       <c r="G6">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H6">
         <v>21</v>
@@ -10826,19 +10826,19 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <v>122</v>
       </c>
       <c r="E2">
-        <v>0.04550896254114215</v>
+        <v>0.03735412461868453</v>
       </c>
       <c r="F2">
-        <v>0.7145646848910894</v>
+        <v>0.7174606731752531</v>
       </c>
       <c r="G2">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H2">
         <v>21</v>
@@ -10867,19 +10867,19 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D3">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E3">
-        <v>0.03016927218527709</v>
+        <v>0.02561695464924252</v>
       </c>
       <c r="F3">
-        <v>0.7095607852425869</v>
+        <v>0.7003260677277003</v>
       </c>
       <c r="G3">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H3">
         <v>21</v>
@@ -10908,19 +10908,19 @@
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D4">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E4">
-        <v>0.02970608908351221</v>
+        <v>0.007205895808171563</v>
       </c>
       <c r="F4">
-        <v>0.7200354094764411</v>
+        <v>0.7041796558468902</v>
       </c>
       <c r="G4">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H4">
         <v>21</v>
@@ -10949,19 +10949,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D5">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E5">
-        <v>0.01040862661396182</v>
+        <v>0.002790830728386524</v>
       </c>
       <c r="F5">
-        <v>0.7082598699809862</v>
+        <v>0.7027826457634285</v>
       </c>
       <c r="G5">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H5">
         <v>21</v>
@@ -10990,19 +10990,19 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D6">
         <v>122</v>
       </c>
       <c r="E6">
-        <v>0.03924871506819344</v>
+        <v>0.03175498385056434</v>
       </c>
       <c r="F6">
-        <v>0.7063560974317307</v>
+        <v>0.7082663890614613</v>
       </c>
       <c r="G6">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H6">
         <v>21</v>
@@ -11085,19 +11085,19 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <v>157</v>
       </c>
       <c r="E2">
-        <v>0.04550896254114215</v>
+        <v>0.03735412461868453</v>
       </c>
       <c r="F2">
-        <v>0.8009435404757429</v>
+        <v>0.8015174507271919</v>
       </c>
       <c r="G2">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H2">
         <v>21</v>
@@ -11126,19 +11126,19 @@
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D3">
         <v>135</v>
       </c>
       <c r="E3">
-        <v>0.03016927218527709</v>
+        <v>0.02561695464924252</v>
       </c>
       <c r="F3">
-        <v>0.8012945586156277</v>
+        <v>0.8030458294247248</v>
       </c>
       <c r="G3">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H3">
         <v>21</v>
@@ -11167,19 +11167,19 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D4">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="E4">
-        <v>0.02970608908351221</v>
+        <v>0.007205895808171563</v>
       </c>
       <c r="F4">
-        <v>0.8114304841582547</v>
+        <v>0.8006000621600249</v>
       </c>
       <c r="G4">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H4">
         <v>21</v>
@@ -11208,19 +11208,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D5">
         <v>138</v>
       </c>
       <c r="E5">
-        <v>0.01040862661396182</v>
+        <v>0.002790830728386524</v>
       </c>
       <c r="F5">
-        <v>0.8000920794210439</v>
+        <v>0.8044756921138201</v>
       </c>
       <c r="G5">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H5">
         <v>21</v>
@@ -11249,19 +11249,19 @@
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D6">
         <v>135</v>
       </c>
       <c r="E6">
-        <v>0.03924871506819344</v>
+        <v>0.03175498385056434</v>
       </c>
       <c r="F6">
-        <v>0.8015661541151219</v>
+        <v>0.8040358344373182</v>
       </c>
       <c r="G6">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H6">
         <v>21</v>
@@ -11344,19 +11344,19 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <v>179</v>
       </c>
       <c r="E2">
-        <v>0.04550896254114215</v>
+        <v>0.03735412461868453</v>
       </c>
       <c r="F2">
-        <v>0.9162211073591846</v>
+        <v>0.9167444452436301</v>
       </c>
       <c r="G2">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H2">
         <v>21</v>
@@ -11385,19 +11385,19 @@
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D3">
         <v>163</v>
       </c>
       <c r="E3">
-        <v>0.03016927218527709</v>
+        <v>0.02561695464924252</v>
       </c>
       <c r="F3">
-        <v>0.9042122809387365</v>
+        <v>0.905388877325518</v>
       </c>
       <c r="G3">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H3">
         <v>21</v>
@@ -11426,19 +11426,19 @@
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D4">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E4">
-        <v>0.02970608908351221</v>
+        <v>0.007205895808171563</v>
       </c>
       <c r="F4">
-        <v>0.9104858287045636</v>
+        <v>0.902931982900257</v>
       </c>
       <c r="G4">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H4">
         <v>21</v>
@@ -11467,19 +11467,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D5">
         <v>166</v>
       </c>
       <c r="E5">
-        <v>0.01040862661396182</v>
+        <v>0.002790830728386524</v>
       </c>
       <c r="F5">
-        <v>0.9057680811013594</v>
+        <v>0.9085532027740486</v>
       </c>
       <c r="G5">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H5">
         <v>21</v>
@@ -11508,19 +11508,19 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D6">
         <v>166</v>
       </c>
       <c r="E6">
-        <v>0.03924871506819344</v>
+        <v>0.03175498385056434</v>
       </c>
       <c r="F6">
-        <v>0.9016166263797354</v>
+        <v>0.903153144636499</v>
       </c>
       <c r="G6">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H6">
         <v>21</v>

--- a/on_trucks/Processed_Stand_Alone/21_11R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/21_11R22.xlsx
@@ -1997,43 +1997,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.0002886849511417277</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.0006730075980761366</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.0008733612851586599</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.001245000467800655</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.001245000467800655</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.001573654315409326</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.001452585935476176</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.001514894139650811</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.001573654315409326</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.0009646320837972756</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.000452247402210618</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.0002769309703498749</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>4.798699216611867E-05</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -2045,43 +2045,43 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.0001062692572626035</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0.0005514942809613872</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>0.001045056245807738</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>0.001054932212805425</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>0.0009036919718542082</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>0.001428723683061424</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>0.001532461222160201</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.0009885851668863838</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0.001125213547911355</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.0005696688742471995</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.0007337011871720275</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.0005070923150948663</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.0002432358007858012</v>
+        <v>0</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -2096,40 +2096,40 @@
         <v>0</v>
       </c>
       <c r="AJ2">
-        <v>7.050629206807882E-05</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>0.0004247324049788482</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>0.0004179562011470054</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>0.0003286383848895867</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>0.0004045271777894439</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>0.0009741671541603147</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.0009008825698801767</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>0.000819427218590381</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>0.0007379020597800571</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>0.0004453070785120438</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>4.410119037980226E-05</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>5.191387768022733E-05</v>
+        <v>0</v>
       </c>
       <c r="AV2">
         <v>0</v>
@@ -2147,37 +2147,37 @@
         <v>0</v>
       </c>
       <c r="BA2">
-        <v>3.307948709902294E-05</v>
+        <v>0</v>
       </c>
       <c r="BB2">
         <v>0</v>
       </c>
       <c r="BC2">
-        <v>9.915834188374708E-05</v>
+        <v>0</v>
       </c>
       <c r="BD2">
-        <v>0.0001872796508903776</v>
+        <v>0</v>
       </c>
       <c r="BE2">
-        <v>0.0003749381486385327</v>
+        <v>0</v>
       </c>
       <c r="BF2">
-        <v>0.0004308933666747267</v>
+        <v>0</v>
       </c>
       <c r="BG2">
-        <v>0.0005742495255722361</v>
+        <v>0</v>
       </c>
       <c r="BH2">
-        <v>0.0007661439174511151</v>
+        <v>0</v>
       </c>
       <c r="BI2">
-        <v>0.0007286327536212535</v>
+        <v>0</v>
       </c>
       <c r="BJ2">
-        <v>0.001002089650361119</v>
+        <v>0</v>
       </c>
       <c r="BK2">
-        <v>0.0002624923133577967</v>
+        <v>0</v>
       </c>
       <c r="BL2">
         <v>0</v>
@@ -2198,28 +2198,28 @@
         <v>0</v>
       </c>
       <c r="BR2">
-        <v>0.0001457890999829997</v>
+        <v>0</v>
       </c>
       <c r="BS2">
-        <v>0.000452247402210618</v>
+        <v>0</v>
       </c>
       <c r="BT2">
-        <v>0.0004861325686554142</v>
+        <v>0</v>
       </c>
       <c r="BU2">
-        <v>0.0005857348441800514</v>
+        <v>0</v>
       </c>
       <c r="BV2">
-        <v>0.0005522166869087537</v>
+        <v>0</v>
       </c>
       <c r="BW2">
-        <v>0.000668119187440265</v>
+        <v>0</v>
       </c>
       <c r="BX2">
-        <v>0.000519493374839659</v>
+        <v>0</v>
       </c>
       <c r="BY2">
-        <v>0.0003006032054034817</v>
+        <v>0</v>
       </c>
       <c r="BZ2">
         <v>0</v>
@@ -2246,256 +2246,256 @@
         <v>0</v>
       </c>
       <c r="CH2">
-        <v>9.247463788070501E-06</v>
+        <v>0</v>
       </c>
       <c r="CI2">
-        <v>5.789721267065095E-05</v>
+        <v>0</v>
       </c>
       <c r="CJ2">
-        <v>0.000189349678886895</v>
+        <v>0</v>
       </c>
       <c r="CK2">
-        <v>0.0002082757398397835</v>
+        <v>0</v>
       </c>
       <c r="CL2">
-        <v>0.0001282326980140101</v>
+        <v>0</v>
       </c>
       <c r="CM2">
-        <v>0.0007035127370116324</v>
+        <v>0</v>
       </c>
       <c r="CN2">
-        <v>0.08129687918632977</v>
+        <v>0.1573831301345367</v>
       </c>
       <c r="CO2">
-        <v>0.006298446650099492</v>
+        <v>0</v>
       </c>
       <c r="CP2">
-        <v>0.1946788489848753</v>
+        <v>0.5092460368971334</v>
       </c>
       <c r="CQ2">
-        <v>0.07383095104152942</v>
+        <v>0.1342138097974699</v>
       </c>
       <c r="CR2">
-        <v>0.005087863204838866</v>
+        <v>0</v>
       </c>
       <c r="CS2">
-        <v>0.001503265253280371</v>
+        <v>0</v>
       </c>
       <c r="CT2">
-        <v>0.02279030738111454</v>
+        <v>0</v>
       </c>
       <c r="CU2">
-        <v>0.005514671525935737</v>
+        <v>0</v>
       </c>
       <c r="CV2">
-        <v>0.01658389143525486</v>
+        <v>0</v>
       </c>
       <c r="CW2">
-        <v>0.01060006696273043</v>
+        <v>0</v>
       </c>
       <c r="CX2">
         <v>0</v>
       </c>
       <c r="CY2">
-        <v>0.07868510817055521</v>
+        <v>0.1492779142607821</v>
       </c>
       <c r="CZ2">
-        <v>0.03428489952429584</v>
+        <v>0.01148892979617272</v>
       </c>
       <c r="DA2">
         <v>0</v>
       </c>
       <c r="DB2">
-        <v>0.01213910620991292</v>
+        <v>0</v>
       </c>
       <c r="DC2">
-        <v>0.01035490811170111</v>
+        <v>0</v>
       </c>
       <c r="DD2">
-        <v>0.0230252086124705</v>
+        <v>0</v>
       </c>
       <c r="DE2">
-        <v>0.04295337971662314</v>
+        <v>0.03839017911390512</v>
       </c>
       <c r="DF2">
-        <v>8.224872190156923E-05</v>
+        <v>0</v>
       </c>
       <c r="DG2">
-        <v>0.005046516713224256</v>
+        <v>0</v>
       </c>
       <c r="DH2">
-        <v>0.0007974259197777463</v>
+        <v>0</v>
       </c>
       <c r="DI2">
-        <v>0.003180367944701387</v>
+        <v>0</v>
       </c>
       <c r="DJ2">
-        <v>0.0009101384920827927</v>
+        <v>0</v>
       </c>
       <c r="DK2">
-        <v>0.004665883962593511</v>
+        <v>0</v>
       </c>
       <c r="DL2">
-        <v>0.000680400754159233</v>
+        <v>0</v>
       </c>
       <c r="DM2">
-        <v>0.006640914542770924</v>
+        <v>0</v>
       </c>
       <c r="DN2">
-        <v>0.0004926201316509456</v>
+        <v>0</v>
       </c>
       <c r="DO2">
-        <v>0.003686943927861372</v>
+        <v>0</v>
       </c>
       <c r="DP2">
-        <v>0.009495732878001827</v>
+        <v>0</v>
       </c>
       <c r="DQ2">
-        <v>0.003669242698583767</v>
+        <v>0</v>
       </c>
       <c r="DR2">
-        <v>0.002273666047055194</v>
+        <v>0</v>
       </c>
       <c r="DS2">
-        <v>0.01815313111364497</v>
+        <v>0</v>
       </c>
       <c r="DT2">
-        <v>0.002370302409216074</v>
+        <v>0</v>
       </c>
       <c r="DU2">
-        <v>0.001584387695300345</v>
+        <v>0</v>
       </c>
       <c r="DV2">
-        <v>0.004518163179868849</v>
+        <v>0</v>
       </c>
       <c r="DW2">
-        <v>0.001550027075844234</v>
+        <v>0</v>
       </c>
       <c r="DX2">
-        <v>0.01042547340786678</v>
+        <v>0</v>
       </c>
       <c r="DY2">
         <v>0</v>
       </c>
       <c r="DZ2">
-        <v>0.002476216300425443</v>
+        <v>0</v>
       </c>
       <c r="EA2">
         <v>0</v>
       </c>
       <c r="EB2">
-        <v>0.001248241699485804</v>
+        <v>0</v>
       </c>
       <c r="EC2">
-        <v>0.00102832210208664</v>
+        <v>0</v>
       </c>
       <c r="ED2">
-        <v>0.007650201034124037</v>
+        <v>0</v>
       </c>
       <c r="EE2">
-        <v>0.0006082922479083114</v>
+        <v>0</v>
       </c>
       <c r="EF2">
-        <v>0.01255868658025582</v>
+        <v>0</v>
       </c>
       <c r="EG2">
-        <v>0.0006161401308150231</v>
+        <v>0</v>
       </c>
       <c r="EH2">
-        <v>0.01026703583439343</v>
+        <v>0</v>
       </c>
       <c r="EI2">
-        <v>0.002536570160270777</v>
+        <v>0</v>
       </c>
       <c r="EJ2">
-        <v>0.001115050138182081</v>
+        <v>0</v>
       </c>
       <c r="EK2">
-        <v>0.002715883223724889</v>
+        <v>0</v>
       </c>
       <c r="EL2">
-        <v>0.0001719636842743839</v>
+        <v>0</v>
       </c>
       <c r="EM2">
         <v>0</v>
       </c>
       <c r="EN2">
-        <v>4.996101818156613E-05</v>
+        <v>0</v>
       </c>
       <c r="EO2">
-        <v>0.0004690717621933945</v>
+        <v>0</v>
       </c>
       <c r="EP2">
-        <v>0.0007126470567048931</v>
+        <v>0</v>
       </c>
       <c r="EQ2">
-        <v>0.0007982673579414283</v>
+        <v>0</v>
       </c>
       <c r="ER2">
-        <v>0.001821495180183937</v>
+        <v>0</v>
       </c>
       <c r="ES2">
-        <v>0.006335281611815436</v>
+        <v>0</v>
       </c>
       <c r="ET2">
-        <v>0.002184448205980835</v>
+        <v>0</v>
       </c>
       <c r="EU2">
-        <v>0.0001790651274577747</v>
+        <v>0</v>
       </c>
       <c r="EV2">
-        <v>0.001759886280039944</v>
+        <v>0</v>
       </c>
       <c r="EW2">
-        <v>0.0004336301245896959</v>
+        <v>0</v>
       </c>
       <c r="EX2">
         <v>0</v>
       </c>
       <c r="EY2">
-        <v>0.001116024084680168</v>
+        <v>0</v>
       </c>
       <c r="EZ2">
-        <v>0.000168944829018133</v>
+        <v>0</v>
       </c>
       <c r="FA2">
-        <v>0.002978844579721719</v>
+        <v>0</v>
       </c>
       <c r="FB2">
-        <v>0.001608253429386944</v>
+        <v>0</v>
       </c>
       <c r="FC2">
-        <v>0.0002141432990010896</v>
+        <v>0</v>
       </c>
       <c r="FD2">
-        <v>0.0007515225341283475</v>
+        <v>0</v>
       </c>
       <c r="FE2">
-        <v>5.428968862679605E-05</v>
+        <v>0</v>
       </c>
       <c r="FF2">
-        <v>0.001201698300629272</v>
+        <v>0</v>
       </c>
       <c r="FG2">
-        <v>0.01042264608552295</v>
+        <v>0</v>
       </c>
       <c r="FH2">
-        <v>0.009568996469848772</v>
+        <v>0</v>
       </c>
       <c r="FI2">
-        <v>0.0002976321821742792</v>
+        <v>0</v>
       </c>
       <c r="FJ2">
-        <v>0.001560686316605338</v>
+        <v>0</v>
       </c>
       <c r="FK2">
-        <v>0.02005671778752597</v>
+        <v>0</v>
       </c>
       <c r="FL2">
-        <v>0.002814692558726628</v>
+        <v>0</v>
       </c>
       <c r="FM2">
-        <v>0.0007635266218413367</v>
+        <v>0</v>
       </c>
       <c r="FN2">
         <v>0</v>
@@ -2504,64 +2504,64 @@
         <v>0</v>
       </c>
       <c r="FP2">
-        <v>0.005171049663851316</v>
+        <v>0</v>
       </c>
       <c r="FQ2">
-        <v>0.007339786436495415</v>
+        <v>0</v>
       </c>
       <c r="FR2">
-        <v>0.003379633240684177</v>
+        <v>0</v>
       </c>
       <c r="FS2">
-        <v>0.005463085027811222</v>
+        <v>0</v>
       </c>
       <c r="FT2">
-        <v>0.007685645067937183</v>
+        <v>0</v>
       </c>
       <c r="FU2">
-        <v>0.003681558498329158</v>
+        <v>0</v>
       </c>
       <c r="FV2">
-        <v>0.002932561282232565</v>
+        <v>0</v>
       </c>
       <c r="FW2">
-        <v>0.01488065039965031</v>
+        <v>0</v>
       </c>
       <c r="FX2">
-        <v>0.01698647305481631</v>
+        <v>0</v>
       </c>
       <c r="FY2">
-        <v>0.0009456851328133065</v>
+        <v>0</v>
       </c>
       <c r="FZ2">
         <v>0</v>
       </c>
       <c r="GA2">
-        <v>0.000245476655987461</v>
+        <v>0</v>
       </c>
       <c r="GB2">
-        <v>0.001897096817078124</v>
+        <v>0</v>
       </c>
       <c r="GC2">
-        <v>0.00405700867801382</v>
+        <v>0</v>
       </c>
       <c r="GD2">
-        <v>0.007990267187633853</v>
+        <v>0</v>
       </c>
       <c r="GE2">
-        <v>0.008584604956221443</v>
+        <v>0</v>
       </c>
       <c r="GF2">
-        <v>0.008783768874112223</v>
+        <v>0</v>
       </c>
       <c r="GG2">
-        <v>0.01145374678702799</v>
+        <v>0</v>
       </c>
       <c r="GH2">
-        <v>0.004691816990540207</v>
+        <v>0</v>
       </c>
       <c r="GI2">
-        <v>0.001680835739975159</v>
+        <v>0</v>
       </c>
       <c r="GJ2">
         <v>0</v>
@@ -2570,28 +2570,28 @@
         <v>0</v>
       </c>
       <c r="GL2">
-        <v>0.005452453333218554</v>
+        <v>0</v>
       </c>
       <c r="GM2">
-        <v>0.0007421811676025265</v>
+        <v>0</v>
       </c>
       <c r="GN2">
-        <v>0.002677681398602734</v>
+        <v>0</v>
       </c>
       <c r="GO2">
         <v>0</v>
       </c>
       <c r="GP2">
-        <v>0.003293560885319179</v>
+        <v>0</v>
       </c>
       <c r="GQ2">
-        <v>8.439655502365147E-05</v>
+        <v>0</v>
       </c>
       <c r="GR2">
-        <v>0.005212889119238589</v>
+        <v>0</v>
       </c>
       <c r="GS2">
-        <v>0.01546208447796096</v>
+        <v>0</v>
       </c>
       <c r="GT2">
         <v>0</v>
@@ -2770,43 +2770,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>5.27788263726803E-05</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>5.083051417058051E-05</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>8.468974280067661E-05</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.0002425595183815048</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0003392696767975176</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.000212987977122136</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.0005477011810644302</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0006226245648272143</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.0004030208246346829</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.0003520844298796279</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.0004433080728715476</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.0004705329019080048</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>6.274686319690761E-05</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -2818,46 +2818,46 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>3.897988447717049E-06</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>6.18869178717982E-05</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0.0005329539046346047</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.0007912589543247298</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.0004892465452939396</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0.000793304816919838</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.0008558056759831205</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.0005916772954874329</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.0005329539046346047</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.0007046005805459322</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.0002474504453838766</v>
+        <v>0</v>
       </c>
       <c r="AD3">
         <v>0</v>
       </c>
       <c r="AE3">
-        <v>6.067467233242125E-05</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>7.942938903467252E-05</v>
+        <v>0</v>
       </c>
       <c r="AG3">
         <v>0</v>
@@ -2872,43 +2872,43 @@
         <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.0001550298086021622</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>0.0002082976942327051</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.0002100520001264993</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>0.0003087686300740815</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0.0005118379333435614</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.0005669120010845833</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>0.0003768241256649063</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>0.0005347705349536017</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.0003753495196305583</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>0.0003033486447071355</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>0.0002487727872737255</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>0.0004083489650803911</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>0.000149801235225985</v>
+        <v>0</v>
       </c>
       <c r="AX3">
         <v>0</v>
@@ -2923,46 +2923,46 @@
         <v>0</v>
       </c>
       <c r="BB3">
-        <v>2.981114067157474E-06</v>
+        <v>0</v>
       </c>
       <c r="BC3">
-        <v>6.473667434554479E-05</v>
+        <v>0</v>
       </c>
       <c r="BD3">
-        <v>0.0002129173427735729</v>
+        <v>0</v>
       </c>
       <c r="BE3">
-        <v>0.0005676864454055571</v>
+        <v>0</v>
       </c>
       <c r="BF3">
-        <v>0.0006531123055392208</v>
+        <v>0</v>
       </c>
       <c r="BG3">
-        <v>0.0008975973649060073</v>
+        <v>0</v>
       </c>
       <c r="BH3">
-        <v>0.000733966289057286</v>
+        <v>0</v>
       </c>
       <c r="BI3">
-        <v>0.0006531123055392208</v>
+        <v>0</v>
       </c>
       <c r="BJ3">
-        <v>0.000522722625652806</v>
+        <v>0</v>
       </c>
       <c r="BK3">
-        <v>0.0004220928385325594</v>
+        <v>0</v>
       </c>
       <c r="BL3">
-        <v>0.0003342546380495429</v>
+        <v>0</v>
       </c>
       <c r="BM3">
-        <v>8.904355486643608E-05</v>
+        <v>0</v>
       </c>
       <c r="BN3">
-        <v>2.718409014388568E-05</v>
+        <v>0</v>
       </c>
       <c r="BO3">
-        <v>2.981114067157474E-06</v>
+        <v>0</v>
       </c>
       <c r="BP3">
         <v>0</v>
@@ -2971,40 +2971,40 @@
         <v>0</v>
       </c>
       <c r="BR3">
-        <v>2.792620683617697E-05</v>
+        <v>0</v>
       </c>
       <c r="BS3">
-        <v>0.0002722869112400917</v>
+        <v>0</v>
       </c>
       <c r="BT3">
-        <v>0.0005390657012553533</v>
+        <v>0</v>
       </c>
       <c r="BU3">
-        <v>0.0005998804566007137</v>
+        <v>0</v>
       </c>
       <c r="BV3">
-        <v>0.0005873086471682592</v>
+        <v>0</v>
       </c>
       <c r="BW3">
-        <v>0.0009604646003830056</v>
+        <v>0</v>
       </c>
       <c r="BX3">
-        <v>0.0008761796825926657</v>
+        <v>0</v>
       </c>
       <c r="BY3">
-        <v>0.0004276196469508974</v>
+        <v>0</v>
       </c>
       <c r="BZ3">
-        <v>0.0005980772539017811</v>
+        <v>0</v>
       </c>
       <c r="CA3">
-        <v>0.0004409394406922599</v>
+        <v>0</v>
       </c>
       <c r="CB3">
-        <v>0.0003067316043730835</v>
+        <v>0</v>
       </c>
       <c r="CC3">
-        <v>0.0001359857950923889</v>
+        <v>0</v>
       </c>
       <c r="CD3">
         <v>0</v>
@@ -3022,349 +3022,349 @@
         <v>0</v>
       </c>
       <c r="CI3">
-        <v>4.35195044024568E-05</v>
+        <v>0</v>
       </c>
       <c r="CJ3">
-        <v>6.802977536461923E-05</v>
+        <v>0</v>
       </c>
       <c r="CK3">
-        <v>0.0002117412960710779</v>
+        <v>0</v>
       </c>
       <c r="CL3">
-        <v>0.0003484193584496489</v>
+        <v>0</v>
       </c>
       <c r="CM3">
-        <v>0.00011198127417318</v>
+        <v>0</v>
       </c>
       <c r="CN3">
-        <v>0.1273698058133255</v>
+        <v>0.2723062301035049</v>
       </c>
       <c r="CO3">
-        <v>0.01463479118920264</v>
+        <v>0</v>
       </c>
       <c r="CP3">
-        <v>0.1787527576084707</v>
+        <v>0.4164908822628218</v>
       </c>
       <c r="CQ3">
-        <v>0.07349107393104737</v>
+        <v>0.1211182203876957</v>
       </c>
       <c r="CR3">
-        <v>0.01095373126399711</v>
+        <v>0</v>
       </c>
       <c r="CS3">
-        <v>0.008475840820410589</v>
+        <v>0</v>
       </c>
       <c r="CT3">
-        <v>0.002332387749301901</v>
+        <v>0</v>
       </c>
       <c r="CU3">
-        <v>0.004199439744373997</v>
+        <v>0</v>
       </c>
       <c r="CV3">
-        <v>0.004573088354435379</v>
+        <v>0</v>
       </c>
       <c r="CW3">
-        <v>0.001126495754377097</v>
+        <v>0</v>
       </c>
       <c r="CX3">
-        <v>0.003031419921142428</v>
+        <v>0</v>
       </c>
       <c r="CY3">
-        <v>0.04747033454821056</v>
+        <v>0.04810195476324707</v>
       </c>
       <c r="CZ3">
-        <v>0.01675033553190315</v>
+        <v>0</v>
       </c>
       <c r="DA3">
-        <v>0.0008977275469492843</v>
+        <v>0</v>
       </c>
       <c r="DB3">
-        <v>0.001239691503581287</v>
+        <v>0</v>
       </c>
       <c r="DC3">
-        <v>0.00322613419438219</v>
+        <v>0</v>
       </c>
       <c r="DD3">
-        <v>0.03664899628394099</v>
+        <v>0.01773641835435136</v>
       </c>
       <c r="DE3">
-        <v>0.05082525227643846</v>
+        <v>0.05751612091695894</v>
       </c>
       <c r="DF3">
-        <v>0.001088269093514172</v>
+        <v>0</v>
       </c>
       <c r="DG3">
-        <v>0.0007221547464058282</v>
+        <v>0</v>
       </c>
       <c r="DH3">
-        <v>0.002150128835092966</v>
+        <v>0</v>
       </c>
       <c r="DI3">
-        <v>0.005439695805907092</v>
+        <v>0</v>
       </c>
       <c r="DJ3">
-        <v>0.00451196988152525</v>
+        <v>0</v>
       </c>
       <c r="DK3">
-        <v>0.001666482174872672</v>
+        <v>0</v>
       </c>
       <c r="DL3">
-        <v>1.50129304919821E-06</v>
+        <v>0</v>
       </c>
       <c r="DM3">
-        <v>0.009420132881032887</v>
+        <v>0</v>
       </c>
       <c r="DN3">
-        <v>0.002022518814436538</v>
+        <v>0</v>
       </c>
       <c r="DO3">
-        <v>0.00188788761792431</v>
+        <v>0</v>
       </c>
       <c r="DP3">
-        <v>0.004881616959467033</v>
+        <v>0</v>
       </c>
       <c r="DQ3">
-        <v>0.001542783391924693</v>
+        <v>0</v>
       </c>
       <c r="DR3">
-        <v>0.009382508182910943</v>
+        <v>0</v>
       </c>
       <c r="DS3">
-        <v>0.04388017809073032</v>
+        <v>0.03802769001327559</v>
       </c>
       <c r="DT3">
-        <v>0.01057022019367439</v>
+        <v>0</v>
       </c>
       <c r="DU3">
-        <v>0.001867924952521102</v>
+        <v>0</v>
       </c>
       <c r="DV3">
-        <v>0.0004664854625288676</v>
+        <v>0</v>
       </c>
       <c r="DW3">
-        <v>0.01724534347880552</v>
+        <v>0</v>
       </c>
       <c r="DX3">
-        <v>0.04055696272012219</v>
+        <v>0.02870248319814472</v>
       </c>
       <c r="DY3">
-        <v>0.0002505733044486455</v>
+        <v>0</v>
       </c>
       <c r="DZ3">
-        <v>0.005288472834000624</v>
+        <v>0</v>
       </c>
       <c r="EA3">
-        <v>0.0001904201811476153</v>
+        <v>0</v>
       </c>
       <c r="EB3">
         <v>0</v>
       </c>
       <c r="EC3">
-        <v>0.0001374384710363078</v>
+        <v>0</v>
       </c>
       <c r="ED3">
-        <v>0.005277990777746296</v>
+        <v>0</v>
       </c>
       <c r="EE3">
-        <v>0.00123984300767182</v>
+        <v>0</v>
       </c>
       <c r="EF3">
-        <v>0.01962808631332125</v>
+        <v>0</v>
       </c>
       <c r="EG3">
-        <v>0.006329853276160467</v>
+        <v>0</v>
       </c>
       <c r="EH3">
-        <v>0.006716239478625341</v>
+        <v>0</v>
       </c>
       <c r="EI3">
-        <v>0.002154852013118041</v>
+        <v>0</v>
       </c>
       <c r="EJ3">
-        <v>0.006274344204199636</v>
+        <v>0</v>
       </c>
       <c r="EK3">
-        <v>0.01961832924720985</v>
+        <v>0</v>
       </c>
       <c r="EL3">
-        <v>0.007029443327611956</v>
+        <v>0</v>
       </c>
       <c r="EM3">
-        <v>5.27788263726803E-05</v>
+        <v>0</v>
       </c>
       <c r="EN3">
-        <v>0.0001082660391814523</v>
+        <v>0</v>
       </c>
       <c r="EO3">
         <v>0</v>
       </c>
       <c r="EP3">
-        <v>0.0006476122611545349</v>
+        <v>0</v>
       </c>
       <c r="EQ3">
-        <v>0.0007730760312880413</v>
+        <v>0</v>
       </c>
       <c r="ER3">
-        <v>0.0007984301851015007</v>
+        <v>0</v>
       </c>
       <c r="ES3">
-        <v>0.00565567709849605</v>
+        <v>0</v>
       </c>
       <c r="ET3">
-        <v>0.000522722625652806</v>
+        <v>0</v>
       </c>
       <c r="EU3">
-        <v>0.001289435414200078</v>
+        <v>0</v>
       </c>
       <c r="EV3">
-        <v>0.00174584265234777</v>
+        <v>0</v>
       </c>
       <c r="EW3">
         <v>0</v>
       </c>
       <c r="EX3">
-        <v>0.002023919441884873</v>
+        <v>0</v>
       </c>
       <c r="EY3">
-        <v>0.005176762736948421</v>
+        <v>0</v>
       </c>
       <c r="EZ3">
-        <v>0.0003244831106446822</v>
+        <v>0</v>
       </c>
       <c r="FA3">
-        <v>0.0003549587310294462</v>
+        <v>0</v>
       </c>
       <c r="FB3">
-        <v>2.82350522317016E-05</v>
+        <v>0</v>
       </c>
       <c r="FC3">
-        <v>0.007002750840373204</v>
+        <v>0</v>
       </c>
       <c r="FD3">
-        <v>0.01056304933785758</v>
+        <v>0</v>
       </c>
       <c r="FE3">
-        <v>0.005806624525504751</v>
+        <v>0</v>
       </c>
       <c r="FF3">
         <v>0</v>
       </c>
       <c r="FG3">
-        <v>0.005447441262522115</v>
+        <v>0</v>
       </c>
       <c r="FH3">
-        <v>0.005897920181076425</v>
+        <v>0</v>
       </c>
       <c r="FI3">
         <v>0</v>
       </c>
       <c r="FJ3">
-        <v>0.0001871080179750765</v>
+        <v>0</v>
       </c>
       <c r="FK3">
-        <v>0.01522279224553382</v>
+        <v>0</v>
       </c>
       <c r="FL3">
-        <v>0.004339443103657637</v>
+        <v>0</v>
       </c>
       <c r="FM3">
-        <v>0.0009975464172922478</v>
+        <v>0</v>
       </c>
       <c r="FN3">
         <v>0</v>
       </c>
       <c r="FO3">
-        <v>0.001047166996487507</v>
+        <v>0</v>
       </c>
       <c r="FP3">
-        <v>0.0001726472210860728</v>
+        <v>0</v>
       </c>
       <c r="FQ3">
-        <v>0.0006997590975875542</v>
+        <v>0</v>
       </c>
       <c r="FR3">
-        <v>0.0001334156472716125</v>
+        <v>0</v>
       </c>
       <c r="FS3">
-        <v>0.000662514274437762</v>
+        <v>0</v>
       </c>
       <c r="FT3">
-        <v>0.0004736839843100401</v>
+        <v>0</v>
       </c>
       <c r="FU3">
         <v>0</v>
       </c>
       <c r="FV3">
-        <v>1.239445337302816E-05</v>
+        <v>0</v>
       </c>
       <c r="FW3">
-        <v>0.00481062143325942</v>
+        <v>0</v>
       </c>
       <c r="FX3">
-        <v>0.007256445706727851</v>
+        <v>0</v>
       </c>
       <c r="FY3">
-        <v>2.82350522317016E-05</v>
+        <v>0</v>
       </c>
       <c r="FZ3">
-        <v>0.0006758927950155552</v>
+        <v>0</v>
       </c>
       <c r="GA3">
-        <v>0.00203526988513036</v>
+        <v>0</v>
       </c>
       <c r="GB3">
-        <v>0.0006616845488583362</v>
+        <v>0</v>
       </c>
       <c r="GC3">
-        <v>0.0004909966556898419</v>
+        <v>0</v>
       </c>
       <c r="GD3">
-        <v>0.004623265090452609</v>
+        <v>0</v>
       </c>
       <c r="GE3">
-        <v>0.00479634822782325</v>
+        <v>0</v>
       </c>
       <c r="GF3">
-        <v>0.001890967660615667</v>
+        <v>0</v>
       </c>
       <c r="GG3">
-        <v>0.00099654547688944</v>
+        <v>0</v>
       </c>
       <c r="GH3">
-        <v>4.057064297199038E-05</v>
+        <v>0</v>
       </c>
       <c r="GI3">
         <v>0</v>
       </c>
       <c r="GJ3">
-        <v>0.0009941359031365232</v>
+        <v>0</v>
       </c>
       <c r="GK3">
-        <v>0.000773966307833416</v>
+        <v>0</v>
       </c>
       <c r="GL3">
-        <v>0.001175148936884576</v>
+        <v>0</v>
       </c>
       <c r="GM3">
         <v>0</v>
       </c>
       <c r="GN3">
-        <v>0.007205942350186346</v>
+        <v>0</v>
       </c>
       <c r="GO3">
-        <v>0.001387228315093734</v>
+        <v>0</v>
       </c>
       <c r="GP3">
-        <v>0.002216179247517466</v>
+        <v>0</v>
       </c>
       <c r="GQ3">
-        <v>0.0001508421240652397</v>
+        <v>0</v>
       </c>
       <c r="GR3">
-        <v>0.006865992404821254</v>
+        <v>0</v>
       </c>
       <c r="GS3">
-        <v>0.02158637245026405</v>
+        <v>0</v>
       </c>
       <c r="GT3">
         <v>0</v>
@@ -3555,13 +3555,13 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.106102001632918E-05</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>9.377028814036682E-05</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.0002242107403631114</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -3585,25 +3585,25 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.0002353157841808583</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0.0002844563804168813</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.0001379849202772394</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.000328906111258835</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.001203096986692495</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.0007877266026675407</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>8.104720765999356E-05</v>
+        <v>0</v>
       </c>
       <c r="X4">
         <v>0</v>
@@ -3612,7 +3612,7 @@
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.0001715246185262834</v>
+        <v>0</v>
       </c>
       <c r="AA4">
         <v>0</v>
@@ -3633,25 +3633,25 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.0002660323219007571</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.0002343413155363986</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>6.011020995464567E-05</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
         <v>0</v>
       </c>
       <c r="AK4">
-        <v>8.771197289063199E-05</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>0.0006408418238367078</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>0.0004309728094592216</v>
+        <v>0</v>
       </c>
       <c r="AN4">
         <v>0</v>
@@ -3687,10 +3687,10 @@
         <v>0</v>
       </c>
       <c r="AY4">
-        <v>0.000413027504194367</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
-        <v>0.0005172610839807414</v>
+        <v>0</v>
       </c>
       <c r="BA4">
         <v>0</v>
@@ -3741,19 +3741,19 @@
         <v>0</v>
       </c>
       <c r="BQ4">
-        <v>0.0003072801600560888</v>
+        <v>0</v>
       </c>
       <c r="BR4">
-        <v>0.0002539601475944065</v>
+        <v>0</v>
       </c>
       <c r="BS4">
-        <v>5.496570339725071E-05</v>
+        <v>0</v>
       </c>
       <c r="BT4">
-        <v>3.463350004812285E-05</v>
+        <v>0</v>
       </c>
       <c r="BU4">
-        <v>0.0001673644182284042</v>
+        <v>0</v>
       </c>
       <c r="BV4">
         <v>0</v>
@@ -3795,7 +3795,7 @@
         <v>0</v>
       </c>
       <c r="CI4">
-        <v>0.0001682921768938852</v>
+        <v>0</v>
       </c>
       <c r="CJ4">
         <v>0</v>
@@ -3810,124 +3810,124 @@
         <v>0</v>
       </c>
       <c r="CN4">
-        <v>0.01768721146036445</v>
+        <v>0</v>
       </c>
       <c r="CO4">
-        <v>0.1221187697782672</v>
+        <v>0.2295544904688851</v>
       </c>
       <c r="CP4">
-        <v>0.125011857485181</v>
+        <v>0.2368884330925812</v>
       </c>
       <c r="CQ4">
-        <v>0.2271682734531032</v>
+        <v>0.4958537218257014</v>
       </c>
       <c r="CR4">
         <v>0</v>
       </c>
       <c r="CS4">
-        <v>0.0388965006782035</v>
+        <v>0.01858703686038331</v>
       </c>
       <c r="CT4">
-        <v>6.835558404860992E-05</v>
+        <v>0</v>
       </c>
       <c r="CU4">
-        <v>0.002985867771271581</v>
+        <v>0</v>
       </c>
       <c r="CV4">
-        <v>0.002663168361959936</v>
+        <v>0</v>
       </c>
       <c r="CW4">
-        <v>0.001693230895223186</v>
+        <v>0</v>
       </c>
       <c r="CX4">
-        <v>0.001468822184873706</v>
+        <v>0</v>
       </c>
       <c r="CY4">
-        <v>0.01822085347655006</v>
+        <v>0</v>
       </c>
       <c r="CZ4">
-        <v>0.0276659135110562</v>
+        <v>0</v>
       </c>
       <c r="DA4">
-        <v>0.001979917263230128</v>
+        <v>0</v>
       </c>
       <c r="DB4">
-        <v>0.003109840947584825</v>
+        <v>0</v>
       </c>
       <c r="DC4">
-        <v>0.01104089202499193</v>
+        <v>0</v>
       </c>
       <c r="DD4">
-        <v>0.01419928237194187</v>
+        <v>0</v>
       </c>
       <c r="DE4">
-        <v>0.03910529097298871</v>
+        <v>0.01911631775244889</v>
       </c>
       <c r="DF4">
-        <v>0.0003580129545282232</v>
+        <v>0</v>
       </c>
       <c r="DG4">
-        <v>0.005260226102853622</v>
+        <v>0</v>
       </c>
       <c r="DH4">
         <v>0</v>
       </c>
       <c r="DI4">
-        <v>0.003518045467535366</v>
+        <v>0</v>
       </c>
       <c r="DJ4">
-        <v>0.0003829720520699331</v>
+        <v>0</v>
       </c>
       <c r="DK4">
-        <v>0.001758736486941326</v>
+        <v>0</v>
       </c>
       <c r="DL4">
         <v>0</v>
       </c>
       <c r="DM4">
-        <v>0.01343002146408088</v>
+        <v>0</v>
       </c>
       <c r="DN4">
-        <v>0.002758331532487399</v>
+        <v>0</v>
       </c>
       <c r="DO4">
         <v>0</v>
       </c>
       <c r="DP4">
-        <v>0.003723039468328161</v>
+        <v>0</v>
       </c>
       <c r="DQ4">
-        <v>0.01070032628905357</v>
+        <v>0</v>
       </c>
       <c r="DR4">
         <v>0</v>
       </c>
       <c r="DS4">
-        <v>0.02658630629031367</v>
+        <v>0</v>
       </c>
       <c r="DT4">
-        <v>0.01577504773195924</v>
+        <v>0</v>
       </c>
       <c r="DU4">
-        <v>0.002767356930117814</v>
+        <v>0</v>
       </c>
       <c r="DV4">
-        <v>0.01351238932616597</v>
+        <v>0</v>
       </c>
       <c r="DW4">
         <v>0</v>
       </c>
       <c r="DX4">
-        <v>0.02730017747327374</v>
+        <v>0</v>
       </c>
       <c r="DY4">
-        <v>0.002186904636142062</v>
+        <v>0</v>
       </c>
       <c r="DZ4">
-        <v>0.008292223925162238</v>
+        <v>0</v>
       </c>
       <c r="EA4">
-        <v>0.002156137041093208</v>
+        <v>0</v>
       </c>
       <c r="EB4">
         <v>0</v>
@@ -3936,31 +3936,31 @@
         <v>0</v>
       </c>
       <c r="ED4">
-        <v>0.008691064979603407</v>
+        <v>0</v>
       </c>
       <c r="EE4">
         <v>0</v>
       </c>
       <c r="EF4">
-        <v>0.01177049057430192</v>
+        <v>0</v>
       </c>
       <c r="EG4">
-        <v>0.005398297404013551</v>
+        <v>0</v>
       </c>
       <c r="EH4">
-        <v>0.003559943987554279</v>
+        <v>0</v>
       </c>
       <c r="EI4">
-        <v>0.009503628484029554</v>
+        <v>0</v>
       </c>
       <c r="EJ4">
         <v>0</v>
       </c>
       <c r="EK4">
-        <v>0.006487118122713464</v>
+        <v>0</v>
       </c>
       <c r="EL4">
-        <v>0.004824879058209997</v>
+        <v>0</v>
       </c>
       <c r="EM4">
         <v>0</v>
@@ -3981,52 +3981,52 @@
         <v>0</v>
       </c>
       <c r="ES4">
-        <v>0.004495060462758568</v>
+        <v>0</v>
       </c>
       <c r="ET4">
-        <v>0.003834429256158535</v>
+        <v>0</v>
       </c>
       <c r="EU4">
         <v>0</v>
       </c>
       <c r="EV4">
-        <v>0.002126923703771586</v>
+        <v>0</v>
       </c>
       <c r="EW4">
-        <v>0.0004923925330870539</v>
+        <v>0</v>
       </c>
       <c r="EX4">
-        <v>0.0001006243713832206</v>
+        <v>0</v>
       </c>
       <c r="EY4">
-        <v>0.002165666709957919</v>
+        <v>0</v>
       </c>
       <c r="EZ4">
-        <v>9.681145705527804E-05</v>
+        <v>0</v>
       </c>
       <c r="FA4">
-        <v>0.0009232143816194735</v>
+        <v>0</v>
       </c>
       <c r="FB4">
-        <v>0.001248920084913177</v>
+        <v>0</v>
       </c>
       <c r="FC4">
-        <v>0.0004195281275894316</v>
+        <v>0</v>
       </c>
       <c r="FD4">
-        <v>0.00569566468752008</v>
+        <v>0</v>
       </c>
       <c r="FE4">
-        <v>0.002961371896153463</v>
+        <v>0</v>
       </c>
       <c r="FF4">
         <v>0</v>
       </c>
       <c r="FG4">
-        <v>0.004716924104118511</v>
+        <v>0</v>
       </c>
       <c r="FH4">
-        <v>0.009952445904728513</v>
+        <v>0</v>
       </c>
       <c r="FI4">
         <v>0</v>
@@ -4035,16 +4035,16 @@
         <v>0</v>
       </c>
       <c r="FK4">
-        <v>0.01071038340789815</v>
+        <v>0</v>
       </c>
       <c r="FL4">
-        <v>0.01392407268742763</v>
+        <v>0</v>
       </c>
       <c r="FM4">
         <v>0</v>
       </c>
       <c r="FN4">
-        <v>0.001195108864630024</v>
+        <v>0</v>
       </c>
       <c r="FO4">
         <v>0</v>
@@ -4053,16 +4053,16 @@
         <v>0</v>
       </c>
       <c r="FQ4">
-        <v>0.001525197380312138</v>
+        <v>0</v>
       </c>
       <c r="FR4">
-        <v>0.001199003214329504</v>
+        <v>0</v>
       </c>
       <c r="FS4">
-        <v>0.002062348039053191</v>
+        <v>0</v>
       </c>
       <c r="FT4">
-        <v>0.00241417661586383</v>
+        <v>0</v>
       </c>
       <c r="FU4">
         <v>0</v>
@@ -4071,40 +4071,40 @@
         <v>0</v>
       </c>
       <c r="FW4">
-        <v>0.003741245465051272</v>
+        <v>0</v>
       </c>
       <c r="FX4">
-        <v>0.008733612397683823</v>
+        <v>0</v>
       </c>
       <c r="FY4">
-        <v>0.00049818373732734</v>
+        <v>0</v>
       </c>
       <c r="FZ4">
-        <v>4.995503540299382E-05</v>
+        <v>0</v>
       </c>
       <c r="GA4">
-        <v>0.0015869134073511</v>
+        <v>0</v>
       </c>
       <c r="GB4">
-        <v>0.0009614687114878846</v>
+        <v>0</v>
       </c>
       <c r="GC4">
-        <v>0.0009530566426918987</v>
+        <v>0</v>
       </c>
       <c r="GD4">
-        <v>0.00506062078655544</v>
+        <v>0</v>
       </c>
       <c r="GE4">
-        <v>0.007719982675101525</v>
+        <v>0</v>
       </c>
       <c r="GF4">
-        <v>0.00554994076862874</v>
+        <v>0</v>
       </c>
       <c r="GG4">
-        <v>0.004075370714155661</v>
+        <v>0</v>
       </c>
       <c r="GH4">
-        <v>0.001164309972933925</v>
+        <v>0</v>
       </c>
       <c r="GI4">
         <v>0</v>
@@ -4113,19 +4113,19 @@
         <v>0</v>
       </c>
       <c r="GK4">
-        <v>0.0004502080706630964</v>
+        <v>0</v>
       </c>
       <c r="GL4">
         <v>0</v>
       </c>
       <c r="GM4">
-        <v>0.0003626073664326567</v>
+        <v>0</v>
       </c>
       <c r="GN4">
-        <v>0.003700157239796896</v>
+        <v>0</v>
       </c>
       <c r="GO4">
-        <v>0.005001438826612956</v>
+        <v>0</v>
       </c>
       <c r="GP4">
         <v>0</v>
@@ -4134,10 +4134,10 @@
         <v>0</v>
       </c>
       <c r="GR4">
-        <v>0.002952080530428704</v>
+        <v>0</v>
       </c>
       <c r="GS4">
-        <v>0.02218695794982042</v>
+        <v>0</v>
       </c>
       <c r="GT4">
         <v>0</v>
@@ -4313,10 +4313,10 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>3.361653693854786E-05</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>1.941527046350923E-05</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -4331,7 +4331,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>6.10540239675014E-06</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -4352,7 +4352,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>6.708075486681966E-05</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -4361,7 +4361,7 @@
         <v>0</v>
       </c>
       <c r="R5">
-        <v>1.702377177551299E-05</v>
+        <v>0</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -4400,7 +4400,7 @@
         <v>0</v>
       </c>
       <c r="AE5">
-        <v>3.043242778411448E-06</v>
+        <v>0</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -4412,7 +4412,7 @@
         <v>0</v>
       </c>
       <c r="AI5">
-        <v>2.543941759932522E-05</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
         <v>0</v>
@@ -4448,10 +4448,10 @@
         <v>0</v>
       </c>
       <c r="AU5">
-        <v>7.697713299711135E-05</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>0.0001660036778460997</v>
+        <v>0</v>
       </c>
       <c r="AW5">
         <v>0</v>
@@ -4496,7 +4496,7 @@
         <v>0</v>
       </c>
       <c r="BK5">
-        <v>7.426729824078913E-05</v>
+        <v>0</v>
       </c>
       <c r="BL5">
         <v>0</v>
@@ -4505,16 +4505,16 @@
         <v>0</v>
       </c>
       <c r="BN5">
-        <v>7.744083652152878E-05</v>
+        <v>0</v>
       </c>
       <c r="BO5">
-        <v>9.582030490546539E-06</v>
+        <v>0</v>
       </c>
       <c r="BP5">
-        <v>5.782987673181272E-05</v>
+        <v>0</v>
       </c>
       <c r="BQ5">
-        <v>0.0001929986851222615</v>
+        <v>0</v>
       </c>
       <c r="BR5">
         <v>0</v>
@@ -4523,10 +4523,10 @@
         <v>0</v>
       </c>
       <c r="BT5">
-        <v>6.887414306313208E-05</v>
+        <v>0</v>
       </c>
       <c r="BU5">
-        <v>0.0001127162316527655</v>
+        <v>0</v>
       </c>
       <c r="BV5">
         <v>0</v>
@@ -4547,34 +4547,34 @@
         <v>0</v>
       </c>
       <c r="CB5">
-        <v>0.0002506524660677596</v>
+        <v>0</v>
       </c>
       <c r="CC5">
-        <v>0.0003030823898631771</v>
+        <v>0</v>
       </c>
       <c r="CD5">
         <v>0</v>
       </c>
       <c r="CE5">
-        <v>0.0001190575972766624</v>
+        <v>0</v>
       </c>
       <c r="CF5">
-        <v>0.0002063076201633115</v>
+        <v>0</v>
       </c>
       <c r="CG5">
-        <v>0.0003725899548525239</v>
+        <v>0</v>
       </c>
       <c r="CH5">
-        <v>0.0002273098033096073</v>
+        <v>0</v>
       </c>
       <c r="CI5">
-        <v>0.0001968480211012589</v>
+        <v>0</v>
       </c>
       <c r="CJ5">
-        <v>8.154174083898425E-05</v>
+        <v>0</v>
       </c>
       <c r="CK5">
-        <v>2.502682542831559E-05</v>
+        <v>0</v>
       </c>
       <c r="CL5">
         <v>0</v>
@@ -4583,298 +4583,298 @@
         <v>0</v>
       </c>
       <c r="CN5">
-        <v>0.01606155428594093</v>
+        <v>0</v>
       </c>
       <c r="CO5">
-        <v>0.1383137167567972</v>
+        <v>0.2705964083142793</v>
       </c>
       <c r="CP5">
-        <v>0.1113898962663345</v>
+        <v>0.2029672195315749</v>
       </c>
       <c r="CQ5">
-        <v>0.2221676798575893</v>
+        <v>0.4812268239616517</v>
       </c>
       <c r="CR5">
         <v>0</v>
       </c>
       <c r="CS5">
-        <v>0.02911564617082395</v>
+        <v>0</v>
       </c>
       <c r="CT5">
-        <v>0.0001482561344460311</v>
+        <v>0</v>
       </c>
       <c r="CU5">
-        <v>0.007015481138319239</v>
+        <v>0</v>
       </c>
       <c r="CV5">
         <v>0</v>
       </c>
       <c r="CW5">
-        <v>0.000131467967041623</v>
+        <v>0</v>
       </c>
       <c r="CX5">
-        <v>0.0006023287214209101</v>
+        <v>0</v>
       </c>
       <c r="CY5">
-        <v>0.007199571109416007</v>
+        <v>0</v>
       </c>
       <c r="CZ5">
-        <v>0.01329762967106246</v>
+        <v>0</v>
       </c>
       <c r="DA5">
-        <v>0.0003672292095019726</v>
+        <v>0</v>
       </c>
       <c r="DB5">
         <v>0</v>
       </c>
       <c r="DC5">
-        <v>0.006163988854801776</v>
+        <v>0</v>
       </c>
       <c r="DD5">
-        <v>0.01754982154399903</v>
+        <v>0</v>
       </c>
       <c r="DE5">
-        <v>0.0410745391493688</v>
+        <v>0.02634404814803886</v>
       </c>
       <c r="DF5">
-        <v>0.002571244891259357</v>
+        <v>0</v>
       </c>
       <c r="DG5">
-        <v>0.0032778665805081</v>
+        <v>0</v>
       </c>
       <c r="DH5">
         <v>0</v>
       </c>
       <c r="DI5">
-        <v>0.0006371679014005451</v>
+        <v>0</v>
       </c>
       <c r="DJ5">
-        <v>0.0003467195613998098</v>
+        <v>0</v>
       </c>
       <c r="DK5">
-        <v>0.002371507668898964</v>
+        <v>0</v>
       </c>
       <c r="DL5">
-        <v>0.002320963308037499</v>
+        <v>0</v>
       </c>
       <c r="DM5">
-        <v>0.004419080571806436</v>
+        <v>0</v>
       </c>
       <c r="DN5">
-        <v>0.001164788300758102</v>
+        <v>0</v>
       </c>
       <c r="DO5">
-        <v>0.0003806807744401651</v>
+        <v>0</v>
       </c>
       <c r="DP5">
-        <v>0.0006887256204594142</v>
+        <v>0</v>
       </c>
       <c r="DQ5">
-        <v>0.004222348307411291</v>
+        <v>0</v>
       </c>
       <c r="DR5">
-        <v>0.002587819631596054</v>
+        <v>0</v>
       </c>
       <c r="DS5">
-        <v>0.03784976340295514</v>
+        <v>0.01824382448872016</v>
       </c>
       <c r="DT5">
-        <v>0.02655433167724766</v>
+        <v>0</v>
       </c>
       <c r="DU5">
-        <v>0.000884515580153468</v>
+        <v>0</v>
       </c>
       <c r="DV5">
-        <v>0.008588779130464023</v>
+        <v>0</v>
       </c>
       <c r="DW5">
-        <v>0.0008538511263056387</v>
+        <v>0</v>
       </c>
       <c r="DX5">
-        <v>0.03083421903420131</v>
+        <v>0.0006216755557349799</v>
       </c>
       <c r="DY5">
-        <v>0.002547151604191679</v>
+        <v>0</v>
       </c>
       <c r="DZ5">
-        <v>0.01186828349918863</v>
+        <v>0</v>
       </c>
       <c r="EA5">
-        <v>0.004878499867734111</v>
+        <v>0</v>
       </c>
       <c r="EB5">
         <v>0</v>
       </c>
       <c r="EC5">
-        <v>0.0008428373217257687</v>
+        <v>0</v>
       </c>
       <c r="ED5">
-        <v>0.0009567896996598295</v>
+        <v>0</v>
       </c>
       <c r="EE5">
-        <v>5.782987673181272E-05</v>
+        <v>0</v>
       </c>
       <c r="EF5">
-        <v>0.01791174529248698</v>
+        <v>0</v>
       </c>
       <c r="EG5">
-        <v>0.01588611674413751</v>
+        <v>0</v>
       </c>
       <c r="EH5">
         <v>0</v>
       </c>
       <c r="EI5">
-        <v>0.005582427573410558</v>
+        <v>0</v>
       </c>
       <c r="EJ5">
         <v>0</v>
       </c>
       <c r="EK5">
-        <v>0.01105520798532875</v>
+        <v>0</v>
       </c>
       <c r="EL5">
-        <v>0.009235963698540132</v>
+        <v>0</v>
       </c>
       <c r="EM5">
         <v>0</v>
       </c>
       <c r="EN5">
-        <v>0.0005357453410282754</v>
+        <v>0</v>
       </c>
       <c r="EO5">
-        <v>0.0006627311653464727</v>
+        <v>0</v>
       </c>
       <c r="EP5">
-        <v>0.0001591574017711362</v>
+        <v>0</v>
       </c>
       <c r="EQ5">
         <v>0</v>
       </c>
       <c r="ER5">
-        <v>0.0006980221963481099</v>
+        <v>0</v>
       </c>
       <c r="ES5">
-        <v>0.009776572636011428</v>
+        <v>0</v>
       </c>
       <c r="ET5">
-        <v>0.007850791680131121</v>
+        <v>0</v>
       </c>
       <c r="EU5">
-        <v>3.817618231401167E-05</v>
+        <v>0</v>
       </c>
       <c r="EV5">
-        <v>0.0001549894939041281</v>
+        <v>0</v>
       </c>
       <c r="EW5">
         <v>0</v>
       </c>
       <c r="EX5">
-        <v>0.003222313409542969</v>
+        <v>0</v>
       </c>
       <c r="EY5">
-        <v>0.006594834494712497</v>
+        <v>0</v>
       </c>
       <c r="EZ5">
-        <v>0.001484984268684555</v>
+        <v>0</v>
       </c>
       <c r="FA5">
-        <v>0.0007375296423006013</v>
+        <v>0</v>
       </c>
       <c r="FB5">
-        <v>0.0003984292816250321</v>
+        <v>0</v>
       </c>
       <c r="FC5">
-        <v>0.001639550640556099</v>
+        <v>0</v>
       </c>
       <c r="FD5">
-        <v>0.006068149376730639</v>
+        <v>0</v>
       </c>
       <c r="FE5">
-        <v>0.00245490817125208</v>
+        <v>0</v>
       </c>
       <c r="FF5">
-        <v>7.155426453917836E-05</v>
+        <v>0</v>
       </c>
       <c r="FG5">
-        <v>0.00558028766356708</v>
+        <v>0</v>
       </c>
       <c r="FH5">
-        <v>0.01667969202067617</v>
+        <v>0</v>
       </c>
       <c r="FI5">
-        <v>0.003342428986202598</v>
+        <v>0</v>
       </c>
       <c r="FJ5">
         <v>0</v>
       </c>
       <c r="FK5">
-        <v>0.01563549065911535</v>
+        <v>0</v>
       </c>
       <c r="FL5">
-        <v>0.02353970510492672</v>
+        <v>0</v>
       </c>
       <c r="FM5">
-        <v>0.0007116756434424908</v>
+        <v>0</v>
       </c>
       <c r="FN5">
-        <v>0.0001239906785024409</v>
+        <v>0</v>
       </c>
       <c r="FO5">
-        <v>0.0009889442263242593</v>
+        <v>0</v>
       </c>
       <c r="FP5">
-        <v>0.0005411310525063189</v>
+        <v>0</v>
       </c>
       <c r="FQ5">
-        <v>0.0005303952588286859</v>
+        <v>0</v>
       </c>
       <c r="FR5">
-        <v>0.0004750787277906664</v>
+        <v>0</v>
       </c>
       <c r="FS5">
-        <v>0.001544075965284209</v>
+        <v>0</v>
       </c>
       <c r="FT5">
-        <v>0.001422327696163866</v>
+        <v>0</v>
       </c>
       <c r="FU5">
         <v>0</v>
       </c>
       <c r="FV5">
-        <v>0.0001633622205453194</v>
+        <v>0</v>
       </c>
       <c r="FW5">
-        <v>0.006467609774800639</v>
+        <v>0</v>
       </c>
       <c r="FX5">
-        <v>0.01457564830063907</v>
+        <v>0</v>
       </c>
       <c r="FY5">
-        <v>0.004815261538304222</v>
+        <v>0</v>
       </c>
       <c r="FZ5">
-        <v>0.0001518627504512626</v>
+        <v>0</v>
       </c>
       <c r="GA5">
         <v>0</v>
       </c>
       <c r="GB5">
-        <v>1.230142107061526E-05</v>
+        <v>0</v>
       </c>
       <c r="GC5">
-        <v>0.0001059450590208735</v>
+        <v>0</v>
       </c>
       <c r="GD5">
-        <v>0.0004157460337262477</v>
+        <v>0</v>
       </c>
       <c r="GE5">
-        <v>0.002574260409845267</v>
+        <v>0</v>
       </c>
       <c r="GF5">
-        <v>0.002066336490798746</v>
+        <v>0</v>
       </c>
       <c r="GG5">
-        <v>0.0007540965800816434</v>
+        <v>0</v>
       </c>
       <c r="GH5">
         <v>0</v>
@@ -4886,31 +4886,31 @@
         <v>0</v>
       </c>
       <c r="GK5">
-        <v>0.0001793662977510299</v>
+        <v>0</v>
       </c>
       <c r="GL5">
-        <v>0.001126138479733825</v>
+        <v>0</v>
       </c>
       <c r="GM5">
-        <v>0.003073129365649644</v>
+        <v>0</v>
       </c>
       <c r="GN5">
-        <v>0.000810982593651839</v>
+        <v>0</v>
       </c>
       <c r="GO5">
-        <v>0.001794620436189392</v>
+        <v>0</v>
       </c>
       <c r="GP5">
-        <v>0.004331756542550902</v>
+        <v>0</v>
       </c>
       <c r="GQ5">
-        <v>0.004530895500624163</v>
+        <v>0</v>
       </c>
       <c r="GR5">
         <v>0</v>
       </c>
       <c r="GS5">
-        <v>0.01362015307674691</v>
+        <v>0</v>
       </c>
       <c r="GT5">
         <v>0</v>
@@ -5086,28 +5086,28 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>0.0007898612425459823</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0.001392750519985571</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0.000995626233518649</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.0003399591341673697</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.0001090372860948819</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0005155429337827688</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0006395197163425436</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>9.767273750069188E-06</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -5119,94 +5119,94 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>4.936135289792544E-06</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.0002469340837205253</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0005097498119445627</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.0007819596221004898</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.0006821415387409143</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.0007725539916385697</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.00103552084965498</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.001363050615910711</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.0009733029147773156</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.0005841129984707914</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.0003863016320038242</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.0001840464054512486</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.000248719427344512</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>2.292083540408957E-05</v>
+        <v>0</v>
       </c>
       <c r="AA6">
         <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.0001081107433514759</v>
+        <v>0</v>
       </c>
       <c r="AC6">
         <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.0001081107433514759</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.0006438463889173335</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.0007256932573393371</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.0006206309895508926</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.001104278636565039</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.0008185043287121083</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0.0009091549585746503</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>0.001213439154547004</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>0.0008791290862823438</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>0.0002220460433748855</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>0.0005131783900966122</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>0.0001574065662409596</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.666802499056675E-05</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
         <v>0</v>
@@ -5215,46 +5215,46 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>0.0002195524476686823</v>
+        <v>0</v>
       </c>
       <c r="AT6">
-        <v>0.0002127387436006986</v>
+        <v>0</v>
       </c>
       <c r="AU6">
         <v>0</v>
       </c>
       <c r="AV6">
-        <v>5.283624748462411E-05</v>
+        <v>0</v>
       </c>
       <c r="AW6">
-        <v>0.0006496115211143542</v>
+        <v>0</v>
       </c>
       <c r="AX6">
-        <v>0.001257067727440597</v>
+        <v>0</v>
       </c>
       <c r="AY6">
-        <v>0.0004025820014832611</v>
+        <v>0</v>
       </c>
       <c r="AZ6">
-        <v>0.0004567604062849744</v>
+        <v>0</v>
       </c>
       <c r="BA6">
-        <v>0.0008482239152331187</v>
+        <v>0</v>
       </c>
       <c r="BB6">
-        <v>0.0005857766799108054</v>
+        <v>0</v>
       </c>
       <c r="BC6">
-        <v>0.000179752431626977</v>
+        <v>0</v>
       </c>
       <c r="BD6">
-        <v>0.0001187164016488067</v>
+        <v>0</v>
       </c>
       <c r="BE6">
-        <v>0.0005200004421311401</v>
+        <v>0</v>
       </c>
       <c r="BF6">
-        <v>0.0001603099258092508</v>
+        <v>0</v>
       </c>
       <c r="BG6">
         <v>0</v>
@@ -5269,37 +5269,37 @@
         <v>0</v>
       </c>
       <c r="BK6">
-        <v>7.822926335961808E-05</v>
+        <v>0</v>
       </c>
       <c r="BL6">
-        <v>0.0001820887104642599</v>
+        <v>0</v>
       </c>
       <c r="BM6">
-        <v>0.0003657121216986284</v>
+        <v>0</v>
       </c>
       <c r="BN6">
-        <v>0.0007275196171017543</v>
+        <v>0</v>
       </c>
       <c r="BO6">
-        <v>0.0004325252095403115</v>
+        <v>0</v>
       </c>
       <c r="BP6">
-        <v>0.0002435899025928803</v>
+        <v>0</v>
       </c>
       <c r="BQ6">
-        <v>0.0005894105528054314</v>
+        <v>0</v>
       </c>
       <c r="BR6">
-        <v>0.0005370268283033515</v>
+        <v>0</v>
       </c>
       <c r="BS6">
-        <v>0.0003914825900145314</v>
+        <v>0</v>
       </c>
       <c r="BT6">
-        <v>0.000372609458325216</v>
+        <v>0</v>
       </c>
       <c r="BU6">
-        <v>0.0002249172749937898</v>
+        <v>0</v>
       </c>
       <c r="BV6">
         <v>0</v>
@@ -5314,37 +5314,37 @@
         <v>0</v>
       </c>
       <c r="BZ6">
-        <v>6.792241945449079E-05</v>
+        <v>0</v>
       </c>
       <c r="CA6">
-        <v>9.473956376617075E-05</v>
+        <v>0</v>
       </c>
       <c r="CB6">
-        <v>0.0001840464054512486</v>
+        <v>0</v>
       </c>
       <c r="CC6">
-        <v>9.698618605433974E-05</v>
+        <v>0</v>
       </c>
       <c r="CD6">
-        <v>1.169300387370858E-05</v>
+        <v>0</v>
       </c>
       <c r="CE6">
-        <v>5.684593176690679E-05</v>
+        <v>0</v>
       </c>
       <c r="CF6">
-        <v>0.0002577137548198652</v>
+        <v>0</v>
       </c>
       <c r="CG6">
-        <v>0.0002547031254104105</v>
+        <v>0</v>
       </c>
       <c r="CH6">
-        <v>0.0001786839326808074</v>
+        <v>0</v>
       </c>
       <c r="CI6">
-        <v>9.473956376617075E-05</v>
+        <v>0</v>
       </c>
       <c r="CJ6">
-        <v>1.935702834832314E-05</v>
+        <v>0</v>
       </c>
       <c r="CK6">
         <v>0</v>
@@ -5356,166 +5356,166 @@
         <v>0</v>
       </c>
       <c r="CN6">
-        <v>0.07954448583524087</v>
+        <v>0.1430973937022947</v>
       </c>
       <c r="CO6">
-        <v>0.03196837055537777</v>
+        <v>0.004360604159975766</v>
       </c>
       <c r="CP6">
-        <v>0.1914772177484445</v>
+        <v>0.4695046209210281</v>
       </c>
       <c r="CQ6">
-        <v>0.1552818923935306</v>
+        <v>0.3639553719619422</v>
       </c>
       <c r="CR6">
-        <v>0.008275923124216451</v>
+        <v>0</v>
       </c>
       <c r="CS6">
-        <v>0.02165548838971216</v>
+        <v>0</v>
       </c>
       <c r="CT6">
-        <v>0.009832827039042712</v>
+        <v>0</v>
       </c>
       <c r="CU6">
-        <v>0.00159260440656478</v>
+        <v>0</v>
       </c>
       <c r="CV6">
-        <v>0.002712948811769664</v>
+        <v>0</v>
       </c>
       <c r="CW6">
-        <v>1.632858178927186E-06</v>
+        <v>0</v>
       </c>
       <c r="CX6">
-        <v>3.278233211232262E-06</v>
+        <v>0</v>
       </c>
       <c r="CY6">
-        <v>0.01831996814994596</v>
+        <v>0</v>
       </c>
       <c r="CZ6">
-        <v>0.01045979907874629</v>
+        <v>0</v>
       </c>
       <c r="DA6">
-        <v>0.0001681093524664972</v>
+        <v>0</v>
       </c>
       <c r="DB6">
-        <v>0.002374230425982692</v>
+        <v>0</v>
       </c>
       <c r="DC6">
-        <v>0.001865824789544933</v>
+        <v>0</v>
       </c>
       <c r="DD6">
-        <v>0.02876648199544871</v>
+        <v>0</v>
       </c>
       <c r="DE6">
-        <v>0.03132175276388224</v>
+        <v>0.00247500093395943</v>
       </c>
       <c r="DF6">
-        <v>3.466169483692612E-05</v>
+        <v>0</v>
       </c>
       <c r="DG6">
-        <v>0.004600483064210792</v>
+        <v>0</v>
       </c>
       <c r="DH6">
-        <v>0.0001487514883022319</v>
+        <v>0</v>
       </c>
       <c r="DI6">
-        <v>0.001579584738547544</v>
+        <v>0</v>
       </c>
       <c r="DJ6">
-        <v>0.0003146958226565724</v>
+        <v>0</v>
       </c>
       <c r="DK6">
-        <v>0.01111386072856582</v>
+        <v>0</v>
       </c>
       <c r="DL6">
-        <v>1.913063434964553E-05</v>
+        <v>0</v>
       </c>
       <c r="DM6">
-        <v>0.01148012954445344</v>
+        <v>0</v>
       </c>
       <c r="DN6">
         <v>0</v>
       </c>
       <c r="DO6">
-        <v>0.0009701857290281114</v>
+        <v>0</v>
       </c>
       <c r="DP6">
-        <v>0.003725485701531165</v>
+        <v>0</v>
       </c>
       <c r="DQ6">
-        <v>0.004865481158824224</v>
+        <v>0</v>
       </c>
       <c r="DR6">
-        <v>0.005868167753849693</v>
+        <v>0</v>
       </c>
       <c r="DS6">
-        <v>0.03616795120043398</v>
+        <v>0.01660700832079979</v>
       </c>
       <c r="DT6">
-        <v>0.007404354033902553</v>
+        <v>0</v>
       </c>
       <c r="DU6">
-        <v>0.005317208485362992</v>
+        <v>0</v>
       </c>
       <c r="DV6">
-        <v>0.009791844537107505</v>
+        <v>0</v>
       </c>
       <c r="DW6">
-        <v>0.002071934554593745</v>
+        <v>0</v>
       </c>
       <c r="DX6">
-        <v>0.0263331353679355</v>
+        <v>0</v>
       </c>
       <c r="DY6">
         <v>0</v>
       </c>
       <c r="DZ6">
-        <v>0.01514568394043869</v>
+        <v>0</v>
       </c>
       <c r="EA6">
-        <v>0.002368495811260438</v>
+        <v>0</v>
       </c>
       <c r="EB6">
-        <v>2.161780854312231E-05</v>
+        <v>0</v>
       </c>
       <c r="EC6">
-        <v>0.0005857766799108054</v>
+        <v>0</v>
       </c>
       <c r="ED6">
-        <v>0.004806822168999835</v>
+        <v>0</v>
       </c>
       <c r="EE6">
-        <v>0.002670023853199096</v>
+        <v>0</v>
       </c>
       <c r="EF6">
-        <v>0.0192525481346025</v>
+        <v>0</v>
       </c>
       <c r="EG6">
-        <v>0.00407194221401104</v>
+        <v>0</v>
       </c>
       <c r="EH6">
-        <v>0.004593970427160904</v>
+        <v>0</v>
       </c>
       <c r="EI6">
-        <v>0.002413795710252053</v>
+        <v>0</v>
       </c>
       <c r="EJ6">
-        <v>0.002068036186724931</v>
+        <v>0</v>
       </c>
       <c r="EK6">
-        <v>0.009965808413305327</v>
+        <v>0</v>
       </c>
       <c r="EL6">
-        <v>0.001612227937884127</v>
+        <v>0</v>
       </c>
       <c r="EM6">
-        <v>0.0004772113342298072</v>
+        <v>0</v>
       </c>
       <c r="EN6">
         <v>0</v>
       </c>
       <c r="EO6">
-        <v>7.764601672514284E-05</v>
+        <v>0</v>
       </c>
       <c r="EP6">
         <v>0</v>
@@ -5524,133 +5524,133 @@
         <v>0</v>
       </c>
       <c r="ER6">
-        <v>0.001530105759845074</v>
+        <v>0</v>
       </c>
       <c r="ES6">
-        <v>0.009241180454348671</v>
+        <v>0</v>
       </c>
       <c r="ET6">
-        <v>0.005611642284670539</v>
+        <v>0</v>
       </c>
       <c r="EU6">
         <v>0</v>
       </c>
       <c r="EV6">
-        <v>0.000367087579145999</v>
+        <v>0</v>
       </c>
       <c r="EW6">
         <v>0</v>
       </c>
       <c r="EX6">
-        <v>0.001113810709670405</v>
+        <v>0</v>
       </c>
       <c r="EY6">
-        <v>0.006650690236829971</v>
+        <v>0</v>
       </c>
       <c r="EZ6">
-        <v>0.000179752431626977</v>
+        <v>0</v>
       </c>
       <c r="FA6">
-        <v>0.002769290858645092</v>
+        <v>0</v>
       </c>
       <c r="FB6">
-        <v>0.001860711940340635</v>
+        <v>0</v>
       </c>
       <c r="FC6">
-        <v>0.001935295975940267</v>
+        <v>0</v>
       </c>
       <c r="FD6">
-        <v>0.003430898907134692</v>
+        <v>0</v>
       </c>
       <c r="FE6">
-        <v>0.0009474652957854734</v>
+        <v>0</v>
       </c>
       <c r="FF6">
-        <v>0.0004600381604309714</v>
+        <v>0</v>
       </c>
       <c r="FG6">
-        <v>0.00873220829778816</v>
+        <v>0</v>
       </c>
       <c r="FH6">
-        <v>0.009956282150140045</v>
+        <v>0</v>
       </c>
       <c r="FI6">
-        <v>0.0001353028632348704</v>
+        <v>0</v>
       </c>
       <c r="FJ6">
         <v>0</v>
       </c>
       <c r="FK6">
-        <v>0.0189149080533097</v>
+        <v>0</v>
       </c>
       <c r="FL6">
-        <v>0.009902374060445484</v>
+        <v>0</v>
       </c>
       <c r="FM6">
-        <v>0.0001551729602571584</v>
+        <v>0</v>
       </c>
       <c r="FN6">
-        <v>7.764601672514284E-05</v>
+        <v>0</v>
       </c>
       <c r="FO6">
-        <v>0.0006967437936660186</v>
+        <v>0</v>
       </c>
       <c r="FP6">
-        <v>6.377742472547247E-05</v>
+        <v>0</v>
       </c>
       <c r="FQ6">
-        <v>0.002076368048523095</v>
+        <v>0</v>
       </c>
       <c r="FR6">
-        <v>0.001782396598131851</v>
+        <v>0</v>
       </c>
       <c r="FS6">
-        <v>0.001684663314939738</v>
+        <v>0</v>
       </c>
       <c r="FT6">
-        <v>0.001298272943745761</v>
+        <v>0</v>
       </c>
       <c r="FU6">
-        <v>0.0002619497107862973</v>
+        <v>0</v>
       </c>
       <c r="FV6">
-        <v>0.001510958439755217</v>
+        <v>0</v>
       </c>
       <c r="FW6">
-        <v>0.009872754068528996</v>
+        <v>0</v>
       </c>
       <c r="FX6">
-        <v>0.01119111152666485</v>
+        <v>0</v>
       </c>
       <c r="FY6">
-        <v>0.0009753833829719072</v>
+        <v>0</v>
       </c>
       <c r="FZ6">
         <v>0</v>
       </c>
       <c r="GA6">
-        <v>0.0002289580577448477</v>
+        <v>0</v>
       </c>
       <c r="GB6">
-        <v>0.0007075397427904762</v>
+        <v>0</v>
       </c>
       <c r="GC6">
-        <v>0.0005572449509296576</v>
+        <v>0</v>
       </c>
       <c r="GD6">
-        <v>0.003392151091628283</v>
+        <v>0</v>
       </c>
       <c r="GE6">
-        <v>0.004401460610636496</v>
+        <v>0</v>
       </c>
       <c r="GF6">
-        <v>0.00371960981352893</v>
+        <v>0</v>
       </c>
       <c r="GG6">
-        <v>0.00284617563051871</v>
+        <v>0</v>
       </c>
       <c r="GH6">
-        <v>0.0002567249641745222</v>
+        <v>0</v>
       </c>
       <c r="GI6">
         <v>0</v>
@@ -5659,31 +5659,31 @@
         <v>0</v>
       </c>
       <c r="GK6">
-        <v>0.0004344655256714295</v>
+        <v>0</v>
       </c>
       <c r="GL6">
-        <v>0.002288846731051251</v>
+        <v>0</v>
       </c>
       <c r="GM6">
-        <v>0.0006569016810408846</v>
+        <v>0</v>
       </c>
       <c r="GN6">
-        <v>0.004983658907676935</v>
+        <v>0</v>
       </c>
       <c r="GO6">
-        <v>0.0009017467753213591</v>
+        <v>0</v>
       </c>
       <c r="GP6">
-        <v>0.005020671080029284</v>
+        <v>0</v>
       </c>
       <c r="GQ6">
-        <v>0.001192826404481465</v>
+        <v>0</v>
       </c>
       <c r="GR6">
-        <v>0.004058940179671608</v>
+        <v>0</v>
       </c>
       <c r="GS6">
-        <v>0.0196493609267378</v>
+        <v>0</v>
       </c>
       <c r="GT6">
         <v>0</v>
@@ -6648,769 +6648,769 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.0002886849511417277</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.0009616925492178642</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.001835053834376524</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.003080054302177179</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.004325054769977834</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.00589870908538716</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.007351295020863336</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.008866189160514147</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.01043984347592347</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.01140447555972075</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.01185672296193137</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.01213365393228124</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.01218164092444736</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.01218164092444736</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.01218164092444736</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.01218164092444736</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>0.01228791018170996</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0.01283940446267135</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>0.01388446070847909</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>0.01493939292128451</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>0.01584308489313872</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>0.01727180857620015</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>0.01880426979836035</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.01979285496524673</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0.02091806851315809</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.02148773738740529</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.02222143857457732</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.02272853088967218</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.02297176669045798</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.02297176669045798</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.02297176669045798</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.02297176669045798</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>0.02297176669045798</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>0.02304227298252606</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>0.02346700538750491</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>0.02388496158865192</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>0.02421359997354151</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>0.02461812715133095</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>0.02559229430549127</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.02649317687537144</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>0.02731260409396182</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>0.02805050615374188</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>0.02849581323225392</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>0.02853991442263373</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>0.02859182830031395</v>
+        <v>0</v>
       </c>
       <c r="AV2">
-        <v>0.02859182830031395</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>0.02859182830031395</v>
+        <v>0</v>
       </c>
       <c r="AX2">
-        <v>0.02859182830031395</v>
+        <v>0</v>
       </c>
       <c r="AY2">
-        <v>0.02859182830031395</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
-        <v>0.02859182830031395</v>
+        <v>0</v>
       </c>
       <c r="BA2">
-        <v>0.02862490778741298</v>
+        <v>0</v>
       </c>
       <c r="BB2">
-        <v>0.02862490778741298</v>
+        <v>0</v>
       </c>
       <c r="BC2">
-        <v>0.02872406612929672</v>
+        <v>0</v>
       </c>
       <c r="BD2">
-        <v>0.0289113457801871</v>
+        <v>0</v>
       </c>
       <c r="BE2">
-        <v>0.02928628392882563</v>
+        <v>0</v>
       </c>
       <c r="BF2">
-        <v>0.02971717729550036</v>
+        <v>0</v>
       </c>
       <c r="BG2">
-        <v>0.0302914268210726</v>
+        <v>0</v>
       </c>
       <c r="BH2">
-        <v>0.03105757073852371</v>
+        <v>0</v>
       </c>
       <c r="BI2">
-        <v>0.03178620349214497</v>
+        <v>0</v>
       </c>
       <c r="BJ2">
-        <v>0.03278829314250609</v>
+        <v>0</v>
       </c>
       <c r="BK2">
-        <v>0.03305078545586388</v>
+        <v>0</v>
       </c>
       <c r="BL2">
-        <v>0.03305078545586388</v>
+        <v>0</v>
       </c>
       <c r="BM2">
-        <v>0.03305078545586388</v>
+        <v>0</v>
       </c>
       <c r="BN2">
-        <v>0.03305078545586388</v>
+        <v>0</v>
       </c>
       <c r="BO2">
-        <v>0.03305078545586388</v>
+        <v>0</v>
       </c>
       <c r="BP2">
-        <v>0.03305078545586388</v>
+        <v>0</v>
       </c>
       <c r="BQ2">
-        <v>0.03305078545586388</v>
+        <v>0</v>
       </c>
       <c r="BR2">
-        <v>0.03319657455584688</v>
+        <v>0</v>
       </c>
       <c r="BS2">
-        <v>0.0336488219580575</v>
+        <v>0</v>
       </c>
       <c r="BT2">
-        <v>0.03413495452671291</v>
+        <v>0</v>
       </c>
       <c r="BU2">
-        <v>0.03472068937089296</v>
+        <v>0</v>
       </c>
       <c r="BV2">
-        <v>0.03527290605780171</v>
+        <v>0</v>
       </c>
       <c r="BW2">
-        <v>0.03594102524524198</v>
+        <v>0</v>
       </c>
       <c r="BX2">
-        <v>0.03646051862008164</v>
+        <v>0</v>
       </c>
       <c r="BY2">
-        <v>0.03676112182548513</v>
+        <v>0</v>
       </c>
       <c r="BZ2">
-        <v>0.03676112182548513</v>
+        <v>0</v>
       </c>
       <c r="CA2">
-        <v>0.03676112182548513</v>
+        <v>0</v>
       </c>
       <c r="CB2">
-        <v>0.03676112182548513</v>
+        <v>0</v>
       </c>
       <c r="CC2">
-        <v>0.03676112182548513</v>
+        <v>0</v>
       </c>
       <c r="CD2">
-        <v>0.03676112182548513</v>
+        <v>0</v>
       </c>
       <c r="CE2">
-        <v>0.03676112182548513</v>
+        <v>0</v>
       </c>
       <c r="CF2">
-        <v>0.03676112182548513</v>
+        <v>0</v>
       </c>
       <c r="CG2">
-        <v>0.03676112182548513</v>
+        <v>0</v>
       </c>
       <c r="CH2">
-        <v>0.03677036928927319</v>
+        <v>0</v>
       </c>
       <c r="CI2">
-        <v>0.03682826650194385</v>
+        <v>0</v>
       </c>
       <c r="CJ2">
-        <v>0.03701761618083074</v>
+        <v>0</v>
       </c>
       <c r="CK2">
-        <v>0.03722589192067052</v>
+        <v>0</v>
       </c>
       <c r="CL2">
-        <v>0.03735412461868453</v>
+        <v>0</v>
       </c>
       <c r="CM2">
-        <v>0.03805763735569617</v>
+        <v>0</v>
       </c>
       <c r="CN2">
-        <v>0.1193545165420259</v>
+        <v>0.1573831301345367</v>
       </c>
       <c r="CO2">
-        <v>0.1256529631921254</v>
+        <v>0.1573831301345367</v>
       </c>
       <c r="CP2">
-        <v>0.3203318121770007</v>
+        <v>0.6666291670316702</v>
       </c>
       <c r="CQ2">
-        <v>0.3941627632185302</v>
+        <v>0.8008429768291401</v>
       </c>
       <c r="CR2">
-        <v>0.3992506264233691</v>
+        <v>0.8008429768291401</v>
       </c>
       <c r="CS2">
-        <v>0.4007538916766494</v>
+        <v>0.8008429768291401</v>
       </c>
       <c r="CT2">
-        <v>0.423544199057764</v>
+        <v>0.8008429768291401</v>
       </c>
       <c r="CU2">
-        <v>0.4290588705836997</v>
+        <v>0.8008429768291401</v>
       </c>
       <c r="CV2">
-        <v>0.4456427620189545</v>
+        <v>0.8008429768291401</v>
       </c>
       <c r="CW2">
-        <v>0.4562428289816849</v>
+        <v>0.8008429768291401</v>
       </c>
       <c r="CX2">
-        <v>0.4562428289816849</v>
+        <v>0.8008429768291401</v>
       </c>
       <c r="CY2">
-        <v>0.5349279371522402</v>
+        <v>0.9501208910899221</v>
       </c>
       <c r="CZ2">
-        <v>0.569212836676536</v>
+        <v>0.9616098208860949</v>
       </c>
       <c r="DA2">
-        <v>0.569212836676536</v>
+        <v>0.9616098208860949</v>
       </c>
       <c r="DB2">
-        <v>0.5813519428864489</v>
+        <v>0.9616098208860949</v>
       </c>
       <c r="DC2">
-        <v>0.59170685099815</v>
+        <v>0.9616098208860949</v>
       </c>
       <c r="DD2">
-        <v>0.6147320596106205</v>
+        <v>0.9616098208860949</v>
       </c>
       <c r="DE2">
-        <v>0.6576854393272437</v>
+        <v>1</v>
       </c>
       <c r="DF2">
-        <v>0.6577676880491452</v>
+        <v>1</v>
       </c>
       <c r="DG2">
-        <v>0.6628142047623694</v>
+        <v>1</v>
       </c>
       <c r="DH2">
-        <v>0.6636116306821471</v>
+        <v>1</v>
       </c>
       <c r="DI2">
-        <v>0.6667919986268485</v>
+        <v>1</v>
       </c>
       <c r="DJ2">
-        <v>0.6677021371189312</v>
+        <v>1</v>
       </c>
       <c r="DK2">
-        <v>0.6723680210815247</v>
+        <v>1</v>
       </c>
       <c r="DL2">
-        <v>0.6730484218356839</v>
+        <v>1</v>
       </c>
       <c r="DM2">
-        <v>0.6796893363784549</v>
+        <v>1</v>
       </c>
       <c r="DN2">
-        <v>0.6801819565101058</v>
+        <v>1</v>
       </c>
       <c r="DO2">
-        <v>0.6838689004379672</v>
+        <v>1</v>
       </c>
       <c r="DP2">
-        <v>0.6933646333159691</v>
+        <v>1</v>
       </c>
       <c r="DQ2">
-        <v>0.6970338760145529</v>
+        <v>1</v>
       </c>
       <c r="DR2">
-        <v>0.6993075420616081</v>
+        <v>1</v>
       </c>
       <c r="DS2">
-        <v>0.7174606731752531</v>
+        <v>1</v>
       </c>
       <c r="DT2">
-        <v>0.7198309755844692</v>
+        <v>1</v>
       </c>
       <c r="DU2">
-        <v>0.7214153632797695</v>
+        <v>1</v>
       </c>
       <c r="DV2">
-        <v>0.7259335264596384</v>
+        <v>1</v>
       </c>
       <c r="DW2">
-        <v>0.7274835535354827</v>
+        <v>1</v>
       </c>
       <c r="DX2">
-        <v>0.7379090269433495</v>
+        <v>1</v>
       </c>
       <c r="DY2">
-        <v>0.7379090269433495</v>
+        <v>1</v>
       </c>
       <c r="DZ2">
-        <v>0.740385243243775</v>
+        <v>1</v>
       </c>
       <c r="EA2">
-        <v>0.740385243243775</v>
+        <v>1</v>
       </c>
       <c r="EB2">
-        <v>0.7416334849432608</v>
+        <v>1</v>
       </c>
       <c r="EC2">
-        <v>0.7426618070453473</v>
+        <v>1</v>
       </c>
       <c r="ED2">
-        <v>0.7503120080794714</v>
+        <v>1</v>
       </c>
       <c r="EE2">
-        <v>0.7509203003273797</v>
+        <v>1</v>
       </c>
       <c r="EF2">
-        <v>0.7634789869076355</v>
+        <v>1</v>
       </c>
       <c r="EG2">
-        <v>0.7640951270384505</v>
+        <v>1</v>
       </c>
       <c r="EH2">
-        <v>0.774362162872844</v>
+        <v>1</v>
       </c>
       <c r="EI2">
-        <v>0.7768987330331147</v>
+        <v>1</v>
       </c>
       <c r="EJ2">
-        <v>0.7780137831712968</v>
+        <v>1</v>
       </c>
       <c r="EK2">
-        <v>0.7807296663950216</v>
+        <v>1</v>
       </c>
       <c r="EL2">
-        <v>0.780901630079296</v>
+        <v>1</v>
       </c>
       <c r="EM2">
-        <v>0.780901630079296</v>
+        <v>1</v>
       </c>
       <c r="EN2">
-        <v>0.7809515910974776</v>
+        <v>1</v>
       </c>
       <c r="EO2">
-        <v>0.7814206628596709</v>
+        <v>1</v>
       </c>
       <c r="EP2">
-        <v>0.7821333099163759</v>
+        <v>1</v>
       </c>
       <c r="EQ2">
-        <v>0.7829315772743173</v>
+        <v>1</v>
       </c>
       <c r="ER2">
-        <v>0.7847530724545012</v>
+        <v>1</v>
       </c>
       <c r="ES2">
-        <v>0.7910883540663166</v>
+        <v>1</v>
       </c>
       <c r="ET2">
-        <v>0.7932728022722975</v>
+        <v>1</v>
       </c>
       <c r="EU2">
-        <v>0.7934518673997553</v>
+        <v>1</v>
       </c>
       <c r="EV2">
-        <v>0.7952117536797952</v>
+        <v>1</v>
       </c>
       <c r="EW2">
-        <v>0.795645383804385</v>
+        <v>1</v>
       </c>
       <c r="EX2">
-        <v>0.795645383804385</v>
+        <v>1</v>
       </c>
       <c r="EY2">
-        <v>0.7967614078890651</v>
+        <v>1</v>
       </c>
       <c r="EZ2">
-        <v>0.7969303527180832</v>
+        <v>1</v>
       </c>
       <c r="FA2">
-        <v>0.799909197297805</v>
+        <v>1</v>
       </c>
       <c r="FB2">
-        <v>0.8015174507271919</v>
+        <v>1</v>
       </c>
       <c r="FC2">
-        <v>0.801731594026193</v>
+        <v>1</v>
       </c>
       <c r="FD2">
-        <v>0.8024831165603213</v>
+        <v>1</v>
       </c>
       <c r="FE2">
-        <v>0.8025374062489481</v>
+        <v>1</v>
       </c>
       <c r="FF2">
-        <v>0.8037391045495773</v>
+        <v>1</v>
       </c>
       <c r="FG2">
-        <v>0.8141617506351002</v>
+        <v>1</v>
       </c>
       <c r="FH2">
-        <v>0.823730747104949</v>
+        <v>1</v>
       </c>
       <c r="FI2">
-        <v>0.8240283792871232</v>
+        <v>1</v>
       </c>
       <c r="FJ2">
-        <v>0.8255890656037286</v>
+        <v>1</v>
       </c>
       <c r="FK2">
-        <v>0.8456457833912545</v>
+        <v>1</v>
       </c>
       <c r="FL2">
-        <v>0.8484604759499812</v>
+        <v>1</v>
       </c>
       <c r="FM2">
-        <v>0.8492240025718225</v>
+        <v>1</v>
       </c>
       <c r="FN2">
-        <v>0.8492240025718225</v>
+        <v>1</v>
       </c>
       <c r="FO2">
-        <v>0.8492240025718225</v>
+        <v>1</v>
       </c>
       <c r="FP2">
-        <v>0.8543950522356738</v>
+        <v>1</v>
       </c>
       <c r="FQ2">
-        <v>0.8617348386721693</v>
+        <v>1</v>
       </c>
       <c r="FR2">
-        <v>0.8651144719128534</v>
+        <v>1</v>
       </c>
       <c r="FS2">
-        <v>0.8705775569406646</v>
+        <v>1</v>
       </c>
       <c r="FT2">
-        <v>0.8782632020086019</v>
+        <v>1</v>
       </c>
       <c r="FU2">
-        <v>0.881944760506931</v>
+        <v>1</v>
       </c>
       <c r="FV2">
-        <v>0.8848773217891636</v>
+        <v>1</v>
       </c>
       <c r="FW2">
-        <v>0.8997579721888138</v>
+        <v>1</v>
       </c>
       <c r="FX2">
-        <v>0.9167444452436301</v>
+        <v>1</v>
       </c>
       <c r="FY2">
-        <v>0.9176901303764434</v>
+        <v>1</v>
       </c>
       <c r="FZ2">
-        <v>0.9176901303764434</v>
+        <v>1</v>
       </c>
       <c r="GA2">
-        <v>0.9179356070324309</v>
+        <v>1</v>
       </c>
       <c r="GB2">
-        <v>0.9198327038495091</v>
+        <v>1</v>
       </c>
       <c r="GC2">
-        <v>0.9238897125275229</v>
+        <v>1</v>
       </c>
       <c r="GD2">
-        <v>0.9318799797151568</v>
+        <v>1</v>
       </c>
       <c r="GE2">
-        <v>0.9404645846713783</v>
+        <v>1</v>
       </c>
       <c r="GF2">
-        <v>0.9492483535454905</v>
+        <v>1</v>
       </c>
       <c r="GG2">
-        <v>0.9607021003325185</v>
+        <v>1</v>
       </c>
       <c r="GH2">
-        <v>0.9653939173230587</v>
+        <v>1</v>
       </c>
       <c r="GI2">
-        <v>0.9670747530630338</v>
+        <v>1</v>
       </c>
       <c r="GJ2">
-        <v>0.9670747530630338</v>
+        <v>1</v>
       </c>
       <c r="GK2">
-        <v>0.9670747530630338</v>
+        <v>1</v>
       </c>
       <c r="GL2">
-        <v>0.9725272063962523</v>
+        <v>1</v>
       </c>
       <c r="GM2">
-        <v>0.9732693875638548</v>
+        <v>1</v>
       </c>
       <c r="GN2">
-        <v>0.9759470689624575</v>
+        <v>1</v>
       </c>
       <c r="GO2">
-        <v>0.9759470689624575</v>
+        <v>1</v>
       </c>
       <c r="GP2">
-        <v>0.9792406298477767</v>
+        <v>1</v>
       </c>
       <c r="GQ2">
-        <v>0.9793250264028004</v>
+        <v>1</v>
       </c>
       <c r="GR2">
-        <v>0.984537915522039</v>
+        <v>1</v>
       </c>
       <c r="GS2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GT2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GU2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GV2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GW2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GX2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GY2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GZ2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HA2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HB2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HC2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HD2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HE2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HF2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HG2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HH2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HI2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HJ2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HK2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HL2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HM2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HN2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HO2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HP2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HQ2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HR2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HS2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HT2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HU2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HV2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HW2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HX2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HY2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HZ2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IA2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IB2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IC2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="ID2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IE2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IF2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IG2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IH2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="II2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IJ2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IK2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IL2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IM2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IN2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IO2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IP2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IQ2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IR2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IS2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IT2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IU2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IV2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IW2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:257">
@@ -7421,769 +7421,769 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>5.27788263726803E-05</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0.0001036093405432608</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.0001882990833439374</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.0004308586017254422</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0007701282785229598</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0009831162556450958</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.001530817436709526</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.002153442001536741</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.002556462826171424</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.002908547256051051</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.003351855328922599</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.003822388230830604</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.003885135094027512</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.003885135094027512</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.003885135094027512</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.003885135094027512</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0.003889033082475229</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.003950920000347026</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0.004483873904981631</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.005275132859306361</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.0057643794046003</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0.006557684221520138</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.007413489897503259</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.008005167192990692</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.008538121097625296</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.009242721678171228</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.009490172123555105</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.009490172123555105</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.009550846795887526</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.009630276184922199</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.009630276184922199</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.009630276184922199</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.009630276184922199</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.009630276184922199</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.009785305993524361</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>0.009993603687757067</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.01020365568788357</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>0.01051242431795765</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0.01102426225130121</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.01159117425238579</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>0.0119679983780507</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>0.0125027689130043</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.01287811843263486</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>0.01318146707734199</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>0.01343023986461572</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>0.01383858882969611</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>0.0139883900649221</v>
+        <v>0</v>
       </c>
       <c r="AX3">
-        <v>0.0139883900649221</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>0.0139883900649221</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
-        <v>0.0139883900649221</v>
+        <v>0</v>
       </c>
       <c r="BA3">
-        <v>0.0139883900649221</v>
+        <v>0</v>
       </c>
       <c r="BB3">
-        <v>0.01399137117898925</v>
+        <v>0</v>
       </c>
       <c r="BC3">
-        <v>0.0140561078533348</v>
+        <v>0</v>
       </c>
       <c r="BD3">
-        <v>0.01426902519610837</v>
+        <v>0</v>
       </c>
       <c r="BE3">
-        <v>0.01483671164151393</v>
+        <v>0</v>
       </c>
       <c r="BF3">
-        <v>0.01548982394705315</v>
+        <v>0</v>
       </c>
       <c r="BG3">
-        <v>0.01638742131195916</v>
+        <v>0</v>
       </c>
       <c r="BH3">
-        <v>0.01712138760101644</v>
+        <v>0</v>
       </c>
       <c r="BI3">
-        <v>0.01777449990655566</v>
+        <v>0</v>
       </c>
       <c r="BJ3">
-        <v>0.01829722253220847</v>
+        <v>0</v>
       </c>
       <c r="BK3">
-        <v>0.01871931537074103</v>
+        <v>0</v>
       </c>
       <c r="BL3">
-        <v>0.01905357000879057</v>
+        <v>0</v>
       </c>
       <c r="BM3">
-        <v>0.01914261356365701</v>
+        <v>0</v>
       </c>
       <c r="BN3">
-        <v>0.01916979765380089</v>
+        <v>0</v>
       </c>
       <c r="BO3">
-        <v>0.01917277876786805</v>
+        <v>0</v>
       </c>
       <c r="BP3">
-        <v>0.01917277876786805</v>
+        <v>0</v>
       </c>
       <c r="BQ3">
-        <v>0.01917277876786805</v>
+        <v>0</v>
       </c>
       <c r="BR3">
-        <v>0.01920070497470423</v>
+        <v>0</v>
       </c>
       <c r="BS3">
-        <v>0.01947299188594432</v>
+        <v>0</v>
       </c>
       <c r="BT3">
-        <v>0.02001205758719967</v>
+        <v>0</v>
       </c>
       <c r="BU3">
-        <v>0.02061193804380038</v>
+        <v>0</v>
       </c>
       <c r="BV3">
-        <v>0.02119924669096864</v>
+        <v>0</v>
       </c>
       <c r="BW3">
-        <v>0.02215971129135165</v>
+        <v>0</v>
       </c>
       <c r="BX3">
-        <v>0.02303589097394431</v>
+        <v>0</v>
       </c>
       <c r="BY3">
-        <v>0.02346351062089521</v>
+        <v>0</v>
       </c>
       <c r="BZ3">
-        <v>0.02406158787479699</v>
+        <v>0</v>
       </c>
       <c r="CA3">
-        <v>0.02450252731548925</v>
+        <v>0</v>
       </c>
       <c r="CB3">
-        <v>0.02480925891986233</v>
+        <v>0</v>
       </c>
       <c r="CC3">
-        <v>0.02494524471495472</v>
+        <v>0</v>
       </c>
       <c r="CD3">
-        <v>0.02494524471495472</v>
+        <v>0</v>
       </c>
       <c r="CE3">
-        <v>0.02494524471495472</v>
+        <v>0</v>
       </c>
       <c r="CF3">
-        <v>0.02494524471495472</v>
+        <v>0</v>
       </c>
       <c r="CG3">
-        <v>0.02494524471495472</v>
+        <v>0</v>
       </c>
       <c r="CH3">
-        <v>0.02494524471495472</v>
+        <v>0</v>
       </c>
       <c r="CI3">
-        <v>0.02498876421935717</v>
+        <v>0</v>
       </c>
       <c r="CJ3">
-        <v>0.0250567939947218</v>
+        <v>0</v>
       </c>
       <c r="CK3">
-        <v>0.02526853529079287</v>
+        <v>0</v>
       </c>
       <c r="CL3">
-        <v>0.02561695464924252</v>
+        <v>0</v>
       </c>
       <c r="CM3">
-        <v>0.0257289359234157</v>
+        <v>0</v>
       </c>
       <c r="CN3">
-        <v>0.1530987417367412</v>
+        <v>0.2723062301035049</v>
       </c>
       <c r="CO3">
-        <v>0.1677335329259438</v>
+        <v>0.2723062301035049</v>
       </c>
       <c r="CP3">
-        <v>0.3464862905344146</v>
+        <v>0.6887971123663267</v>
       </c>
       <c r="CQ3">
-        <v>0.419977364465462</v>
+        <v>0.8099153327540224</v>
       </c>
       <c r="CR3">
-        <v>0.4309310957294591</v>
+        <v>0.8099153327540224</v>
       </c>
       <c r="CS3">
-        <v>0.4394069365498697</v>
+        <v>0.8099153327540224</v>
       </c>
       <c r="CT3">
-        <v>0.4417393242991716</v>
+        <v>0.8099153327540224</v>
       </c>
       <c r="CU3">
-        <v>0.4459387640435455</v>
+        <v>0.8099153327540224</v>
       </c>
       <c r="CV3">
-        <v>0.4505118523979809</v>
+        <v>0.8099153327540224</v>
       </c>
       <c r="CW3">
-        <v>0.451638348152358</v>
+        <v>0.8099153327540224</v>
       </c>
       <c r="CX3">
-        <v>0.4546697680735005</v>
+        <v>0.8099153327540224</v>
       </c>
       <c r="CY3">
-        <v>0.502140102621711</v>
+        <v>0.8580172875172695</v>
       </c>
       <c r="CZ3">
-        <v>0.5188904381536142</v>
+        <v>0.8580172875172695</v>
       </c>
       <c r="DA3">
-        <v>0.5197881657005635</v>
+        <v>0.8580172875172695</v>
       </c>
       <c r="DB3">
-        <v>0.5210278572041448</v>
+        <v>0.8580172875172695</v>
       </c>
       <c r="DC3">
-        <v>0.524253991398527</v>
+        <v>0.8580172875172695</v>
       </c>
       <c r="DD3">
-        <v>0.560902987682468</v>
+        <v>0.8757537058716208</v>
       </c>
       <c r="DE3">
-        <v>0.6117282399589065</v>
+        <v>0.9332698267885797</v>
       </c>
       <c r="DF3">
-        <v>0.6128165090524207</v>
+        <v>0.9332698267885797</v>
       </c>
       <c r="DG3">
-        <v>0.6135386637988265</v>
+        <v>0.9332698267885797</v>
       </c>
       <c r="DH3">
-        <v>0.6156887926339194</v>
+        <v>0.9332698267885797</v>
       </c>
       <c r="DI3">
-        <v>0.6211284884398265</v>
+        <v>0.9332698267885797</v>
       </c>
       <c r="DJ3">
-        <v>0.6256404583213517</v>
+        <v>0.9332698267885797</v>
       </c>
       <c r="DK3">
-        <v>0.6273069404962244</v>
+        <v>0.9332698267885797</v>
       </c>
       <c r="DL3">
-        <v>0.6273084417892736</v>
+        <v>0.9332698267885797</v>
       </c>
       <c r="DM3">
-        <v>0.6367285746703065</v>
+        <v>0.9332698267885797</v>
       </c>
       <c r="DN3">
-        <v>0.638751093484743</v>
+        <v>0.9332698267885797</v>
       </c>
       <c r="DO3">
-        <v>0.6406389811026674</v>
+        <v>0.9332698267885797</v>
       </c>
       <c r="DP3">
-        <v>0.6455205980621344</v>
+        <v>0.9332698267885797</v>
       </c>
       <c r="DQ3">
-        <v>0.6470633814540591</v>
+        <v>0.9332698267885797</v>
       </c>
       <c r="DR3">
-        <v>0.65644588963697</v>
+        <v>0.9332698267885797</v>
       </c>
       <c r="DS3">
-        <v>0.7003260677277003</v>
+        <v>0.9712975168018553</v>
       </c>
       <c r="DT3">
-        <v>0.7108962879213747</v>
+        <v>0.9712975168018553</v>
       </c>
       <c r="DU3">
-        <v>0.7127642128738958</v>
+        <v>0.9712975168018553</v>
       </c>
       <c r="DV3">
-        <v>0.7132306983364247</v>
+        <v>0.9712975168018553</v>
       </c>
       <c r="DW3">
-        <v>0.7304760418152302</v>
+        <v>0.9712975168018553</v>
       </c>
       <c r="DX3">
-        <v>0.7710330045353524</v>
+        <v>1</v>
       </c>
       <c r="DY3">
-        <v>0.7712835778398011</v>
+        <v>1</v>
       </c>
       <c r="DZ3">
-        <v>0.7765720506738016</v>
+        <v>1</v>
       </c>
       <c r="EA3">
-        <v>0.7767624708549492</v>
+        <v>1</v>
       </c>
       <c r="EB3">
-        <v>0.7767624708549492</v>
+        <v>1</v>
       </c>
       <c r="EC3">
-        <v>0.7768999093259855</v>
+        <v>1</v>
       </c>
       <c r="ED3">
-        <v>0.7821779001037318</v>
+        <v>1</v>
       </c>
       <c r="EE3">
-        <v>0.7834177431114036</v>
+        <v>1</v>
       </c>
       <c r="EF3">
-        <v>0.8030458294247248</v>
+        <v>1</v>
       </c>
       <c r="EG3">
-        <v>0.8093756827008852</v>
+        <v>1</v>
       </c>
       <c r="EH3">
-        <v>0.8160919221795105</v>
+        <v>1</v>
       </c>
       <c r="EI3">
-        <v>0.8182467741926286</v>
+        <v>1</v>
       </c>
       <c r="EJ3">
-        <v>0.8245211183968282</v>
+        <v>1</v>
       </c>
       <c r="EK3">
-        <v>0.844139447644038</v>
+        <v>1</v>
       </c>
       <c r="EL3">
-        <v>0.8511688909716499</v>
+        <v>1</v>
       </c>
       <c r="EM3">
-        <v>0.8512216697980226</v>
+        <v>1</v>
       </c>
       <c r="EN3">
-        <v>0.8513299358372041</v>
+        <v>1</v>
       </c>
       <c r="EO3">
-        <v>0.8513299358372041</v>
+        <v>1</v>
       </c>
       <c r="EP3">
-        <v>0.8519775480983586</v>
+        <v>1</v>
       </c>
       <c r="EQ3">
-        <v>0.8527506241296466</v>
+        <v>1</v>
       </c>
       <c r="ER3">
-        <v>0.8535490543147481</v>
+        <v>1</v>
       </c>
       <c r="ES3">
-        <v>0.8592047314132442</v>
+        <v>1</v>
       </c>
       <c r="ET3">
-        <v>0.8597274540388969</v>
+        <v>1</v>
       </c>
       <c r="EU3">
-        <v>0.8610168894530971</v>
+        <v>1</v>
       </c>
       <c r="EV3">
-        <v>0.8627627321054449</v>
+        <v>1</v>
       </c>
       <c r="EW3">
-        <v>0.8627627321054449</v>
+        <v>1</v>
       </c>
       <c r="EX3">
-        <v>0.8647866515473297</v>
+        <v>1</v>
       </c>
       <c r="EY3">
-        <v>0.8699634142842781</v>
+        <v>1</v>
       </c>
       <c r="EZ3">
-        <v>0.8702878973949228</v>
+        <v>1</v>
       </c>
       <c r="FA3">
-        <v>0.8706428561259523</v>
+        <v>1</v>
       </c>
       <c r="FB3">
-        <v>0.870671091178184</v>
+        <v>1</v>
       </c>
       <c r="FC3">
-        <v>0.8776738420185571</v>
+        <v>1</v>
       </c>
       <c r="FD3">
-        <v>0.8882368913564147</v>
+        <v>1</v>
       </c>
       <c r="FE3">
-        <v>0.8940435158819194</v>
+        <v>1</v>
       </c>
       <c r="FF3">
-        <v>0.8940435158819194</v>
+        <v>1</v>
       </c>
       <c r="FG3">
-        <v>0.8994909571444416</v>
+        <v>1</v>
       </c>
       <c r="FH3">
-        <v>0.905388877325518</v>
+        <v>1</v>
       </c>
       <c r="FI3">
-        <v>0.905388877325518</v>
+        <v>1</v>
       </c>
       <c r="FJ3">
-        <v>0.905575985343493</v>
+        <v>1</v>
       </c>
       <c r="FK3">
-        <v>0.9207987775890268</v>
+        <v>1</v>
       </c>
       <c r="FL3">
-        <v>0.9251382206926845</v>
+        <v>1</v>
       </c>
       <c r="FM3">
-        <v>0.9261357671099767</v>
+        <v>1</v>
       </c>
       <c r="FN3">
-        <v>0.9261357671099767</v>
+        <v>1</v>
       </c>
       <c r="FO3">
-        <v>0.9271829341064642</v>
+        <v>1</v>
       </c>
       <c r="FP3">
-        <v>0.9273555813275504</v>
+        <v>1</v>
       </c>
       <c r="FQ3">
-        <v>0.9280553404251379</v>
+        <v>1</v>
       </c>
       <c r="FR3">
-        <v>0.9281887560724096</v>
+        <v>1</v>
       </c>
       <c r="FS3">
-        <v>0.9288512703468473</v>
+        <v>1</v>
       </c>
       <c r="FT3">
-        <v>0.9293249543311574</v>
+        <v>1</v>
       </c>
       <c r="FU3">
-        <v>0.9293249543311574</v>
+        <v>1</v>
       </c>
       <c r="FV3">
-        <v>0.9293373487845303</v>
+        <v>1</v>
       </c>
       <c r="FW3">
-        <v>0.9341479702177897</v>
+        <v>1</v>
       </c>
       <c r="FX3">
-        <v>0.9414044159245176</v>
+        <v>1</v>
       </c>
       <c r="FY3">
-        <v>0.9414326509767493</v>
+        <v>1</v>
       </c>
       <c r="FZ3">
-        <v>0.9421085437717649</v>
+        <v>1</v>
       </c>
       <c r="GA3">
-        <v>0.9441438136568953</v>
+        <v>1</v>
       </c>
       <c r="GB3">
-        <v>0.9448054982057535</v>
+        <v>1</v>
       </c>
       <c r="GC3">
-        <v>0.9452964948614434</v>
+        <v>1</v>
       </c>
       <c r="GD3">
-        <v>0.949919759951896</v>
+        <v>1</v>
       </c>
       <c r="GE3">
-        <v>0.9547161081797193</v>
+        <v>1</v>
       </c>
       <c r="GF3">
-        <v>0.956607075840335</v>
+        <v>1</v>
       </c>
       <c r="GG3">
-        <v>0.9576036213172244</v>
+        <v>1</v>
       </c>
       <c r="GH3">
-        <v>0.9576441919601965</v>
+        <v>1</v>
       </c>
       <c r="GI3">
-        <v>0.9576441919601965</v>
+        <v>1</v>
       </c>
       <c r="GJ3">
-        <v>0.958638327863333</v>
+        <v>1</v>
       </c>
       <c r="GK3">
-        <v>0.9594122941711665</v>
+        <v>1</v>
       </c>
       <c r="GL3">
-        <v>0.960587443108051</v>
+        <v>1</v>
       </c>
       <c r="GM3">
-        <v>0.960587443108051</v>
+        <v>1</v>
       </c>
       <c r="GN3">
-        <v>0.9677933854582373</v>
+        <v>1</v>
       </c>
       <c r="GO3">
-        <v>0.9691806137733311</v>
+        <v>1</v>
       </c>
       <c r="GP3">
-        <v>0.9713967930208486</v>
+        <v>1</v>
       </c>
       <c r="GQ3">
-        <v>0.9715476351449138</v>
+        <v>1</v>
       </c>
       <c r="GR3">
-        <v>0.978413627549735</v>
+        <v>1</v>
       </c>
       <c r="GS3">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="GT3">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="GU3">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="GV3">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="GW3">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="GX3">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="GY3">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="GZ3">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="HA3">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="HB3">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="HC3">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="HD3">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="HE3">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="HF3">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="HG3">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="HH3">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="HI3">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="HJ3">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="HK3">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="HL3">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="HM3">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="HN3">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="HO3">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="HP3">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="HQ3">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="HR3">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="HS3">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="HT3">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="HU3">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="HV3">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="HW3">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="HX3">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="HY3">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="HZ3">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="IA3">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="IB3">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="IC3">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="ID3">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="IE3">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="IF3">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="IG3">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="IH3">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="II3">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="IJ3">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="IK3">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="IL3">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="IM3">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="IN3">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="IO3">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="IP3">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="IQ3">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="IR3">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="IS3">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="IT3">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="IU3">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="IV3">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="IW3">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:257">
@@ -8206,757 +8206,757 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.106102001632918E-05</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.000114831308156696</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.0003390420485198074</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0003390420485198074</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.0003390420485198074</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.0003390420485198074</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.0003390420485198074</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.0003390420485198074</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.0003390420485198074</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.0003390420485198074</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.0005743578327006657</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0.000858814213117547</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.0009967991333947864</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.001325705244653621</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.002528802231346116</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.003316528834013657</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.00339757604167365</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0.00339757604167365</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.00339757604167365</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.003569100660199934</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.003569100660199934</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.003569100660199934</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.003569100660199934</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.003569100660199934</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.003569100660199934</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.003569100660199934</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.003835132982100691</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.004069474297637089</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.004129584507591736</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.004129584507591736</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>0.004217296480482367</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>0.004858138304319075</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>0.005289111113778297</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>0.005289111113778297</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>0.005289111113778297</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.005289111113778297</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>0.005289111113778297</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>0.005289111113778297</v>
+        <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.005289111113778297</v>
+        <v>0</v>
       </c>
       <c r="AT4">
-        <v>0.005289111113778297</v>
+        <v>0</v>
       </c>
       <c r="AU4">
-        <v>0.005289111113778297</v>
+        <v>0</v>
       </c>
       <c r="AV4">
-        <v>0.005289111113778297</v>
+        <v>0</v>
       </c>
       <c r="AW4">
-        <v>0.005289111113778297</v>
+        <v>0</v>
       </c>
       <c r="AX4">
-        <v>0.005289111113778297</v>
+        <v>0</v>
       </c>
       <c r="AY4">
-        <v>0.005702138617972663</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
-        <v>0.006219399701953405</v>
+        <v>0</v>
       </c>
       <c r="BA4">
-        <v>0.006219399701953405</v>
+        <v>0</v>
       </c>
       <c r="BB4">
-        <v>0.006219399701953405</v>
+        <v>0</v>
       </c>
       <c r="BC4">
-        <v>0.006219399701953405</v>
+        <v>0</v>
       </c>
       <c r="BD4">
-        <v>0.006219399701953405</v>
+        <v>0</v>
       </c>
       <c r="BE4">
-        <v>0.006219399701953405</v>
+        <v>0</v>
       </c>
       <c r="BF4">
-        <v>0.006219399701953405</v>
+        <v>0</v>
       </c>
       <c r="BG4">
-        <v>0.006219399701953405</v>
+        <v>0</v>
       </c>
       <c r="BH4">
-        <v>0.006219399701953405</v>
+        <v>0</v>
       </c>
       <c r="BI4">
-        <v>0.006219399701953405</v>
+        <v>0</v>
       </c>
       <c r="BJ4">
-        <v>0.006219399701953405</v>
+        <v>0</v>
       </c>
       <c r="BK4">
-        <v>0.006219399701953405</v>
+        <v>0</v>
       </c>
       <c r="BL4">
-        <v>0.006219399701953405</v>
+        <v>0</v>
       </c>
       <c r="BM4">
-        <v>0.006219399701953405</v>
+        <v>0</v>
       </c>
       <c r="BN4">
-        <v>0.006219399701953405</v>
+        <v>0</v>
       </c>
       <c r="BO4">
-        <v>0.006219399701953405</v>
+        <v>0</v>
       </c>
       <c r="BP4">
-        <v>0.006219399701953405</v>
+        <v>0</v>
       </c>
       <c r="BQ4">
-        <v>0.006526679862009494</v>
+        <v>0</v>
       </c>
       <c r="BR4">
-        <v>0.0067806400096039</v>
+        <v>0</v>
       </c>
       <c r="BS4">
-        <v>0.006835605713001151</v>
+        <v>0</v>
       </c>
       <c r="BT4">
-        <v>0.006870239213049274</v>
+        <v>0</v>
       </c>
       <c r="BU4">
-        <v>0.007037603631277678</v>
+        <v>0</v>
       </c>
       <c r="BV4">
-        <v>0.007037603631277678</v>
+        <v>0</v>
       </c>
       <c r="BW4">
-        <v>0.007037603631277678</v>
+        <v>0</v>
       </c>
       <c r="BX4">
-        <v>0.007037603631277678</v>
+        <v>0</v>
       </c>
       <c r="BY4">
-        <v>0.007037603631277678</v>
+        <v>0</v>
       </c>
       <c r="BZ4">
-        <v>0.007037603631277678</v>
+        <v>0</v>
       </c>
       <c r="CA4">
-        <v>0.007037603631277678</v>
+        <v>0</v>
       </c>
       <c r="CB4">
-        <v>0.007037603631277678</v>
+        <v>0</v>
       </c>
       <c r="CC4">
-        <v>0.007037603631277678</v>
+        <v>0</v>
       </c>
       <c r="CD4">
-        <v>0.007037603631277678</v>
+        <v>0</v>
       </c>
       <c r="CE4">
-        <v>0.007037603631277678</v>
+        <v>0</v>
       </c>
       <c r="CF4">
-        <v>0.007037603631277678</v>
+        <v>0</v>
       </c>
       <c r="CG4">
-        <v>0.007037603631277678</v>
+        <v>0</v>
       </c>
       <c r="CH4">
-        <v>0.007037603631277678</v>
+        <v>0</v>
       </c>
       <c r="CI4">
-        <v>0.007205895808171563</v>
+        <v>0</v>
       </c>
       <c r="CJ4">
-        <v>0.007205895808171563</v>
+        <v>0</v>
       </c>
       <c r="CK4">
-        <v>0.007205895808171563</v>
+        <v>0</v>
       </c>
       <c r="CL4">
-        <v>0.007205895808171563</v>
+        <v>0</v>
       </c>
       <c r="CM4">
-        <v>0.007205895808171563</v>
+        <v>0</v>
       </c>
       <c r="CN4">
-        <v>0.02489310726853601</v>
+        <v>0</v>
       </c>
       <c r="CO4">
-        <v>0.1470118770468032</v>
+        <v>0.2295544904688851</v>
       </c>
       <c r="CP4">
-        <v>0.2720237345319843</v>
+        <v>0.4664429235614663</v>
       </c>
       <c r="CQ4">
-        <v>0.4991920079850874</v>
+        <v>0.9622966453871677</v>
       </c>
       <c r="CR4">
-        <v>0.4991920079850874</v>
+        <v>0.9622966453871677</v>
       </c>
       <c r="CS4">
-        <v>0.5380885086632909</v>
+        <v>0.9808836822475511</v>
       </c>
       <c r="CT4">
-        <v>0.5381568642473396</v>
+        <v>0.9808836822475511</v>
       </c>
       <c r="CU4">
-        <v>0.5411427320186112</v>
+        <v>0.9808836822475511</v>
       </c>
       <c r="CV4">
-        <v>0.5438059003805711</v>
+        <v>0.9808836822475511</v>
       </c>
       <c r="CW4">
-        <v>0.5454991312757943</v>
+        <v>0.9808836822475511</v>
       </c>
       <c r="CX4">
-        <v>0.546967953460668</v>
+        <v>0.9808836822475511</v>
       </c>
       <c r="CY4">
-        <v>0.5651888069372181</v>
+        <v>0.9808836822475511</v>
       </c>
       <c r="CZ4">
-        <v>0.5928547204482743</v>
+        <v>0.9808836822475511</v>
       </c>
       <c r="DA4">
-        <v>0.5948346377115044</v>
+        <v>0.9808836822475511</v>
       </c>
       <c r="DB4">
-        <v>0.5979444786590892</v>
+        <v>0.9808836822475511</v>
       </c>
       <c r="DC4">
-        <v>0.6089853706840811</v>
+        <v>0.9808836822475511</v>
       </c>
       <c r="DD4">
-        <v>0.623184653056023</v>
+        <v>0.9808836822475511</v>
       </c>
       <c r="DE4">
-        <v>0.6622899440290118</v>
+        <v>1</v>
       </c>
       <c r="DF4">
-        <v>0.66264795698354</v>
+        <v>1</v>
       </c>
       <c r="DG4">
-        <v>0.6679081830863935</v>
+        <v>1</v>
       </c>
       <c r="DH4">
-        <v>0.6679081830863935</v>
+        <v>1</v>
       </c>
       <c r="DI4">
-        <v>0.6714262285539289</v>
+        <v>1</v>
       </c>
       <c r="DJ4">
-        <v>0.6718092006059988</v>
+        <v>1</v>
       </c>
       <c r="DK4">
-        <v>0.6735679370929402</v>
+        <v>1</v>
       </c>
       <c r="DL4">
-        <v>0.6735679370929402</v>
+        <v>1</v>
       </c>
       <c r="DM4">
-        <v>0.6869979585570211</v>
+        <v>1</v>
       </c>
       <c r="DN4">
-        <v>0.6897562900895085</v>
+        <v>1</v>
       </c>
       <c r="DO4">
-        <v>0.6897562900895085</v>
+        <v>1</v>
       </c>
       <c r="DP4">
-        <v>0.6934793295578366</v>
+        <v>1</v>
       </c>
       <c r="DQ4">
-        <v>0.7041796558468902</v>
+        <v>1</v>
       </c>
       <c r="DR4">
-        <v>0.7041796558468902</v>
+        <v>1</v>
       </c>
       <c r="DS4">
-        <v>0.7307659621372039</v>
+        <v>1</v>
       </c>
       <c r="DT4">
-        <v>0.7465410098691632</v>
+        <v>1</v>
       </c>
       <c r="DU4">
-        <v>0.7493083667992809</v>
+        <v>1</v>
       </c>
       <c r="DV4">
-        <v>0.7628207561254469</v>
+        <v>1</v>
       </c>
       <c r="DW4">
-        <v>0.7628207561254469</v>
+        <v>1</v>
       </c>
       <c r="DX4">
-        <v>0.7901209335987206</v>
+        <v>1</v>
       </c>
       <c r="DY4">
-        <v>0.7923078382348626</v>
+        <v>1</v>
       </c>
       <c r="DZ4">
-        <v>0.8006000621600249</v>
+        <v>1</v>
       </c>
       <c r="EA4">
-        <v>0.8027561992011181</v>
+        <v>1</v>
       </c>
       <c r="EB4">
-        <v>0.8027561992011181</v>
+        <v>1</v>
       </c>
       <c r="EC4">
-        <v>0.8027561992011181</v>
+        <v>1</v>
       </c>
       <c r="ED4">
-        <v>0.8114472641807214</v>
+        <v>1</v>
       </c>
       <c r="EE4">
-        <v>0.8114472641807214</v>
+        <v>1</v>
       </c>
       <c r="EF4">
-        <v>0.8232177547550233</v>
+        <v>1</v>
       </c>
       <c r="EG4">
-        <v>0.8286160521590369</v>
+        <v>1</v>
       </c>
       <c r="EH4">
-        <v>0.8321759961465912</v>
+        <v>1</v>
       </c>
       <c r="EI4">
-        <v>0.8416796246306207</v>
+        <v>1</v>
       </c>
       <c r="EJ4">
-        <v>0.8416796246306207</v>
+        <v>1</v>
       </c>
       <c r="EK4">
-        <v>0.8481667427533341</v>
+        <v>1</v>
       </c>
       <c r="EL4">
-        <v>0.8529916218115441</v>
+        <v>1</v>
       </c>
       <c r="EM4">
-        <v>0.8529916218115441</v>
+        <v>1</v>
       </c>
       <c r="EN4">
-        <v>0.8529916218115441</v>
+        <v>1</v>
       </c>
       <c r="EO4">
-        <v>0.8529916218115441</v>
+        <v>1</v>
       </c>
       <c r="EP4">
-        <v>0.8529916218115441</v>
+        <v>1</v>
       </c>
       <c r="EQ4">
-        <v>0.8529916218115441</v>
+        <v>1</v>
       </c>
       <c r="ER4">
-        <v>0.8529916218115441</v>
+        <v>1</v>
       </c>
       <c r="ES4">
-        <v>0.8574866822743027</v>
+        <v>1</v>
       </c>
       <c r="ET4">
-        <v>0.8613211115304612</v>
+        <v>1</v>
       </c>
       <c r="EU4">
-        <v>0.8613211115304612</v>
+        <v>1</v>
       </c>
       <c r="EV4">
-        <v>0.8634480352342327</v>
+        <v>1</v>
       </c>
       <c r="EW4">
-        <v>0.8639404277673198</v>
+        <v>1</v>
       </c>
       <c r="EX4">
-        <v>0.8640410521387031</v>
+        <v>1</v>
       </c>
       <c r="EY4">
-        <v>0.866206718848661</v>
+        <v>1</v>
       </c>
       <c r="EZ4">
-        <v>0.8663035303057163</v>
+        <v>1</v>
       </c>
       <c r="FA4">
-        <v>0.8672267446873357</v>
+        <v>1</v>
       </c>
       <c r="FB4">
-        <v>0.8684756647722489</v>
+        <v>1</v>
       </c>
       <c r="FC4">
-        <v>0.8688951928998383</v>
+        <v>1</v>
       </c>
       <c r="FD4">
-        <v>0.8745908575873583</v>
+        <v>1</v>
       </c>
       <c r="FE4">
-        <v>0.8775522294835117</v>
+        <v>1</v>
       </c>
       <c r="FF4">
-        <v>0.8775522294835117</v>
+        <v>1</v>
       </c>
       <c r="FG4">
-        <v>0.8822691535876303</v>
+        <v>1</v>
       </c>
       <c r="FH4">
-        <v>0.8922215994923588</v>
+        <v>1</v>
       </c>
       <c r="FI4">
-        <v>0.8922215994923588</v>
+        <v>1</v>
       </c>
       <c r="FJ4">
-        <v>0.8922215994923588</v>
+        <v>1</v>
       </c>
       <c r="FK4">
-        <v>0.902931982900257</v>
+        <v>1</v>
       </c>
       <c r="FL4">
-        <v>0.9168560555876847</v>
+        <v>1</v>
       </c>
       <c r="FM4">
-        <v>0.9168560555876847</v>
+        <v>1</v>
       </c>
       <c r="FN4">
-        <v>0.9180511644523147</v>
+        <v>1</v>
       </c>
       <c r="FO4">
-        <v>0.9180511644523147</v>
+        <v>1</v>
       </c>
       <c r="FP4">
-        <v>0.9180511644523147</v>
+        <v>1</v>
       </c>
       <c r="FQ4">
-        <v>0.9195763618326268</v>
+        <v>1</v>
       </c>
       <c r="FR4">
-        <v>0.9207753650469563</v>
+        <v>1</v>
       </c>
       <c r="FS4">
-        <v>0.9228377130860095</v>
+        <v>1</v>
       </c>
       <c r="FT4">
-        <v>0.9252518897018733</v>
+        <v>1</v>
       </c>
       <c r="FU4">
-        <v>0.9252518897018733</v>
+        <v>1</v>
       </c>
       <c r="FV4">
-        <v>0.9252518897018733</v>
+        <v>1</v>
       </c>
       <c r="FW4">
-        <v>0.9289931351669246</v>
+        <v>1</v>
       </c>
       <c r="FX4">
-        <v>0.9377267475646084</v>
+        <v>1</v>
       </c>
       <c r="FY4">
-        <v>0.9382249313019357</v>
+        <v>1</v>
       </c>
       <c r="FZ4">
-        <v>0.9382748863373387</v>
+        <v>1</v>
       </c>
       <c r="GA4">
-        <v>0.9398617997446898</v>
+        <v>1</v>
       </c>
       <c r="GB4">
-        <v>0.9408232684561776</v>
+        <v>1</v>
       </c>
       <c r="GC4">
-        <v>0.9417763250988694</v>
+        <v>1</v>
       </c>
       <c r="GD4">
-        <v>0.9468369458854249</v>
+        <v>1</v>
       </c>
       <c r="GE4">
-        <v>0.9545569285605264</v>
+        <v>1</v>
       </c>
       <c r="GF4">
-        <v>0.9601068693291551</v>
+        <v>1</v>
       </c>
       <c r="GG4">
-        <v>0.9641822400433108</v>
+        <v>1</v>
       </c>
       <c r="GH4">
-        <v>0.9653465500162447</v>
+        <v>1</v>
       </c>
       <c r="GI4">
-        <v>0.9653465500162447</v>
+        <v>1</v>
       </c>
       <c r="GJ4">
-        <v>0.9653465500162447</v>
+        <v>1</v>
       </c>
       <c r="GK4">
-        <v>0.9657967580869078</v>
+        <v>1</v>
       </c>
       <c r="GL4">
-        <v>0.9657967580869078</v>
+        <v>1</v>
       </c>
       <c r="GM4">
-        <v>0.9661593654533405</v>
+        <v>1</v>
       </c>
       <c r="GN4">
-        <v>0.9698595226931374</v>
+        <v>1</v>
       </c>
       <c r="GO4">
-        <v>0.9748609615197503</v>
+        <v>1</v>
       </c>
       <c r="GP4">
-        <v>0.9748609615197503</v>
+        <v>1</v>
       </c>
       <c r="GQ4">
-        <v>0.9748609615197503</v>
+        <v>1</v>
       </c>
       <c r="GR4">
-        <v>0.977813042050179</v>
+        <v>1</v>
       </c>
       <c r="GS4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="GT4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="GU4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="GV4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="GW4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="GX4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="GY4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="GZ4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HA4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HB4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HC4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HD4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HE4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HF4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HG4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HH4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HI4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HJ4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HK4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HL4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HM4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HN4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HO4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HP4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HQ4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HR4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HS4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HT4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HU4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HV4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HW4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HX4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HY4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HZ4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IA4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IB4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IC4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="ID4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IE4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IF4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IG4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IH4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="II4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IJ4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IK4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IL4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IM4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IN4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IO4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IP4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IQ4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IR4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IS4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IT4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IU4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IV4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IW4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:257">
@@ -8964,772 +8964,772 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>3.361653693854786E-05</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>5.303180740205709E-05</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>5.303180740205709E-05</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>5.303180740205709E-05</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>5.303180740205709E-05</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>5.303180740205709E-05</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>5.913720979880723E-05</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>5.913720979880723E-05</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>5.913720979880723E-05</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>5.913720979880723E-05</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>5.913720979880723E-05</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>5.913720979880723E-05</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>5.913720979880723E-05</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.0001262179646656269</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.0001262179646656269</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.0001262179646656269</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.0001432417364411399</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.0001432417364411399</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.0001432417364411399</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.0001432417364411399</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.0001432417364411399</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.0001432417364411399</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.0001432417364411399</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.0001432417364411399</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.0001432417364411399</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.0001432417364411399</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.0001432417364411399</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.0001432417364411399</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.0001432417364411399</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.0001462849792195513</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.0001462849792195513</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.0001462849792195513</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.0001462849792195513</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.0001717243968188766</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0.0001717243968188766</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>0.0001717243968188766</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>0.0001717243968188766</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>0.0001717243968188766</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>0.0001717243968188766</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>0.0001717243968188766</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.0001717243968188766</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>0.0001717243968188766</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>0.0001717243968188766</v>
+        <v>0</v>
       </c>
       <c r="AS5">
-        <v>0.0001717243968188766</v>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <v>0.0001717243968188766</v>
+        <v>0</v>
       </c>
       <c r="AU5">
-        <v>0.0002487015298159879</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>0.0004147052076620876</v>
+        <v>0</v>
       </c>
       <c r="AW5">
-        <v>0.0004147052076620876</v>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <v>0.0004147052076620876</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>0.0004147052076620876</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
-        <v>0.0004147052076620876</v>
+        <v>0</v>
       </c>
       <c r="BA5">
-        <v>0.0004147052076620876</v>
+        <v>0</v>
       </c>
       <c r="BB5">
-        <v>0.0004147052076620876</v>
+        <v>0</v>
       </c>
       <c r="BC5">
-        <v>0.0004147052076620876</v>
+        <v>0</v>
       </c>
       <c r="BD5">
-        <v>0.0004147052076620876</v>
+        <v>0</v>
       </c>
       <c r="BE5">
-        <v>0.0004147052076620876</v>
+        <v>0</v>
       </c>
       <c r="BF5">
-        <v>0.0004147052076620876</v>
+        <v>0</v>
       </c>
       <c r="BG5">
-        <v>0.0004147052076620876</v>
+        <v>0</v>
       </c>
       <c r="BH5">
-        <v>0.0004147052076620876</v>
+        <v>0</v>
       </c>
       <c r="BI5">
-        <v>0.0004147052076620876</v>
+        <v>0</v>
       </c>
       <c r="BJ5">
-        <v>0.0004147052076620876</v>
+        <v>0</v>
       </c>
       <c r="BK5">
-        <v>0.0004889725059028767</v>
+        <v>0</v>
       </c>
       <c r="BL5">
-        <v>0.0004889725059028767</v>
+        <v>0</v>
       </c>
       <c r="BM5">
-        <v>0.0004889725059028767</v>
+        <v>0</v>
       </c>
       <c r="BN5">
-        <v>0.0005664133424244055</v>
+        <v>0</v>
       </c>
       <c r="BO5">
-        <v>0.0005759953729149521</v>
+        <v>0</v>
       </c>
       <c r="BP5">
-        <v>0.0006338252496467648</v>
+        <v>0</v>
       </c>
       <c r="BQ5">
-        <v>0.0008268239347690264</v>
+        <v>0</v>
       </c>
       <c r="BR5">
-        <v>0.0008268239347690264</v>
+        <v>0</v>
       </c>
       <c r="BS5">
-        <v>0.0008268239347690264</v>
+        <v>0</v>
       </c>
       <c r="BT5">
-        <v>0.0008956980778321585</v>
+        <v>0</v>
       </c>
       <c r="BU5">
-        <v>0.001008414309484924</v>
+        <v>0</v>
       </c>
       <c r="BV5">
-        <v>0.001008414309484924</v>
+        <v>0</v>
       </c>
       <c r="BW5">
-        <v>0.001008414309484924</v>
+        <v>0</v>
       </c>
       <c r="BX5">
-        <v>0.001008414309484924</v>
+        <v>0</v>
       </c>
       <c r="BY5">
-        <v>0.001008414309484924</v>
+        <v>0</v>
       </c>
       <c r="BZ5">
-        <v>0.001008414309484924</v>
+        <v>0</v>
       </c>
       <c r="CA5">
-        <v>0.001008414309484924</v>
+        <v>0</v>
       </c>
       <c r="CB5">
-        <v>0.001259066775552684</v>
+        <v>0</v>
       </c>
       <c r="CC5">
-        <v>0.001562149165415861</v>
+        <v>0</v>
       </c>
       <c r="CD5">
-        <v>0.001562149165415861</v>
+        <v>0</v>
       </c>
       <c r="CE5">
-        <v>0.001681206762692523</v>
+        <v>0</v>
       </c>
       <c r="CF5">
-        <v>0.001887514382855835</v>
+        <v>0</v>
       </c>
       <c r="CG5">
-        <v>0.002260104337708358</v>
+        <v>0</v>
       </c>
       <c r="CH5">
-        <v>0.002487414141017966</v>
+        <v>0</v>
       </c>
       <c r="CI5">
-        <v>0.002684262162119224</v>
+        <v>0</v>
       </c>
       <c r="CJ5">
-        <v>0.002765803902958209</v>
+        <v>0</v>
       </c>
       <c r="CK5">
-        <v>0.002790830728386524</v>
+        <v>0</v>
       </c>
       <c r="CL5">
-        <v>0.002790830728386524</v>
+        <v>0</v>
       </c>
       <c r="CM5">
-        <v>0.002790830728386524</v>
+        <v>0</v>
       </c>
       <c r="CN5">
-        <v>0.01885238501432746</v>
+        <v>0</v>
       </c>
       <c r="CO5">
-        <v>0.1571661017711246</v>
+        <v>0.2705964083142793</v>
       </c>
       <c r="CP5">
-        <v>0.2685559980374591</v>
+        <v>0.4735636278458542</v>
       </c>
       <c r="CQ5">
-        <v>0.4907236778950484</v>
+        <v>0.9547904518075059</v>
       </c>
       <c r="CR5">
-        <v>0.4907236778950484</v>
+        <v>0.9547904518075059</v>
       </c>
       <c r="CS5">
-        <v>0.5198393240658723</v>
+        <v>0.9547904518075059</v>
       </c>
       <c r="CT5">
-        <v>0.5199875802003183</v>
+        <v>0.9547904518075059</v>
       </c>
       <c r="CU5">
-        <v>0.5270030613386376</v>
+        <v>0.9547904518075059</v>
       </c>
       <c r="CV5">
-        <v>0.5270030613386376</v>
+        <v>0.9547904518075059</v>
       </c>
       <c r="CW5">
-        <v>0.5271345293056793</v>
+        <v>0.9547904518075059</v>
       </c>
       <c r="CX5">
-        <v>0.5277368580271002</v>
+        <v>0.9547904518075059</v>
       </c>
       <c r="CY5">
-        <v>0.5349364291365163</v>
+        <v>0.9547904518075059</v>
       </c>
       <c r="CZ5">
-        <v>0.5482340588075787</v>
+        <v>0.9547904518075059</v>
       </c>
       <c r="DA5">
-        <v>0.5486012880170806</v>
+        <v>0.9547904518075059</v>
       </c>
       <c r="DB5">
-        <v>0.5486012880170806</v>
+        <v>0.9547904518075059</v>
       </c>
       <c r="DC5">
-        <v>0.5547652768718824</v>
+        <v>0.9547904518075059</v>
       </c>
       <c r="DD5">
-        <v>0.5723150984158814</v>
+        <v>0.9547904518075059</v>
       </c>
       <c r="DE5">
-        <v>0.6133896375652501</v>
+        <v>0.9811344999555447</v>
       </c>
       <c r="DF5">
-        <v>0.6159608824565095</v>
+        <v>0.9811344999555447</v>
       </c>
       <c r="DG5">
-        <v>0.6192387490370176</v>
+        <v>0.9811344999555447</v>
       </c>
       <c r="DH5">
-        <v>0.6192387490370176</v>
+        <v>0.9811344999555447</v>
       </c>
       <c r="DI5">
-        <v>0.6198759169384181</v>
+        <v>0.9811344999555447</v>
       </c>
       <c r="DJ5">
-        <v>0.6202226364998179</v>
+        <v>0.9811344999555447</v>
       </c>
       <c r="DK5">
-        <v>0.6225941441687168</v>
+        <v>0.9811344999555447</v>
       </c>
       <c r="DL5">
-        <v>0.6249151074767544</v>
+        <v>0.9811344999555447</v>
       </c>
       <c r="DM5">
-        <v>0.6293341880485608</v>
+        <v>0.9811344999555447</v>
       </c>
       <c r="DN5">
-        <v>0.6304989763493188</v>
+        <v>0.9811344999555447</v>
       </c>
       <c r="DO5">
-        <v>0.630879657123759</v>
+        <v>0.9811344999555447</v>
       </c>
       <c r="DP5">
-        <v>0.6315683827442184</v>
+        <v>0.9811344999555447</v>
       </c>
       <c r="DQ5">
-        <v>0.6357907310516298</v>
+        <v>0.9811344999555447</v>
       </c>
       <c r="DR5">
-        <v>0.6383785506832258</v>
+        <v>0.9811344999555447</v>
       </c>
       <c r="DS5">
-        <v>0.6762283140861809</v>
+        <v>0.9993783244442649</v>
       </c>
       <c r="DT5">
-        <v>0.7027826457634285</v>
+        <v>0.9993783244442649</v>
       </c>
       <c r="DU5">
-        <v>0.703667161343582</v>
+        <v>0.9993783244442649</v>
       </c>
       <c r="DV5">
-        <v>0.7122559404740461</v>
+        <v>0.9993783244442649</v>
       </c>
       <c r="DW5">
-        <v>0.7131097916003517</v>
+        <v>0.9993783244442649</v>
       </c>
       <c r="DX5">
-        <v>0.7439440106345531</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DY5">
-        <v>0.7464911622387448</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DZ5">
-        <v>0.7583594457379335</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EA5">
-        <v>0.7632379456056676</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EB5">
-        <v>0.7632379456056676</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EC5">
-        <v>0.7640807829273933</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ED5">
-        <v>0.7650375726270532</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EE5">
-        <v>0.765095402503785</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EF5">
-        <v>0.783007147796272</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EG5">
-        <v>0.7988932645404095</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EH5">
-        <v>0.7988932645404095</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EI5">
-        <v>0.8044756921138201</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EJ5">
-        <v>0.8044756921138201</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EK5">
-        <v>0.8155309000991489</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EL5">
-        <v>0.824766863797689</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EM5">
-        <v>0.824766863797689</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EN5">
-        <v>0.8253026091387173</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EO5">
-        <v>0.8259653403040638</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EP5">
-        <v>0.8261244977058348</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EQ5">
-        <v>0.8261244977058348</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ER5">
-        <v>0.8268225199021829</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ES5">
-        <v>0.8365990925381943</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ET5">
-        <v>0.8444498842183255</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EU5">
-        <v>0.8444880604006395</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EV5">
-        <v>0.8446430498945436</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EW5">
-        <v>0.8446430498945436</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EX5">
-        <v>0.8478653633040866</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EY5">
-        <v>0.8544601977987991</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EZ5">
-        <v>0.8559451820674837</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FA5">
-        <v>0.8566827117097843</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FB5">
-        <v>0.8570811409914093</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FC5">
-        <v>0.8587206916319654</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FD5">
-        <v>0.864788841008696</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FE5">
-        <v>0.8672437491799481</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FF5">
-        <v>0.8673153034444873</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FG5">
-        <v>0.8728955911080544</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FH5">
-        <v>0.8895752831287306</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FI5">
-        <v>0.8929177121149332</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FJ5">
-        <v>0.8929177121149332</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FK5">
-        <v>0.9085532027740486</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FL5">
-        <v>0.9320929078789754</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FM5">
-        <v>0.9328045835224179</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FN5">
-        <v>0.9329285742009203</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FO5">
-        <v>0.9339175184272446</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FP5">
-        <v>0.9344586494797509</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FQ5">
-        <v>0.9349890447385796</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FR5">
-        <v>0.9354641234663702</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FS5">
-        <v>0.9370081994316544</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FT5">
-        <v>0.9384305271278183</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FU5">
-        <v>0.9384305271278183</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FV5">
-        <v>0.9385938893483636</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FW5">
-        <v>0.9450614991231643</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FX5">
-        <v>0.9596371474238033</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FY5">
-        <v>0.9644524089621076</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FZ5">
-        <v>0.9646042717125589</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GA5">
-        <v>0.9646042717125589</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GB5">
-        <v>0.9646165731336296</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GC5">
-        <v>0.9647225181926504</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GD5">
-        <v>0.9651382642263767</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GE5">
-        <v>0.967712524636222</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GF5">
-        <v>0.9697788611270208</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GG5">
-        <v>0.9705329577071025</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GH5">
-        <v>0.9705329577071025</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GI5">
-        <v>0.9705329577071025</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GJ5">
-        <v>0.9705329577071025</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GK5">
-        <v>0.9707123240048535</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GL5">
-        <v>0.9718384624845874</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GM5">
-        <v>0.974911591850237</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GN5">
-        <v>0.9757225744438889</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GO5">
-        <v>0.9775171948800783</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GP5">
-        <v>0.9818489514226292</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GQ5">
-        <v>0.9863798469232533</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GR5">
-        <v>0.9863798469232533</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GS5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GT5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GU5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GV5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GW5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GX5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GY5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GZ5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HA5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HB5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HC5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HD5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HE5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HF5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HG5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HH5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HI5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HJ5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HK5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HL5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HM5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HN5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HO5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HP5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HQ5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HR5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HS5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HT5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HU5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HV5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HW5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HX5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HY5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HZ5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IA5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IB5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IC5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ID5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IE5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IF5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IG5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IH5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="II5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IJ5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IK5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IL5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IM5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IN5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IO5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IP5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IQ5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IR5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IS5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IT5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IU5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IV5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IW5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:257">
@@ -9737,772 +9737,772 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>0.0007898612425459823</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0.002182611762531553</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0.003178237996050202</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.003518197130217572</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.003627234416312454</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.004142777350095222</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.004782297066437765</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.004792064340187835</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.004792064340187835</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.004792064340187835</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.004792064340187835</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.004797000475477628</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.005043934559198153</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.005553684371142715</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.006335643993243205</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.007017785531984119</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.007790339523622689</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.008825860373277669</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.01018891098918838</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.01116221390396569</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.01174632690243649</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.01213262853444031</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.01231667493989156</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.01256539436723607</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.01258831520264016</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.01258831520264016</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.01269642594599164</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.01269642594599164</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.01280453668934311</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.01344838307826045</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.01417407633559978</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.01479470732515068</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.01589898596171571</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.01671749029042782</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0.01762664524900247</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>0.01884008440354948</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>0.01971921348983182</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>0.01994125953320671</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>0.02045443792330332</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>0.02061184448954428</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.02062851251453484</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>0.02062851251453484</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>0.02062851251453484</v>
+        <v>0</v>
       </c>
       <c r="AS6">
-        <v>0.02084806496220352</v>
+        <v>0</v>
       </c>
       <c r="AT6">
-        <v>0.02106080370580422</v>
+        <v>0</v>
       </c>
       <c r="AU6">
-        <v>0.02106080370580422</v>
+        <v>0</v>
       </c>
       <c r="AV6">
-        <v>0.02111363995328885</v>
+        <v>0</v>
       </c>
       <c r="AW6">
-        <v>0.0217632514744032</v>
+        <v>0</v>
       </c>
       <c r="AX6">
-        <v>0.0230203192018438</v>
+        <v>0</v>
       </c>
       <c r="AY6">
-        <v>0.02342290120332706</v>
+        <v>0</v>
       </c>
       <c r="AZ6">
-        <v>0.02387966160961203</v>
+        <v>0</v>
       </c>
       <c r="BA6">
-        <v>0.02472788552484515</v>
+        <v>0</v>
       </c>
       <c r="BB6">
-        <v>0.02531366220475596</v>
+        <v>0</v>
       </c>
       <c r="BC6">
-        <v>0.02549341463638293</v>
+        <v>0</v>
       </c>
       <c r="BD6">
-        <v>0.02561213103803174</v>
+        <v>0</v>
       </c>
       <c r="BE6">
-        <v>0.02613213148016288</v>
+        <v>0</v>
       </c>
       <c r="BF6">
-        <v>0.02629244140597213</v>
+        <v>0</v>
       </c>
       <c r="BG6">
-        <v>0.02629244140597213</v>
+        <v>0</v>
       </c>
       <c r="BH6">
-        <v>0.02629244140597213</v>
+        <v>0</v>
       </c>
       <c r="BI6">
-        <v>0.02629244140597213</v>
+        <v>0</v>
       </c>
       <c r="BJ6">
-        <v>0.02629244140597213</v>
+        <v>0</v>
       </c>
       <c r="BK6">
-        <v>0.02637067066933175</v>
+        <v>0</v>
       </c>
       <c r="BL6">
-        <v>0.02655275937979601</v>
+        <v>0</v>
       </c>
       <c r="BM6">
-        <v>0.02691847150149463</v>
+        <v>0</v>
       </c>
       <c r="BN6">
-        <v>0.02764599111859639</v>
+        <v>0</v>
       </c>
       <c r="BO6">
-        <v>0.0280785163281367</v>
+        <v>0</v>
       </c>
       <c r="BP6">
-        <v>0.02832210623072958</v>
+        <v>0</v>
       </c>
       <c r="BQ6">
-        <v>0.02891151678353501</v>
+        <v>0</v>
       </c>
       <c r="BR6">
-        <v>0.02944854361183837</v>
+        <v>0</v>
       </c>
       <c r="BS6">
-        <v>0.0298400262018529</v>
+        <v>0</v>
       </c>
       <c r="BT6">
-        <v>0.03021263566017812</v>
+        <v>0</v>
       </c>
       <c r="BU6">
-        <v>0.0304375529351719</v>
+        <v>0</v>
       </c>
       <c r="BV6">
-        <v>0.0304375529351719</v>
+        <v>0</v>
       </c>
       <c r="BW6">
-        <v>0.0304375529351719</v>
+        <v>0</v>
       </c>
       <c r="BX6">
-        <v>0.0304375529351719</v>
+        <v>0</v>
       </c>
       <c r="BY6">
-        <v>0.0304375529351719</v>
+        <v>0</v>
       </c>
       <c r="BZ6">
-        <v>0.03050547535462639</v>
+        <v>0</v>
       </c>
       <c r="CA6">
-        <v>0.03060021491839256</v>
+        <v>0</v>
       </c>
       <c r="CB6">
-        <v>0.03078426132384381</v>
+        <v>0</v>
       </c>
       <c r="CC6">
-        <v>0.03088124750989815</v>
+        <v>0</v>
       </c>
       <c r="CD6">
-        <v>0.03089294051377186</v>
+        <v>0</v>
       </c>
       <c r="CE6">
-        <v>0.03094978644553877</v>
+        <v>0</v>
       </c>
       <c r="CF6">
-        <v>0.03120750020035863</v>
+        <v>0</v>
       </c>
       <c r="CG6">
-        <v>0.03146220332576904</v>
+        <v>0</v>
       </c>
       <c r="CH6">
-        <v>0.03164088725844985</v>
+        <v>0</v>
       </c>
       <c r="CI6">
-        <v>0.03173562682221602</v>
+        <v>0</v>
       </c>
       <c r="CJ6">
-        <v>0.03175498385056434</v>
+        <v>0</v>
       </c>
       <c r="CK6">
-        <v>0.03175498385056434</v>
+        <v>0</v>
       </c>
       <c r="CL6">
-        <v>0.03175498385056434</v>
+        <v>0</v>
       </c>
       <c r="CM6">
-        <v>0.03175498385056434</v>
+        <v>0</v>
       </c>
       <c r="CN6">
-        <v>0.1112994696858052</v>
+        <v>0.1430973937022947</v>
       </c>
       <c r="CO6">
-        <v>0.143267840241183</v>
+        <v>0.1474579978622705</v>
       </c>
       <c r="CP6">
-        <v>0.3347450579896274</v>
+        <v>0.6169626187832986</v>
       </c>
       <c r="CQ6">
-        <v>0.490026950383158</v>
+        <v>0.9809179907452408</v>
       </c>
       <c r="CR6">
-        <v>0.4983028735073745</v>
+        <v>0.9809179907452408</v>
       </c>
       <c r="CS6">
-        <v>0.5199583618970867</v>
+        <v>0.9809179907452408</v>
       </c>
       <c r="CT6">
-        <v>0.5297911889361294</v>
+        <v>0.9809179907452408</v>
       </c>
       <c r="CU6">
-        <v>0.5313837933426943</v>
+        <v>0.9809179907452408</v>
       </c>
       <c r="CV6">
-        <v>0.5340967421544639</v>
+        <v>0.9809179907452408</v>
       </c>
       <c r="CW6">
-        <v>0.5340983750126428</v>
+        <v>0.9809179907452408</v>
       </c>
       <c r="CX6">
-        <v>0.534101653245854</v>
+        <v>0.9809179907452408</v>
       </c>
       <c r="CY6">
-        <v>0.5524216213958</v>
+        <v>0.9809179907452408</v>
       </c>
       <c r="CZ6">
-        <v>0.5628814204745463</v>
+        <v>0.9809179907452408</v>
       </c>
       <c r="DA6">
-        <v>0.5630495298270127</v>
+        <v>0.9809179907452408</v>
       </c>
       <c r="DB6">
-        <v>0.5654237602529955</v>
+        <v>0.9809179907452408</v>
       </c>
       <c r="DC6">
-        <v>0.5672895850425403</v>
+        <v>0.9809179907452408</v>
       </c>
       <c r="DD6">
-        <v>0.5960560670379891</v>
+        <v>0.9809179907452408</v>
       </c>
       <c r="DE6">
-        <v>0.6273778198018714</v>
+        <v>0.9833929916792002</v>
       </c>
       <c r="DF6">
-        <v>0.6274124814967083</v>
+        <v>0.9833929916792002</v>
       </c>
       <c r="DG6">
-        <v>0.632012964560919</v>
+        <v>0.9833929916792002</v>
       </c>
       <c r="DH6">
-        <v>0.6321617160492212</v>
+        <v>0.9833929916792002</v>
       </c>
       <c r="DI6">
-        <v>0.6337413007877688</v>
+        <v>0.9833929916792002</v>
       </c>
       <c r="DJ6">
-        <v>0.6340559966104253</v>
+        <v>0.9833929916792002</v>
       </c>
       <c r="DK6">
-        <v>0.6451698573389911</v>
+        <v>0.9833929916792002</v>
       </c>
       <c r="DL6">
-        <v>0.6451889879733408</v>
+        <v>0.9833929916792002</v>
       </c>
       <c r="DM6">
-        <v>0.6566691175177942</v>
+        <v>0.9833929916792002</v>
       </c>
       <c r="DN6">
-        <v>0.6566691175177942</v>
+        <v>0.9833929916792002</v>
       </c>
       <c r="DO6">
-        <v>0.6576393032468223</v>
+        <v>0.9833929916792002</v>
       </c>
       <c r="DP6">
-        <v>0.6613647889483535</v>
+        <v>0.9833929916792002</v>
       </c>
       <c r="DQ6">
-        <v>0.6662302701071777</v>
+        <v>0.9833929916792002</v>
       </c>
       <c r="DR6">
-        <v>0.6720984378610274</v>
+        <v>0.9833929916792002</v>
       </c>
       <c r="DS6">
-        <v>0.7082663890614613</v>
+        <v>1</v>
       </c>
       <c r="DT6">
-        <v>0.7156707430953639</v>
+        <v>1</v>
       </c>
       <c r="DU6">
-        <v>0.7209879515807269</v>
+        <v>1</v>
       </c>
       <c r="DV6">
-        <v>0.7307797961178344</v>
+        <v>1</v>
       </c>
       <c r="DW6">
-        <v>0.7328517306724281</v>
+        <v>1</v>
       </c>
       <c r="DX6">
-        <v>0.7591848660403636</v>
+        <v>1</v>
       </c>
       <c r="DY6">
-        <v>0.7591848660403636</v>
+        <v>1</v>
       </c>
       <c r="DZ6">
-        <v>0.7743305499808023</v>
+        <v>1</v>
       </c>
       <c r="EA6">
-        <v>0.7766990457920627</v>
+        <v>1</v>
       </c>
       <c r="EB6">
-        <v>0.7767206636006059</v>
+        <v>1</v>
       </c>
       <c r="EC6">
-        <v>0.7773064402805167</v>
+        <v>1</v>
       </c>
       <c r="ED6">
-        <v>0.7821132624495165</v>
+        <v>1</v>
       </c>
       <c r="EE6">
-        <v>0.7847832863027157</v>
+        <v>1</v>
       </c>
       <c r="EF6">
-        <v>0.8040358344373182</v>
+        <v>1</v>
       </c>
       <c r="EG6">
-        <v>0.8081077766513293</v>
+        <v>1</v>
       </c>
       <c r="EH6">
-        <v>0.8127017470784902</v>
+        <v>1</v>
       </c>
       <c r="EI6">
-        <v>0.8151155427887422</v>
+        <v>1</v>
       </c>
       <c r="EJ6">
-        <v>0.8171835789754671</v>
+        <v>1</v>
       </c>
       <c r="EK6">
-        <v>0.8271493873887724</v>
+        <v>1</v>
       </c>
       <c r="EL6">
-        <v>0.8287616153266566</v>
+        <v>1</v>
       </c>
       <c r="EM6">
-        <v>0.8292388266608864</v>
+        <v>1</v>
       </c>
       <c r="EN6">
-        <v>0.8292388266608864</v>
+        <v>1</v>
       </c>
       <c r="EO6">
-        <v>0.8293164726776115</v>
+        <v>1</v>
       </c>
       <c r="EP6">
-        <v>0.8293164726776115</v>
+        <v>1</v>
       </c>
       <c r="EQ6">
-        <v>0.8293164726776115</v>
+        <v>1</v>
       </c>
       <c r="ER6">
-        <v>0.8308465784374566</v>
+        <v>1</v>
       </c>
       <c r="ES6">
-        <v>0.8400877588918052</v>
+        <v>1</v>
       </c>
       <c r="ET6">
-        <v>0.8456994011764758</v>
+        <v>1</v>
       </c>
       <c r="EU6">
-        <v>0.8456994011764758</v>
+        <v>1</v>
       </c>
       <c r="EV6">
-        <v>0.8460664887556218</v>
+        <v>1</v>
       </c>
       <c r="EW6">
-        <v>0.8460664887556218</v>
+        <v>1</v>
       </c>
       <c r="EX6">
-        <v>0.8471802994652923</v>
+        <v>1</v>
       </c>
       <c r="EY6">
-        <v>0.8538309897021222</v>
+        <v>1</v>
       </c>
       <c r="EZ6">
-        <v>0.8540107421337492</v>
+        <v>1</v>
       </c>
       <c r="FA6">
-        <v>0.8567800329923942</v>
+        <v>1</v>
       </c>
       <c r="FB6">
-        <v>0.8586407449327349</v>
+        <v>1</v>
       </c>
       <c r="FC6">
-        <v>0.8605760409086751</v>
+        <v>1</v>
       </c>
       <c r="FD6">
-        <v>0.8640069398158098</v>
+        <v>1</v>
       </c>
       <c r="FE6">
-        <v>0.8649544051115953</v>
+        <v>1</v>
       </c>
       <c r="FF6">
-        <v>0.8654144432720262</v>
+        <v>1</v>
       </c>
       <c r="FG6">
-        <v>0.8741466515698144</v>
+        <v>1</v>
       </c>
       <c r="FH6">
-        <v>0.8841029337199544</v>
+        <v>1</v>
       </c>
       <c r="FI6">
-        <v>0.8842382365831892</v>
+        <v>1</v>
       </c>
       <c r="FJ6">
-        <v>0.8842382365831892</v>
+        <v>1</v>
       </c>
       <c r="FK6">
-        <v>0.903153144636499</v>
+        <v>1</v>
       </c>
       <c r="FL6">
-        <v>0.9130555186969445</v>
+        <v>1</v>
       </c>
       <c r="FM6">
-        <v>0.9132106916572016</v>
+        <v>1</v>
       </c>
       <c r="FN6">
-        <v>0.9132883376739267</v>
+        <v>1</v>
       </c>
       <c r="FO6">
-        <v>0.9139850814675927</v>
+        <v>1</v>
       </c>
       <c r="FP6">
-        <v>0.9140488588923182</v>
+        <v>1</v>
       </c>
       <c r="FQ6">
-        <v>0.9161252269408413</v>
+        <v>1</v>
       </c>
       <c r="FR6">
-        <v>0.9179076235389731</v>
+        <v>1</v>
       </c>
       <c r="FS6">
-        <v>0.9195922868539129</v>
+        <v>1</v>
       </c>
       <c r="FT6">
-        <v>0.9208905597976587</v>
+        <v>1</v>
       </c>
       <c r="FU6">
-        <v>0.921152509508445</v>
+        <v>1</v>
       </c>
       <c r="FV6">
-        <v>0.9226634679482002</v>
+        <v>1</v>
       </c>
       <c r="FW6">
-        <v>0.9325362220167291</v>
+        <v>1</v>
       </c>
       <c r="FX6">
-        <v>0.943727333543394</v>
+        <v>1</v>
       </c>
       <c r="FY6">
-        <v>0.9447027169263659</v>
+        <v>1</v>
       </c>
       <c r="FZ6">
-        <v>0.9447027169263659</v>
+        <v>1</v>
       </c>
       <c r="GA6">
-        <v>0.9449316749841107</v>
+        <v>1</v>
       </c>
       <c r="GB6">
-        <v>0.9456392147269012</v>
+        <v>1</v>
       </c>
       <c r="GC6">
-        <v>0.9461964596778308</v>
+        <v>1</v>
       </c>
       <c r="GD6">
-        <v>0.9495886107694591</v>
+        <v>1</v>
       </c>
       <c r="GE6">
-        <v>0.9539900713800956</v>
+        <v>1</v>
       </c>
       <c r="GF6">
-        <v>0.9577096811936245</v>
+        <v>1</v>
       </c>
       <c r="GG6">
-        <v>0.9605558568241432</v>
+        <v>1</v>
       </c>
       <c r="GH6">
-        <v>0.9608125817883177</v>
+        <v>1</v>
       </c>
       <c r="GI6">
-        <v>0.9608125817883177</v>
+        <v>1</v>
       </c>
       <c r="GJ6">
-        <v>0.9608125817883177</v>
+        <v>1</v>
       </c>
       <c r="GK6">
-        <v>0.9612470473139891</v>
+        <v>1</v>
       </c>
       <c r="GL6">
-        <v>0.9635358940450404</v>
+        <v>1</v>
       </c>
       <c r="GM6">
-        <v>0.9641927957260813</v>
+        <v>1</v>
       </c>
       <c r="GN6">
-        <v>0.9691764546337582</v>
+        <v>1</v>
       </c>
       <c r="GO6">
-        <v>0.9700782014090796</v>
+        <v>1</v>
       </c>
       <c r="GP6">
-        <v>0.9750988724891089</v>
+        <v>1</v>
       </c>
       <c r="GQ6">
-        <v>0.9762916988935904</v>
+        <v>1</v>
       </c>
       <c r="GR6">
-        <v>0.9803506390732619</v>
+        <v>1</v>
       </c>
       <c r="GS6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GT6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GU6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GV6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GW6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GX6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GY6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GZ6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HA6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HB6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HC6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HD6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HE6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HF6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HG6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HH6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HI6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HJ6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HK6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HL6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HM6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HN6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HO6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HP6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HQ6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HR6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HS6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HT6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HU6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HV6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HW6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HX6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HY6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HZ6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IA6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IB6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IC6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="ID6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IE6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IF6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IG6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IH6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="II6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IJ6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IK6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IL6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IM6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IN6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IO6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IP6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IQ6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IR6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IS6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IT6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IU6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IV6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IW6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -10570,16 +10570,16 @@
         <v>89</v>
       </c>
       <c r="D2">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="E2">
-        <v>0.03735412461868453</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5349279371522402</v>
+        <v>0.6666291670316702</v>
       </c>
       <c r="G2">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="H2">
         <v>21</v>
@@ -10611,16 +10611,16 @@
         <v>89</v>
       </c>
       <c r="D3">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="E3">
-        <v>0.02561695464924252</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.502140102621711</v>
+        <v>0.6887971123663267</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="H3">
         <v>21</v>
@@ -10652,16 +10652,16 @@
         <v>90</v>
       </c>
       <c r="D4">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E4">
-        <v>0.007205895808171563</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5380885086632909</v>
+        <v>0.9622966453871677</v>
       </c>
       <c r="G4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H4">
         <v>21</v>
@@ -10693,16 +10693,16 @@
         <v>90</v>
       </c>
       <c r="D5">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E5">
-        <v>0.002790830728386524</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5198393240658723</v>
+        <v>0.9547904518075059</v>
       </c>
       <c r="G5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H5">
         <v>21</v>
@@ -10734,16 +10734,16 @@
         <v>89</v>
       </c>
       <c r="D6">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E6">
-        <v>0.03175498385056434</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5199583618970867</v>
+        <v>0.6169626187832986</v>
       </c>
       <c r="G6">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H6">
         <v>21</v>
@@ -10829,16 +10829,16 @@
         <v>89</v>
       </c>
       <c r="D2">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="E2">
-        <v>0.03735412461868453</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7174606731752531</v>
+        <v>0.8008429768291401</v>
       </c>
       <c r="G2">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="H2">
         <v>21</v>
@@ -10870,16 +10870,16 @@
         <v>89</v>
       </c>
       <c r="D3">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="E3">
-        <v>0.02561695464924252</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7003260677277003</v>
+        <v>0.8099153327540224</v>
       </c>
       <c r="G3">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="H3">
         <v>21</v>
@@ -10911,16 +10911,16 @@
         <v>90</v>
       </c>
       <c r="D4">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="E4">
-        <v>0.007205895808171563</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7041796558468902</v>
+        <v>0.9622966453871677</v>
       </c>
       <c r="G4">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="H4">
         <v>21</v>
@@ -10952,16 +10952,16 @@
         <v>90</v>
       </c>
       <c r="D5">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="E5">
-        <v>0.002790830728386524</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7027826457634285</v>
+        <v>0.9547904518075059</v>
       </c>
       <c r="G5">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="H5">
         <v>21</v>
@@ -10993,16 +10993,16 @@
         <v>89</v>
       </c>
       <c r="D6">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="E6">
-        <v>0.03175498385056434</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7082663890614613</v>
+        <v>0.9809179907452408</v>
       </c>
       <c r="G6">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="H6">
         <v>21</v>
@@ -11088,16 +11088,16 @@
         <v>89</v>
       </c>
       <c r="D2">
-        <v>157</v>
+        <v>94</v>
       </c>
       <c r="E2">
-        <v>0.03735412461868453</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8015174507271919</v>
+        <v>0.8008429768291401</v>
       </c>
       <c r="G2">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="H2">
         <v>21</v>
@@ -11129,16 +11129,16 @@
         <v>89</v>
       </c>
       <c r="D3">
-        <v>135</v>
+        <v>94</v>
       </c>
       <c r="E3">
-        <v>0.02561695464924252</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8030458294247248</v>
+        <v>0.8099153327540224</v>
       </c>
       <c r="G3">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="H3">
         <v>21</v>
@@ -11170,16 +11170,16 @@
         <v>90</v>
       </c>
       <c r="D4">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="E4">
-        <v>0.007205895808171563</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8006000621600249</v>
+        <v>0.9622966453871677</v>
       </c>
       <c r="G4">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="H4">
         <v>21</v>
@@ -11211,16 +11211,16 @@
         <v>90</v>
       </c>
       <c r="D5">
-        <v>138</v>
+        <v>94</v>
       </c>
       <c r="E5">
-        <v>0.002790830728386524</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8044756921138201</v>
+        <v>0.9547904518075059</v>
       </c>
       <c r="G5">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="H5">
         <v>21</v>
@@ -11252,16 +11252,16 @@
         <v>89</v>
       </c>
       <c r="D6">
-        <v>135</v>
+        <v>94</v>
       </c>
       <c r="E6">
-        <v>0.03175498385056434</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8040358344373182</v>
+        <v>0.9809179907452408</v>
       </c>
       <c r="G6">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="H6">
         <v>21</v>
@@ -11347,16 +11347,16 @@
         <v>89</v>
       </c>
       <c r="D2">
-        <v>179</v>
+        <v>102</v>
       </c>
       <c r="E2">
-        <v>0.03735412461868453</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9167444452436301</v>
+        <v>0.9501208910899221</v>
       </c>
       <c r="G2">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="H2">
         <v>21</v>
@@ -11388,16 +11388,16 @@
         <v>89</v>
       </c>
       <c r="D3">
-        <v>163</v>
+        <v>108</v>
       </c>
       <c r="E3">
-        <v>0.02561695464924252</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.905388877325518</v>
+        <v>0.9332698267885797</v>
       </c>
       <c r="G3">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="H3">
         <v>21</v>
@@ -11429,16 +11429,16 @@
         <v>90</v>
       </c>
       <c r="D4">
-        <v>166</v>
+        <v>94</v>
       </c>
       <c r="E4">
-        <v>0.007205895808171563</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.902931982900257</v>
+        <v>0.9622966453871677</v>
       </c>
       <c r="G4">
-        <v>76</v>
+        <v>4</v>
       </c>
       <c r="H4">
         <v>21</v>
@@ -11470,16 +11470,16 @@
         <v>90</v>
       </c>
       <c r="D5">
-        <v>166</v>
+        <v>94</v>
       </c>
       <c r="E5">
-        <v>0.002790830728386524</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9085532027740486</v>
+        <v>0.9547904518075059</v>
       </c>
       <c r="G5">
-        <v>76</v>
+        <v>4</v>
       </c>
       <c r="H5">
         <v>21</v>
@@ -11511,16 +11511,16 @@
         <v>89</v>
       </c>
       <c r="D6">
-        <v>166</v>
+        <v>94</v>
       </c>
       <c r="E6">
-        <v>0.03175498385056434</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.903153144636499</v>
+        <v>0.9809179907452408</v>
       </c>
       <c r="G6">
-        <v>77</v>
+        <v>5</v>
       </c>
       <c r="H6">
         <v>21</v>

--- a/on_trucks/Processed_Stand_Alone/21_11R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/21_11R22.xlsx
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1567929468403226</v>
+        <v>0.1394125610291484</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.448588309993288</v>
+        <v>0.3513066017617835</v>
       </c>
       <c r="G2">
-        <v>0.137578928790039</v>
+        <v>0.1254598515707391</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -686,40 +686,40 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.00622274245005794</v>
+        <v>0.0300724787281603</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.01847361026986566</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.007290732174072548</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.1500713960207839</v>
+        <v>0.1345315493922528</v>
       </c>
       <c r="P2">
-        <v>0.03580477118596933</v>
+        <v>0.05155416210444903</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>0.01016696765940623</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.006832566738613331</v>
       </c>
       <c r="T2">
-        <v>0.006827274989317738</v>
+        <v>0.03051147419784146</v>
       </c>
       <c r="U2">
-        <v>0.05811362973022156</v>
+        <v>0.06775426251041856</v>
       </c>
       <c r="V2">
         <v>0</v>
@@ -752,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>0.0052268959931728</v>
       </c>
       <c r="AG2">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>0.02140628587007671</v>
       </c>
     </row>
     <row r="3" spans="1:35">
@@ -775,22 +775,22 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.2570452732525011</v>
+        <v>0.2230528271171323</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.01467447455852309</v>
       </c>
       <c r="F3">
-        <v>0.3803267757176271</v>
+        <v>0.3180285973369705</v>
       </c>
       <c r="G3">
-        <v>0.1277757240089228</v>
+        <v>0.1234638801958112</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.007870437627838098</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.003290327977106782</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -808,10 +808,10 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.06534498123729629</v>
+        <v>0.07536738752198818</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.01858482704631432</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -823,10 +823,10 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <v>0.03938168420404647</v>
+        <v>0.05536532651630817</v>
       </c>
       <c r="U3">
-        <v>0.07339432997521561</v>
+        <v>0.08156858624900915</v>
       </c>
       <c r="V3">
         <v>0</v>
@@ -850,7 +850,7 @@
         <v>0</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>0.005035748639735089</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>0</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>0.004966203497648527</v>
       </c>
       <c r="AI3">
-        <v>0.05673123160439067</v>
+        <v>0.06873137571561452</v>
       </c>
     </row>
     <row r="4" spans="1:35">
@@ -882,22 +882,22 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.01793053357807211</v>
       </c>
       <c r="E4">
-        <v>0.2207774265300132</v>
+        <v>0.1913214668559838</v>
       </c>
       <c r="F4">
-        <v>0.2271332392744123</v>
+        <v>0.1961249494970221</v>
       </c>
       <c r="G4">
-        <v>0.451560258538092</v>
+        <v>0.3657383938457505</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.03794675834807592</v>
+        <v>0.05314496981627796</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -915,10 +915,10 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.01881655585632886</v>
       </c>
       <c r="P4">
-        <v>0.0132743265813307</v>
+        <v>0.03449847998565762</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -927,13 +927,13 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>0.006895444680382039</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>0.01213941746729117</v>
       </c>
       <c r="U4">
-        <v>0.03840544890672415</v>
+        <v>0.05349163077447195</v>
       </c>
       <c r="V4">
         <v>0</v>
@@ -957,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>0.0108621898849717</v>
       </c>
       <c r="AD4">
         <v>0</v>
@@ -969,13 +969,13 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>0.006329992897913441</v>
       </c>
       <c r="AH4">
         <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.01090254182135171</v>
+        <v>0.03270597485987679</v>
       </c>
     </row>
     <row r="5" spans="1:35">
@@ -989,28 +989,28 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.0166222887523202</v>
       </c>
       <c r="E5">
-        <v>0.2574807748858288</v>
+        <v>0.2317556573435376</v>
       </c>
       <c r="F5">
-        <v>0.1987924749340035</v>
+        <v>0.1843764365560175</v>
       </c>
       <c r="G5">
-        <v>0.4402648838629278</v>
+        <v>0.3793177551174527</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.0194518100522401</v>
+        <v>0.03959424036719365</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.0007034522308447797</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.001027404746738711</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.01175846956979458</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -1037,10 +1037,10 @@
         <v>0</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>0.01924126858972292</v>
       </c>
       <c r="U5">
-        <v>0.04551969660887632</v>
+        <v>0.06063891458070322</v>
       </c>
       <c r="V5">
         <v>0</v>
@@ -1082,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.03849035965612339</v>
+        <v>0.05496411214567382</v>
       </c>
     </row>
     <row r="6" spans="1:35">
@@ -1096,25 +1096,25 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1431737589432985</v>
+        <v>0.1319855251659318</v>
       </c>
       <c r="E6">
-        <v>0.02821885386220876</v>
+        <v>0.04579184825827361</v>
       </c>
       <c r="F6">
-        <v>0.4136291438955774</v>
+        <v>0.3347741234607933</v>
       </c>
       <c r="G6">
-        <v>0.3261728611352575</v>
+        <v>0.2691990305626665</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.002868226877661598</v>
       </c>
       <c r="I6">
-        <v>0.003300543834312662</v>
+        <v>0.02710799338392731</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.005688870644421639</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1129,10 +1129,10 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.02106502934253471</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.006824756269014002</v>
       </c>
       <c r="Q6">
         <v>0</v>
@@ -1144,10 +1144,10 @@
         <v>0</v>
       </c>
       <c r="T6">
-        <v>0.02048235008669638</v>
+        <v>0.03999098481229016</v>
       </c>
       <c r="U6">
-        <v>0.02665647563086597</v>
+        <v>0.04462037041324453</v>
       </c>
       <c r="V6">
         <v>0</v>
@@ -1165,13 +1165,13 @@
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <v>0.008009720156683404</v>
       </c>
       <c r="AB6">
         <v>0</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>0.008673289592570717</v>
       </c>
       <c r="AD6">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.03836601261178303</v>
+        <v>0.05340023105998669</v>
       </c>
     </row>
   </sheetData>
@@ -1323,97 +1323,97 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1567929468403226</v>
+        <v>0.1394125610291484</v>
       </c>
       <c r="E2">
-        <v>0.1567929468403226</v>
+        <v>0.1394125610291484</v>
       </c>
       <c r="F2">
-        <v>0.6053812568336105</v>
+        <v>0.4907191627909319</v>
       </c>
       <c r="G2">
-        <v>0.7429601856236496</v>
+        <v>0.616179014361671</v>
       </c>
       <c r="H2">
-        <v>0.7429601856236496</v>
+        <v>0.616179014361671</v>
       </c>
       <c r="I2">
-        <v>0.7429601856236496</v>
+        <v>0.616179014361671</v>
       </c>
       <c r="J2">
-        <v>0.7491829280737076</v>
+        <v>0.6462514930898313</v>
       </c>
       <c r="K2">
-        <v>0.7491829280737076</v>
+        <v>0.6462514930898313</v>
       </c>
       <c r="L2">
-        <v>0.7491829280737076</v>
+        <v>0.6647251033596969</v>
       </c>
       <c r="M2">
-        <v>0.7491829280737076</v>
+        <v>0.6720158355337694</v>
       </c>
       <c r="N2">
-        <v>0.7491829280737076</v>
+        <v>0.6720158355337694</v>
       </c>
       <c r="O2">
-        <v>0.8992543240944915</v>
+        <v>0.8065473849260222</v>
       </c>
       <c r="P2">
-        <v>0.9350590952804608</v>
+        <v>0.8581015470304713</v>
       </c>
       <c r="Q2">
-        <v>0.9350590952804608</v>
+        <v>0.8581015470304713</v>
       </c>
       <c r="R2">
-        <v>0.9350590952804608</v>
+        <v>0.8682685146898775</v>
       </c>
       <c r="S2">
-        <v>0.9350590952804608</v>
+        <v>0.8751010814284909</v>
       </c>
       <c r="T2">
-        <v>0.9418863702697786</v>
+        <v>0.9056125556263324</v>
       </c>
       <c r="U2">
-        <v>1</v>
+        <v>0.973366818136751</v>
       </c>
       <c r="V2">
-        <v>1</v>
+        <v>0.973366818136751</v>
       </c>
       <c r="W2">
-        <v>1</v>
+        <v>0.973366818136751</v>
       </c>
       <c r="X2">
-        <v>1</v>
+        <v>0.973366818136751</v>
       </c>
       <c r="Y2">
-        <v>1</v>
+        <v>0.973366818136751</v>
       </c>
       <c r="Z2">
-        <v>1</v>
+        <v>0.973366818136751</v>
       </c>
       <c r="AA2">
-        <v>1</v>
+        <v>0.973366818136751</v>
       </c>
       <c r="AB2">
-        <v>1</v>
+        <v>0.973366818136751</v>
       </c>
       <c r="AC2">
-        <v>1</v>
+        <v>0.973366818136751</v>
       </c>
       <c r="AD2">
-        <v>1</v>
+        <v>0.973366818136751</v>
       </c>
       <c r="AE2">
-        <v>1</v>
+        <v>0.973366818136751</v>
       </c>
       <c r="AF2">
-        <v>1</v>
+        <v>0.9785937141299238</v>
       </c>
       <c r="AG2">
-        <v>1</v>
+        <v>0.9785937141299238</v>
       </c>
       <c r="AH2">
-        <v>1</v>
+        <v>0.9785937141299238</v>
       </c>
       <c r="AI2">
         <v>1</v>
@@ -1430,97 +1430,97 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.2570452732525011</v>
+        <v>0.2230528271171323</v>
       </c>
       <c r="E3">
-        <v>0.2570452732525011</v>
+        <v>0.2377273016756554</v>
       </c>
       <c r="F3">
-        <v>0.6373720489701282</v>
+        <v>0.5557558990126259</v>
       </c>
       <c r="G3">
-        <v>0.765147772979051</v>
+        <v>0.6792197792084371</v>
       </c>
       <c r="H3">
-        <v>0.765147772979051</v>
+        <v>0.6870902168362752</v>
       </c>
       <c r="I3">
-        <v>0.765147772979051</v>
+        <v>0.6903805448133821</v>
       </c>
       <c r="J3">
-        <v>0.765147772979051</v>
+        <v>0.6903805448133821</v>
       </c>
       <c r="K3">
-        <v>0.765147772979051</v>
+        <v>0.6903805448133821</v>
       </c>
       <c r="L3">
-        <v>0.765147772979051</v>
+        <v>0.6903805448133821</v>
       </c>
       <c r="M3">
-        <v>0.765147772979051</v>
+        <v>0.6903805448133821</v>
       </c>
       <c r="N3">
-        <v>0.765147772979051</v>
+        <v>0.6903805448133821</v>
       </c>
       <c r="O3">
-        <v>0.8304927542163473</v>
+        <v>0.7657479323353702</v>
       </c>
       <c r="P3">
-        <v>0.8304927542163473</v>
+        <v>0.7843327593816846</v>
       </c>
       <c r="Q3">
-        <v>0.8304927542163473</v>
+        <v>0.7843327593816846</v>
       </c>
       <c r="R3">
-        <v>0.8304927542163473</v>
+        <v>0.7843327593816846</v>
       </c>
       <c r="S3">
-        <v>0.8304927542163473</v>
+        <v>0.7843327593816846</v>
       </c>
       <c r="T3">
-        <v>0.8698744384203937</v>
+        <v>0.8396980858979928</v>
       </c>
       <c r="U3">
-        <v>0.9432687683956094</v>
+        <v>0.921266672147002</v>
       </c>
       <c r="V3">
-        <v>0.9432687683956094</v>
+        <v>0.921266672147002</v>
       </c>
       <c r="W3">
-        <v>0.9432687683956094</v>
+        <v>0.921266672147002</v>
       </c>
       <c r="X3">
-        <v>0.9432687683956094</v>
+        <v>0.921266672147002</v>
       </c>
       <c r="Y3">
-        <v>0.9432687683956094</v>
+        <v>0.921266672147002</v>
       </c>
       <c r="Z3">
-        <v>0.9432687683956094</v>
+        <v>0.921266672147002</v>
       </c>
       <c r="AA3">
-        <v>0.9432687683956094</v>
+        <v>0.921266672147002</v>
       </c>
       <c r="AB3">
-        <v>0.9432687683956094</v>
+        <v>0.921266672147002</v>
       </c>
       <c r="AC3">
-        <v>0.9432687683956094</v>
+        <v>0.9263024207867371</v>
       </c>
       <c r="AD3">
-        <v>0.9432687683956094</v>
+        <v>0.9263024207867371</v>
       </c>
       <c r="AE3">
-        <v>0.9432687683956094</v>
+        <v>0.9263024207867371</v>
       </c>
       <c r="AF3">
-        <v>0.9432687683956094</v>
+        <v>0.9263024207867371</v>
       </c>
       <c r="AG3">
-        <v>0.9432687683956094</v>
+        <v>0.9263024207867371</v>
       </c>
       <c r="AH3">
-        <v>0.9432687683956094</v>
+        <v>0.9312686242843856</v>
       </c>
       <c r="AI3">
         <v>1</v>
@@ -1537,100 +1537,100 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.01793053357807211</v>
       </c>
       <c r="E4">
-        <v>0.2207774265300132</v>
+        <v>0.2092520004340559</v>
       </c>
       <c r="F4">
-        <v>0.4479106658044255</v>
+        <v>0.405376949931078</v>
       </c>
       <c r="G4">
-        <v>0.8994709243425174</v>
+        <v>0.7711153437768284</v>
       </c>
       <c r="H4">
-        <v>0.8994709243425174</v>
+        <v>0.7711153437768284</v>
       </c>
       <c r="I4">
-        <v>0.9374176826905933</v>
+        <v>0.8242603135931064</v>
       </c>
       <c r="J4">
-        <v>0.9374176826905933</v>
+        <v>0.8242603135931064</v>
       </c>
       <c r="K4">
-        <v>0.9374176826905933</v>
+        <v>0.8242603135931064</v>
       </c>
       <c r="L4">
-        <v>0.9374176826905933</v>
+        <v>0.8242603135931064</v>
       </c>
       <c r="M4">
-        <v>0.9374176826905933</v>
+        <v>0.8242603135931064</v>
       </c>
       <c r="N4">
-        <v>0.9374176826905933</v>
+        <v>0.8242603135931064</v>
       </c>
       <c r="O4">
-        <v>0.9374176826905933</v>
+        <v>0.8430768694494353</v>
       </c>
       <c r="P4">
-        <v>0.950692009271924</v>
+        <v>0.8775753494350929</v>
       </c>
       <c r="Q4">
-        <v>0.950692009271924</v>
+        <v>0.8775753494350929</v>
       </c>
       <c r="R4">
-        <v>0.950692009271924</v>
+        <v>0.8775753494350929</v>
       </c>
       <c r="S4">
-        <v>0.950692009271924</v>
+        <v>0.8844707941154749</v>
       </c>
       <c r="T4">
-        <v>0.950692009271924</v>
+        <v>0.8966102115827661</v>
       </c>
       <c r="U4">
-        <v>0.9890974581786481</v>
+        <v>0.950101842357238</v>
       </c>
       <c r="V4">
-        <v>0.9890974581786481</v>
+        <v>0.950101842357238</v>
       </c>
       <c r="W4">
-        <v>0.9890974581786481</v>
+        <v>0.950101842357238</v>
       </c>
       <c r="X4">
-        <v>0.9890974581786481</v>
+        <v>0.950101842357238</v>
       </c>
       <c r="Y4">
-        <v>0.9890974581786481</v>
+        <v>0.950101842357238</v>
       </c>
       <c r="Z4">
-        <v>0.9890974581786481</v>
+        <v>0.950101842357238</v>
       </c>
       <c r="AA4">
-        <v>0.9890974581786481</v>
+        <v>0.950101842357238</v>
       </c>
       <c r="AB4">
-        <v>0.9890974581786481</v>
+        <v>0.950101842357238</v>
       </c>
       <c r="AC4">
-        <v>0.9890974581786481</v>
+        <v>0.9609640322422097</v>
       </c>
       <c r="AD4">
-        <v>0.9890974581786481</v>
+        <v>0.9609640322422097</v>
       </c>
       <c r="AE4">
-        <v>0.9890974581786481</v>
+        <v>0.9609640322422097</v>
       </c>
       <c r="AF4">
-        <v>0.9890974581786481</v>
+        <v>0.9609640322422097</v>
       </c>
       <c r="AG4">
-        <v>0.9890974581786481</v>
+        <v>0.9672940251401232</v>
       </c>
       <c r="AH4">
-        <v>0.9890974581786481</v>
+        <v>0.9672940251401232</v>
       </c>
       <c r="AI4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:35">
@@ -1644,100 +1644,100 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.0166222887523202</v>
       </c>
       <c r="E5">
-        <v>0.2574807748858288</v>
+        <v>0.2483779460958578</v>
       </c>
       <c r="F5">
-        <v>0.4562732498198323</v>
+        <v>0.4327543826518753</v>
       </c>
       <c r="G5">
-        <v>0.8965381336827601</v>
+        <v>0.8120721377693281</v>
       </c>
       <c r="H5">
-        <v>0.8965381336827601</v>
+        <v>0.8120721377693281</v>
       </c>
       <c r="I5">
-        <v>0.9159899437350002</v>
+        <v>0.8516663781365217</v>
       </c>
       <c r="J5">
-        <v>0.9159899437350002</v>
+        <v>0.8516663781365217</v>
       </c>
       <c r="K5">
-        <v>0.9159899437350002</v>
+        <v>0.8523698303673665</v>
       </c>
       <c r="L5">
-        <v>0.9159899437350002</v>
+        <v>0.8523698303673665</v>
       </c>
       <c r="M5">
-        <v>0.9159899437350002</v>
+        <v>0.8523698303673665</v>
       </c>
       <c r="N5">
-        <v>0.9159899437350002</v>
+        <v>0.8523698303673665</v>
       </c>
       <c r="O5">
-        <v>0.9159899437350002</v>
+        <v>0.8533972351141051</v>
       </c>
       <c r="P5">
-        <v>0.9159899437350002</v>
+        <v>0.8651557046838997</v>
       </c>
       <c r="Q5">
-        <v>0.9159899437350002</v>
+        <v>0.8651557046838997</v>
       </c>
       <c r="R5">
-        <v>0.9159899437350002</v>
+        <v>0.8651557046838997</v>
       </c>
       <c r="S5">
-        <v>0.9159899437350002</v>
+        <v>0.8651557046838997</v>
       </c>
       <c r="T5">
-        <v>0.9159899437350002</v>
+        <v>0.8843969732736227</v>
       </c>
       <c r="U5">
-        <v>0.9615096403438765</v>
+        <v>0.9450358878543259</v>
       </c>
       <c r="V5">
-        <v>0.9615096403438765</v>
+        <v>0.9450358878543259</v>
       </c>
       <c r="W5">
-        <v>0.9615096403438765</v>
+        <v>0.9450358878543259</v>
       </c>
       <c r="X5">
-        <v>0.9615096403438765</v>
+        <v>0.9450358878543259</v>
       </c>
       <c r="Y5">
-        <v>0.9615096403438765</v>
+        <v>0.9450358878543259</v>
       </c>
       <c r="Z5">
-        <v>0.9615096403438765</v>
+        <v>0.9450358878543259</v>
       </c>
       <c r="AA5">
-        <v>0.9615096403438765</v>
+        <v>0.9450358878543259</v>
       </c>
       <c r="AB5">
-        <v>0.9615096403438765</v>
+        <v>0.9450358878543259</v>
       </c>
       <c r="AC5">
-        <v>0.9615096403438765</v>
+        <v>0.9450358878543259</v>
       </c>
       <c r="AD5">
-        <v>0.9615096403438765</v>
+        <v>0.9450358878543259</v>
       </c>
       <c r="AE5">
-        <v>0.9615096403438765</v>
+        <v>0.9450358878543259</v>
       </c>
       <c r="AF5">
-        <v>0.9615096403438765</v>
+        <v>0.9450358878543259</v>
       </c>
       <c r="AG5">
-        <v>0.9615096403438765</v>
+        <v>0.9450358878543259</v>
       </c>
       <c r="AH5">
-        <v>0.9615096403438765</v>
+        <v>0.9450358878543259</v>
       </c>
       <c r="AI5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:35">
@@ -1751,97 +1751,97 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1431737589432985</v>
+        <v>0.1319855251659318</v>
       </c>
       <c r="E6">
-        <v>0.1713926128055072</v>
+        <v>0.1777773734242054</v>
       </c>
       <c r="F6">
-        <v>0.5850217567010846</v>
+        <v>0.5125514968849987</v>
       </c>
       <c r="G6">
-        <v>0.911194617836342</v>
+        <v>0.7817505274476652</v>
       </c>
       <c r="H6">
-        <v>0.911194617836342</v>
+        <v>0.7846187543253268</v>
       </c>
       <c r="I6">
-        <v>0.9144951616706547</v>
+        <v>0.8117267477092541</v>
       </c>
       <c r="J6">
-        <v>0.9144951616706547</v>
+        <v>0.8174156183536757</v>
       </c>
       <c r="K6">
-        <v>0.9144951616706547</v>
+        <v>0.8174156183536757</v>
       </c>
       <c r="L6">
-        <v>0.9144951616706547</v>
+        <v>0.8174156183536757</v>
       </c>
       <c r="M6">
-        <v>0.9144951616706547</v>
+        <v>0.8174156183536757</v>
       </c>
       <c r="N6">
-        <v>0.9144951616706547</v>
+        <v>0.8174156183536757</v>
       </c>
       <c r="O6">
-        <v>0.9144951616706547</v>
+        <v>0.8384806476962104</v>
       </c>
       <c r="P6">
-        <v>0.9144951616706547</v>
+        <v>0.8453054039652245</v>
       </c>
       <c r="Q6">
-        <v>0.9144951616706547</v>
+        <v>0.8453054039652245</v>
       </c>
       <c r="R6">
-        <v>0.9144951616706547</v>
+        <v>0.8453054039652245</v>
       </c>
       <c r="S6">
-        <v>0.9144951616706547</v>
+        <v>0.8453054039652245</v>
       </c>
       <c r="T6">
-        <v>0.9349775117573511</v>
+        <v>0.8852963887775146</v>
       </c>
       <c r="U6">
-        <v>0.961633987388217</v>
+        <v>0.9299167591907591</v>
       </c>
       <c r="V6">
-        <v>0.961633987388217</v>
+        <v>0.9299167591907591</v>
       </c>
       <c r="W6">
-        <v>0.961633987388217</v>
+        <v>0.9299167591907591</v>
       </c>
       <c r="X6">
-        <v>0.961633987388217</v>
+        <v>0.9299167591907591</v>
       </c>
       <c r="Y6">
-        <v>0.961633987388217</v>
+        <v>0.9299167591907591</v>
       </c>
       <c r="Z6">
-        <v>0.961633987388217</v>
+        <v>0.9299167591907591</v>
       </c>
       <c r="AA6">
-        <v>0.961633987388217</v>
+        <v>0.9379264793474426</v>
       </c>
       <c r="AB6">
-        <v>0.961633987388217</v>
+        <v>0.9379264793474426</v>
       </c>
       <c r="AC6">
-        <v>0.961633987388217</v>
+        <v>0.9465997689400133</v>
       </c>
       <c r="AD6">
-        <v>0.961633987388217</v>
+        <v>0.9465997689400133</v>
       </c>
       <c r="AE6">
-        <v>0.961633987388217</v>
+        <v>0.9465997689400133</v>
       </c>
       <c r="AF6">
-        <v>0.961633987388217</v>
+        <v>0.9465997689400133</v>
       </c>
       <c r="AG6">
-        <v>0.961633987388217</v>
+        <v>0.9465997689400133</v>
       </c>
       <c r="AH6">
-        <v>0.961633987388217</v>
+        <v>0.9465997689400133</v>
       </c>
       <c r="AI6">
         <v>1</v>
@@ -1912,16 +1912,16 @@
         <v>1</v>
       </c>
       <c r="D2">
+        <v>6</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0.616179014361671</v>
+      </c>
+      <c r="G2">
         <v>5</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0.6053812568336105</v>
-      </c>
-      <c r="G2">
-        <v>4</v>
       </c>
       <c r="H2">
         <v>21</v>
@@ -1959,7 +1959,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.6373720489701282</v>
+        <v>0.5557558990126259</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -2000,7 +2000,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8994709243425174</v>
+        <v>0.7711153437768284</v>
       </c>
       <c r="G4">
         <v>4</v>
@@ -2041,7 +2041,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8965381336827601</v>
+        <v>0.8120721377693281</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -2082,7 +2082,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5850217567010846</v>
+        <v>0.5125514968849987</v>
       </c>
       <c r="G6">
         <v>4</v>
@@ -2171,16 +2171,16 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7429601856236496</v>
+        <v>0.8065473849260222</v>
       </c>
       <c r="G2">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="H2">
         <v>21</v>
@@ -2212,16 +2212,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.765147772979051</v>
+        <v>0.7657479323353702</v>
       </c>
       <c r="G3">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="H3">
         <v>21</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8994709243425174</v>
+        <v>0.7711153437768284</v>
       </c>
       <c r="G4">
         <v>4</v>
@@ -2300,7 +2300,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8965381336827601</v>
+        <v>0.8120721377693281</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -2341,7 +2341,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.911194617836342</v>
+        <v>0.7817505274476652</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -2436,7 +2436,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8992543240944915</v>
+        <v>0.8065473849260222</v>
       </c>
       <c r="G2">
         <v>13</v>
@@ -2471,16 +2471,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8304927542163473</v>
+        <v>0.8396980858979928</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H3">
         <v>21</v>
@@ -2512,16 +2512,16 @@
         <v>2</v>
       </c>
       <c r="D4">
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0.8242603135931064</v>
+      </c>
+      <c r="G4">
         <v>6</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0.8994709243425174</v>
-      </c>
-      <c r="G4">
-        <v>4</v>
       </c>
       <c r="H4">
         <v>21</v>
@@ -2559,7 +2559,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8965381336827601</v>
+        <v>0.8120721377693281</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -2594,16 +2594,16 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.911194617836342</v>
+        <v>0.8117267477092541</v>
       </c>
       <c r="G6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H6">
         <v>21</v>
@@ -2689,16 +2689,16 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9350590952804608</v>
+        <v>0.9056125556263324</v>
       </c>
       <c r="G2">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H2">
         <v>21</v>
@@ -2736,7 +2736,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9432687683956094</v>
+        <v>0.921266672147002</v>
       </c>
       <c r="G3">
         <v>19</v>
@@ -2771,16 +2771,16 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9374176826905933</v>
+        <v>0.950101842357238</v>
       </c>
       <c r="G4">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="H4">
         <v>21</v>
@@ -2812,16 +2812,16 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9159899437350002</v>
+        <v>0.9450358878543259</v>
       </c>
       <c r="G5">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="H5">
         <v>21</v>
@@ -2853,16 +2853,16 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.911194617836342</v>
+        <v>0.9299167591907591</v>
       </c>
       <c r="G6">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="H6">
         <v>21</v>
